--- a/data/02_intermediate/cleaned_Menelik_songs.xlsx
+++ b/data/02_intermediate/cleaned_Menelik_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>- Lois Deffere, lois Jox, lois Pasqua ou Debre, une seule logique - La chasse à l'immigré. Et n'oublie pas tous les décrets et circulaires Nous ne pardonnerons jamais la barbarie de leurs lois inhumaines - Un état raciste ne peut que créer des lois racistes - Alors assez de l'anti-racisme folklorique et bon enfant dans l'euphorie des jours de fête - Régularisation immédiate de tous les immigrés sans papiers et de leurs familles - Abrogation de toutes les lois racistes régissant le séjour des immigrés en France - Nous revendiquons l'émancipation de tous les exploités de ce pays - Qu'ils soient Français ou immigrés. Et au fait, qu'est-ce que t'en penses toi ? Je ne veux pas faire de politique, ma mission est artistique Mais quand je vois tout le trafic, on ne peut pas rester pacifique Les lois qu'ils veulent mettre en application corroborent mon accusation Trop de mes semblables pètent les plombs pris dans le tourbillon de l'immigration Tout pays au monde expulse ses immigrés clandestins C'est vrai mais la France a une autre responsabilité entre les mains Les faits sont historiques, le peuple français a fait couler son sang Pour écrire noir sur blanc les bases d'une démocratie en Occident Que les dirigeants s'en souviennent, attends, je les illumine Droit d'asile pour les populations victimes De la misère du globe Combattre le racisme, le fascisme, le sexisme et toutes sortes de xénophobes Sans papiers, donc sans droits, sans droits donc écrasés par les lois La justice nique sa reumdava quand on voit ses desiderata Au grand jour Je reste lucide dans mon faubourg et garde un oeil sur les vautours You might also like Plus d'excuses, les gens savent très bien pour qui ils votent 52 de fils de putes à Vitrolles une fois pour toutes, c'est clair Idem pour ces ministres mielleux, fielleux Votant des lois pour séduire ce type d'électorat Rappelle-toi qui s'est battu pour la France Couteau entre les dents, rampant, et rien dans la panse Tu collaborais à l'époque, chien, un toutou docile Heureux de voir les Arabes débouler pour libérer ta ville. De Joxe à Debré, je traque les fafs en costard La gauche caviar, la droite de la droite au pouvoir Moyen Resistenza, effet Independenza Tous égaux devant les lois, dixit Sentenza Je suis comme un pionnier, je porte très haut le flambeau J'en place une pour les frères au préau Mes rêves d'autrefois disent au revoir Trop longtemps écrasé, étouffé, assoiffé, je rêve de REVO Je dévore Je tacle l'obstacle, enflamme les consciences qui s'évaporent Les porcs s'installent, s'étalent et tèjent le peuple sur une étroite bordure Tout le monde sait que leur coeur est creux et plein d'ordures Ne voyez-vous pas jusqu'aux pas de vos portes, je baise vos élites Je me sens plus fort, je prends des grades J'empoisonne avec le White Spirit la machine étatique Le rouleau compresseur qui est sans passions contre vos passions Je prends position, au micro je mets des coups de pressions Les bâtards veulent me pousser dans l'impasse que mon ombre perde ma trace Je reste dans la masse, l'arme efficace et je crame le système comme une charasse Ne pète pas plus haut que ton cul si t'es membre des moins costauds Mais dis-moi Mani tu déblatères, t'écrases tes frères comme des blattes à terre pour un drapeau Devant la lumière, sombre sabre reste sobre Pour l'octobre, dans les décombres Réfléchis, jamais ne fléchis, dans l'ombre dénombre tes soldats Qui ne tendent pas l'arme sur leurs tempes, n'est pas, y a pas J'casse trop, je reste fidèle à moi-même Trop de gens parlent, l'argent parle, les agents parlent Procréent trop d'infidèles s'opposant, m'imposant Pour Karl je reste fidèle Même au bout d'une corde, miséricorde, j'casse trop Moi, je fracasse est-ce une histoire de paperasse Ou de couleur de peau, l'odeur de soufre de Méphisto Les gens souffrent à cause des lois racistos Galérianos signale les bastos Les fréros poussés dans la Seine, trop de peine Mi-d'or devant Vincennes je prends position Car là où passent les bâtards c'est la désolation qu ils sèment Quoi que tu fasses, le melting pot français est ainsi fait Renoi, Céfran, Rabza, Spanish, Toss Portuguesh, Kung Fu, Macaroni Dans une cité ou pas. L'Etat nous dit zeubi, drôle de démocratie Ménélik, Soldafada sur la dalle, encaissent gauche, droite La tension extrême, l'issue bouchée, la porte trop étroite, direct Ils veulent nous manipuler comme des poupées Nous couper l'herbe sous le pied De façon à ce que les gens ne puissent plus respirer Nous sommes comme des parasites, surtout pas raciste, moi Donc, tes textes, tes lois, réécris-les c'est pas les bons j'crois Nakk sent que ça sent le roussi pour ceux qu'ont un accent Lois Debré ou de force et les droits de l'homme sont absents - C'est ça la France - Ici c'est dur d'entrer comme une forteresse Dire qu'un cousin m'a dit, Nakk, la France c'est fort je reste La marque de la bête, ici, en l'occurrence c'est l'étranger Danger, danger, pour ceux qui par ce fait sont blasés, blasés Celui que le facho appelle bicot prend le micro Pour démentir les faux propos, stopper le complot Je jette un il sur le passé, vous pensiez l'effacer Hélas l'histoire se répète, revient nous offenser, c'en est assez ! Ils jettent encore le discrédit sur mon ethnie Sur tout ce qui est physiquement différent Mais l'harbi monte au créneau, j'ai le droit de veto Je serai le bourreau, je ferai front quoi qu'il advienne Je ne mâcherai pas mes mots La réapparition des vieux démons d'un passé pesant Conforte l'idée que j'ai sur ce racisme latent, d'antan Datant du temps des premières crises dans Un pays qui dans un total désarroi prétend Encore une fois que nous sommes la cause de ce marasme Que c'est notre faute si la France est prise de crises d'asthme Mais qu'ils sachent que je serai toujours sur la brèche, bref Je combats le facho et tous ceux qui sont de mèche Vigipirate, carte de résident en danger, délation France aux Français. Guerre avec un grand G Qu'est-ce que tu veux que je fasse face à ces panneaux Qui sont tellement sales qu'ils me font penser à Brigitte Bardot Qu'est-ce qu'il y a ? T'es choqué quand je dis ça ? Ne bouge pas, j'ai pas fini, tu veux mon nom, c'est Befa L'impertinent, celui qui écrit une lettre au Président Que Skyrock, Fun et NRJ censurent impunément évidemment. Personne se sent concerné surtout que dans le pire des cas C'est mes enfants qui seront enfermés Donc fermez-la une fois pour toutes, mon téléphone est sur Écoute, pas de doute, je bosse pas pour les scouts de France Je balance une idée révolutionnaire. Debré hors-la-loi Si tu l'attrapes, mets-lui un coup pour moi Un coup pour nous, un coup pour tout ce qu'ils nous ont fait Un coup pour dire qu'un jour ils finiront par payer leurs méfaits En effet, je l'ai fait, si tu veux me faire un procès T'as droit qu'à un seul essai Donc, essaie de laisser la vérité passer au sujet des Français De ce qu'ils ont fait dans le passé à nos pères et à nos mères C'est que quand je pense à ce que ta France a pris À l'Afrique noire et à l'Algérie De quoi tu nous paries aujourd'hui. 9-7 De quelle dette ? De quels droits ? De quels papiers ? De quelles lois ? De quels immigrés ? J'en' palé la dwoit NOB con tout neg poté dread tchok les abus Check le mike pok ! Bim an tet zot si zot kwé cé jé mè cé ki ca Zafe l'eta ta la ki pa a fé piès bagaye Ban piès moun toujou minm l'an ka pwofité Ni sa ki, ni sa ki pa ni Moin sé An neg man pa ni Les fruits défendus j'aimerais tellement, tellement Oh oui, tellement y goûter Goûter ce luxe qui orne la vie paisible de ces enculés Mais vers quel avenir allons-nous ? Vers quelle société allons-nous ? A cette vitesse, autant se tèj Si le mot d'ordre est à la haine Autant tout fracasser dès maintenant Ces fachos m'ont fâchée, ce système d'enfoirés Une fois de plus a semé la haine Le racisme pourrit l'esprit faible Qui ça gêne ? Surtout pas l'Etat, surtout pas Le Pen qui se démène Ces fils de ... veulent la guerre pour mieux frapper l'étranger Restons fiers, restons fiers Domou djoloff moye délloussie di Iene Iatteli djeuf dji fi amone N'dakheté sa ma khoie mo fessati Mie kaddou you bonne yi maye Dague téye thie sa ma khette Thia fa gnouye wovve deuckou nassarane Togone naye fi diamono 1945 Tirailleurs sénégalais, amone nagne Fi n'Dame téye seni dame ack séni seute Gnou lne di torokhale di lene wowe immigrés fatté nagne Dembeu ndéye sane fatté nagnou sou gnouye ahlale Sou gnouye niack dérrétte guigne léne Toureuione n'Dame guigne léne andilone Thie diamonoye thiossane Je porte le grade de colonel pour qu'ils m'identifient À quand un matricule pour satisfaire toutes leurs envies C'est comme un safari qu'on prépare sciemment consciemment Une corde raide qu'on pend pour une pendaison d'antan Pour le même coupable, celui qui a pas la couleur locale Ils votent une loi, une deuxième loi Puis on s'en mordra tous les doigts Je veux pas que mes enfants grandissent comme moi dans le néant Si on les laisse faire, ils nous préparent une troisième guerre Je veux plus être l'antilope Le lion qu'on chasse du bout de son canon Droite, gauche, même son de clairon qui sonne faux Si jamais ça pète, je deviendrai leur casse-tête Camouflage tout-terrain, arme au poing Comme dans une guerre de tranchées, déclenchée, orchestrée Par l'hypocrite politique, cas typique d'une mise au point Pour monter l'immigré contre son frère immigré Coulé, noyé dans une vieille stratégie nase, grillée Par les jeunes de ma génération qui gardent 1 oeil ouvert Conscients de l'attitude de la France pendant la deuxième guerre Nationale, radicale, faut que la réaction soit fatale, brutale Pour pas qu'on ait à se plaindre, geindre sans voix Face aux sales lois qu'on a laissé passer sans s'opposer Rebellion organisée pour le 3 Majeur flow Sleo encore une fois porte le drapeau Français. Tu dors ! C'est la fin, tes politiciens vont trop vite Dès lors que des artistes s'unissent contre la fourberie et le vice La piste suivie n'est plus strictement artistique, mais aussi politique Soit les lois passent, quoi ? Elles sont dissimulées comme de justes 10 ans après on s'étonne que les immigrés dégustent Soit elles sont appliquées avant d'être votées Et on s'étonne ensuite que certains Ne voient plus l'atteinte à leur liberté Ah ça ira, ça ira, ça ira, ça fait deux-cents ans qu'on attend ça Je doute, je pense, donc je suis Force est de constater à travers nos yeux de banlieusards éclairés Que les avions charters tendent à remplacer les bateaux négriers C'est un dilemme individuel Ne pas se laisser abuser par le superficiel J'ai vu, de mes yeux vu Retourner au pays mon ami, lui qui n'en voulait plus Méticuleusement, mais sûrement, les forces devraient s'unir Pour aller de l'avant en sachant Que ce qui n'est pas sous les feux De leur actualité peut être révoltant Les crimes d'octobre 61 sont un exemple hurlant Émigration moins papiers plus prison égal double peine perdue Français, tu dors ! Pas un centime de sentiment N'estime pas celui qui dit lutter pour la ce-Fran Pas de logique, l'idéologie part en couilles Mais pour analyser, personne ne se mouille Tout le monde tripe sur son bulletin de vote Trois mois après, allez hop, coup de botte Tu t'es fait bé-bar, mais tu l'as bien cherché Et par ta faute le blâme s'installe dans la face des immigrés Cesse de participer au massacre de la conscience Les partis politiques bidons rendent amère la douce France Pense à tes enfants, l'avenir est déjà flou Azé s'est posée, maintenant c'est à toi de gé-bou Prends mes empreintes digitales, fiche-moi Quand je vais et viens, je m'en fiche, moi, des fichiers J'en ai déjà plein, c'est pas d'hier que je subis des humiliations Les gouvernements changent mais il n'y a pas d'amélioration Je rêve plus, mes ambitions sont interdites, mon futur s'effrite Mes droits me quittent, vite fait J'ai compris que l'éthique et l'équité N'étaient pas les mêmes selon ta provenance et ta te-té Ton compte en banque, ta culture, ton langage, ta religion Tout ce qui nous divise est bon pour cette nation Donc vois, voilà ce qu'il ne faut pas faire On se nique entre nous, l'Etat, lui, fait ses affaires Il n'aime pas notre unité, il n'aime pas nos différences Soyons tous différents et unis Les conséquences se verront, ça paiera ou sinon ça pétera De toute façon, réaction ! On ne peut plus baisser les bras comme ça, gars Ouais, maintenant v'là le Freeman... Assez sait, qui ne sait, si se taire sait Toute extrémité est vice, frère La lumière poursuit l'aveugle, destin amer Je cherche le Bien mais je m'attends au Mal Je flaire Lucifer sur terre Ce que réserve le fou pour la fin Le sage le passe en tête Entêté La vérité n'est pas montrée nue, mais en chemise Plus on sait, moins on affirme Pour te servir, Freeman avec sa firme Vos mères, vos mères, vos mères, vos mères... Je commence quand la France défonce des églises à coups de hache Leurs mères Comment tu veux que je respecte tes lois, ton drapeau, ton État Alors que tu ne respectes même pas Dieu ! Au sein du pays du pain, du vin, du Boursin, j'suis pas blond Je nique la hala et j'ai pas les yeux bleus, non ! Mais comme eux je bouffe des pâtes, et j'éclate même leurs rates Exact ! Certains diront je m'en fous de vos trucs, de vos lois Contre-lois, manifestations. Bande de bidons ! C'est pas un morceau de rappeurs qui fera peur Mais on peut quand même engrener, engrener, engrener Allons enfants dans cette saloperie ! Bougez vos fions, question ! Ça parle de révolution Prendras-tu des munitions ? Beaucoup jouent les hardis, pardi Et ne veulent pas mourir ! Alors, vas-y toi, dis-moi comment tu veux le paradis...7</t>
+          <t>- Lois Deffere, lois Jox, lois Pasqua ou Debre, une seule logique - La chasse à l'immigré. Et n'oublie pas tous les décrets et circulaires Nous ne pardonnerons jamais la barbarie de leurs lois inhumaines - Un état raciste ne peut que créer des lois racistes - Alors assez de l'anti-racisme folklorique et bon enfant dans l'euphorie des jours de fête - Régularisation immédiate de tous les immigrés sans papiers et de leurs familles - Abrogation de toutes les lois racistes régissant le séjour des immigrés en France - Nous revendiquons l'émancipation de tous les exploités de ce pays - Qu'ils soient Français ou immigrés. Et au fait, qu'est-ce que t'en penses toi ? Je ne veux pas faire de politique, ma mission est artistique Mais quand je vois tout le trafic, on ne peut pas rester pacifique Les lois qu'ils veulent mettre en application corroborent mon accusation Trop de mes semblables pètent les plombs pris dans le tourbillon de l'immigration Tout pays au monde expulse ses immigrés clandestins C'est vrai mais la France a une autre responsabilité entre les mains Les faits sont historiques, le peuple français a fait couler son sang Pour écrire noir sur blanc les bases d'une démocratie en Occident Que les dirigeants s'en souviennent, attends, je les illumine Droit d'asile pour les populations victimes De la misère du globe Combattre le racisme, le fascisme, le sexisme et toutes sortes de xénophobes Sans papiers, donc sans droits, sans droits donc écrasés par les lois La justice nique sa reumdava quand on voit ses desiderata Au grand jour Je reste lucide dans mon faubourg et garde un oeil sur les vautours Plus d'excuses, les gens savent très bien pour qui ils votent 52 de fils de putes à Vitrolles une fois pour toutes, c'est clair Idem pour ces ministres mielleux, fielleux Votant des lois pour séduire ce type d'électorat Rappelle-toi qui s'est battu pour la France Couteau entre les dents, rampant, et rien dans la panse Tu collaborais à l'époque, chien, un toutou docile Heureux de voir les Arabes débouler pour libérer ta ville. De Joxe à Debré, je traque les fafs en costard La gauche caviar, la droite de la droite au pouvoir Moyen Resistenza, effet Independenza Tous égaux devant les lois, dixit Sentenza Je suis comme un pionnier, je porte très haut le flambeau J'en place une pour les frères au préau Mes rêves d'autrefois disent au revoir Trop longtemps écrasé, étouffé, assoiffé, je rêve de REVO Je dévore Je tacle l'obstacle, enflamme les consciences qui s'évaporent Les porcs s'installent, s'étalent et tèjent le peuple sur une étroite bordure Tout le monde sait que leur coeur est creux et plein d'ordures Ne voyez-vous pas jusqu'aux pas de vos portes, je baise vos élites Je me sens plus fort, je prends des grades J'empoisonne avec le White Spirit la machine étatique Le rouleau compresseur qui est sans passions contre vos passions Je prends position, au micro je mets des coups de pressions Les bâtards veulent me pousser dans l'impasse que mon ombre perde ma trace Je reste dans la masse, l'arme efficace et je crame le système comme une charasse Ne pète pas plus haut que ton cul si t'es membre des moins costauds Mais dis-moi Mani tu déblatères, t'écrases tes frères comme des blattes à terre pour un drapeau Devant la lumière, sombre sabre reste sobre Pour l'octobre, dans les décombres Réfléchis, jamais ne fléchis, dans l'ombre dénombre tes soldats Qui ne tendent pas l'arme sur leurs tempes, n'est pas, y a pas J'casse trop, je reste fidèle à moi-même Trop de gens parlent, l'argent parle, les agents parlent Procréent trop d'infidèles s'opposant, m'imposant Pour Karl je reste fidèle Même au bout d'une corde, miséricorde, j'casse trop Moi, je fracasse est-ce une histoire de paperasse Ou de couleur de peau, l'odeur de soufre de Méphisto Les gens souffrent à cause des lois racistos Galérianos signale les bastos Les fréros poussés dans la Seine, trop de peine Mi-d'or devant Vincennes je prends position Car là où passent les bâtards c'est la désolation qu ils sèment Quoi que tu fasses, le melting pot français est ainsi fait Renoi, Céfran, Rabza, Spanish, Toss Portuguesh, Kung Fu, Macaroni Dans une cité ou pas. L'Etat nous dit zeubi, drôle de démocratie Ménélik, Soldafada sur la dalle, encaissent gauche, droite La tension extrême, l'issue bouchée, la porte trop étroite, direct Ils veulent nous manipuler comme des poupées Nous couper l'herbe sous le pied De façon à ce que les gens ne puissent plus respirer Nous sommes comme des parasites, surtout pas raciste, moi Donc, tes textes, tes lois, réécris-les c'est pas les bons j'crois Nakk sent que ça sent le roussi pour ceux qu'ont un accent Lois Debré ou de force et les droits de l'homme sont absents - C'est ça la France - Ici c'est dur d'entrer comme une forteresse Dire qu'un cousin m'a dit, Nakk, la France c'est fort je reste La marque de la bête, ici, en l'occurrence c'est l'étranger Danger, danger, pour ceux qui par ce fait sont blasés, blasés Celui que le facho appelle bicot prend le micro Pour démentir les faux propos, stopper le complot Je jette un il sur le passé, vous pensiez l'effacer Hélas l'histoire se répète, revient nous offenser, c'en est assez ! Ils jettent encore le discrédit sur mon ethnie Sur tout ce qui est physiquement différent Mais l'harbi monte au créneau, j'ai le droit de veto Je serai le bourreau, je ferai front quoi qu'il advienne Je ne mâcherai pas mes mots La réapparition des vieux démons d'un passé pesant Conforte l'idée que j'ai sur ce racisme latent, d'antan Datant du temps des premières crises dans Un pays qui dans un total désarroi prétend Encore une fois que nous sommes la cause de ce marasme Que c'est notre faute si la France est prise de crises d'asthme Mais qu'ils sachent que je serai toujours sur la brèche, bref Je combats le facho et tous ceux qui sont de mèche Vigipirate, carte de résident en danger, délation France aux Français. Guerre avec un grand G Qu'est-ce que tu veux que je fasse face à ces panneaux Qui sont tellement sales qu'ils me font penser à Brigitte Bardot Qu'est-ce qu'il y a ? T'es choqué quand je dis ça ? Ne bouge pas, j'ai pas fini, tu veux mon nom, c'est Befa L'impertinent, celui qui écrit une lettre au Président Que Skyrock, Fun et NRJ censurent impunément évidemment. Personne se sent concerné surtout que dans le pire des cas C'est mes enfants qui seront enfermés Donc fermez-la une fois pour toutes, mon téléphone est sur Écoute, pas de doute, je bosse pas pour les scouts de France Je balance une idée révolutionnaire. Debré hors-la-loi Si tu l'attrapes, mets-lui un coup pour moi Un coup pour nous, un coup pour tout ce qu'ils nous ont fait Un coup pour dire qu'un jour ils finiront par payer leurs méfaits En effet, je l'ai fait, si tu veux me faire un procès T'as droit qu'à un seul essai Donc, essaie de laisser la vérité passer au sujet des Français De ce qu'ils ont fait dans le passé à nos pères et à nos mères C'est que quand je pense à ce que ta France a pris À l'Afrique noire et à l'Algérie De quoi tu nous paries aujourd'hui. 9-7 De quelle dette ? De quels droits ? De quels papiers ? De quelles lois ? De quels immigrés ? J'en' palé la dwoit NOB con tout neg poté dread tchok les abus Check le mike pok ! Bim an tet zot si zot kwé cé jé mè cé ki ca Zafe l'eta ta la ki pa a fé piès bagaye Ban piès moun toujou minm l'an ka pwofité Ni sa ki, ni sa ki pa ni Moin sé An neg man pa ni Les fruits défendus j'aimerais tellement, tellement Oh oui, tellement y goûter Goûter ce luxe qui orne la vie paisible de ces enculés Mais vers quel avenir allons-nous ? Vers quelle société allons-nous ? A cette vitesse, autant se tèj Si le mot d'ordre est à la haine Autant tout fracasser dès maintenant Ces fachos m'ont fâchée, ce système d'enfoirés Une fois de plus a semé la haine Le racisme pourrit l'esprit faible Qui ça gêne ? Surtout pas l'Etat, surtout pas Le Pen qui se démène Ces fils de ... veulent la guerre pour mieux frapper l'étranger Restons fiers, restons fiers Domou djoloff moye délloussie di Iene Iatteli djeuf dji fi amone N'dakheté sa ma khoie mo fessati Mie kaddou you bonne yi maye Dague téye thie sa ma khette Thia fa gnouye wovve deuckou nassarane Togone naye fi diamono 1945 Tirailleurs sénégalais, amone nagne Fi n'Dame téye seni dame ack séni seute Gnou lne di torokhale di lene wowe immigrés fatté nagne Dembeu ndéye sane fatté nagnou sou gnouye ahlale Sou gnouye niack dérrétte guigne léne Toureuione n'Dame guigne léne andilone Thie diamonoye thiossane Je porte le grade de colonel pour qu'ils m'identifient À quand un matricule pour satisfaire toutes leurs envies C'est comme un safari qu'on prépare sciemment consciemment Une corde raide qu'on pend pour une pendaison d'antan Pour le même coupable, celui qui a pas la couleur locale Ils votent une loi, une deuxième loi Puis on s'en mordra tous les doigts Je veux pas que mes enfants grandissent comme moi dans le néant Si on les laisse faire, ils nous préparent une troisième guerre Je veux plus être l'antilope Le lion qu'on chasse du bout de son canon Droite, gauche, même son de clairon qui sonne faux Si jamais ça pète, je deviendrai leur casse-tête Camouflage tout-terrain, arme au poing Comme dans une guerre de tranchées, déclenchée, orchestrée Par l'hypocrite politique, cas typique d'une mise au point Pour monter l'immigré contre son frère immigré Coulé, noyé dans une vieille stratégie nase, grillée Par les jeunes de ma génération qui gardent 1 oeil ouvert Conscients de l'attitude de la France pendant la deuxième guerre Nationale, radicale, faut que la réaction soit fatale, brutale Pour pas qu'on ait à se plaindre, geindre sans voix Face aux sales lois qu'on a laissé passer sans s'opposer Rebellion organisée pour le 3 Majeur flow Sleo encore une fois porte le drapeau Français. Tu dors ! C'est la fin, tes politiciens vont trop vite Dès lors que des artistes s'unissent contre la fourberie et le vice La piste suivie n'est plus strictement artistique, mais aussi politique Soit les lois passent, quoi ? Elles sont dissimulées comme de justes 10 ans après on s'étonne que les immigrés dégustent Soit elles sont appliquées avant d'être votées Et on s'étonne ensuite que certains Ne voient plus l'atteinte à leur liberté Ah ça ira, ça ira, ça ira, ça fait deux-cents ans qu'on attend ça Je doute, je pense, donc je suis Force est de constater à travers nos yeux de banlieusards éclairés Que les avions charters tendent à remplacer les bateaux négriers C'est un dilemme individuel Ne pas se laisser abuser par le superficiel J'ai vu, de mes yeux vu Retourner au pays mon ami, lui qui n'en voulait plus Méticuleusement, mais sûrement, les forces devraient s'unir Pour aller de l'avant en sachant Que ce qui n'est pas sous les feux De leur actualité peut être révoltant Les crimes d'octobre 61 sont un exemple hurlant Émigration moins papiers plus prison égal double peine perdue Français, tu dors ! Pas un centime de sentiment N'estime pas celui qui dit lutter pour la ce-Fran Pas de logique, l'idéologie part en couilles Mais pour analyser, personne ne se mouille Tout le monde tripe sur son bulletin de vote Trois mois après, allez hop, coup de botte Tu t'es fait bé-bar, mais tu l'as bien cherché Et par ta faute le blâme s'installe dans la face des immigrés Cesse de participer au massacre de la conscience Les partis politiques bidons rendent amère la douce France Pense à tes enfants, l'avenir est déjà flou Azé s'est posée, maintenant c'est à toi de gé-bou Prends mes empreintes digitales, fiche-moi Quand je vais et viens, je m'en fiche, moi, des fichiers J'en ai déjà plein, c'est pas d'hier que je subis des humiliations Les gouvernements changent mais il n'y a pas d'amélioration Je rêve plus, mes ambitions sont interdites, mon futur s'effrite Mes droits me quittent, vite fait J'ai compris que l'éthique et l'équité N'étaient pas les mêmes selon ta provenance et ta te-té Ton compte en banque, ta culture, ton langage, ta religion Tout ce qui nous divise est bon pour cette nation Donc vois, voilà ce qu'il ne faut pas faire On se nique entre nous, l'Etat, lui, fait ses affaires Il n'aime pas notre unité, il n'aime pas nos différences Soyons tous différents et unis Les conséquences se verront, ça paiera ou sinon ça pétera De toute façon, réaction ! On ne peut plus baisser les bras comme ça, gars Ouais, maintenant v'là le Freeman... Assez sait, qui ne sait, si se taire sait Toute extrémité est vice, frère La lumière poursuit l'aveugle, destin amer Je cherche le Bien mais je m'attends au Mal Je flaire Lucifer sur terre Ce que réserve le fou pour la fin Le sage le passe en tête Entêté La vérité n'est pas montrée nue, mais en chemise Plus on sait, moins on affirme Pour te servir, Freeman avec sa firme Vos mères, vos mères, vos mères, vos mères... Je commence quand la France défonce des églises à coups de hache Leurs mères Comment tu veux que je respecte tes lois, ton drapeau, ton État Alors que tu ne respectes même pas Dieu ! Au sein du pays du pain, du vin, du Boursin, j'suis pas blond Je nique la hala et j'ai pas les yeux bleus, non ! Mais comme eux je bouffe des pâtes, et j'éclate même leurs rates Exact ! Certains diront je m'en fous de vos trucs, de vos lois Contre-lois, manifestations. Bande de bidons ! C'est pas un morceau de rappeurs qui fera peur Mais on peut quand même engrener, engrener, engrener Allons enfants dans cette saloperie ! Bougez vos fions, question ! Ça parle de révolution Prendras-tu des munitions ? Beaucoup jouent les hardis, pardi Et ne veulent pas mourir ! Alors, vas-y toi, dis-moi comment tu veux le paradis...7</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Où t'étais ? Invité par des potes à une te-fê On s'amusait bien, je n'ai pas vu l'heure qu'il était Ah ouais ? C'est vrai ! Je te connais par cur J'aimerais savoir pourquoi tu agis comme un voleur Tu te fais des films Je ne voulais pas te réveiller c'est tout Arrête avec tes questions Dis-moi plutôt à quoi tu joues Je joue à la fille qui en a marre de te voir rentrer tard Tout ça parce que tu préfères traîner avec tes lascars You might also like Il est tard chérie Écoute baisse le ton tu fais trop de bruit Ce ne sont pas des lascars, ce sont mes amis Amis ? Et pourquoi m'appellent-ils quand tu n'es pas là ? Sans doute par respect et déférence envers toi Les bâtards ! Ah bon ? Tu ne le savais pas ? Tes potes ne se gênent pas pour me narrer tes exploits Aussitôt le dos tourné, au téléphone ils me draguent Ne fais pas l'innocent, tu as surpris le gars en flag' Tu es la seule qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es le seul qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es la seule qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es le seul qui m'aille, je te le dis sans faille Reste cool gars sinon j'te dirai bye bye C'est bon, c'est bon, tu peux prendre toutes tes affaires Ah ouais ! Et tu crois que je t'ai attendu pour le faire ? Toi et ta horde de serpents Je vous souhaite bien du bon temps Je suis parti à présent Ce sera l'orgie à plein temps Tu souris encore ? Même pas l'once d'un remords Change d'attitude Ou je sculpte un nouveau décor Allez bye bye Tu prends tes cliques, tes claques Et tu te tailles Ta mère avait raison Ma mère ? Laisse-moi donc Et ma pagaille Tiens parlant d'elle As-tu trouvé sa muselière ? Qu'a-t-elle à voir dans cette affaire ? Ne touche pas à ma mère Qui le voudrait ? C'est vrai, c'est un vrai supplice de la voir D'autant plus qu'elle s'invite ici à dîner tous les soirs Je n'ai jamais compris Pourquoi tu affiches Tant de mépris Envers ma famille Spécialement ceux qui t'apprécient Elle m'apprécie ? Moi, ou mon porte-monnaie ? Peut-être les deux qui sait ? Arrête s'il te plaît ! Tu es le seul qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es la seule qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es le seul qui m'aille, je te le dis sans faille Reste cool gars sinon j'te dirai bye bye Tu es la seule qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Non mais hé ! Franchement Y a quelque chose qui va pas là Ah ! T'as le chic pour tout gâcher Arrête, arrête, arrête, non non non C'est vrai que je suis un peu éméché mais bon ! Oh la la la la Quoi oh la la ? Franchement ! Est-ce vraiment une heure pour rentrer chez soi ? Tu t'inquiètes du bruit Occupe-toi de ce qui se passe chez toi Chez moi Ça allait jusqu'à une certaine prise de tête Ce qui me contrarie C'est d'avoir trouvé la femme parfaite Pas d'amis Pas de sorties Pas de fille au lit Pas d'envies Et accessoirement Pas de sexe aussi Quoi ? Le bonheur ! Mais je rajouterais sur la notice Il faudrait pouvoir dégonfler après service C'est un coup bas OK ! Excuse-moi Mais je t'en prie Prends-moi donc dans tes bras C'est trop facile ! Excuse-moi ! Je n'ai pas fini Arrêtons ! Non On va y passer le reste de la nuit Je me suis lassée Je suis cassée J'en ai plus qu'assez L'ardoise est chargée Fissa, tu ferais bien de l'effacer Tu es la seule qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es le seul qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es la seule qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es le seul qui m'aille, je te le dis sans faille Reste cool gars sinon j'te dirai bye bye1</t>
+          <t>Où t'étais ? Invité par des potes à une te-fê On s'amusait bien, je n'ai pas vu l'heure qu'il était Ah ouais ? C'est vrai ! Je te connais par cur J'aimerais savoir pourquoi tu agis comme un voleur Tu te fais des films Je ne voulais pas te réveiller c'est tout Arrête avec tes questions Dis-moi plutôt à quoi tu joues Je joue à la fille qui en a marre de te voir rentrer tard Tout ça parce que tu préfères traîner avec tes lascars Il est tard chérie Écoute baisse le ton tu fais trop de bruit Ce ne sont pas des lascars, ce sont mes amis Amis ? Et pourquoi m'appellent-ils quand tu n'es pas là ? Sans doute par respect et déférence envers toi Les bâtards ! Ah bon ? Tu ne le savais pas ? Tes potes ne se gênent pas pour me narrer tes exploits Aussitôt le dos tourné, au téléphone ils me draguent Ne fais pas l'innocent, tu as surpris le gars en flag' Tu es la seule qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es le seul qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es la seule qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es le seul qui m'aille, je te le dis sans faille Reste cool gars sinon j'te dirai bye bye C'est bon, c'est bon, tu peux prendre toutes tes affaires Ah ouais ! Et tu crois que je t'ai attendu pour le faire ? Toi et ta horde de serpents Je vous souhaite bien du bon temps Je suis parti à présent Ce sera l'orgie à plein temps Tu souris encore ? Même pas l'once d'un remords Change d'attitude Ou je sculpte un nouveau décor Allez bye bye Tu prends tes cliques, tes claques Et tu te tailles Ta mère avait raison Ma mère ? Laisse-moi donc Et ma pagaille Tiens parlant d'elle As-tu trouvé sa muselière ? Qu'a-t-elle à voir dans cette affaire ? Ne touche pas à ma mère Qui le voudrait ? C'est vrai, c'est un vrai supplice de la voir D'autant plus qu'elle s'invite ici à dîner tous les soirs Je n'ai jamais compris Pourquoi tu affiches Tant de mépris Envers ma famille Spécialement ceux qui t'apprécient Elle m'apprécie ? Moi, ou mon porte-monnaie ? Peut-être les deux qui sait ? Arrête s'il te plaît ! Tu es le seul qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es la seule qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es le seul qui m'aille, je te le dis sans faille Reste cool gars sinon j'te dirai bye bye Tu es la seule qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Non mais hé ! Franchement Y a quelque chose qui va pas là Ah ! T'as le chic pour tout gâcher Arrête, arrête, arrête, non non non C'est vrai que je suis un peu éméché mais bon ! Oh la la la la Quoi oh la la ? Franchement ! Est-ce vraiment une heure pour rentrer chez soi ? Tu t'inquiètes du bruit Occupe-toi de ce qui se passe chez toi Chez moi Ça allait jusqu'à une certaine prise de tête Ce qui me contrarie C'est d'avoir trouvé la femme parfaite Pas d'amis Pas de sorties Pas de fille au lit Pas d'envies Et accessoirement Pas de sexe aussi Quoi ? Le bonheur ! Mais je rajouterais sur la notice Il faudrait pouvoir dégonfler après service C'est un coup bas OK ! Excuse-moi Mais je t'en prie Prends-moi donc dans tes bras C'est trop facile ! Excuse-moi ! Je n'ai pas fini Arrêtons ! Non On va y passer le reste de la nuit Je me suis lassée Je suis cassée J'en ai plus qu'assez L'ardoise est chargée Fissa, tu ferais bien de l'effacer Tu es la seule qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es le seul qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es la seule qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es le seul qui m'aille, je te le dis sans faille Reste cool gars sinon j'te dirai bye bye1</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Solaar, jazz dessus Ménélik, jazz dessus Soon E MC, jazz dessus Beat De Boul', jazz dessus Pigalle Boom Bass, jazz dessus Philip Zdar, jazz dessus Jimmy Jones, jazz dessus Tandis que mon ami rap par dessous Beau mâle a l'animal mais saches que je suis un renard A force de boire, il a tout bu et oublie tous ses devoirs Rester pur, surtout et considérer les gens de haut Ses principes et idéaux lui viennent de la vidéo Cassettes de capes et d'épées, donc dans tous les cas dépassé dans l'passé sans cesse ressassé, il s'est calfeutré Il y édifie sa vie mais jamais ne se méfie et fait fi des avis de ses amis dont le fou se défie Ménélik - l'homme qui tombe à pic Qui pique comme un aspic et par le pique efface la réplique Apparaît aux re-frès et de la folie l'extrait, le tire de la mélasse dans laquelle il se complaît Le danger écarté MNLK peut s'éclipser L'ennemi a cessé d'acheter ses cassettes de cape et d'épée Gars, ne pense pas que le Mélopheelohello du Sage Po Doit sa place dans le jazz pour exprimer des phases naze à gogo Le thème était précis éliminer l'ennemi Qui faisait du tort au Mélopheelo, le jazzy papy C'est moi qui suis le mec, qui te plante le bec Quand tu fais le pec, à l'intention des Sages Poètes Une planque avec un Stamp L'NMI qui n'ACCd'HTCK72KPDP décampe Mélopheelomélo fait du Sage Po Arrive en force tout en étant parti parti du zéro Le son Philli Faggio, en hommage à mon pote CM laarSo You might also like , jazz dessus Soon E MC, jazz dessus MC Solaar, jazz dessus Ménélik, jazz dessus Le fonky matériel, jazz dessus La Funk Mob, jazz dessus Dany Dan, jazz dessus Mon ennemi me pirate, puis pars dessous Voici le signe avant coureur de l'antépénultième Avant garde L'avant centre avançant au centre du terrain musical Avant cette avancée, j'avançais Face au vent, posté en avant poste dans la banlieue d'avant les plans Alors allez vous faire fouhhhh, nan Je préfère passer outre, et foutre un shoot aux poutres qui broute et loupe leur loops Comme elle, la presse se book pressé et entre dans le press-ploup De la parade de l'apparat en fait il copie Betty Boop Ménélik, Soon E, Lar-s sont une sorte de Sciences Po Au passage reste sage après le passage des Sages Po Et prend une prune dans ta poire, si tu tombe dans les pommes c'est que j'ai la pêche Alors range tes rimes banane et n'ramène pas ta fraise L'esquive, rotative paralyse l'entreprise des Mc's dont la prose frise la crise de Oufh ! Souffle ! Don Diego de la Vega te pique avec le mic fleuret L'NMIACCd'HTCK72KPDP Melopheelo, jazz dessus , jazz dessus Melopheelo, jazz dessus Mon ennemi me pirate, puis part dessous Micro-test 1, 2, j'ai là dans la main l'un d'eux Ces micros-test de main-de Au matin j'aurai plein de,t out ce que les mecs impec' de ma rue veulent trouver J'ai tant de tune que l'on pourrait m'appeler lové Qui pourrait te parler pendant des heures, de l'amour et des rumeurs De la mort ou bien des murs Je colle cool au beat, mais je peux devenir bruyant Quand le Soleil ne brille plus, appelle moi Tony Truand S'il faut je fais le faux juste pour pointer les nymphos Yo je me fais tant de touffes, que l'on pourrait m'appeler afro Et le pirate qui duplique ma grammaire Je le mate de si haut, que l'on m'appelle Gulliver Une touche et c'est touché coulé Tâche d'enlever ta cagoule sache que le vengeur te démasquera En garde, prend garde le voilà à cheval face au mal Son dada c'est d'être à cheval sur les principes En dolby stéréo il le fait savoir Philipps See you soon je m'en vais cueillir la tulipe Autrefois le Daredevil ne se prénommait-il pas Philippe ? Enfin quelques liens de parenté mais c'était qu'une parenthèse Direction le château hanté nous sommes en 93 Superstitieux non pas du tout je pars en toute confiance Mais que cela ne soit pas considéré, comme un exploit Vous n'aurez qu'a assister à la prochaine séance Cela vous dit samedi soir, sans faire de cinéma vous verrez Il n'est pas de taille, il ne fait même pas le poids La bataille sera sûrement cérébrale mais dites moi CelaSolaar rime à quoi ? Bat les pattes ! V'là le psychopathe ! Mate, comme il épate, chaque phrase est une claque ! Tu bloques le pirate, gratte pas mon son car tu ne t'appelles pas BB King De toutes façons selon mes stats tu manques de feeling Je flingue comme Lucky Luke, suis dingue comme Daffy Duck Je blague comme Baffie, et sur l'amour ta fille j'éduque Fais le filifou avec elle, pas le filifaux Filou qui file tel Milou car moi je deale et squatte l'hôtel Novotel, Sofitel, Motel, profite d'elle Si la belle est modèle telle Noami Campbell J'excelle sur le microphone, excite tel un Chippendale Ces filles folles, qui aphones sont, quand le son est à fond Que mon ton est bon, mon rap long, elles m'appellent mc champion Qu'on se le dise pour de bon, le rap doit se développer L'NMIACCd'HTCK72KPDP !!! MC Solaar, jazz dessus Beat De Boul', jazz dessus Soon E MC, jazz dessus Pigalle Boom Bass, jazz dessus Philip Zdar, jazz dessus , jazz dessus , jazz dessus Mon ennemi me pirate, puis part dessous1</t>
+          <t>Solaar, jazz dessus Ménélik, jazz dessus Soon E MC, jazz dessus Beat De Boul', jazz dessus Pigalle Boom Bass, jazz dessus Philip Zdar, jazz dessus Jimmy Jones, jazz dessus Tandis que mon ami rap par dessous Beau mâle a l'animal mais saches que je suis un renard A force de boire, il a tout bu et oublie tous ses devoirs Rester pur, surtout et considérer les gens de haut Ses principes et idéaux lui viennent de la vidéo Cassettes de capes et d'épées, donc dans tous les cas dépassé dans l'passé sans cesse ressassé, il s'est calfeutré Il y édifie sa vie mais jamais ne se méfie et fait fi des avis de ses amis dont le fou se défie Ménélik - l'homme qui tombe à pic Qui pique comme un aspic et par le pique efface la réplique Apparaît aux re-frès et de la folie l'extrait, le tire de la mélasse dans laquelle il se complaît Le danger écarté MNLK peut s'éclipser L'ennemi a cessé d'acheter ses cassettes de cape et d'épée Gars, ne pense pas que le Mélopheelohello du Sage Po Doit sa place dans le jazz pour exprimer des phases naze à gogo Le thème était précis éliminer l'ennemi Qui faisait du tort au Mélopheelo, le jazzy papy C'est moi qui suis le mec, qui te plante le bec Quand tu fais le pec, à l'intention des Sages Poètes Une planque avec un Stamp L'NMI qui n'ACCd'HTCK72KPDP décampe Mélopheelomélo fait du Sage Po Arrive en force tout en étant parti parti du zéro Le son Philli Faggio, en hommage à mon pote CM laarSo , jazz dessus Soon E MC, jazz dessus MC Solaar, jazz dessus Ménélik, jazz dessus Le fonky matériel, jazz dessus La Funk Mob, jazz dessus Dany Dan, jazz dessus Mon ennemi me pirate, puis pars dessous Voici le signe avant coureur de l'antépénultième Avant garde L'avant centre avançant au centre du terrain musical Avant cette avancée, j'avançais Face au vent, posté en avant poste dans la banlieue d'avant les plans Alors allez vous faire fouhhhh, nan Je préfère passer outre, et foutre un shoot aux poutres qui broute et loupe leur loops Comme elle, la presse se book pressé et entre dans le press-ploup De la parade de l'apparat en fait il copie Betty Boop Ménélik, Soon E, Lar-s sont une sorte de Sciences Po Au passage reste sage après le passage des Sages Po Et prend une prune dans ta poire, si tu tombe dans les pommes c'est que j'ai la pêche Alors range tes rimes banane et n'ramène pas ta fraise L'esquive, rotative paralyse l'entreprise des Mc's dont la prose frise la crise de Oufh ! Souffle ! Don Diego de la Vega te pique avec le mic fleuret L'NMIACCd'HTCK72KPDP Melopheelo, jazz dessus , jazz dessus Melopheelo, jazz dessus Mon ennemi me pirate, puis part dessous Micro-test 1, 2, j'ai là dans la main l'un d'eux Ces micros-test de main-de Au matin j'aurai plein de,t out ce que les mecs impec' de ma rue veulent trouver J'ai tant de tune que l'on pourrait m'appeler lové Qui pourrait te parler pendant des heures, de l'amour et des rumeurs De la mort ou bien des murs Je colle cool au beat, mais je peux devenir bruyant Quand le Soleil ne brille plus, appelle moi Tony Truand S'il faut je fais le faux juste pour pointer les nymphos Yo je me fais tant de touffes, que l'on pourrait m'appeler afro Et le pirate qui duplique ma grammaire Je le mate de si haut, que l'on m'appelle Gulliver Une touche et c'est touché coulé Tâche d'enlever ta cagoule sache que le vengeur te démasquera En garde, prend garde le voilà à cheval face au mal Son dada c'est d'être à cheval sur les principes En dolby stéréo il le fait savoir Philipps See you soon je m'en vais cueillir la tulipe Autrefois le Daredevil ne se prénommait-il pas Philippe ? Enfin quelques liens de parenté mais c'était qu'une parenthèse Direction le château hanté nous sommes en 93 Superstitieux non pas du tout je pars en toute confiance Mais que cela ne soit pas considéré, comme un exploit Vous n'aurez qu'a assister à la prochaine séance Cela vous dit samedi soir, sans faire de cinéma vous verrez Il n'est pas de taille, il ne fait même pas le poids La bataille sera sûrement cérébrale mais dites moi CelaSolaar rime à quoi ? Bat les pattes ! V'là le psychopathe ! Mate, comme il épate, chaque phrase est une claque ! Tu bloques le pirate, gratte pas mon son car tu ne t'appelles pas BB King De toutes façons selon mes stats tu manques de feeling Je flingue comme Lucky Luke, suis dingue comme Daffy Duck Je blague comme Baffie, et sur l'amour ta fille j'éduque Fais le filifou avec elle, pas le filifaux Filou qui file tel Milou car moi je deale et squatte l'hôtel Novotel, Sofitel, Motel, profite d'elle Si la belle est modèle telle Noami Campbell J'excelle sur le microphone, excite tel un Chippendale Ces filles folles, qui aphones sont, quand le son est à fond Que mon ton est bon, mon rap long, elles m'appellent mc champion Qu'on se le dise pour de bon, le rap doit se développer L'NMIACCd'HTCK72KPDP !!! MC Solaar, jazz dessus Beat De Boul', jazz dessus Soon E MC, jazz dessus Pigalle Boom Bass, jazz dessus Philip Zdar, jazz dessus , jazz dessus , jazz dessus Mon ennemi me pirate, puis part dessous1</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Une question se pose à moi, à savoir si j'ai le choix Suivre le tempo ou pas je ne sais pas mais en tout cas J'ai évacué pour la journée toute forme de soucis Et je me la roule debout, disons plutôt assis Dans la foule je perçois le rire d'une dame Entre les gens je rame pour m'approcher de la femme Ouah ! Est-ce que tu as vu, ai-je la berlue ? Une telle beauté même voilée ne passerait pas inaperçue Y a du monde dans la place ? Ouais Cassez la voix, cassez la voix ? Ouais Évidemment sans ces parties la vie n'a pas de sens La tribu en formation toujours dans la transe Laisse ton corps me parler et continuons l'ambiance Honni soit qui mal y pense Le damier est dans la place tout baigne ! Paris est dans la place tout baigne ! New York est dans la place tout baigne ! La té-ci est là aussi tout baigne ! Nouméa est dans la place tout baigne ! Marseille est dans la place tout baigne ! Brighton est dans la place tout baigne ! Tout baigne même pour les gens qui se plaignent Aujourd'hui personne ne revendique dans le posse de Ménélik De la vie à ce jour nous ne ferons aucune critique Je glande sur la le-da s'il te plaît passe moi du coca Non pas d'embrouille non je ne veux pas de cocard Juste goûter de ce jus que jalousement tu conserves Avec toi je converse afin qu'on se serve Mettons donc de côté les dingues qui tiennent les flingues Regarde donc ces beautés je t'invite à faire la bringue Donc suis-moi on ira, on verra, on vaincra Je ne sais pas où on va mais qui vivra verra Oh non non non je suis pas une idole Sur le damier de Paul tous les gars de Paul m'épaulent Ainsi, nous voici partis, tranquille tu l'as dit l'ami Accompagnés des bonnes fées que sur la piste on rallie You might also like Sydney est dans la place tout baigne ! Douala est dans la place tout baigne ! Lausanne est dans la place tout baigne ! Domini est là aussi tout baigne ! Lyon est dans la place tout baigne ! Cologne est dans la place tout baigne ! Londres est dans la place tout baigne ! Tout baigne même pour les gens qui se plaignent Han ! Ça se passe, ça se passe Sur le boulevard on se donne rencard Le jour ou tard le soir O.K. man je reprends et ceci sans faux semblants Je saisis au vol la perche que tu me tends Un groove que rien n'arrête, des peaux qui se complètent Mais la fête ne serait pas parfaite Sans quelques demoiselles bien faites Ça se passe comme ça mais je ne consomme pas rapidement Je déguste le plat, le jeu en vaut la chandelle Stimule mes papilles, les mignonnes m'émoustillent À leur vue, je vacille, elle ondule je la sens tous mes sens en éveil Tout baigne, dans l'eau, dans l'huile, sous le soleil Elles ont toutes de belles plastiques, je m'arme de mon plastique Han ! han ! On ne m'appelle pas pour rien l'homme qui tombe à pic Le fête est éphémère mais au fond on s'en fout Qu'importe le temps, la nuit est à nous Tokyo est dans la place tout baigne ! Dakar est dans la place tout baigne ! Yaoundé est dans la place tout baigne ! La le-da est là aussi tout baigne ! Berlin est dans la place tout baigne ! Tout baigne même pour ceux qui se plaignent Han ! Ça se passe comme ça, han ! Lalali lali lali lalilala, han ! Ouais ! Ça se passe comme ça, han ! Lalali lali lali lalilala, han ! Tout le monde est là ce soir J'entends les Sages Poètes Démocrates D est là aussi Osmose Sléo et tous les re-frè</t>
+          <t>Une question se pose à moi, à savoir si j'ai le choix Suivre le tempo ou pas je ne sais pas mais en tout cas J'ai évacué pour la journée toute forme de soucis Et je me la roule debout, disons plutôt assis Dans la foule je perçois le rire d'une dame Entre les gens je rame pour m'approcher de la femme Ouah ! Est-ce que tu as vu, ai-je la berlue ? Une telle beauté même voilée ne passerait pas inaperçue Y a du monde dans la place ? Ouais Cassez la voix, cassez la voix ? Ouais Évidemment sans ces parties la vie n'a pas de sens La tribu en formation toujours dans la transe Laisse ton corps me parler et continuons l'ambiance Honni soit qui mal y pense Le damier est dans la place tout baigne ! Paris est dans la place tout baigne ! New York est dans la place tout baigne ! La té-ci est là aussi tout baigne ! Nouméa est dans la place tout baigne ! Marseille est dans la place tout baigne ! Brighton est dans la place tout baigne ! Tout baigne même pour les gens qui se plaignent Aujourd'hui personne ne revendique dans le posse de Ménélik De la vie à ce jour nous ne ferons aucune critique Je glande sur la le-da s'il te plaît passe moi du coca Non pas d'embrouille non je ne veux pas de cocard Juste goûter de ce jus que jalousement tu conserves Avec toi je converse afin qu'on se serve Mettons donc de côté les dingues qui tiennent les flingues Regarde donc ces beautés je t'invite à faire la bringue Donc suis-moi on ira, on verra, on vaincra Je ne sais pas où on va mais qui vivra verra Oh non non non je suis pas une idole Sur le damier de Paul tous les gars de Paul m'épaulent Ainsi, nous voici partis, tranquille tu l'as dit l'ami Accompagnés des bonnes fées que sur la piste on rallie Sydney est dans la place tout baigne ! Douala est dans la place tout baigne ! Lausanne est dans la place tout baigne ! Domini est là aussi tout baigne ! Lyon est dans la place tout baigne ! Cologne est dans la place tout baigne ! Londres est dans la place tout baigne ! Tout baigne même pour les gens qui se plaignent Han ! Ça se passe, ça se passe Sur le boulevard on se donne rencard Le jour ou tard le soir O.K. man je reprends et ceci sans faux semblants Je saisis au vol la perche que tu me tends Un groove que rien n'arrête, des peaux qui se complètent Mais la fête ne serait pas parfaite Sans quelques demoiselles bien faites Ça se passe comme ça mais je ne consomme pas rapidement Je déguste le plat, le jeu en vaut la chandelle Stimule mes papilles, les mignonnes m'émoustillent À leur vue, je vacille, elle ondule je la sens tous mes sens en éveil Tout baigne, dans l'eau, dans l'huile, sous le soleil Elles ont toutes de belles plastiques, je m'arme de mon plastique Han ! han ! On ne m'appelle pas pour rien l'homme qui tombe à pic Le fête est éphémère mais au fond on s'en fout Qu'importe le temps, la nuit est à nous Tokyo est dans la place tout baigne ! Dakar est dans la place tout baigne ! Yaoundé est dans la place tout baigne ! La le-da est là aussi tout baigne ! Berlin est dans la place tout baigne ! Tout baigne même pour ceux qui se plaignent Han ! Ça se passe comme ça, han ! Lalali lali lali lalilala, han ! Ouais ! Ça se passe comme ça, han ! Lalali lali lali lalilala, han ! Tout le monde est là ce soir J'entends les Sages Poètes Démocrates D est là aussi Osmose Sléo et tous les re-frè</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ouai jvoulais dire, bon écoute j'voulais dire Cercle Rouge de retour contre toutes les censure possibles, oui j'vais l'dire contre tous ces fils de ...biiip Putain vous faites quoi ? c'est toi Fabien ? Mais non c'est pas moi c'est Jeff Mais arrête c'est Spirit Ouai, ouai c'est tout, à chaque fois qu'y'a une censure, hein, c'est jamais personne J'vais leur dire aussi qu'c'est des encu...biiip Ouai et pas n'prendre pour des c...tuut encore longtemps Eh vous l'faites exprès ou quoi ?biiiiiip Mais mer...biiip fais ch...biiiip... Qui fait du censeur censé Contrôler nos dires, nos raps, nos pensées Sur ce son, soeur, jcompte bien représenter Nos consors, en insensé Déverser les vérités que jrecense et dire tout cque jressens Cest ma vie ça ? alors mles brise pas si tas un 'blème avec FF de Mars' débarque et tcloue lbec, vite fait bien fait Comme des mecs cagoulés Rapper mcolle à la peau tel une sangsue Et ça se sent si jprends une version cash, que jpose dessus A coup sûr, à ce jour, personne mempêchera dlouvrir Tant qude bon et pauvres gens continueront dsouffrir Estimez-vous heureux cest juste des mots pour se faire entendre Jusquà cquon descende ensemble,pour tout foutre à feu, à cendre ! You might also like Me traite pas djeunes à problèmes Juste d'calcineur de pollen Les accrocs aiment le bordel Nos propos lsèment Mais lété est là avant quon sen mêle Heureusement, ici, on te torture pas pour ce que tu as dit Surtout si cest qudes pécadilles Là ça leur plait bien aux PDs Jsuis pas sortit de South Central, ni dnulle part Tu connais ma section, cest du nique tout comme South Park Ou l'historique FF on cherche pas la merde, cest juste le son quon trafique Au mic responsable de massacres comme Elf en Afrique Faut que jparle cash, qulétat sache, quaujourdhui notre rap marche On sacharne à nos vies donc ça fâche les vaches La rue notre repère, on a vu cque vous avez fait à nos pères Travailler pour une misère cest grave On dérange mais dorénavant cest trop tard Comme disent mes potes on a not truc à faire Jchoque les plus fort en grammaire Institution française, ceux qui empochent nos Francs Assis sur une chaise Après faudrait quon staise Nique la musique de France et la censure Qule pays srassure Cercle Rouge - FF, une grosse bavure Yo, il flippe le sas, boom et shoot La censure passe mes textes à la loupe Bosse ton jeu Boy Scout Mission accomplie tant que plane le doute Il faut quma science passe devant Mène devant Sème devant la rage Hé, mais sans laisser de bains dsang On sobstine, faut qula rime contamine Chez lhomme en baggy et blue-jean En France on sexprime, parler devient un crime Le rap est dangereux verbe, argot illicite Cest dans lregard de ses mômes, que la vérité est inscrite Je suis sur la liste de la censure, ils savent que vos oreilles sont séduites Nique la censure, il faut que la vérité soit dite Honnêtement, cest plus de rime pour plus de crimes, maintenant Que la rime est bonne et fine, je connais la bonne combine en ce-Fran De qui sont, ces balles qui sifflent sur nos têtes ? Ces préfets qui décrètent, arrêtent des lois façon chasse ouverte Parce que jsème ma graine dans leur jardin secret Pousse comme le cannabis dans leur paradis parce que jcréé La rime qui gêne, la rime qui chatouille Les consciences, mes douilles Par tes patrouilles, ta douce France part en couille Là où ça pense ça dérange Là où ça rappe ça démange La vie se mélange à lart et le mien est lécho des coups quon smange On boycotte ma prod, empêche ma plume de taffer Pour sinstaller, lautocratie passe par lautodafé On brûle les disques indésirables, les films indésirables Le genre douvrage qui inspirent les inquiétudes comme le sourire du Diable Jte promets nous on sfera plus en-lec On dira cquon a à dire et désormais ça va cogner sec Il est temps que le underground ouvre sa gueule La réalité au mic, jla donne pour ceux qui veulent Pour ceux qui tisent la bonne rime fraîche des MC's Qui toastent avec intelligence et savent cquil disent De lombre je suis sortit, désormais tes avertit Face aux grands dce monde, la vérité sort de la bouche des ptits Jaurais pu quer-bra, vivre de quage-bra Puis finir enchaîné comme Kounta Me réveiller et dire quma vie coûte à Une erreur de jeunesse mais cest pas lcas Jai choisit, de faire du peur-a hardcore sans faire de sentiments Car dans la rue pas dcharabia, avec lEtat cest la carotte quon sprend Alors la censure, rien à foutre dénonce, shoote dans ltas Enfonce lEtat, resserre létau, prononce la vendetta Le malaise faut ldécrire et puis tant pis si ça empire La merde en France cest pas nous qui lavons créée, alors pourquoi smentir LEtat nique sa même si sa mère jla connais pas Jserais certainement pas ldernier à lavoir violée dans un dmes peu-ras Crois-moi, jai la haine aucun vaccin ne pourra me calmer Et sache que lpoids dmes mots ça équivaut à 50 000 tures-voi cramées Rap corsé, langue française pour multicolore Jeunesse blessée, remplie de blessures, déçue par le tricolore Cest plus on censure Eben, quEben sait plus ses peu-ra Jveux pas surfer entre les problèmes, jveux carrément foncer dans ltas - Eh Spirit stoppe la musique, stoppe la musique Spirit Stoppe ça, stoppe ça Eben Attends tu crois vraiment là qujai été hardcore ? qujai représenté le texte au maximum, là ? - Tu vois, jcrois qutaurais pus rentrer un peu plus dans lfond du sujet, tu vois un peu plus bien dedans - Plus hardcore encore ? - Ouais, ouais, encore, vraiment tu vois Rappelle-toi Fabius sang-contaminé... Aucune censure ! Le Pen les camps dconcentration, un détail... Aucune censure ! Quand pour Chirac il y a des mauvaises odeurs... Aucune censure ! Quand les keufs flinguent des jeunes dans lcommissariat Aucune censure ! Lhistoire des sans-papiers, homme politiques Aucune censure ! Qules chômeurs sfont per-ta par les CRS Aucune censure ! Quand ces mêmes CRS foncent-dé une église Aucune censure, aucune censure, aucune censure On la reçoit comme Jean-Marie en Martinique Gauche-droite, moi jopte pour lactivisme Micro-organism Bou-A stoppe Tout pacifisme, thèse massive 9-8 jreprends mes droits en 16 mesures Extrémiste, subversif, bref contre lEtat Polémiquer, jai plus ltemps faut qutu saches ça Quand la voix nsuffit plus à sfaire entendre faut des actes, moi Dans ma chambre jproduis des bombes artisanales Donc range tes textes et fais dmême, cest facile dailleurs jai àl Sous les yeux dquoi faire craquer ta cité Sauter des têtes sitôt qujaurais ajouté le clou du spectacle à ce plan dmaître Faire participer lEtat à mon trip, mon but Faire en sorte quil mette le couvercle sur ma cocotte-minute Que vite la pression monte, compte-à-rebours enclenché Cest dors et déjà trop tard pour désamorcer Dun premier ou second degré ? Maintenant à toi de voir Mais sache que nombreux sront brûlés quand la vérité éclatera Ya trop denjeux, les jeunes qui prennent le mic sont trop dangereux LEtat me censure quand je veux cracher des vérités, vieux Ils ont trop dchoses à cacher, moi jai trop dchoses à dire Jpeux pas laisser faire un Etat qui veut interdire Toute forme dexpression de not part Quelque part, je comprends ça leur ferait peur de voir des lascars qui ont raison Et pour ceux qui ont pour vision de nous foutre en prison Sachez que sur le micro on est plus dun million Jeffraie les pince-cul en cravate, bureaucrate Qui pensent que nous naurons jamais la parole du pas dnos banlieues Un nique la police a autant dimpact que les balles dun gun Et si jdis nique la police, cest nique la police dans la tête de 300 000 jeunes Tous unis par les mêmes propos le temps dun morceau Mobilisés pour léveil des esprits bluffés par linfo Info filtrée, réseaux politiques, lEtat balise Si tous les groupes salliaient et se mettaient en cellule de crise Jaccouche mes textes dans la douleur ils veulent que je me taise Trop dmecs qui bougent contre le stylo ils veulent que je me taise Jdeale des mots pas dla came che-lou ils veulent que je me taise Que je me taise ? là le silence a lodeur de la baise Contrôles de condés hagards hein ! Tu veux que je dise quoi hein ! Que je reste cool, à laise dans mes Cortez hein ! Que je dise rien ! Finir plaqué au sol comme un Comorien Que laffaire stasse comme une liasse Que le français moyen ne voie rien Moi on me dicte pas tout Mon nique tout, cest du nique tout Mes 400 coups sont mes 4351 coups Tas le droit de dire ce qui est dit, décrire ce qui est écrit Pour eux le rap cest comme toubib prends ce quon tas prescrit On te pique tout lEtat un Picsou, qui sarrête pas à tes sous Et qui te brûle, sans dessus-dessous Double-Delta, Cercle-Rouge, cette fois-ci on brûle tout On rase tout Black PPDA alias Dadoo Et dire que je me plaignait en cours quand mon prof voulait pas que jouvre ma bouche Et dire que je me plaignait en cours quand on disait que mes textes étaient louches Le rap, le seul moyen dexpression pour H2O Jai lâché toutes mes tripes pour ce putain dsoit-disant fléau Et maintenant on ose me dire que ma zique est une musique à part Son à part de ptits délinquants finissant dans un rempart Tout lmonde sait qule rap dérange mais que veux-tu cest comme ça On nous prends pas encore au sérieux mais tinquiètes ça viendra Pour linstant je prie dur que ma zique monte et nique tout Au nom du Kappa Double Delta, H2O rappe un point cest tout Un jour tu susurre un track-show Quelques journaux tchient dssus Mais lvent tourne et plus tard un gars te tire dssus À quoi ça rime deux rimes seules ? Sonne autant devine, jbombe le torse Même si sur mes textes le ciel tombe Jbrandirai tout cqui a fait notre amitié, Sako LEtat mfait peur comme létat des miens mfait pitié, pain-co Et qumon son sur les murs et les mots servent Quon mcensure mes mots dserf Tu aurait vu dlà, ma faim dsans mesure Si le vieux lchangent, pas les vies Les mêmes ptites gens dans les faces Pleines dplis sur les mêmes pigeons Une plaie dculture nous nargue Notre art lunique chance de vendetta Comme les énarques qui niquent, narguent, font lAmérique State Dans les mairies qu'ces gars briguent Mon rap irrite parce quil se mêle dce qui gêne Et puis dquoi on smêle si on smêle pas dce qui gêne Ils ont fait dnous Sako et VenzeChill Ça compte et ??? Leur dire quon était des gosses bien ? ils en ont rien à foutre ! Comme ils en ont rien à foutre, quon ait rien dbien à foutre Comme on saccoutre ça choque leur murs Mais qui sait des pervers pleins dfoutre Par ces vers quils aillent tous se faire foutre Nous somme les Maures sur le drapeau Sarde Bâillon sur le paupières, le drapeau stargue Et nos vies sentent le graillon, à ce stade à quoi bon ? Ya quoi dbon si on sla ferme ? Si on slâche ferme, on slâche plus, jveille avec un schlass ferme Le silence implicite, complicité La chasse est ouverte, schlass à tout va Les penseurs leur camp sserre Les dents des censeurs, serre leur poings Ils veulent nous tuer parce que le mot les tue Rentrer ces voix dans nos gorges Qutout soit clair comme leau droche Jcrierai sur les toits quici pour qules bouches sferment On corrompt les curs, mes coups seront de courts textes Lécho des cris dmon âme Ldécor décrit nest pas fictif même si dès quon ldécrit Qupléthore des kleenex des curs écrits pour quil renaisse enfin Al belek quand le Arbi sy met Aucun simulacre. La censure massacrer lhomme à abattre Ainsi que, tous ceux qui ont le parler-haut trop vrai Les mecs trop près du réel qui nromancent pas les faits Ceux qui nrenoncent pas, les vrais Qui côtoient linjustice de près Ceux pour qui la misère na pas dsecret Mais créent des textes qui éveillent les consciences Dès lors, ça créé ltrouble dans lcerveau du schmidt gueulard Alors dis-leur qulheure est venue pour nous dlouvrir De tout dire, la censure quil aillent tous mourir Ils mfont surtout rire quand ils parlent dnous censurer Nous on crie, juste haut et fort ce que lélite nous fait endurer Joue les curés quand il sagit de nous, ça Quand Madonna montre son cul, là, ils applaudissent tous debout Le pouls à 140, ils rêvent dy mettre leur carotte Encore une bande de crâneuses qui joue les propres Tu ne tariras pas mon activité Main mis de côté Nassagira pas ma verve critique Mystik, dune autre école, dun autre bahut Que du chahut Je nfais quchanter les peines et les espoirs, les surs, les frères quya eu En scred, mon esprit est libre, vibre On veut mfaire fermer ma bouche car jtouche leur fibre Comment écrire quand les interdits tombent plus vite Que les caractères dun télé-script Quand nos films, nos textes, nos pensées me tètent, irritent Finis les bruits silencieux, même sse-lai, seul et scellés en solo Debout dans les roues jai lbon essieu Je suis dceux qui au micro niquent le décor Le transistor, au micro sonore, empêche ces messieurs de mi-dor À chaque attaque jbrûle vos droits dvéto Lève létendard de révolte comme létau Mon blaze me trahit Javance à tâtons avec le Cercle le plus haït On a des comptes à régler au pays dla liberté des censeurs Cest sincère ma section va saigner même si lon sen sort Les infos durent toujours une demi-heure à la télé Déclarent des contre-vérités Au J.T. lagité fait vent dEtat Les médias méditent sur que fait la police et lboycotte Quitte à cacher la réalité du monde et toffrent un bon colt Jmène mon enquête sur ma quête et pas dpitié pour les estampes Pour certains cest lfestin La mort en empestant le teston des plus démunis Cest à la pauvreté qujfais référence Ils voudraient qujla ferme alors quà peine commence ma conférence Jparle et jdis cque jai à dire forcé quça fasse grincer les dents La prise de position cest chaud selon la couleur dlépiderme Beaucoup aimerait mentendre chanter il court, il court, le furet Les moralistes de la France profonde de Monsieur lcuré Jbalance ma purée, j'évolue dans un style épuré En featuring avec le Cercle Rouge on détruira nos adversaires Ils veulent me scotcher la bouche Ils se touchent Mes speechs mettent de lordre, mes textes mordent Je gêne et sème la discorde Ma horde crie révolte, ce mot dordre Mon rap résorbe le désordre Merde la censure nous absorbent Jsuis anti-flic et F.N Nique leur mouvement de haine Les jeunes se plaignent, on baigne dans linjustice Nos stylos saignent Jlève mon majeur, jfais couler dlencre Ils veulent clouer mon bec ces cancres Jdéfonce la porte pour que la vérité entre Dans ma triste époque, jdéfends la cause de mes tristes potes Censure ou pas peu importe, jplace mes idées fortes Le flic faf nest pas une légende, il faut quon sdéfende Les gens qui commandent veulent couper mes jambes et couper ma langue LEtat nous berne, le mot nique devient mon terme Jdis cque jaime, le soin cest cque jaime Pas moyen qujme prosterne Jreste fort, jmarche encore, parle encore, gueule encore Tant quya désaccord, jrappe encore, jrappe encore La France veut m'bâillonner, me faire taire, mempêcher d'parler Ceux qui la gouverne savent que de ma bouche peut venir le danger J'pense trop, je gêne trop, la France censure mes propos À coup d'procès, coups d'matraque et d'bombes lacrymo On s'organise, papy La France flippe, papy Le mouvement d'masse fait peur, la pression monte, papy Bien, on amplifie les cris d'rage d'une jeunesse Promesse, les voitures brûlent de Strasbourg jusqu'aux tess' de l'Est C'est feu et cendres Ici, tout l'monde veut s'faire entendre La foule se mobilise, les casques de CRS vont s'fendre J'lutte pour mes convictions, céder sur seule solution Contre-censure, pression, féroce Niro en mission Ménélik, MNLK World-Disney, 24 carats Souviens-toi cest lgars qui fait la te-fê même quand ça va pas Jveux une musique plurielle, loin des envieux Que penser des gens qui pensent que le Hip Hop est à eux Si la censure est laction de faire taire les autres Très bien pourquoi faire le ménage ailleurs faisons le notre Bon ben, le premier qui sur mon texte posera une rature, se sera censure Ça coule de source tellement c'en est sûr Ai-je le droit ddire que je naime pas qutu tappelles Nique Ta Mère ? Si tu mfais taire cest sûr quil y aura dla censure dans lair Quand S préfère jouer les groupes signés sur major Est-ce de la censure, hein ? dis-moi si jai tort Arrête la langue de bois, maintenant il faut mdire de quoi il sagit Mes gars sagitent, mes beaux discours nles arrêtent pas Trop dnégro qui croient posséder la science infuse Trop dD.A. kiffent signer le beurre à profuz Trop dmédia qui à force de sucer, la bouche susent Trop dmajor qui prennent la tendance comme une muse Jai du succès, cest vrai, je sais, mais si jtombe personne me loupe Saloperie de censure, faut savoir cracher dans la soupe Pamphlet numéro 1 Ménélik Je pense cque jdis, donc jdis cque jpense Impossible de me stopper dans mon élan, première sentence Rytmo, pour abolir la censure Jtable sur les mots, finis les blessures De carrière et dégaux Ya pas deffets sans causes, une cause commune Tous pour la même cause, on cause jusquà lover-dose Ya comme une odeur, une pression sur la liberté dexpression Ils veulent refuser au public nos prestations Moi jveux dlaction dans mes textes de rap pour des lyrics Toxiques, explosifs, corrosifs, on changera pas les armes nos lexiques Hé, ils veulent nous voir les nerfs à vif À bout dnerfs, ils veulent nous voir vénèr À bout dsouffle, ils veulent et merde, mais quest-ce quelle a ma gueule ? Elle plait pas aux bâillonneurs haut-placés Message sous forme de baillonnette pour les déplacés Placer bientôt, lÂme du Razwar pour briser létau LAme du Razwar bannit lvéto Piqûre de tranquillisant comme au véto On mcensure de quoi slever tôt On msusurre que jai pas dbol, con Ils sont sûrs quils veulent me trôle-con Sassurent qumon co fasse pas trop lcon Trop jparle, quitte à être peu Des lyrics blindés, phrases subliminales Ben quoi ? tas lair surpris minable ! Quand on veut poucave des scoops Tout-ltemps on stéléscope Les ondes, les antennes scoupe Délie ta langue ou j ripe tels les scouts Puis écoute bien dire fait rire, bien faire fait taire Cest lfoutoir, lÂme du Razwar fouteurs de merde A bon entendeur demi mot Y mreste trop dcostars à tailler, les mettre à nu comme dans Streap-Tease, Demi Moore LInsomniak au mic' splace, spose Fais-moi grâce, jcause, jexplose le CSA Puis mes sujets jexpose Une grande cause impossible dtenir ma langue de mtaire Les baillons, les illères nous servent de batailles en hiver Lair de rien je signale éclaboussures, blessures LInsmoniak, lafflux dfissures, méfie-toi dla morsure Du scorpion, qui retombe sur ses pattes Qui pète le score et lpion tmet en échec et mat Leur vocal blesse, le total stress Ce sont des pestes, aussi tordues qula lettre S Les conflits confirment ma face aride Jsuis lardent défenseur aux arguments torrides 6-6-6 fois 3 font 1-9-9-8 Course poursuite du fils durant les trois 8 De chez White et Spirit, la vérité sébruite Les MCs restent les furets par qui passent les fuites Caméra, média sur mes pas Textes surveillés à la loupe de haut en bas De fond en comble, les mots des rappeurs sont guettés Boycottés, les bâtons dans les rues jles bouffe pour mieux les cracher Vomir cque jai envie ddire, ma direction Érection ou injection de rimes ma protection La ligne de conduite, fil conducteur Noyau, vif du sujet, cest là qujvais Et si on mroule je roule dessus, obligé Driver cest mon nom, quand jveux cracher, jcrache La censure va snoyer dans mon molard, quelle le sache Tu peux pas mempêcher de dire cque jai à dire Ma langue est libre et pour toi cest ce quil y a de pire Laissez-moi assurer Ya pas dblanc sûr et on est censuré Linformation circulera quand même sans censurer certains Faut se taire, bah, nique sa race, jfais mon job cest des News fraîches que les SF pêchent aux quatre coins du globe BDB OOGY car on acte dans la même bataille La censure fait quon a toujours pas dmaille Se serait con qujtravaille donc de tfaçon, garçon On sen bat les couilles, mon crew prépare son combat Et les gros tron-pa mordront à lhameçon Constamment les médias médisent sur le mouvement Une mode à coups de vent mais ça fait déjà 10 ans 10 ans quon peut sy exprimer, soi-disant Cest pas nouveau donc on chie dedans Et prie pour voir un jour le CSA les pieds devant Jdis cque jvis, jvis cque jvois Mcensurer pourquoi ? SoldaFada, black bazooka, rap renégat Opposé à tout quota en France Le rap en télésurveillance Donc ta bienveillance, yeah, on passe outre Autorité, juges, censeurs, rien à foutre Donc, cest parti, jte mets tout sur étalage comme un Pakistanais Papy jconnais, les Victoires de la Musique ce sera jsais pas qui ctannée Pas dpistonné Nakk, Nakk veut pas quon lbâillonne Dac', dac' chaque claque de nous en fait du rap tout-terrain 4x4 Ils niquent ma musique, ça mamuse, les muselières Sont pour nos gueules, jsuis ému ils ont même lu Molière SoldaFada, tu mdiras, ils sont débiles ceux-là Pour eux jsuis plus proche de Mamadou lZoulou que dÉmile Zola Avec White et Spirit, une version adéquate et jtirrite Quoi tes stérile ? taccouche pas, mon micro de 500 Watts est terrible Prendre les armes ben jsais pas. On hésite Ils ont mis des chaînes à mes ancêtres, faut pas quil mettent des chaînes à ma musique Et on verra, qui fait lcon, qui paiera Ça on lsaura, quand la majeure partie des majors participera1</t>
+          <t>Ouai jvoulais dire, bon écoute j'voulais dire Cercle Rouge de retour contre toutes les censure possibles, oui j'vais l'dire contre tous ces fils de ...biiip Putain vous faites quoi ? c'est toi Fabien ? Mais non c'est pas moi c'est Jeff Mais arrête c'est Spirit Ouai, ouai c'est tout, à chaque fois qu'y'a une censure, hein, c'est jamais personne J'vais leur dire aussi qu'c'est des encu...biiip Ouai et pas n'prendre pour des c...tuut encore longtemps Eh vous l'faites exprès ou quoi ?biiiiiip Mais mer...biiip fais ch...biiiip... Qui fait du censeur censé Contrôler nos dires, nos raps, nos pensées Sur ce son, soeur, jcompte bien représenter Nos consors, en insensé Déverser les vérités que jrecense et dire tout cque jressens Cest ma vie ça ? alors mles brise pas si tas un 'blème avec FF de Mars' débarque et tcloue lbec, vite fait bien fait Comme des mecs cagoulés Rapper mcolle à la peau tel une sangsue Et ça se sent si jprends une version cash, que jpose dessus A coup sûr, à ce jour, personne mempêchera dlouvrir Tant qude bon et pauvres gens continueront dsouffrir Estimez-vous heureux cest juste des mots pour se faire entendre Jusquà cquon descende ensemble,pour tout foutre à feu, à cendre ! Me traite pas djeunes à problèmes Juste d'calcineur de pollen Les accrocs aiment le bordel Nos propos lsèment Mais lété est là avant quon sen mêle Heureusement, ici, on te torture pas pour ce que tu as dit Surtout si cest qudes pécadilles Là ça leur plait bien aux PDs Jsuis pas sortit de South Central, ni dnulle part Tu connais ma section, cest du nique tout comme South Park Ou l'historique FF on cherche pas la merde, cest juste le son quon trafique Au mic responsable de massacres comme Elf en Afrique Faut que jparle cash, qulétat sache, quaujourdhui notre rap marche On sacharne à nos vies donc ça fâche les vaches La rue notre repère, on a vu cque vous avez fait à nos pères Travailler pour une misère cest grave On dérange mais dorénavant cest trop tard Comme disent mes potes on a not truc à faire Jchoque les plus fort en grammaire Institution française, ceux qui empochent nos Francs Assis sur une chaise Après faudrait quon staise Nique la musique de France et la censure Qule pays srassure Cercle Rouge - FF, une grosse bavure Yo, il flippe le sas, boom et shoot La censure passe mes textes à la loupe Bosse ton jeu Boy Scout Mission accomplie tant que plane le doute Il faut quma science passe devant Mène devant Sème devant la rage Hé, mais sans laisser de bains dsang On sobstine, faut qula rime contamine Chez lhomme en baggy et blue-jean En France on sexprime, parler devient un crime Le rap est dangereux verbe, argot illicite Cest dans lregard de ses mômes, que la vérité est inscrite Je suis sur la liste de la censure, ils savent que vos oreilles sont séduites Nique la censure, il faut que la vérité soit dite Honnêtement, cest plus de rime pour plus de crimes, maintenant Que la rime est bonne et fine, je connais la bonne combine en ce-Fran De qui sont, ces balles qui sifflent sur nos têtes ? Ces préfets qui décrètent, arrêtent des lois façon chasse ouverte Parce que jsème ma graine dans leur jardin secret Pousse comme le cannabis dans leur paradis parce que jcréé La rime qui gêne, la rime qui chatouille Les consciences, mes douilles Par tes patrouilles, ta douce France part en couille Là où ça pense ça dérange Là où ça rappe ça démange La vie se mélange à lart et le mien est lécho des coups quon smange On boycotte ma prod, empêche ma plume de taffer Pour sinstaller, lautocratie passe par lautodafé On brûle les disques indésirables, les films indésirables Le genre douvrage qui inspirent les inquiétudes comme le sourire du Diable Jte promets nous on sfera plus en-lec On dira cquon a à dire et désormais ça va cogner sec Il est temps que le underground ouvre sa gueule La réalité au mic, jla donne pour ceux qui veulent Pour ceux qui tisent la bonne rime fraîche des MC's Qui toastent avec intelligence et savent cquil disent De lombre je suis sortit, désormais tes avertit Face aux grands dce monde, la vérité sort de la bouche des ptits Jaurais pu quer-bra, vivre de quage-bra Puis finir enchaîné comme Kounta Me réveiller et dire quma vie coûte à Une erreur de jeunesse mais cest pas lcas Jai choisit, de faire du peur-a hardcore sans faire de sentiments Car dans la rue pas dcharabia, avec lEtat cest la carotte quon sprend Alors la censure, rien à foutre dénonce, shoote dans ltas Enfonce lEtat, resserre létau, prononce la vendetta Le malaise faut ldécrire et puis tant pis si ça empire La merde en France cest pas nous qui lavons créée, alors pourquoi smentir LEtat nique sa même si sa mère jla connais pas Jserais certainement pas ldernier à lavoir violée dans un dmes peu-ras Crois-moi, jai la haine aucun vaccin ne pourra me calmer Et sache que lpoids dmes mots ça équivaut à 50 000 tures-voi cramées Rap corsé, langue française pour multicolore Jeunesse blessée, remplie de blessures, déçue par le tricolore Cest plus on censure Eben, quEben sait plus ses peu-ra Jveux pas surfer entre les problèmes, jveux carrément foncer dans ltas - Eh Spirit stoppe la musique, stoppe la musique Spirit Stoppe ça, stoppe ça Eben Attends tu crois vraiment là qujai été hardcore ? qujai représenté le texte au maximum, là ? - Tu vois, jcrois qutaurais pus rentrer un peu plus dans lfond du sujet, tu vois un peu plus bien dedans - Plus hardcore encore ? - Ouais, ouais, encore, vraiment tu vois Rappelle-toi Fabius sang-contaminé... Aucune censure ! Le Pen les camps dconcentration, un détail... Aucune censure ! Quand pour Chirac il y a des mauvaises odeurs... Aucune censure ! Quand les keufs flinguent des jeunes dans lcommissariat Aucune censure ! Lhistoire des sans-papiers, homme politiques Aucune censure ! Qules chômeurs sfont per-ta par les CRS Aucune censure ! Quand ces mêmes CRS foncent-dé une église Aucune censure, aucune censure, aucune censure On la reçoit comme Jean-Marie en Martinique Gauche-droite, moi jopte pour lactivisme Micro-organism Bou-A stoppe Tout pacifisme, thèse massive 9-8 jreprends mes droits en 16 mesures Extrémiste, subversif, bref contre lEtat Polémiquer, jai plus ltemps faut qutu saches ça Quand la voix nsuffit plus à sfaire entendre faut des actes, moi Dans ma chambre jproduis des bombes artisanales Donc range tes textes et fais dmême, cest facile dailleurs jai àl Sous les yeux dquoi faire craquer ta cité Sauter des têtes sitôt qujaurais ajouté le clou du spectacle à ce plan dmaître Faire participer lEtat à mon trip, mon but Faire en sorte quil mette le couvercle sur ma cocotte-minute Que vite la pression monte, compte-à-rebours enclenché Cest dors et déjà trop tard pour désamorcer Dun premier ou second degré ? Maintenant à toi de voir Mais sache que nombreux sront brûlés quand la vérité éclatera Ya trop denjeux, les jeunes qui prennent le mic sont trop dangereux LEtat me censure quand je veux cracher des vérités, vieux Ils ont trop dchoses à cacher, moi jai trop dchoses à dire Jpeux pas laisser faire un Etat qui veut interdire Toute forme dexpression de not part Quelque part, je comprends ça leur ferait peur de voir des lascars qui ont raison Et pour ceux qui ont pour vision de nous foutre en prison Sachez que sur le micro on est plus dun million Jeffraie les pince-cul en cravate, bureaucrate Qui pensent que nous naurons jamais la parole du pas dnos banlieues Un nique la police a autant dimpact que les balles dun gun Et si jdis nique la police, cest nique la police dans la tête de 300 000 jeunes Tous unis par les mêmes propos le temps dun morceau Mobilisés pour léveil des esprits bluffés par linfo Info filtrée, réseaux politiques, lEtat balise Si tous les groupes salliaient et se mettaient en cellule de crise Jaccouche mes textes dans la douleur ils veulent que je me taise Trop dmecs qui bougent contre le stylo ils veulent que je me taise Jdeale des mots pas dla came che-lou ils veulent que je me taise Que je me taise ? là le silence a lodeur de la baise Contrôles de condés hagards hein ! Tu veux que je dise quoi hein ! Que je reste cool, à laise dans mes Cortez hein ! Que je dise rien ! Finir plaqué au sol comme un Comorien Que laffaire stasse comme une liasse Que le français moyen ne voie rien Moi on me dicte pas tout Mon nique tout, cest du nique tout Mes 400 coups sont mes 4351 coups Tas le droit de dire ce qui est dit, décrire ce qui est écrit Pour eux le rap cest comme toubib prends ce quon tas prescrit On te pique tout lEtat un Picsou, qui sarrête pas à tes sous Et qui te brûle, sans dessus-dessous Double-Delta, Cercle-Rouge, cette fois-ci on brûle tout On rase tout Black PPDA alias Dadoo Et dire que je me plaignait en cours quand mon prof voulait pas que jouvre ma bouche Et dire que je me plaignait en cours quand on disait que mes textes étaient louches Le rap, le seul moyen dexpression pour H2O Jai lâché toutes mes tripes pour ce putain dsoit-disant fléau Et maintenant on ose me dire que ma zique est une musique à part Son à part de ptits délinquants finissant dans un rempart Tout lmonde sait qule rap dérange mais que veux-tu cest comme ça On nous prends pas encore au sérieux mais tinquiètes ça viendra Pour linstant je prie dur que ma zique monte et nique tout Au nom du Kappa Double Delta, H2O rappe un point cest tout Un jour tu susurre un track-show Quelques journaux tchient dssus Mais lvent tourne et plus tard un gars te tire dssus À quoi ça rime deux rimes seules ? Sonne autant devine, jbombe le torse Même si sur mes textes le ciel tombe Jbrandirai tout cqui a fait notre amitié, Sako LEtat mfait peur comme létat des miens mfait pitié, pain-co Et qumon son sur les murs et les mots servent Quon mcensure mes mots dserf Tu aurait vu dlà, ma faim dsans mesure Si le vieux lchangent, pas les vies Les mêmes ptites gens dans les faces Pleines dplis sur les mêmes pigeons Une plaie dculture nous nargue Notre art lunique chance de vendetta Comme les énarques qui niquent, narguent, font lAmérique State Dans les mairies qu'ces gars briguent Mon rap irrite parce quil se mêle dce qui gêne Et puis dquoi on smêle si on smêle pas dce qui gêne Ils ont fait dnous Sako et VenzeChill Ça compte et ??? Leur dire quon était des gosses bien ? ils en ont rien à foutre ! Comme ils en ont rien à foutre, quon ait rien dbien à foutre Comme on saccoutre ça choque leur murs Mais qui sait des pervers pleins dfoutre Par ces vers quils aillent tous se faire foutre Nous somme les Maures sur le drapeau Sarde Bâillon sur le paupières, le drapeau stargue Et nos vies sentent le graillon, à ce stade à quoi bon ? Ya quoi dbon si on sla ferme ? Si on slâche ferme, on slâche plus, jveille avec un schlass ferme Le silence implicite, complicité La chasse est ouverte, schlass à tout va Les penseurs leur camp sserre Les dents des censeurs, serre leur poings Ils veulent nous tuer parce que le mot les tue Rentrer ces voix dans nos gorges Qutout soit clair comme leau droche Jcrierai sur les toits quici pour qules bouches sferment On corrompt les curs, mes coups seront de courts textes Lécho des cris dmon âme Ldécor décrit nest pas fictif même si dès quon ldécrit Qupléthore des kleenex des curs écrits pour quil renaisse enfin Al belek quand le Arbi sy met Aucun simulacre. La censure massacrer lhomme à abattre Ainsi que, tous ceux qui ont le parler-haut trop vrai Les mecs trop près du réel qui nromancent pas les faits Ceux qui nrenoncent pas, les vrais Qui côtoient linjustice de près Ceux pour qui la misère na pas dsecret Mais créent des textes qui éveillent les consciences Dès lors, ça créé ltrouble dans lcerveau du schmidt gueulard Alors dis-leur qulheure est venue pour nous dlouvrir De tout dire, la censure quil aillent tous mourir Ils mfont surtout rire quand ils parlent dnous censurer Nous on crie, juste haut et fort ce que lélite nous fait endurer Joue les curés quand il sagit de nous, ça Quand Madonna montre son cul, là, ils applaudissent tous debout Le pouls à 140, ils rêvent dy mettre leur carotte Encore une bande de crâneuses qui joue les propres Tu ne tariras pas mon activité Main mis de côté Nassagira pas ma verve critique Mystik, dune autre école, dun autre bahut Que du chahut Je nfais quchanter les peines et les espoirs, les surs, les frères quya eu En scred, mon esprit est libre, vibre On veut mfaire fermer ma bouche car jtouche leur fibre Comment écrire quand les interdits tombent plus vite Que les caractères dun télé-script Quand nos films, nos textes, nos pensées me tètent, irritent Finis les bruits silencieux, même sse-lai, seul et scellés en solo Debout dans les roues jai lbon essieu Je suis dceux qui au micro niquent le décor Le transistor, au micro sonore, empêche ces messieurs de mi-dor À chaque attaque jbrûle vos droits dvéto Lève létendard de révolte comme létau Mon blaze me trahit Javance à tâtons avec le Cercle le plus haït On a des comptes à régler au pays dla liberté des censeurs Cest sincère ma section va saigner même si lon sen sort Les infos durent toujours une demi-heure à la télé Déclarent des contre-vérités Au J.T. lagité fait vent dEtat Les médias méditent sur que fait la police et lboycotte Quitte à cacher la réalité du monde et toffrent un bon colt Jmène mon enquête sur ma quête et pas dpitié pour les estampes Pour certains cest lfestin La mort en empestant le teston des plus démunis Cest à la pauvreté qujfais référence Ils voudraient qujla ferme alors quà peine commence ma conférence Jparle et jdis cque jai à dire forcé quça fasse grincer les dents La prise de position cest chaud selon la couleur dlépiderme Beaucoup aimerait mentendre chanter il court, il court, le furet Les moralistes de la France profonde de Monsieur lcuré Jbalance ma purée, j'évolue dans un style épuré En featuring avec le Cercle Rouge on détruira nos adversaires Ils veulent me scotcher la bouche Ils se touchent Mes speechs mettent de lordre, mes textes mordent Je gêne et sème la discorde Ma horde crie révolte, ce mot dordre Mon rap résorbe le désordre Merde la censure nous absorbent Jsuis anti-flic et F.N Nique leur mouvement de haine Les jeunes se plaignent, on baigne dans linjustice Nos stylos saignent Jlève mon majeur, jfais couler dlencre Ils veulent clouer mon bec ces cancres Jdéfonce la porte pour que la vérité entre Dans ma triste époque, jdéfends la cause de mes tristes potes Censure ou pas peu importe, jplace mes idées fortes Le flic faf nest pas une légende, il faut quon sdéfende Les gens qui commandent veulent couper mes jambes et couper ma langue LEtat nous berne, le mot nique devient mon terme Jdis cque jaime, le soin cest cque jaime Pas moyen qujme prosterne Jreste fort, jmarche encore, parle encore, gueule encore Tant quya désaccord, jrappe encore, jrappe encore La France veut m'bâillonner, me faire taire, mempêcher d'parler Ceux qui la gouverne savent que de ma bouche peut venir le danger J'pense trop, je gêne trop, la France censure mes propos À coup d'procès, coups d'matraque et d'bombes lacrymo On s'organise, papy La France flippe, papy Le mouvement d'masse fait peur, la pression monte, papy Bien, on amplifie les cris d'rage d'une jeunesse Promesse, les voitures brûlent de Strasbourg jusqu'aux tess' de l'Est C'est feu et cendres Ici, tout l'monde veut s'faire entendre La foule se mobilise, les casques de CRS vont s'fendre J'lutte pour mes convictions, céder sur seule solution Contre-censure, pression, féroce Niro en mission Ménélik, MNLK World-Disney, 24 carats Souviens-toi cest lgars qui fait la te-fê même quand ça va pas Jveux une musique plurielle, loin des envieux Que penser des gens qui pensent que le Hip Hop est à eux Si la censure est laction de faire taire les autres Très bien pourquoi faire le ménage ailleurs faisons le notre Bon ben, le premier qui sur mon texte posera une rature, se sera censure Ça coule de source tellement c'en est sûr Ai-je le droit ddire que je naime pas qutu tappelles Nique Ta Mère ? Si tu mfais taire cest sûr quil y aura dla censure dans lair Quand S préfère jouer les groupes signés sur major Est-ce de la censure, hein ? dis-moi si jai tort Arrête la langue de bois, maintenant il faut mdire de quoi il sagit Mes gars sagitent, mes beaux discours nles arrêtent pas Trop dnégro qui croient posséder la science infuse Trop dD.A. kiffent signer le beurre à profuz Trop dmédia qui à force de sucer, la bouche susent Trop dmajor qui prennent la tendance comme une muse Jai du succès, cest vrai, je sais, mais si jtombe personne me loupe Saloperie de censure, faut savoir cracher dans la soupe Pamphlet numéro 1 Ménélik Je pense cque jdis, donc jdis cque jpense Impossible de me stopper dans mon élan, première sentence Rytmo, pour abolir la censure Jtable sur les mots, finis les blessures De carrière et dégaux Ya pas deffets sans causes, une cause commune Tous pour la même cause, on cause jusquà lover-dose Ya comme une odeur, une pression sur la liberté dexpression Ils veulent refuser au public nos prestations Moi jveux dlaction dans mes textes de rap pour des lyrics Toxiques, explosifs, corrosifs, on changera pas les armes nos lexiques Hé, ils veulent nous voir les nerfs à vif À bout dnerfs, ils veulent nous voir vénèr À bout dsouffle, ils veulent et merde, mais quest-ce quelle a ma gueule ? Elle plait pas aux bâillonneurs haut-placés Message sous forme de baillonnette pour les déplacés Placer bientôt, lÂme du Razwar pour briser létau LAme du Razwar bannit lvéto Piqûre de tranquillisant comme au véto On mcensure de quoi slever tôt On msusurre que jai pas dbol, con Ils sont sûrs quils veulent me trôle-con Sassurent qumon co fasse pas trop lcon Trop jparle, quitte à être peu Des lyrics blindés, phrases subliminales Ben quoi ? tas lair surpris minable ! Quand on veut poucave des scoops Tout-ltemps on stéléscope Les ondes, les antennes scoupe Délie ta langue ou j ripe tels les scouts Puis écoute bien dire fait rire, bien faire fait taire Cest lfoutoir, lÂme du Razwar fouteurs de merde A bon entendeur demi mot Y mreste trop dcostars à tailler, les mettre à nu comme dans Streap-Tease, Demi Moore LInsomniak au mic' splace, spose Fais-moi grâce, jcause, jexplose le CSA Puis mes sujets jexpose Une grande cause impossible dtenir ma langue de mtaire Les baillons, les illères nous servent de batailles en hiver Lair de rien je signale éclaboussures, blessures LInsmoniak, lafflux dfissures, méfie-toi dla morsure Du scorpion, qui retombe sur ses pattes Qui pète le score et lpion tmet en échec et mat Leur vocal blesse, le total stress Ce sont des pestes, aussi tordues qula lettre S Les conflits confirment ma face aride Jsuis lardent défenseur aux arguments torrides 6-6-6 fois 3 font 1-9-9-8 Course poursuite du fils durant les trois 8 De chez White et Spirit, la vérité sébruite Les MCs restent les furets par qui passent les fuites Caméra, média sur mes pas Textes surveillés à la loupe de haut en bas De fond en comble, les mots des rappeurs sont guettés Boycottés, les bâtons dans les rues jles bouffe pour mieux les cracher Vomir cque jai envie ddire, ma direction Érection ou injection de rimes ma protection La ligne de conduite, fil conducteur Noyau, vif du sujet, cest là qujvais Et si on mroule je roule dessus, obligé Driver cest mon nom, quand jveux cracher, jcrache La censure va snoyer dans mon molard, quelle le sache Tu peux pas mempêcher de dire cque jai à dire Ma langue est libre et pour toi cest ce quil y a de pire Laissez-moi assurer Ya pas dblanc sûr et on est censuré Linformation circulera quand même sans censurer certains Faut se taire, bah, nique sa race, jfais mon job cest des News fraîches que les SF pêchent aux quatre coins du globe BDB OOGY car on acte dans la même bataille La censure fait quon a toujours pas dmaille Se serait con qujtravaille donc de tfaçon, garçon On sen bat les couilles, mon crew prépare son combat Et les gros tron-pa mordront à lhameçon Constamment les médias médisent sur le mouvement Une mode à coups de vent mais ça fait déjà 10 ans 10 ans quon peut sy exprimer, soi-disant Cest pas nouveau donc on chie dedans Et prie pour voir un jour le CSA les pieds devant Jdis cque jvis, jvis cque jvois Mcensurer pourquoi ? SoldaFada, black bazooka, rap renégat Opposé à tout quota en France Le rap en télésurveillance Donc ta bienveillance, yeah, on passe outre Autorité, juges, censeurs, rien à foutre Donc, cest parti, jte mets tout sur étalage comme un Pakistanais Papy jconnais, les Victoires de la Musique ce sera jsais pas qui ctannée Pas dpistonné Nakk, Nakk veut pas quon lbâillonne Dac', dac' chaque claque de nous en fait du rap tout-terrain 4x4 Ils niquent ma musique, ça mamuse, les muselières Sont pour nos gueules, jsuis ému ils ont même lu Molière SoldaFada, tu mdiras, ils sont débiles ceux-là Pour eux jsuis plus proche de Mamadou lZoulou que dÉmile Zola Avec White et Spirit, une version adéquate et jtirrite Quoi tes stérile ? taccouche pas, mon micro de 500 Watts est terrible Prendre les armes ben jsais pas. On hésite Ils ont mis des chaînes à mes ancêtres, faut pas quil mettent des chaînes à ma musique Et on verra, qui fait lcon, qui paiera Ça on lsaura, quand la majeure partie des majors participera1</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Intro Couplet 1 Rien d' plus qu'une face de craie d' plus ancrée dans un business de requins Quand la rue fait recette le Puzzle sort des souterrains Fils d'un des peuples les plus asservis d' la planète Respecte ma race d'escroc et laisse-moi t' montrer ces tueries en séries, boucherie lyricale c'est mon écurie J'ai faim mais pas au point de mettre au point un son tout pourri La chance sourit à ceux qui baissent leur fut' écartent leurs fesses Yo ! Qu'elle m' fasse la gueule car mon trou d' balle ne sert qu'à ier-ch Couplet 2 J' roule un deux yeuf, Jeff carotte les bufs carotte Tu notes sur ton calepin tu vois les seuff des keufs Dis-toi dans l' rap, j' suis prophète, pas du 2512 Imagine Jésus Nazareth vendre une rett' ou un douze 97 nouvelle époque, j'arrive comme une nouvelle drogue, en vogue Une vague odeur de mort qui flotte Station d'métro Simplon mix de races Massy Tous unis dans l'action protège-moi de tuer l' shérif Couplet 3 Ouais protège-toi de ces vrais oufs trop musclés Mauvais payeurs plantés étendus sur l' bas-côté Y' a pas qu' des innocents à la santé vu qu' j'y suis parti C'est le son des barricades que le béton a enfanté Ouais Tony Resha, la vie est une pute baise-la comme Franchis les barrières à la manière d'un affranchi La came enrichit, l'argent s' blanchit Les chances sont maigres, les gars qui s' lancent tournent au vinaigre You might also likeCouplet 4 Toujours les mêmes qui parlent des mêmes, de la misère et d' la pauvreté Juvre pour mes frères j' suis pas une star j' suis pas un yéyé Ma vie est comme un film, où j'aurais l' rôle du salaud Face de craie négro, on est tous parqués dans l' même zoo Alors , vraie bande organisée qui tourne aux boissons anisées Freestyle Puzzle pour traumatiser Jaffûte mes armes, fais pas l' brave même si y en a qui te savent honnête J' te ferais ramasser la savonnette Couplet 5 Now what you wanna do son, what you wanna do yo Lorenzo Black bambino, techniques from Kilimanjaro Lebanon bombin your spot and Same time we loungin Yo me and my amigos we the organized bambinos Rock on, rock rock on I drop the bomb On this song all along son son Im the king of the ring when Im blowing your mind I shine all time, got your eyes blind huh Couplet 6 Pas d' bataille, prise de mic approchez les cailles Y' a p't-être le futur Nas Dee Nas dans ce freestyle Goûte mon flow dans ce match de catch des mots Le demi négro comme un pro en impro au micro Place en synchro, des mots décalés, comme l'opéra c'est ballet Apprécie, chut, tais-toi ! Ou du balai ! C'est peace fils, te pisse pas d'ssus tu déconnes ? Nous on déconne pas d' pression au microphone, ya ! Couplet 7 Car j' traîne dans un drôle d'univers crade où l'urbanisme est quasi obscène Malfrats en tout genre et des fêlés qui te fuck net Enfermé dans des murs gris, cloison d' béton L'odeur du bitume en est infecte et les émanations De came putride, des moisissures de coton Remontent à la surface comme une odeur de décomposition Fraîche, trop imbibé du vice qui me rend infect Le respect du voisin demande d'abord que l'on se respecte Couplet 8 Hey ! Lève les yeux regarde et dis-moi c' que tu vois Partout y en a qui attendent comme pour rentrer au cinéma, téma Partout l'on croise des comédiens, mais la vie n'a rien D'un film Hollywoodien, combien Non non non pas de questions, à répétition pour trouver des définitions Je vis ce que je vois et vice-versa Shakim rime là et s'arrête aussi là Couplet 9 Well yes yo My firm nigga, we sit and sip liquor Coming bigger, 97, pull rhymes like trigger Word is bond James Bond Making million Sean Combs With izm and lyricisms Technique blew Babylon Yo I excel like foxy what, I ring your bell One time two time, ready for the hell One for the money two for the honeys Put it in your mouth and do the things I like yeah Kaysha, Organiz Players for real Check it Couplet 11 Fixe Driver, et vois comme il opère chérie Style propre rien à voir avec la porcherie Des faux MCs je fais tout pour être hyper che-ri Si tu ramènes des tasses-pé, je les pêche et j' ris Et je lâche des nouvelles phases pour les copines qui m' l'ont demandé Les filles sensibles mouillent et les cailleras se mettent à bander Eh les mecs ! On m' bip j' dois passer un coup d'fil Chérie j' t'embrasse, j'espère qu' t' as kiffé mon style Couplet 12 Pas l' temps d' jouer les rappeurs sans cerveau Quelques mesures pour mon flow Rootsneg combat, pèse ses mots j' voudrais juste que là Sère-mi cesse, dans les ghettos ou le peuple n's'y plaît pas J' veux qu'il se dresse, contre lone-by-Ba, Babylone Babylone, je n' suis qu'un en somme, en somme, c'est Manifeste Couplet 13 Yes, y'a pas d' stress Révolution doctrinale dans le style de combat Attaque à la tchatche, à la kalash attaque à l'AK 47 dans la secte on vend des Exocet plus Le nitro-flow, pour faire sauter la planète Appelle-moi chantage, harcèlement textuel J'ai des bombes pour les ondes Van Cleef et Arpels La BAC me traque parce que j'ai l' flow qui frappe Et les flics me kidnappent, allez, plan vigipirate 2</t>
+          <t>Intro Couplet 1 Rien d' plus qu'une face de craie d' plus ancrée dans un business de requins Quand la rue fait recette le Puzzle sort des souterrains Fils d'un des peuples les plus asservis d' la planète Respecte ma race d'escroc et laisse-moi t' montrer ces tueries en séries, boucherie lyricale c'est mon écurie J'ai faim mais pas au point de mettre au point un son tout pourri La chance sourit à ceux qui baissent leur fut' écartent leurs fesses Yo ! Qu'elle m' fasse la gueule car mon trou d' balle ne sert qu'à ier-ch Couplet 2 J' roule un deux yeuf, Jeff carotte les bufs carotte Tu notes sur ton calepin tu vois les seuff des keufs Dis-toi dans l' rap, j' suis prophète, pas du 2512 Imagine Jésus Nazareth vendre une rett' ou un douze 97 nouvelle époque, j'arrive comme une nouvelle drogue, en vogue Une vague odeur de mort qui flotte Station d'métro Simplon mix de races Massy Tous unis dans l'action protège-moi de tuer l' shérif Couplet 3 Ouais protège-toi de ces vrais oufs trop musclés Mauvais payeurs plantés étendus sur l' bas-côté Y' a pas qu' des innocents à la santé vu qu' j'y suis parti C'est le son des barricades que le béton a enfanté Ouais Tony Resha, la vie est une pute baise-la comme Franchis les barrières à la manière d'un affranchi La came enrichit, l'argent s' blanchit Les chances sont maigres, les gars qui s' lancent tournent au vinaigre Couplet 4 Toujours les mêmes qui parlent des mêmes, de la misère et d' la pauvreté Juvre pour mes frères j' suis pas une star j' suis pas un yéyé Ma vie est comme un film, où j'aurais l' rôle du salaud Face de craie négro, on est tous parqués dans l' même zoo Alors , vraie bande organisée qui tourne aux boissons anisées Freestyle Puzzle pour traumatiser Jaffûte mes armes, fais pas l' brave même si y en a qui te savent honnête J' te ferais ramasser la savonnette Couplet 5 Now what you wanna do son, what you wanna do yo Lorenzo Black bambino, techniques from Kilimanjaro Lebanon bombin your spot and Same time we loungin Yo me and my amigos we the organized bambinos Rock on, rock rock on I drop the bomb On this song all along son son Im the king of the ring when Im blowing your mind I shine all time, got your eyes blind huh Couplet 6 Pas d' bataille, prise de mic approchez les cailles Y' a p't-être le futur Nas Dee Nas dans ce freestyle Goûte mon flow dans ce match de catch des mots Le demi négro comme un pro en impro au micro Place en synchro, des mots décalés, comme l'opéra c'est ballet Apprécie, chut, tais-toi ! Ou du balai ! C'est peace fils, te pisse pas d'ssus tu déconnes ? Nous on déconne pas d' pression au microphone, ya ! Couplet 7 Car j' traîne dans un drôle d'univers crade où l'urbanisme est quasi obscène Malfrats en tout genre et des fêlés qui te fuck net Enfermé dans des murs gris, cloison d' béton L'odeur du bitume en est infecte et les émanations De came putride, des moisissures de coton Remontent à la surface comme une odeur de décomposition Fraîche, trop imbibé du vice qui me rend infect Le respect du voisin demande d'abord que l'on se respecte Couplet 8 Hey ! Lève les yeux regarde et dis-moi c' que tu vois Partout y en a qui attendent comme pour rentrer au cinéma, téma Partout l'on croise des comédiens, mais la vie n'a rien D'un film Hollywoodien, combien Non non non pas de questions, à répétition pour trouver des définitions Je vis ce que je vois et vice-versa Shakim rime là et s'arrête aussi là Couplet 9 Well yes yo My firm nigga, we sit and sip liquor Coming bigger, 97, pull rhymes like trigger Word is bond James Bond Making million Sean Combs With izm and lyricisms Technique blew Babylon Yo I excel like foxy what, I ring your bell One time two time, ready for the hell One for the money two for the honeys Put it in your mouth and do the things I like yeah Kaysha, Organiz Players for real Check it Couplet 11 Fixe Driver, et vois comme il opère chérie Style propre rien à voir avec la porcherie Des faux MCs je fais tout pour être hyper che-ri Si tu ramènes des tasses-pé, je les pêche et j' ris Et je lâche des nouvelles phases pour les copines qui m' l'ont demandé Les filles sensibles mouillent et les cailleras se mettent à bander Eh les mecs ! On m' bip j' dois passer un coup d'fil Chérie j' t'embrasse, j'espère qu' t' as kiffé mon style Couplet 12 Pas l' temps d' jouer les rappeurs sans cerveau Quelques mesures pour mon flow Rootsneg combat, pèse ses mots j' voudrais juste que là Sère-mi cesse, dans les ghettos ou le peuple n's'y plaît pas J' veux qu'il se dresse, contre lone-by-Ba, Babylone Babylone, je n' suis qu'un en somme, en somme, c'est Manifeste Couplet 13 Yes, y'a pas d' stress Révolution doctrinale dans le style de combat Attaque à la tchatche, à la kalash attaque à l'AK 47 dans la secte on vend des Exocet plus Le nitro-flow, pour faire sauter la planète Appelle-moi chantage, harcèlement textuel J'ai des bombes pour les ondes Van Cleef et Arpels La BAC me traque parce que j'ai l' flow qui frappe Et les flics me kidnappent, allez, plan vigipirate 2</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Où t'étais ? Invité par des potes à une te-fê On s'amusait bien, je n'ai pas vu l'heure qu'il était Ah ouais ? C'est vrai ! Je te connais par cur J'aimerais savoir pourquoi tu agis comme un voleur Tu te fais des films Je ne voulais pas te réveiller c'est tout Arrête avec tes questions Dis-moi plutôt à quoi tu joues Je joue à la fille qui en a marre de te voir rentrer tard Tout ça parce que tu préfères traîner avec tes lascars You might also like Il est tard chérie Écoute baisse le ton tu fais trop de bruit Ce ne sont pas des lascars, ce sont mes amis Amis ? Et pourquoi m'appellent-ils quand tu n'es pas là ? Sans doute par respect et déférence envers toi Les bâtards ! Ah bon ? Tu ne le savais pas ? Tes potes ne se gênent pas pour me narrer tes exploits Aussitôt le dos tourné, au téléphone ils me draguent Ne fais pas l'innocent, tu as surpris le gars en flag' Tu es la seule qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es le seul qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es la seule qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es le seul qui m'aille, je te le dis sans faille Reste cool gars sinon j'te dirai bye bye C'est bon, c'est bon, tu peux prendre toutes tes affaires Ah ouais ! Et tu crois que je t'ai attendu pour le faire ? Toi et ta horde de serpents Je vous souhaite bien du bon temps Je suis parti à présent Ce sera l'orgie à plein temps Tu souris encore ? Même pas l'once d'un remords Change d'attitude Ou je sculpte un nouveau décor Allez bye bye Tu prends tes cliques, tes claques Et tu te tailles Ta mère avait raison Ma mère ? Laisse-moi donc Et ma pagaille Tiens parlant d'elle As-tu trouvé sa muselière ? Qu'a-t-elle à voir dans cette affaire ? Ne touche pas à ma mère Qui le voudrait ? C'est vrai, c'est un vrai supplice de la voir D'autant plus qu'elle s'invite ici à dîner tous les soirs Je n'ai jamais compris Pourquoi tu affiches Tant de mépris Envers ma famille Spécialement ceux qui t'apprécient Elle m'apprécie ? Moi, ou mon porte-monnaie ? Peut-être les deux qui sait ? Arrête s'il te plaît ! Tu es le seul qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es la seule qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es le seul qui m'aille, je te le dis sans faille Reste cool gars sinon j'te dirai bye bye Tu es la seule qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Non mais hé ! Franchement Y a quelque chose qui va pas là Ah ! T'as le chic pour tout gâcher Arrête, arrête, arrête, non non non C'est vrai que je suis un peu éméché mais bon ! Oh la la la la Quoi oh la la ? Franchement ! Est-ce vraiment une heure pour rentrer chez soi ? Tu t'inquiètes du bruit Occupe-toi de ce qui se passe chez toi Chez moi Ça allait jusqu'à une certaine prise de tête Ce qui me contrarie C'est d'avoir trouvé la femme parfaite Pas d'amis Pas de sorties Pas de fille au lit Pas d'envies Et accessoirement Pas de sexe aussi Quoi ? Le bonheur ! Mais je rajouterais sur la notice Il faudrait pouvoir dégonfler après service C'est un coup bas OK ! Excuse-moi Mais je t'en prie Prends-moi donc dans tes bras C'est trop facile ! Excuse-moi ! Je n'ai pas fini Arrêtons ! Non On va y passer le reste de la nuit Je me suis lassée Je suis cassée J'en ai plus qu'assez L'ardoise est chargée Fissa, tu ferais bien de l'effacer Tu es la seule qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es le seul qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es la seule qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es le seul qui m'aille, je te le dis sans faille Reste cool gars sinon j'te dirai bye bye1</t>
+          <t>Où t'étais ? Invité par des potes à une te-fê On s'amusait bien, je n'ai pas vu l'heure qu'il était Ah ouais ? C'est vrai ! Je te connais par cur J'aimerais savoir pourquoi tu agis comme un voleur Tu te fais des films Je ne voulais pas te réveiller c'est tout Arrête avec tes questions Dis-moi plutôt à quoi tu joues Je joue à la fille qui en a marre de te voir rentrer tard Tout ça parce que tu préfères traîner avec tes lascars Il est tard chérie Écoute baisse le ton tu fais trop de bruit Ce ne sont pas des lascars, ce sont mes amis Amis ? Et pourquoi m'appellent-ils quand tu n'es pas là ? Sans doute par respect et déférence envers toi Les bâtards ! Ah bon ? Tu ne le savais pas ? Tes potes ne se gênent pas pour me narrer tes exploits Aussitôt le dos tourné, au téléphone ils me draguent Ne fais pas l'innocent, tu as surpris le gars en flag' Tu es la seule qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es le seul qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es la seule qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es le seul qui m'aille, je te le dis sans faille Reste cool gars sinon j'te dirai bye bye C'est bon, c'est bon, tu peux prendre toutes tes affaires Ah ouais ! Et tu crois que je t'ai attendu pour le faire ? Toi et ta horde de serpents Je vous souhaite bien du bon temps Je suis parti à présent Ce sera l'orgie à plein temps Tu souris encore ? Même pas l'once d'un remords Change d'attitude Ou je sculpte un nouveau décor Allez bye bye Tu prends tes cliques, tes claques Et tu te tailles Ta mère avait raison Ma mère ? Laisse-moi donc Et ma pagaille Tiens parlant d'elle As-tu trouvé sa muselière ? Qu'a-t-elle à voir dans cette affaire ? Ne touche pas à ma mère Qui le voudrait ? C'est vrai, c'est un vrai supplice de la voir D'autant plus qu'elle s'invite ici à dîner tous les soirs Je n'ai jamais compris Pourquoi tu affiches Tant de mépris Envers ma famille Spécialement ceux qui t'apprécient Elle m'apprécie ? Moi, ou mon porte-monnaie ? Peut-être les deux qui sait ? Arrête s'il te plaît ! Tu es le seul qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es la seule qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es le seul qui m'aille, je te le dis sans faille Reste cool gars sinon j'te dirai bye bye Tu es la seule qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Non mais hé ! Franchement Y a quelque chose qui va pas là Ah ! T'as le chic pour tout gâcher Arrête, arrête, arrête, non non non C'est vrai que je suis un peu éméché mais bon ! Oh la la la la Quoi oh la la ? Franchement ! Est-ce vraiment une heure pour rentrer chez soi ? Tu t'inquiètes du bruit Occupe-toi de ce qui se passe chez toi Chez moi Ça allait jusqu'à une certaine prise de tête Ce qui me contrarie C'est d'avoir trouvé la femme parfaite Pas d'amis Pas de sorties Pas de fille au lit Pas d'envies Et accessoirement Pas de sexe aussi Quoi ? Le bonheur ! Mais je rajouterais sur la notice Il faudrait pouvoir dégonfler après service C'est un coup bas OK ! Excuse-moi Mais je t'en prie Prends-moi donc dans tes bras C'est trop facile ! Excuse-moi ! Je n'ai pas fini Arrêtons ! Non On va y passer le reste de la nuit Je me suis lassée Je suis cassée J'en ai plus qu'assez L'ardoise est chargée Fissa, tu ferais bien de l'effacer Tu es la seule qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es le seul qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es la seule qui m'aille, je te le dis sans faille Reste cool bébé sinon j'te dirai bye bye Tu es le seul qui m'aille, je te le dis sans faille Reste cool gars sinon j'te dirai bye bye1</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">MADAME SWANN AT HOME A BREAK IN THE NARRATIVE OLD FRIENDS IN NEW ASPECTS THE MARQUIS DE NORPOIS BERGOTTE HOW I CEASE FOR THE TIME BEING TO SEE GILBERTE A GENERAL OUTLINE OF THE SORROW CAUSED BY A PARTING AND OF THE IRREGULAR PROCESS OF OBLIVION My mother, when it was a question of our having M. de Norpois to dinner for the first time, having expressed her regret that Professor Cottard was away from home, and that she herself had quite ceased to see anything of Swann, since either of these might have helped to entertain the old Ambassador, my father replied that so eminent a guest, so distinguished a man of science as Cottard could never be out of place at a dinner-table, but that Swann, with his ostentation, his habit of crying aloud from the housetops the name of everyone that he knew, however slightly, was an impossible vulgarian whom the Marquis de Norpois would be sure to dismiss as to use his own epithet a pestilent fellow. Now, this attitude on my fathers part may be felt to require a few words of explanation, inasmuch as some of us, no doubt, remember a Cottard of distinct mediocrity and a Swann by whom modesty and discretion, in all his social relations, were carried to the utmost refinement of delicacy. But in his case, what had happened was that, to the original young Swann and also to the Swann of the Jockey Club, our old friend had added a fresh personality which was not to be his last, that of Odettes husband. Adapting to the humble ambitions of that lady the instinct, the desire, the industry which he had always had, he had laboriously constructed for himself, a long way beneath the old, a new position more appropriate to the companion who was to share it with him. In this he shewed himself another man. Since while he continued to go, by himself, to the houses of his own friends, on whom he did not care to inflict Odette unless they had expressly asked that she should be introduced to them it was a new life that he had begun to lead, in common with his wife, among a new set of people, it was quite intelligible that, in order to estimate the importance of these new friends and thereby the pleasure, the self-esteem that were to be derived from entertaining them, he should have made use, as a standard of comparison, not of the brilliant society in which he himself had moved before his marriage but of the earlier environment of Odette. And yet, even when one knew that it was with unfashionable officials and their faded wives, the wallflowers of ministerial ball-rooms, that he was now anxious to associate, it was still astonishing to hear him, who in the old days, and even still, would so gracefully refrain from mentioning an invitation to Twickenham or to Marlborough House, proclaim with quite unnecessary emphasis that the wife of some Assistant Under-Secretary for Something had returned Mme. Swanns call. It will perhaps be objected here that what this really implied was that the simplicity of the fashionable Swann had been nothing more than a supreme refinement of vanity, and that, like certain other Israelites, my parents old friend had contrived to illustrate in turn all the stages through which his race had passed, from the crudest and coarsest form of snobbishness up to the highest pitch of good manners. But the chief reason and one which is applicable to humanity as a whole was that our virtues themselves are not free and floating qualities over which we retain a permanent control and power of disposal they come to be so closely linked in our minds with the actions in conjunction with which we make it our duty to practise them, that, if we are suddenly called upon to perform some action of a different order, it takes us by surprise, and without our supposing for a moment that it might involve the bringing of those very same virtues into play. Swann, in his intense consciousness of his new social surroundings, and in the pride with which he referred to them, was like those great artists modest or generous by nature who, if at the end of their career they take to cooking or to gardening, display a childlike gratification at the compliments that are paid to their dishes or their borders, and will not listen to any of the criticism which they heard unmoved when it was applied to their real achievements or who, after giving away a canvas, cannot conceal their annoyance if they lose a couple of francs at dominoes As for Professor Cottard, we shall meet him again and can study him at our leisure, much later in the course of our story, with the Mistress, Mme. Verdurin, in her country house La Raspelière. For the present, the following observations must suffice first of all, in the case of Swann the alteration might indeed be surprising, since it had been accomplished and yet was not suspected by me when I used to see Gilbertes father in the Champs-Elysées, where, moreover, as he never spoke to me, he could not very well have made any display of his political relations. It is true that, if he had done so, I might not at once have discerned his vanity, for the idea that one has long held of a person is apt to stop ones eyes and ears my mother, for three whole years, had no more noticed the salve with which one of her nieces used to paint her lips than if it had been wholly and invisibly dissolved in some clear liquid until one day a streak too much, or possibly something else, brought about the phenomenon known as super-saturation all the paint that had hitherto passed unperceived was now crystallised, and my mother, in the face of this sudden riot of colour, declared, in the best Combray manner, that it was a perfect scandal, and almost severed relations with her niece. With Cottard, on the contrary, the epoch in which we have seen him assisting at the first introduction of Swann to the Verdurins was now buried in the past whereas honours, offices and titles come with the passage of years moreover, a man may be illiterate, and make stupid puns, and yet have a special gift, which no amount of general culture can replace such as the gift of a great strategist or physician. And so it was not merely as an obscure practitioner, who had attained in course of time to European celebrity, that the rest of his profession regarded Cottard. The most intelligent of the younger doctors used to assert for a year or two, that is to say, for fashions, being themselves begotten of the desire for change, are quick to change also that if they themselves ever fell ill Cottard was the only one of the leading men to whom they would entrust their lives. No doubt they preferred, socially, to meet certain others who were better read, more artistic, with whom they could discuss Nietzsche and Wagner. When there was a musical party at Mme. Cottards, on the evenings when she entertained in the hope that it might one day make him Dean of the Faculty the colleagues and pupils of her husband, he, instead of listening, preferred to play cards in another room. Yet everybody praised the quickness, the penetration, the unerring confidence with which, at a glance, he could diagnose disease. Thirdly, in considering the general impression which Professor Cottard must have made on a man like my father, we must bear in mind that the character which a man exhibits in the latter half of his life is not always, even if it is often his original character developed or withered, attenuated or enlarged it is sometimes the exact opposite, like a garment that has been turned. Except from the Verdurins, who were infatuated with him, Cottards hesitating manner, his excessive timidity and affability had, in his young days, called down upon him endless taunts and sneers. What charitable friend counselled that glacial air? The importance of his professional standing made it all the more easy to adopt. Wherever he went, save at the Verdurins, where he instinctively became himself again, he would assume a repellent coldness, remain silent as long as possible, be peremptory when he was obliged to speak, and not forget to say the most cutting things. He had every opportunity of rehearsing this new attitude before his patients, who, seeing him for the first time, were not in a position to make comparisons, and would have been greatly surprised to learn that he was not at all a rude man by nature. Complete impassivity was what he strove to attain, and even while visiting his hospital wards, when he allowed himself to utter one of those puns which left everyone, from the house physician to the junior student, helpless with laughter, he would always make it without moving a muscle of his face, while even that was no longer recognisable now that he had shaved off his beard and moustache But who, the reader has been asking, was the Marquis de Norpois? Well, he had been Minister Plenipotentiary before the War, and was actually an Ambassador on the Sixteenth of May in spite of which, and to the general astonishment, he had since been several times chosen to represent France on Extraordinary Missions even as Controller of the Public Debt in Egypt, where, thanks to his great capability as a financier, he had rendered important services by Radical Cabinets under which a reactionary of the middle classes would have declined to serve, and in whose eyes M. de Norpois, in view of his past, his connexions and his opinions, ought presumably to have been suspect. But these advanced Ministers seemed to consider that, in making such an appointment, they were shewing how broad their own minds were, when the supreme interests of France were at stake, were raising themselves above the general run of politicians, were meriting, from the Journal des Débats itself, the title of Statesmen, and were reaping direct advantage from the weight that attaches to an aristocratic name and the dramatic interest always aroused by an unexpected appointment. And they knew also that they could reap these advantages by making an appeal to M. de Norpois, without having to fear any want of political loyalty on his part, a fault against which his noble birth not only need not put them on their guard but offered a positive guarantee. And in this calculation the Government of the Republic were not mistaken. In the first place, because an aristocrat of a certain type, brought up from his cradle to regard his name as an integral part of himself of which no accident can deprive him an asset of whose value his peers, or persons of even higher rank, can form a fairly exact estimate, knows that he can dispense with the efforts since they can in no way enhance his position in which, without any appreciable result, so many public men of the middle class spend themselves to profess only the right opinions, to frequent only the sound people. Anxious, on the other hand, to increase his own importance in the eyes of the princely or ducal families which take immediate precedence of his own, he knows that he can do so by giving his name that complement which hitherto it has lacked, which will give it priority over other names heraldically its equals such as political power, a literary or an artistic reputation, or a large fortune. And so what he saves by avoiding the society of the ineffective country squires, after whom all the professional families run helter-skelter, but of his intimacy with whom, were he to profess it, a prince would think nothing, he will lavish on the politicians who free-masons, or worse, though they be can advance him in Diplomacy or back him in an election, and on the artists or scientists whose patronage can help him to arrive in those departments in which they excel, on everyone, in fact, who is in a position to confer a fresh distinction or to bring off a rich marriage But in the character of M. de Norpois there was this predominant feature, that, in the course of a long career of diplomacy, he had become imbued with that negative, methodical, conservative spirit, called governmental, which is common to all Governments and, under every Government, particularly inspires its Foreign Office. He had imbibed, during that career, an aversion, a dread, a contempt for the methods of procedure, more or less revolutionary and in any event quite incorrect, which are those of an Opposition. Save in the case of a few illiterates high or low, it makes no matter by whom no difference in quality is perceptible, what attracts men one to another is not a common point of view but a consanguinity of spirit. An Academician of the kind of Legouvé, and therefore an upholder of the classics, would applaud Maxime Ducamps or Mezières eulogy of Victor Hugo with more fervour than that of Boileau by Claudel. A common Nationalism suffices to endear Barrés to his electors, who scarcely distinguish between him and M. Georges Berry, but does not endear him to those of his brother Academicians who, with a similar outlook on politics but a different type of mind, will prefer to him even such open adversaries as M. Ribot and M. Deschanel, with whom, in turn, the most loyal Monarchists feel themselves more closely allied than with Maurras or Léon Daudet, although these also are living in the hope of a glorious Restoration. Miserly in the use of words, not only from a professional scruple of prudence and reserve, but because words themselves have more value, present more subtleties of definition to men whose efforts, protracted over a decade, to bring two countries to an understanding, are condensed, translated in a speech or in a protocol into a single adjective, colourless in all appearance, but to them pregnant with a world of meaning, M. de Norpois was considered very stiff, at the Commission, where he sat next to my father, whom everyone else congratulated on the astonishing way in which the old Ambassador unbent to him. My father was himself more astonished than anyone. For not being, as a rule, very affable, his company was little sought outside his own intimate circle, a limitation which he used modestly and frankly to avow. He realised that these overtures were an outcome, in the diplomat, of that point of view which everyone adopts for himself in making his choice of friends, from which all a mans intellectual qualities, his refinement, his affection are a far less potent recommendation of him, when at the same time he bores or irritates one, than are the mere straightforwardness and good-humour of another man whom most people would regard as frivolous or even fatuous. De Norpois has asked me to dinner again its quite extraordinary everyone on the Commission is amazed, as he never has any personal relations with any of us. I am sure hes going to tell me something thrilling, again, about the Seventy war. My father knew that M. de Norpois had warned, had perhaps been alone in warning the Emperor of the growing strength and bellicose designs of Prussia, and that Bismarck rated his intelligence most highly. Only the other day, at the Opera, during the gala performance given for King Theodosius, the newspapers had all drawn attention to the long conversation which that Monarch had held with M. de Norpois. I must ask him whether the Kings visit had any real significance, my father went on, for he was keenly interested in foreign politics. I know old Norpois keeps very close as a rule, but when hes with me he opens out quite charmingly. As for my mother, perhaps the Ambassador had not the type of mind towards which she felt herself most attracted. I should add that his conversation furnished so exhaustive a glossary of the superannuated forms of speech peculiar to a certain profession, class and period a period which, for that profession and that class, might be said not to have altogether passed away that I sometimes regret that I have not kept any literal record simply of the things that I have heard him say. I should thus have obtained an effect of old-fashioned courtesy by the same process and at as little expense as that actor at the Palais-Royal who, when asked where on earth he managed to find his astounding hats, answered, I do not find my hats. I keep them. In a word, I suppose that my mother considered M. de Norpois a trifle out-of-date, which was by no means a fault in her eyes, so far as manners were concerned, but attracted her less in the region not, in this instance, of ideas, for those of M. de Norpois were extremely modern but of idiom. She felt, however, that she was paying a delicate compliment to her husband when she spoke admiringly of the diplomat who had shewn so remarkable a predilection for him. By confirming in my fathers mind the good opinion that he already had of M. de Norpois, and so inducing him to form a good opinion of himself also, she knew that she was carrying out that one of her wifely duties which consisted in making life pleasant and comfortable for her husband, just as when she saw to it that his dinner was perfectly cooked and served in silence. And as she was incapable of deceiving my father, she compelled herself to admire the old Ambassador, so as to be able to praise him with sincerity. Incidentally she could naturally, and did, appreciate his kindness, his somewhat antiquated courtesy so ceremonious that when, as he was walking along the street, his tall figure rigidly erect, he caught sight of my mother driving past, before raising his hat to her he would fling away the cigar that he had just lighted his conversation, so elaborately circumspect, in which he referred as seldom as possible to himself and always considered what might interest the person to whom he was speaking his promptness in answering a letter, which was so astonishing that whenever my father, just after posting one himself to M. de Norpois, saw his handwriting upon an envelope, his first thought was always one of annoyance that their letters must, unfortunately, have crossed in the post which, one was led to suppose, bestowed upon him the special and luxurious privilege of extraordinary deliveries and collections at all hours of the day and night. My mother marvelled at his being so punctilious although so busy, so friendly although so much in demand, never realising that although, with such people, is invariably an unrecognised because, and that just as old men are always wonderful for their age, and kings extraordinarily simple, and country cousins astonishingly well-informed it was the same system of habits that enabled M. de Norpois to undertake so many duties and to be so methodical in answering letters, to go everywhere and to be so friendly when he came to us. Moreover she made the mistake which everyone makes who is unduly modest she rated everything that concerned herself below, and consequently outside the range of, other peoples duties and engagements. The letter which it seemed to her so meritorious in my fathers friend to have written us promptly, since in the course of the day he must have had ever so many letters to write, she excepted from that great number of letters, of which actually it was a unit in the same way she did not consider that dining with us was, for M. de Norpois, merely one of the innumerable activities of his social life she never guessed that the Ambassador had trained himself, long ago, to look upon dining-out as one of his diplomatic functions, and to display, at table, an inveterate charm which it would have been too much to have expected him specially to discard when he came to dine with us The evening on which M. de Norpois first appeared at our table, in a year when I still went to play in the Champs-Elysées, has remained fixed in my memory because the afternoon of the same day was that upon which I at last went to hear Berma, at a matinée, in Phèdre, and also because in talking to M. de Norpois I realised suddenly, and in a new and different way, how completely the feelings aroused in me by all that concerned Gilberte Swann and her parents differed from any that the same family could inspire in anyone else It was no doubt the sight of the depression in which I was plunged by the approach of the New Year holidays, in which, as she herself had informed me, I was to see nothing of Gilberte, that prompted my mother one day, in the hope of distracting my mind, to suggest, If you are still so anxious to hear Berma, I think that your father would allow you perhaps to go your grandmother can take you. But it was because M. de Norpois had told him that he ought to let me hear Berma, that it was an experience for a young man to remember in later life, that my father, who had hitherto been so resolutely opposed to my going and wasting my time, with the added risk of my falling ill again, on what he used to shock my grandmother by calling futilities, was now not far from regarding this manner of spending an afternoon as included, in some vague way, in the list of precious formulae for success in a brilliant career. My grandmother, who, in renouncing on my behalf the profit which, according to her, I should have derived from hearing Berma, had made a considerable sacrifice in the interests of my health, was surprised to find that this last had become of no account at a mere word from M. de Norpois. Reposing the unconquerable hopes of her rationalist spirit in the strict course of fresh air and early hours which had been prescribed for me, she now deplored, as something disastrous, this infringement that I was to make of my rules, and in a tone of despair protested, How easily led you are! to my father, who replied angrily What! So its you that are not for letting him go, now. That is really too much, after your telling us all day and every day that it would be so good for him. M. de Norpois had also brought about a change in my fathers plans in a matter of far greater importance to myself. My father had always meant me to become a diplomat, and I could not endure the thought that, even if I did have to stay for some years, first, at the Ministry, I should run the risk of being sent, later on, as Ambassador, to capitals in which no Gilberte dwelt. I should have preferred to return to the literary career that I had planned for myself, and had been abandoned, years before, in my wanderings along the Guermantes way. But my father had steadily opposed my devoting myself to literature, which he regarded as vastly inferior to diplomacy, refusing even to dignify it with the title of career, until the day when M. de Norpois, who had little love for the more recent generations of diplomatic agents, assured him that it was quite possible, by writing, to attract as much attention, to receive as much consideration, to exercise as much influence, and at the same time to preserve more independence than in the Embassies Well, well, I should never have believed it. Old Norpois doesnt at all disapprove of your idea of taking up writing, my father had reported. And as he had a certain amount of influence himself, he imagined that there was nothing that could not be arranged, no problem for which a happy solution might not be found in the conversation of people who counted. I shall bring him back to dinner, one of these days, from the Commission. You must talk to him a little, and let him see what he thinks of you. Write something good that you can shew him he is an intimate friend of the editor of the Deux-Mondes he will get you in there he will arrange it all, the cunning old fox and, upon my soul, he seems to think that diplomacy, nowadays ! My happiness in the prospect of not being separated from Gilberte made me desirous, but not capable, of writing something good which could be shewn to M. de Norpois. After a few laboured pages, weariness made the pen drop from my fingers I cried with anger at the thought that I should never have any talent, that I was not gifted, that I could not even take advantage of the chance that M. de Norpoiss coming visit was to offer me of spending the rest of my life in Paris. The recollection that I was to be taken to hear Berma alone distracted me from my grief. But just as I did not wish to see any storms except on those coasts where they raged with most violence, so I should not have cared to hear the great actress except in one of those classic parts in which Swann had told me that she touched the sublime. For when it is in the hope of making a priceless discovery that we desire to receive certain impressions from nature or from works of art, we have certain scruples about allowing our soul to gather, instead of these, other, inferior, impressions, which are liable to make us form a false estimate of the value of Beauty. Berma in Andromaque, in Les Caprices de Marianne, in Phèdre, was one of those famous spectacles which my imagination had so long desired. I should enjoy the same rapture as on the day when in a gondola I glided to the foot of the Titian of the Frari or the Carpaccios of San Giorgio dei Schiavoni, were I ever to hear Berma repeat the lines beginning You might also like On dit quun prompt départ vous éloigne de nous, Seigneur I was familiar with them from the simple reproduction in black and white which was given of them upon the printed page but my heart beat furiously at the thought as of the realisation of a long-planned voyage that I should at length behold them, bathed and brought to life in the atmosphere and sunshine of the voice of gold. A Carpaccio in Venice, Berma in Phèdre, masterpieces of pictorial or dramatic art which the glamour, the dignity attaching to them made so living to me, that is to say so indivisible, that if I had been taken to see Carpaccios in one of the galleries of the Louvre, or Berma in some piece of which I had never heard, I should not have experienced the same delicious amazement at finding myself at length, with wide-open eyes, before the unique and inconceivable object of so many thousand dreams. Then, while I waited, expecting to derive from Bermas playing the revelation of certain aspects of nobility and tragic grief, it would seem to me that whatever greatness, whatever truth there might be in her playing must be enhanced if the actress imposed it upon a work of real value, instead of what would, after all, be but embroidering a pattern of truth and beauty upon a commonplace and vulgar web Finally, if I went to hear Berma in a new piece, it would not be easy for me to judge of her art, of her diction, since I should not be able to differentiate between a text which was not already familiar and what she added to it by her intonations and gestures, an addition which would seem to me to be embodied in the play itself whereas the old plays, the classics which I knew by heart, presented themselves to me as vast and empty walls, reserved and made ready for my inspection, on which I should be able to appreciate without restriction the devices by which Berma would cover them, as with frescoes, with the perpetually fresh treasures of her inspiration. Unfortunately, for some years now, since she had retired from the great theatres, to make the fortune of one on the boulevards where she was the star, she had ceased to appear in classic parts and in vain did I scan the hoardings they never advertised any but the newest pieces, written specially for her by authors in fashion at the moment. When, one morning, as I stood searching the column of announcements to find the afternoon performances for the week of the New Year holidays, I saw there for the first time at the foot of the bill, after some probably insignificant curtain-raiser, whose title was opaque to me because it had latent in it all the details of an action of which I was ignorant two acts ofPhèdre with Mme. Berma, and, on the following afternoons, Le Demi-Monde, Les Caprices de Marianne, names which, like that of Phèdre, were for me transparent, filled with light only, so familiar were those works to me, illuminated to their very depths by the revealing smile of art. They seemed to me to invest with a fresh nobility Mme. Berma herself when I read in the newspapers, after the programme of these performances, that it was she who had decided to shew herself once more to the public in some of her early creations. She was conscious, then, that certain stage-parts have an interest which survives the novelty of their first production or the success of a revival she regarded them, when interpreted by herself, as museum pieces which it might be instructive to set before the eyes of the generation which had admired her in them long ago, or of that which had never yet seen her in them. In thus advertising, in the middle of a column of plays intended only to while away an evening, this Phèdre, a title no longer than any of the rest, nor set in different type, she added something indescribable, as though a hostess, introducing you, before you all go in to dinner, to her other guests, were to mention, casually, amid the string of names which are the names of guests and nothing more, and without any change of toneM. Anatole France. The doctor who was attending me the same who had forbidden me to travel advised my parents not to let me go to the theatre I should only be ill again afterwards, perhaps for weeks, and should in the long run derive more pain than pleasure from the experience. The fear of this might have availed to stop me, if what I had anticipated from such a spectacle had been only a pleasure for which a subsequent pain could so compensate as to cancel it. But what I demanded from this performance just as from the visit to Balbec, the visit to Venice for which I had so intensely longed was something quite different from pleasure a series of verities pertaining to a world more real than that in which I lived, which, once acquired, could never be taken from me again by any of the trivial incidents even though it were the cause of bodily suffering of my otiose existence. At best, the pleasure which I was to feel during the performance appeared to me as the perhaps inevitable form of the perception of these truths and I hoped only that the illness which had been forecast for me would not begin until the play was finished, so that my pleasure should not be in any way compromised or spoiled. I implored my parents, who, after the doctors visit, were no longer inclined to let me go to Phèdre. I repeated, all day long, to myself, the speech beginning On dit quun prompt départ vous éloigne de nous seeking out every intonation that could be put into it, so as to be able better to measure my surprise at the way which Berma would have found of uttering the lines. Concealed, like the Holy of Holies, beneath the veil that screened her from my gaze, behind which I invested her, every moment, with a fresh aspect, according to which of the words of Bergotte in the pamphlet that Gilberte had found for me was passing through my mind plastic nobility, Christian austerity or Jansenist pallor, Princess of Troezen and of Cleves or Mycenean drama, Delphic symbol, Solar myth that divine Beauty, whom Bermas acting was to reveal to me, night and day, upon an altar perpetually illumined, sat enthroned hi the sanctuary of my mind, my mind for which not itself but my stern, my fickle parents were to decide whether or not it was to enshrine, and for all time, the perfections of the Deity unveiled, in the same spot where was now her invisible form. And with my eyes fixed upon that inconceivable image, I strove from morning to night to overcome the barriers which my family were putting in my way. But when those had at last fallen, when my mother albeit this matinée was actually to coincide with the meeting of the Commission from which my father had promised to bring M. de Norpois home to dinner had said to me, Very well, we dont wish you to be unhappy if you think that you will enjoy it so very much, you must go thats all when this day of theatre-going, hitherto forbidden and unattainable, depended now only upon myself, then for the first time, being no longer troubled by the wish that it might cease to be impossible, I asked myself if it were desirable, if there were not other reasons than my parents prohibition which should make me abandon my design. In the first place, whereas I had been detesting them for their cruelty, their consent made them now so dear to me that the thought of causing them pain stabbed me also with a pain through which the purpose of life shewed itself as the pursuit not of truth but of loving-kindness, and life itself seemed good or evil only as my parents were happy or sad. I would rather not go, if it hurts you, I told my mother, who, on the contrary, strove hard to expel from my mind any lurking fear that she might regret my going, since that, she said, would spoil the pleasure that I should otherwise derive fromPhèdre, and it was the thought of my pleasure that had induced my father and her </t>
+          <t>MADAME SWANN AT HOME A BREAK IN THE NARRATIVE OLD FRIENDS IN NEW ASPECTS THE MARQUIS DE NORPOIS BERGOTTE HOW I CEASE FOR THE TIME BEING TO SEE GILBERTE A GENERAL OUTLINE OF THE SORROW CAUSED BY A PARTING AND OF THE IRREGULAR PROCESS OF OBLIVION My mother, when it was a question of our having M. de Norpois to dinner for the first time, having expressed her regret that Professor Cottard was away from home, and that she herself had quite ceased to see anything of Swann, since either of these might have helped to entertain the old Ambassador, my father replied that so eminent a guest, so distinguished a man of science as Cottard could never be out of place at a dinner-table, but that Swann, with his ostentation, his habit of crying aloud from the housetops the name of everyone that he knew, however slightly, was an impossible vulgarian whom the Marquis de Norpois would be sure to dismiss as to use his own epithet a pestilent fellow. Now, this attitude on my fathers part may be felt to require a few words of explanation, inasmuch as some of us, no doubt, remember a Cottard of distinct mediocrity and a Swann by whom modesty and discretion, in all his social relations, were carried to the utmost refinement of delicacy. But in his case, what had happened was that, to the original young Swann and also to the Swann of the Jockey Club, our old friend had added a fresh personality which was not to be his last, that of Odettes husband. Adapting to the humble ambitions of that lady the instinct, the desire, the industry which he had always had, he had laboriously constructed for himself, a long way beneath the old, a new position more appropriate to the companion who was to share it with him. In this he shewed himself another man. Since while he continued to go, by himself, to the houses of his own friends, on whom he did not care to inflict Odette unless they had expressly asked that she should be introduced to them it was a new life that he had begun to lead, in common with his wife, among a new set of people, it was quite intelligible that, in order to estimate the importance of these new friends and thereby the pleasure, the self-esteem that were to be derived from entertaining them, he should have made use, as a standard of comparison, not of the brilliant society in which he himself had moved before his marriage but of the earlier environment of Odette. And yet, even when one knew that it was with unfashionable officials and their faded wives, the wallflowers of ministerial ball-rooms, that he was now anxious to associate, it was still astonishing to hear him, who in the old days, and even still, would so gracefully refrain from mentioning an invitation to Twickenham or to Marlborough House, proclaim with quite unnecessary emphasis that the wife of some Assistant Under-Secretary for Something had returned Mme. Swanns call. It will perhaps be objected here that what this really implied was that the simplicity of the fashionable Swann had been nothing more than a supreme refinement of vanity, and that, like certain other Israelites, my parents old friend had contrived to illustrate in turn all the stages through which his race had passed, from the crudest and coarsest form of snobbishness up to the highest pitch of good manners. But the chief reason and one which is applicable to humanity as a whole was that our virtues themselves are not free and floating qualities over which we retain a permanent control and power of disposal they come to be so closely linked in our minds with the actions in conjunction with which we make it our duty to practise them, that, if we are suddenly called upon to perform some action of a different order, it takes us by surprise, and without our supposing for a moment that it might involve the bringing of those very same virtues into play. Swann, in his intense consciousness of his new social surroundings, and in the pride with which he referred to them, was like those great artists modest or generous by nature who, if at the end of their career they take to cooking or to gardening, display a childlike gratification at the compliments that are paid to their dishes or their borders, and will not listen to any of the criticism which they heard unmoved when it was applied to their real achievements or who, after giving away a canvas, cannot conceal their annoyance if they lose a couple of francs at dominoes As for Professor Cottard, we shall meet him again and can study him at our leisure, much later in the course of our story, with the Mistress, Mme. Verdurin, in her country house La Raspelière. For the present, the following observations must suffice first of all, in the case of Swann the alteration might indeed be surprising, since it had been accomplished and yet was not suspected by me when I used to see Gilbertes father in the Champs-Elysées, where, moreover, as he never spoke to me, he could not very well have made any display of his political relations. It is true that, if he had done so, I might not at once have discerned his vanity, for the idea that one has long held of a person is apt to stop ones eyes and ears my mother, for three whole years, had no more noticed the salve with which one of her nieces used to paint her lips than if it had been wholly and invisibly dissolved in some clear liquid until one day a streak too much, or possibly something else, brought about the phenomenon known as super-saturation all the paint that had hitherto passed unperceived was now crystallised, and my mother, in the face of this sudden riot of colour, declared, in the best Combray manner, that it was a perfect scandal, and almost severed relations with her niece. With Cottard, on the contrary, the epoch in which we have seen him assisting at the first introduction of Swann to the Verdurins was now buried in the past whereas honours, offices and titles come with the passage of years moreover, a man may be illiterate, and make stupid puns, and yet have a special gift, which no amount of general culture can replace such as the gift of a great strategist or physician. And so it was not merely as an obscure practitioner, who had attained in course of time to European celebrity, that the rest of his profession regarded Cottard. The most intelligent of the younger doctors used to assert for a year or two, that is to say, for fashions, being themselves begotten of the desire for change, are quick to change also that if they themselves ever fell ill Cottard was the only one of the leading men to whom they would entrust their lives. No doubt they preferred, socially, to meet certain others who were better read, more artistic, with whom they could discuss Nietzsche and Wagner. When there was a musical party at Mme. Cottards, on the evenings when she entertained in the hope that it might one day make him Dean of the Faculty the colleagues and pupils of her husband, he, instead of listening, preferred to play cards in another room. Yet everybody praised the quickness, the penetration, the unerring confidence with which, at a glance, he could diagnose disease. Thirdly, in considering the general impression which Professor Cottard must have made on a man like my father, we must bear in mind that the character which a man exhibits in the latter half of his life is not always, even if it is often his original character developed or withered, attenuated or enlarged it is sometimes the exact opposite, like a garment that has been turned. Except from the Verdurins, who were infatuated with him, Cottards hesitating manner, his excessive timidity and affability had, in his young days, called down upon him endless taunts and sneers. What charitable friend counselled that glacial air? The importance of his professional standing made it all the more easy to adopt. Wherever he went, save at the Verdurins, where he instinctively became himself again, he would assume a repellent coldness, remain silent as long as possible, be peremptory when he was obliged to speak, and not forget to say the most cutting things. He had every opportunity of rehearsing this new attitude before his patients, who, seeing him for the first time, were not in a position to make comparisons, and would have been greatly surprised to learn that he was not at all a rude man by nature. Complete impassivity was what he strove to attain, and even while visiting his hospital wards, when he allowed himself to utter one of those puns which left everyone, from the house physician to the junior student, helpless with laughter, he would always make it without moving a muscle of his face, while even that was no longer recognisable now that he had shaved off his beard and moustache But who, the reader has been asking, was the Marquis de Norpois? Well, he had been Minister Plenipotentiary before the War, and was actually an Ambassador on the Sixteenth of May in spite of which, and to the general astonishment, he had since been several times chosen to represent France on Extraordinary Missions even as Controller of the Public Debt in Egypt, where, thanks to his great capability as a financier, he had rendered important services by Radical Cabinets under which a reactionary of the middle classes would have declined to serve, and in whose eyes M. de Norpois, in view of his past, his connexions and his opinions, ought presumably to have been suspect. But these advanced Ministers seemed to consider that, in making such an appointment, they were shewing how broad their own minds were, when the supreme interests of France were at stake, were raising themselves above the general run of politicians, were meriting, from the Journal des Débats itself, the title of Statesmen, and were reaping direct advantage from the weight that attaches to an aristocratic name and the dramatic interest always aroused by an unexpected appointment. And they knew also that they could reap these advantages by making an appeal to M. de Norpois, without having to fear any want of political loyalty on his part, a fault against which his noble birth not only need not put them on their guard but offered a positive guarantee. And in this calculation the Government of the Republic were not mistaken. In the first place, because an aristocrat of a certain type, brought up from his cradle to regard his name as an integral part of himself of which no accident can deprive him an asset of whose value his peers, or persons of even higher rank, can form a fairly exact estimate, knows that he can dispense with the efforts since they can in no way enhance his position in which, without any appreciable result, so many public men of the middle class spend themselves to profess only the right opinions, to frequent only the sound people. Anxious, on the other hand, to increase his own importance in the eyes of the princely or ducal families which take immediate precedence of his own, he knows that he can do so by giving his name that complement which hitherto it has lacked, which will give it priority over other names heraldically its equals such as political power, a literary or an artistic reputation, or a large fortune. And so what he saves by avoiding the society of the ineffective country squires, after whom all the professional families run helter-skelter, but of his intimacy with whom, were he to profess it, a prince would think nothing, he will lavish on the politicians who free-masons, or worse, though they be can advance him in Diplomacy or back him in an election, and on the artists or scientists whose patronage can help him to arrive in those departments in which they excel, on everyone, in fact, who is in a position to confer a fresh distinction or to bring off a rich marriage But in the character of M. de Norpois there was this predominant feature, that, in the course of a long career of diplomacy, he had become imbued with that negative, methodical, conservative spirit, called governmental, which is common to all Governments and, under every Government, particularly inspires its Foreign Office. He had imbibed, during that career, an aversion, a dread, a contempt for the methods of procedure, more or less revolutionary and in any event quite incorrect, which are those of an Opposition. Save in the case of a few illiterates high or low, it makes no matter by whom no difference in quality is perceptible, what attracts men one to another is not a common point of view but a consanguinity of spirit. An Academician of the kind of Legouvé, and therefore an upholder of the classics, would applaud Maxime Ducamps or Mezières eulogy of Victor Hugo with more fervour than that of Boileau by Claudel. A common Nationalism suffices to endear Barrés to his electors, who scarcely distinguish between him and M. Georges Berry, but does not endear him to those of his brother Academicians who, with a similar outlook on politics but a different type of mind, will prefer to him even such open adversaries as M. Ribot and M. Deschanel, with whom, in turn, the most loyal Monarchists feel themselves more closely allied than with Maurras or Léon Daudet, although these also are living in the hope of a glorious Restoration. Miserly in the use of words, not only from a professional scruple of prudence and reserve, but because words themselves have more value, present more subtleties of definition to men whose efforts, protracted over a decade, to bring two countries to an understanding, are condensed, translated in a speech or in a protocol into a single adjective, colourless in all appearance, but to them pregnant with a world of meaning, M. de Norpois was considered very stiff, at the Commission, where he sat next to my father, whom everyone else congratulated on the astonishing way in which the old Ambassador unbent to him. My father was himself more astonished than anyone. For not being, as a rule, very affable, his company was little sought outside his own intimate circle, a limitation which he used modestly and frankly to avow. He realised that these overtures were an outcome, in the diplomat, of that point of view which everyone adopts for himself in making his choice of friends, from which all a mans intellectual qualities, his refinement, his affection are a far less potent recommendation of him, when at the same time he bores or irritates one, than are the mere straightforwardness and good-humour of another man whom most people would regard as frivolous or even fatuous. De Norpois has asked me to dinner again its quite extraordinary everyone on the Commission is amazed, as he never has any personal relations with any of us. I am sure hes going to tell me something thrilling, again, about the Seventy war. My father knew that M. de Norpois had warned, had perhaps been alone in warning the Emperor of the growing strength and bellicose designs of Prussia, and that Bismarck rated his intelligence most highly. Only the other day, at the Opera, during the gala performance given for King Theodosius, the newspapers had all drawn attention to the long conversation which that Monarch had held with M. de Norpois. I must ask him whether the Kings visit had any real significance, my father went on, for he was keenly interested in foreign politics. I know old Norpois keeps very close as a rule, but when hes with me he opens out quite charmingly. As for my mother, perhaps the Ambassador had not the type of mind towards which she felt herself most attracted. I should add that his conversation furnished so exhaustive a glossary of the superannuated forms of speech peculiar to a certain profession, class and period a period which, for that profession and that class, might be said not to have altogether passed away that I sometimes regret that I have not kept any literal record simply of the things that I have heard him say. I should thus have obtained an effect of old-fashioned courtesy by the same process and at as little expense as that actor at the Palais-Royal who, when asked where on earth he managed to find his astounding hats, answered, I do not find my hats. I keep them. In a word, I suppose that my mother considered M. de Norpois a trifle out-of-date, which was by no means a fault in her eyes, so far as manners were concerned, but attracted her less in the region not, in this instance, of ideas, for those of M. de Norpois were extremely modern but of idiom. She felt, however, that she was paying a delicate compliment to her husband when she spoke admiringly of the diplomat who had shewn so remarkable a predilection for him. By confirming in my fathers mind the good opinion that he already had of M. de Norpois, and so inducing him to form a good opinion of himself also, she knew that she was carrying out that one of her wifely duties which consisted in making life pleasant and comfortable for her husband, just as when she saw to it that his dinner was perfectly cooked and served in silence. And as she was incapable of deceiving my father, she compelled herself to admire the old Ambassador, so as to be able to praise him with sincerity. Incidentally she could naturally, and did, appreciate his kindness, his somewhat antiquated courtesy so ceremonious that when, as he was walking along the street, his tall figure rigidly erect, he caught sight of my mother driving past, before raising his hat to her he would fling away the cigar that he had just lighted his conversation, so elaborately circumspect, in which he referred as seldom as possible to himself and always considered what might interest the person to whom he was speaking his promptness in answering a letter, which was so astonishing that whenever my father, just after posting one himself to M. de Norpois, saw his handwriting upon an envelope, his first thought was always one of annoyance that their letters must, unfortunately, have crossed in the post which, one was led to suppose, bestowed upon him the special and luxurious privilege of extraordinary deliveries and collections at all hours of the day and night. My mother marvelled at his being so punctilious although so busy, so friendly although so much in demand, never realising that although, with such people, is invariably an unrecognised because, and that just as old men are always wonderful for their age, and kings extraordinarily simple, and country cousins astonishingly well-informed it was the same system of habits that enabled M. de Norpois to undertake so many duties and to be so methodical in answering letters, to go everywhere and to be so friendly when he came to us. Moreover she made the mistake which everyone makes who is unduly modest she rated everything that concerned herself below, and consequently outside the range of, other peoples duties and engagements. The letter which it seemed to her so meritorious in my fathers friend to have written us promptly, since in the course of the day he must have had ever so many letters to write, she excepted from that great number of letters, of which actually it was a unit in the same way she did not consider that dining with us was, for M. de Norpois, merely one of the innumerable activities of his social life she never guessed that the Ambassador had trained himself, long ago, to look upon dining-out as one of his diplomatic functions, and to display, at table, an inveterate charm which it would have been too much to have expected him specially to discard when he came to dine with us The evening on which M. de Norpois first appeared at our table, in a year when I still went to play in the Champs-Elysées, has remained fixed in my memory because the afternoon of the same day was that upon which I at last went to hear Berma, at a matinée, in Phèdre, and also because in talking to M. de Norpois I realised suddenly, and in a new and different way, how completely the feelings aroused in me by all that concerned Gilberte Swann and her parents differed from any that the same family could inspire in anyone else It was no doubt the sight of the depression in which I was plunged by the approach of the New Year holidays, in which, as she herself had informed me, I was to see nothing of Gilberte, that prompted my mother one day, in the hope of distracting my mind, to suggest, If you are still so anxious to hear Berma, I think that your father would allow you perhaps to go your grandmother can take you. But it was because M. de Norpois had told him that he ought to let me hear Berma, that it was an experience for a young man to remember in later life, that my father, who had hitherto been so resolutely opposed to my going and wasting my time, with the added risk of my falling ill again, on what he used to shock my grandmother by calling futilities, was now not far from regarding this manner of spending an afternoon as included, in some vague way, in the list of precious formulae for success in a brilliant career. My grandmother, who, in renouncing on my behalf the profit which, according to her, I should have derived from hearing Berma, had made a considerable sacrifice in the interests of my health, was surprised to find that this last had become of no account at a mere word from M. de Norpois. Reposing the unconquerable hopes of her rationalist spirit in the strict course of fresh air and early hours which had been prescribed for me, she now deplored, as something disastrous, this infringement that I was to make of my rules, and in a tone of despair protested, How easily led you are! to my father, who replied angrily What! So its you that are not for letting him go, now. That is really too much, after your telling us all day and every day that it would be so good for him. M. de Norpois had also brought about a change in my fathers plans in a matter of far greater importance to myself. My father had always meant me to become a diplomat, and I could not endure the thought that, even if I did have to stay for some years, first, at the Ministry, I should run the risk of being sent, later on, as Ambassador, to capitals in which no Gilberte dwelt. I should have preferred to return to the literary career that I had planned for myself, and had been abandoned, years before, in my wanderings along the Guermantes way. But my father had steadily opposed my devoting myself to literature, which he regarded as vastly inferior to diplomacy, refusing even to dignify it with the title of career, until the day when M. de Norpois, who had little love for the more recent generations of diplomatic agents, assured him that it was quite possible, by writing, to attract as much attention, to receive as much consideration, to exercise as much influence, and at the same time to preserve more independence than in the Embassies Well, well, I should never have believed it. Old Norpois doesnt at all disapprove of your idea of taking up writing, my father had reported. And as he had a certain amount of influence himself, he imagined that there was nothing that could not be arranged, no problem for which a happy solution might not be found in the conversation of people who counted. I shall bring him back to dinner, one of these days, from the Commission. You must talk to him a little, and let him see what he thinks of you. Write something good that you can shew him he is an intimate friend of the editor of the Deux-Mondes he will get you in there he will arrange it all, the cunning old fox and, upon my soul, he seems to think that diplomacy, nowadays ! My happiness in the prospect of not being separated from Gilberte made me desirous, but not capable, of writing something good which could be shewn to M. de Norpois. After a few laboured pages, weariness made the pen drop from my fingers I cried with anger at the thought that I should never have any talent, that I was not gifted, that I could not even take advantage of the chance that M. de Norpoiss coming visit was to offer me of spending the rest of my life in Paris. The recollection that I was to be taken to hear Berma alone distracted me from my grief. But just as I did not wish to see any storms except on those coasts where they raged with most violence, so I should not have cared to hear the great actress except in one of those classic parts in which Swann had told me that she touched the sublime. For when it is in the hope of making a priceless discovery that we desire to receive certain impressions from nature or from works of art, we have certain scruples about allowing our soul to gather, instead of these, other, inferior, impressions, which are liable to make us form a false estimate of the value of Beauty. Berma in Andromaque, in Les Caprices de Marianne, in Phèdre, was one of those famous spectacles which my imagination had so long desired. I should enjoy the same rapture as on the day when in a gondola I glided to the foot of the Titian of the Frari or the Carpaccios of San Giorgio dei Schiavoni, were I ever to hear Berma repeat the lines beginning On dit quun prompt départ vous éloigne de nous, Seigneur I was familiar with them from the simple reproduction in black and white which was given of them upon the printed page but my heart beat furiously at the thought as of the realisation of a long-planned voyage that I should at length behold them, bathed and brought to life in the atmosphere and sunshine of the voice of gold. A Carpaccio in Venice, Berma in Phèdre, masterpieces of pictorial or dramatic art which the glamour, the dignity attaching to them made so living to me, that is to say so indivisible, that if I had been taken to see Carpaccios in one of the galleries of the Louvre, or Berma in some piece of which I had never heard, I should not have experienced the same delicious amazement at finding myself at length, with wide-open eyes, before the unique and inconceivable object of so many thousand dreams. Then, while I waited, expecting to derive from Bermas playing the revelation of certain aspects of nobility and tragic grief, it would seem to me that whatever greatness, whatever truth there might be in her playing must be enhanced if the actress imposed it upon a work of real value, instead of what would, after all, be but embroidering a pattern of truth and beauty upon a commonplace and vulgar web Finally, if I went to hear Berma in a new piece, it would not be easy for me to judge of her art, of her diction, since I should not be able to differentiate between a text which was not already familiar and what she added to it by her intonations and gestures, an addition which would seem to me to be embodied in the play itself whereas the old plays, the classics which I knew by heart, presented themselves to me as vast and empty walls, reserved and made ready for my inspection, on which I should be able to appreciate without restriction the devices by which Berma would cover them, as with frescoes, with the perpetually fresh treasures of her inspiration. Unfortunately, for some years now, since she had retired from the great theatres, to make the fortune of one on the boulevards where she was the star, she had ceased to appear in classic parts and in vain did I scan the hoardings they never advertised any but the newest pieces, written specially for her by authors in fashion at the moment. When, one morning, as I stood searching the column of announcements to find the afternoon performances for the week of the New Year holidays, I saw there for the first time at the foot of the bill, after some probably insignificant curtain-raiser, whose title was opaque to me because it had latent in it all the details of an action of which I was ignorant two acts ofPhèdre with Mme. Berma, and, on the following afternoons, Le Demi-Monde, Les Caprices de Marianne, names which, like that of Phèdre, were for me transparent, filled with light only, so familiar were those works to me, illuminated to their very depths by the revealing smile of art. They seemed to me to invest with a fresh nobility Mme. Berma herself when I read in the newspapers, after the programme of these performances, that it was she who had decided to shew herself once more to the public in some of her early creations. She was conscious, then, that certain stage-parts have an interest which survives the novelty of their first production or the success of a revival she regarded them, when interpreted by herself, as museum pieces which it might be instructive to set before the eyes of the generation which had admired her in them long ago, or of that which had never yet seen her in them. In thus advertising, in the middle of a column of plays intended only to while away an evening, this Phèdre, a title no longer than any of the rest, nor set in different type, she added something indescribable, as though a hostess, introducing you, before you all go in to dinner, to her other guests, were to mention, casually, amid the string of names which are the names of guests and nothing more, and without any change of toneM. Anatole France. The doctor who was attending me the same who had forbidden me to travel advised my parents not to let me go to the theatre I should only be ill again afterwards, perhaps for weeks, and should in the long run derive more pain than pleasure from the experience. The fear of this might have availed to stop me, if what I had anticipated from such a spectacle had been only a pleasure for which a subsequent pain could so compensate as to cancel it. But what I demanded from this performance just as from the visit to Balbec, the visit to Venice for which I had so intensely longed was something quite different from pleasure a series of verities pertaining to a world more real than that in which I lived, which, once acquired, could never be taken from me again by any of the trivial incidents even though it were the cause of bodily suffering of my otiose existence. At best, the pleasure which I was to feel during the performance appeared to me as the perhaps inevitable form of the perception of these truths and I hoped only that the illness which had been forecast for me would not begin until the play was finished, so that my pleasure should not be in any way compromised or spoiled. I implored my parents, who, after the doctors visit, were no longer inclined to let me go to Phèdre. I repeated, all day long, to myself, the speech beginning On dit quun prompt départ vous éloigne de nous seeking out every intonation that could be put into it, so as to be able better to measure my surprise at the way which Berma would have found of uttering the lines. Concealed, like the Holy of Holies, beneath the veil that screened her from my gaze, behind which I invested her, every moment, with a fresh aspect, according to which of the words of Bergotte in the pamphlet that Gilberte had found for me was passing through my mind plastic nobility, Christian austerity or Jansenist pallor, Princess of Troezen and of Cleves or Mycenean drama, Delphic symbol, Solar myth that divine Beauty, whom Bermas acting was to reveal to me, night and day, upon an altar perpetually illumined, sat enthroned hi the sanctuary of my mind, my mind for which not itself but my stern, my fickle parents were to decide whether or not it was to enshrine, and for all time, the perfections of the Deity unveiled, in the same spot where was now her invisible form. And with my eyes fixed upon that inconceivable image, I strove from morning to night to overcome the barriers which my family were putting in my way. But when those had at last fallen, when my mother albeit this matinée was actually to coincide with the meeting of the Commission from which my father had promised to bring M. de Norpois home to dinner had said to me, Very well, we dont wish you to be unhappy if you think that you will enjoy it so very much, you must go thats all when this day of theatre-going, hitherto forbidden and unattainable, depended now only upon myself, then for the first time, being no longer troubled by the wish that it might cease to be impossible, I asked myself if it were desirable, if there were not other reasons than my parents prohibition which should make me abandon my design. In the first place, whereas I had been detesting them for their cruelty, their consent made them now so dear to me that the thought of causing them pain stabbed me also with a pain through which the purpose of life shewed itself as the pursuit not of truth but of loving-kindness, and life itself seemed good or evil only as my parents were happy or sad. I would rather not go, if it hurts you, I told my mother, who, on the contrary, strove hard to expel from my mind any lurking fear that she might regret my going, since that, she said, would spoil the pleasure that I should otherwise derive fromPhèdre, and it was the thought of my pleasure that had induced my father and her to reverse their ear</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Gmoney been up on that rari flow You know how it go life of a mack Hippy girls, ratchets and the models too This here, is something you can clap it to Couple dollars, you know I'm finna throw a few One night, then you know he gone be done with you Wavy body attitude so cold She dispose any clothes over few weeks old Keep a grinder and a eighth got her ready to roll But how she keep her bottoms red got her losing her soul Every weekend its her friends who call Like bitch get up we fina go hit the mall Get something tight for the night but don't reveal it all Then we gone shake our ass to get a man that ball Like chris, trey usher or alsina or sumn Maybe a royal fam cat cause i heard they be stuntin See she used to want the dealer cause she know he be thuggin But got the boot when he pressed her and she thought he was bluffin Told her if you wanna stay here at my crib Then E14 where you grindin for the kid Now its one nights for lime light searching for the one pipe In hopes she can be a kardashian over night You might also like He said if i made them dollars then why the hell i can't throw em She gone pop that ass cause my chain been glowin Want block boys wit cash so my 8 ball showin And a mink on my back cause my ice keep snowing I know, i know she just tryna live Like the dons doin better than beverly in the hills Wit the goons from the hood where yo best friend was killed Or the migo brought the brick and the bubble became real See i mentioned jimmy choo and her face then lit up Like a fat boy eatin the birthday cake up Plus for that christian louboutin She would kneel for my pleasure longer than marathons But i ain't nobody played out sugar daddy You make that money then you bring it back to me Occupation where the weather don't control the rain Make it flood and them youngins probably running a train</t>
+          <t>Gmoney been up on that rari flow You know how it go life of a mack Hippy girls, ratchets and the models too This here, is something you can clap it to Couple dollars, you know I'm finna throw a few One night, then you know he gone be done with you Wavy body attitude so cold She dispose any clothes over few weeks old Keep a grinder and a eighth got her ready to roll But how she keep her bottoms red got her losing her soul Every weekend its her friends who call Like bitch get up we fina go hit the mall Get something tight for the night but don't reveal it all Then we gone shake our ass to get a man that ball Like chris, trey usher or alsina or sumn Maybe a royal fam cat cause i heard they be stuntin See she used to want the dealer cause she know he be thuggin But got the boot when he pressed her and she thought he was bluffin Told her if you wanna stay here at my crib Then E14 where you grindin for the kid Now its one nights for lime light searching for the one pipe In hopes she can be a kardashian over night He said if i made them dollars then why the hell i can't throw em She gone pop that ass cause my chain been glowin Want block boys wit cash so my 8 ball showin And a mink on my back cause my ice keep snowing I know, i know she just tryna live Like the dons doin better than beverly in the hills Wit the goons from the hood where yo best friend was killed Or the migo brought the brick and the bubble became real See i mentioned jimmy choo and her face then lit up Like a fat boy eatin the birthday cake up Plus for that christian louboutin She would kneel for my pleasure longer than marathons But i ain't nobody played out sugar daddy You make that money then you bring it back to me Occupation where the weather don't control the rain Make it flood and them youngins probably running a train</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TBDYou might also like</t>
+          <t>TBD</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>bis Trop de jeunes sont dans la délinquance, ils n'ont plus de conscience Parce qu'ils vivent dans la souffrance Manque de chance, prennent le mauvais sens J'expose, les mots sont dures Car ils font partie d'la prose, des temps futurs Et la dose est pure, soyez en sûrs Mayday, quand j'vois un re-frè perdre la tête, qui peut l'aider ? La vie lui fait mal car il s'entête comme un ? Il continue de croire, à leurs histoires, et sa mémoire est aliénée Seul, dans le couloir, on lui fait croire des vérités, truquées Les jeunes se font fumer, par des camés, pour un regard mal placé Je prends l'exemple d'Alfredo, qui trempe son zen dans la pe-do En 2 ans il est passé d'la blanche à la paco, comme un pur toxico Cours plus vite que les balles, les flics se régalent Tirent sur les délinquants, ça leur est égal Je suis maudit, pourri jusqu'à l'os Ne joue pas chez moi gosse, ou tu finiras plein de bosses Le Lunatic dans la peau du délinquant voyou J'en ai rien à foutre vas-y, achète mes cailloux C'est d'la pure négro, d'la fraîche Tu goûtes pas, paie cash et puis barre-toi avant qu'j'te sècheYou might also like</t>
+          <t>bis Trop de jeunes sont dans la délinquance, ils n'ont plus de conscience Parce qu'ils vivent dans la souffrance Manque de chance, prennent le mauvais sens J'expose, les mots sont dures Car ils font partie d'la prose, des temps futurs Et la dose est pure, soyez en sûrs Mayday, quand j'vois un re-frè perdre la tête, qui peut l'aider ? La vie lui fait mal car il s'entête comme un ? Il continue de croire, à leurs histoires, et sa mémoire est aliénée Seul, dans le couloir, on lui fait croire des vérités, truquées Les jeunes se font fumer, par des camés, pour un regard mal placé Je prends l'exemple d'Alfredo, qui trempe son zen dans la pe-do En 2 ans il est passé d'la blanche à la paco, comme un pur toxico Cours plus vite que les balles, les flics se régalent Tirent sur les délinquants, ça leur est égal Je suis maudit, pourri jusqu'à l'os Ne joue pas chez moi gosse, ou tu finiras plein de bosses Le Lunatic dans la peau du délinquant voyou J'en ai rien à foutre vas-y, achète mes cailloux C'est d'la pure négro, d'la fraîche Tu goûtes pas, paie cash et puis barre-toi avant qu'j'te sèche</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Donnons nous la main pour aider le monde à se relever Pour que la solidarité fasse renaître l'espoir La mer et la terre se sont déchaîné Et contre ça nous n'avons pas pu lutter Alors si on n'veut pas subir à nouveau Nous devons tous nous unir Essayer de reconstruire Beaucoup de gens innocents ont péri Des parents, des enfants encore meurtris You might also like Oublions les frontières et rassemblons Tous nos efforts pour aspirer à un monde nouveau, oh Donnons tout ce que l'on a Solidaire il faut l'être pour qu'il n'y ait pas Des problèmes Un Homme dans le besoin Donnons-nous la main Car il n'reste plus rien Car il n'reste plus rien Beaucoup de vies en dépendent Il y a beaucoup de gens, ça fait beaucoup de gens Il y a beaucoup de gens qui attendent Nous savons tous qu'il reste un espoir C'est à nous de tout faire pour qu'ils y croient Appelons à l'unité À l'unité Améliorons cette réalité Pourrais-tu laisser ton propre enfant mourir ? Jamais le voir grandir ? Non ? Alors faut réagir Donnons tout ce que l'on a Solidaire il faut l'être pour qu'il n'y ait pas Un Homme dans le besoin Donnons-nous la main Car il ne reste plus rien Oh yeah Donne ta main Donne ta main Si t'as le cur triste Un peu d'amour Ici, c'est tout c'que tu risques Rien d'plus Alors parfois Le bonheur a des frontières Le malheur lui n'en a pas La couleur s'appelle douleur Marchons ensemble Tous unis Qui nous sommes ? Rien n'est difficile À reconstruire Courage Pendant qu'la terre tremble Et qu'les hommes tombent L'espoir renaît quand le monde se rassemble Se rassemble Yeah Donnons tout ce que l'on a Ce que l'on a Solidaire il faut l'être pour qu'il n'y ait pas Un Homme dans le besoin Donnons-nous la main Car il ne reste plus rien Yes All we gotta do is'a lend a hand Though we have a problem as one we will stand Unissons-nous pour reconstruire Human beings we are, clear the fog Ooh, understand Tous unis, il faut réagir The world knows it's not a game It's not a game Even in the sun, it's not a shame 'Cause here we are And all we got, oh Nothing else can do, oh oh Donnons tout ce que l'on a Solidaire il faut l'être pour qu'il n'y ait pas Un Homme dans le besoin Donnons-nous la main Car il ne reste plus rien Donnons tout ce que l'on a Solidaire il faut l'être pour qu'il n'y ait pas Un homme dans le besoin Donnons-nous la main Car il ne reste plus rien Donnons tout ce que l'on a Solidaire il faut l'être pour qu'il n'y ait pas Un homme dans le besoin Donnons-nous la main Donnons-nous la main Car il ne reste plus rien Fi aintizar altarjmat</t>
+          <t>Donnons nous la main pour aider le monde à se relever Pour que la solidarité fasse renaître l'espoir La mer et la terre se sont déchaîné Et contre ça nous n'avons pas pu lutter Alors si on n'veut pas subir à nouveau Nous devons tous nous unir Essayer de reconstruire Beaucoup de gens innocents ont péri Des parents, des enfants encore meurtris Oublions les frontières et rassemblons Tous nos efforts pour aspirer à un monde nouveau, oh Donnons tout ce que l'on a Solidaire il faut l'être pour qu'il n'y ait pas Des problèmes Un Homme dans le besoin Donnons-nous la main Car il n'reste plus rien Car il n'reste plus rien Beaucoup de vies en dépendent Il y a beaucoup de gens, ça fait beaucoup de gens Il y a beaucoup de gens qui attendent Nous savons tous qu'il reste un espoir C'est à nous de tout faire pour qu'ils y croient Appelons à l'unité À l'unité Améliorons cette réalité Pourrais-tu laisser ton propre enfant mourir ? Jamais le voir grandir ? Non ? Alors faut réagir Donnons tout ce que l'on a Solidaire il faut l'être pour qu'il n'y ait pas Un Homme dans le besoin Donnons-nous la main Car il ne reste plus rien Oh yeah Donne ta main Donne ta main Si t'as le cur triste Un peu d'amour Ici, c'est tout c'que tu risques Rien d'plus Alors parfois Le bonheur a des frontières Le malheur lui n'en a pas La couleur s'appelle douleur Marchons ensemble Tous unis Qui nous sommes ? Rien n'est difficile À reconstruire Courage Pendant qu'la terre tremble Et qu'les hommes tombent L'espoir renaît quand le monde se rassemble Se rassemble Yeah Donnons tout ce que l'on a Ce que l'on a Solidaire il faut l'être pour qu'il n'y ait pas Un Homme dans le besoin Donnons-nous la main Car il ne reste plus rien Yes All we gotta do is'a lend a hand Though we have a problem as one we will stand Unissons-nous pour reconstruire Human beings we are, clear the fog Ooh, understand Tous unis, il faut réagir The world knows it's not a game It's not a game Even in the sun, it's not a shame 'Cause here we are And all we got, oh Nothing else can do, oh oh Donnons tout ce que l'on a Solidaire il faut l'être pour qu'il n'y ait pas Un Homme dans le besoin Donnons-nous la main Car il ne reste plus rien Donnons tout ce que l'on a Solidaire il faut l'être pour qu'il n'y ait pas Un homme dans le besoin Donnons-nous la main Car il ne reste plus rien Donnons tout ce que l'on a Solidaire il faut l'être pour qu'il n'y ait pas Un homme dans le besoin Donnons-nous la main Donnons-nous la main Car il ne reste plus rien Fi aintizar altarjmat</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>I gotta get it I gotta get it I gotta get it And if it's out of my reach then I'm gonna stretch in the morning Get up out the bed and grind Cause my family has got to eat See all the haters want me dead cause I stay up on my grind They putting prices on my head I got money on my mind I think I finally made it, failure meet success See I'm rising from the bottom this as hard it gets I found my passion in this rap now I'm delivering this Friends switching up when you rising to the fame They ain't getting what it takes to be establishing a name Any trip u take want a plane ticket too And any broad u get in they trying to get in them too Second that you signed they asking where they cut at Hittin u wit bs lines like where the love at They thinkin simple if u got u can spend it But I'm trying to eat for life so what I earn I ain't gone lend it Taking this here serious got the whole world curious Lounging on grind that's got the women all delirious Day by day I'm engraving my name deeper Never waisting time as an insomniac sleeper No fear in my step cause I know just where I'm going Even without a beat these words gone keep on flowing You might also like I gotta get it I gotta get it I gotta get it And if it's out of my reach then I'm gonna stretch in the morning Get up out the bed and grind Cause my family has got to eat See all the haters want me dead cause I stay up on my grind They putting prices on my head I got money on my mind I think I finally made it, failure meet success These diggers out here schemin when they see my ears gleamin And they everywhere I turn you would think I was dreamin man Hates brewin in my enemies eyes It comes wit the success that's along wit the lies yup Seems no matter what I do it'll never be good enough But its not up to they standards for my life that I'm livin up nah I'm goin in so my family can eat Big plates plenty to go 'round we all have a feast Large house on the hill so I can shelter 'em all Snag a deal and not I, but we all gone ball Most anticipated moment for a artist on the mission While my face on ya tv what ya life been missin haaa Fullfillin the prophecy we posed to be on top They can weigh a couple tons still gettin knocked out the spot I ain't cocky I'm determined to make this actuality Not to mention I'd love the boost in my overall salary I gotta get it I gotta get it I gotta get it And if it's out of my reach then I'm gonna stretch in the morning Get up out the bed and grind Cause my family has got to eat See all the haters want me dead cause I stay up on my grind They putting prices on my head I got money on my mind I think I finally made it, failure meet success</t>
+          <t>I gotta get it I gotta get it I gotta get it And if it's out of my reach then I'm gonna stretch in the morning Get up out the bed and grind Cause my family has got to eat See all the haters want me dead cause I stay up on my grind They putting prices on my head I got money on my mind I think I finally made it, failure meet success See I'm rising from the bottom this as hard it gets I found my passion in this rap now I'm delivering this Friends switching up when you rising to the fame They ain't getting what it takes to be establishing a name Any trip u take want a plane ticket too And any broad u get in they trying to get in them too Second that you signed they asking where they cut at Hittin u wit bs lines like where the love at They thinkin simple if u got u can spend it But I'm trying to eat for life so what I earn I ain't gone lend it Taking this here serious got the whole world curious Lounging on grind that's got the women all delirious Day by day I'm engraving my name deeper Never waisting time as an insomniac sleeper No fear in my step cause I know just where I'm going Even without a beat these words gone keep on flowing I gotta get it I gotta get it I gotta get it And if it's out of my reach then I'm gonna stretch in the morning Get up out the bed and grind Cause my family has got to eat See all the haters want me dead cause I stay up on my grind They putting prices on my head I got money on my mind I think I finally made it, failure meet success These diggers out here schemin when they see my ears gleamin And they everywhere I turn you would think I was dreamin man Hates brewin in my enemies eyes It comes wit the success that's along wit the lies yup Seems no matter what I do it'll never be good enough But its not up to they standards for my life that I'm livin up nah I'm goin in so my family can eat Big plates plenty to go 'round we all have a feast Large house on the hill so I can shelter 'em all Snag a deal and not I, but we all gone ball Most anticipated moment for a artist on the mission While my face on ya tv what ya life been missin haaa Fullfillin the prophecy we posed to be on top They can weigh a couple tons still gettin knocked out the spot I ain't cocky I'm determined to make this actuality Not to mention I'd love the boost in my overall salary I gotta get it I gotta get it I gotta get it And if it's out of my reach then I'm gonna stretch in the morning Get up out the bed and grind Cause my family has got to eat See all the haters want me dead cause I stay up on my grind They putting prices on my head I got money on my mind I think I finally made it, failure meet success</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Deep at night I'm awaken for my dreams 4X A rose cracking the concrete, relevant when they obsolete Lookin at my economic status opposite elite Pre-made to embrace struggle another way Delineate the art of a hustle through the words i say Not an idea gets by without me writing a line Text edit, thoughts and finger tips are so intertwined Hearin get yo grind on and you can yo shine on I'm telling you its not a joke the other side has greener lawns Mine dirt right now too but wit the seeds I'm planting I'll have em memorizing verses and forever chanting And of course, it one hell of a feeling When the work you put in got you the keys to building Told homies when i cop me the whip ima scoop you Never did i go back on the word i was glued to Though its just a bucket civic push it like a benz All through the east, no longer footin so its still a win Deep at night I'm awaken for my dreams 4X I'll cross the country bare foot for the life i want A couple family members on my back i can't even front But i won't let em down even if my ankles break Crawl across the finish line i promise I'mma make a way This the only route, ain't no second option Go out and get it the motto betta quit the sobbing Yea you born at disadvantage but so was HOV Think he stopped for minuscule bumps in the road Voices in my head like get outa bed Thats the hunger on my mind that'll get me ahead Crash course everyday til I'm in fast porsche The jewel to it all reference me as a primary source Since i could walk they been claiming i was old souled Still i made mistakes ignoring the things i was told Yet I'm present so it ain't too late And I'm knowing this wasn't planned ima rewrite fate You might also like Deep at night I'm awaken for my dreams 4X</t>
+          <t>Deep at night I'm awaken for my dreams 4X A rose cracking the concrete, relevant when they obsolete Lookin at my economic status opposite elite Pre-made to embrace struggle another way Delineate the art of a hustle through the words i say Not an idea gets by without me writing a line Text edit, thoughts and finger tips are so intertwined Hearin get yo grind on and you can yo shine on I'm telling you its not a joke the other side has greener lawns Mine dirt right now too but wit the seeds I'm planting I'll have em memorizing verses and forever chanting And of course, it one hell of a feeling When the work you put in got you the keys to building Told homies when i cop me the whip ima scoop you Never did i go back on the word i was glued to Though its just a bucket civic push it like a benz All through the east, no longer footin so its still a win Deep at night I'm awaken for my dreams 4X I'll cross the country bare foot for the life i want A couple family members on my back i can't even front But i won't let em down even if my ankles break Crawl across the finish line i promise I'mma make a way This the only route, ain't no second option Go out and get it the motto betta quit the sobbing Yea you born at disadvantage but so was HOV Think he stopped for minuscule bumps in the road Voices in my head like get outa bed Thats the hunger on my mind that'll get me ahead Crash course everyday til I'm in fast porsche The jewel to it all reference me as a primary source Since i could walk they been claiming i was old souled Still i made mistakes ignoring the things i was told Yet I'm present so it ain't too late And I'm knowing this wasn't planned ima rewrite fate Deep at night I'm awaken for my dreams 4X</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mairo, monde libre, pour toujours et à jamais Moi, l'fric, ça m'fait bander comme le boule à Julia Channel Arrière-petit-fils de Bachay, dans l'village comme Gargamel Gros, j'te raconte pas ma semaine Embrouille avec des skins en Lonsdale en loucedé Je vois que le barman s'mêle Dommage on va faire des naces-me J'suis pas Fatman, moi, j'suis un scoop J'suis pas Batman, moi, j'ai un scoot' Même si t'es bad man, tu vas t'manger un coup Ok, bande de cons y a pas d'fierté à faire d'la son-pri Tous là à imiter ls skins, les habits d'zombies Jamais j'arrive armé, j'ai un group à reformer J'arrive avec C'est plus l'époque des KKK, les noirs, on a des AK-Qua' Vous allez vous excuser pour Chaka Khan Serre-moi une lichette, il m'faut un mi-ovni, mi-jet Une liasse grande comme une midget Toute petite Co-plateau avec Isha, J'suis d'accord Ils ont voulu que j'fasse la première partie d'Michel, nachav Pas d'accord J'ai dit oui, après, j'ai dit non, j'ai le droit Ah bon ? Comme une meuf, quand elle dit oui, après, elle dit non J'ai rappé, j'ai rappé, j'suis passé d'banal à légende J'refuserai toujours les bananes alléchantes, t'sais ? Quand on dit cinq-cents plaques, gros contrat En fait, c'est on sort ton album, on prend tes tunes, on t'racontera Là, c'est la Suisse, pas les Français et pas les Belges Force aux femmes ébènes et métissées comme Amel Bent Afro, débardeur, hmm, ah, gros Seize piges, j'étais encore un amateur, mais déjà pro M.A.I., j'garde ma dignité, tu peux imiter C'est cadeau, le coup d'la main tendue, tu l'as fait à d'autres À Genève, comme la RDB, j'viens de Ménélik J'ai RDV, mais on s'voit après, comme on s'était dit T'es un fou, un fada, ne joue pas les badass Tu peux disparaître, tadam tadam, tadam J'connais l'rap comme Jadakiss ou Jada Smith Bientôt, j'sors ma mixtape, préviens d'ja ta missYou might also like</t>
+          <t>Mairo, monde libre, pour toujours et à jamais Moi, l'fric, ça m'fait bander comme le boule à Julia Channel Arrière-petit-fils de Bachay, dans l'village comme Gargamel Gros, j'te raconte pas ma semaine Embrouille avec des skins en Lonsdale en loucedé Je vois que le barman s'mêle Dommage on va faire des naces-me J'suis pas Fatman, moi, j'suis un scoop J'suis pas Batman, moi, j'ai un scoot' Même si t'es bad man, tu vas t'manger un coup Ok, bande de cons y a pas d'fierté à faire d'la son-pri Tous là à imiter ls skins, les habits d'zombies Jamais j'arrive armé, j'ai un group à reformer J'arrive avec C'est plus l'époque des KKK, les noirs, on a des AK-Qua' Vous allez vous excuser pour Chaka Khan Serre-moi une lichette, il m'faut un mi-ovni, mi-jet Une liasse grande comme une midget Toute petite Co-plateau avec Isha, J'suis d'accord Ils ont voulu que j'fasse la première partie d'Michel, nachav Pas d'accord J'ai dit oui, après, j'ai dit non, j'ai le droit Ah bon ? Comme une meuf, quand elle dit oui, après, elle dit non J'ai rappé, j'ai rappé, j'suis passé d'banal à légende J'refuserai toujours les bananes alléchantes, t'sais ? Quand on dit cinq-cents plaques, gros contrat En fait, c'est on sort ton album, on prend tes tunes, on t'racontera Là, c'est la Suisse, pas les Français et pas les Belges Force aux femmes ébènes et métissées comme Amel Bent Afro, débardeur, hmm, ah, gros Seize piges, j'étais encore un amateur, mais déjà pro M.A.I., j'garde ma dignité, tu peux imiter C'est cadeau, le coup d'la main tendue, tu l'as fait à d'autres À Genève, comme la RDB, j'viens de Ménélik J'ai RDV, mais on s'voit après, comme on s'était dit T'es un fou, un fada, ne joue pas les badass Tu peux disparaître, tadam tadam, tadam J'connais l'rap comme Jadakiss ou Jada Smith Bientôt, j'sors ma mixtape, préviens d'ja ta miss</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Aside from drums in the back I like a hi-hat More rhythm to blues that I chime wit rap My greater calling, sound wave free falling Blissful acts my pockets keep on staling But own the set up so my vision ain't outcast How I protect from temp artists I outlast DIY my circumference require From engineering to videos the mics on fire And Bluebird, so the garden is at peace Of which I planted so it roots beneath Surface thinkers mapped out like flashing blinkers Preserving quality art, new era incas For light on tv, which the dream was sold From the same hoods where those without the means will hold Memphis minnie where my ancest is I'm oakland living hardly cross that bridge To TL's where tree sells and pills pop Cocaine with no veins and white snot Its so chill yet so ferocious Picked apart the mind blocks we cope with Battle scarred and war wounds before june Sun rise the next day we all bloom Let it shine, let it shine I tell you A life filled wit things you love will never fail you Weekends here the whole world cheer Like we set from problems until next year Grip the henn, the current is turned up And if we don't win the city is burnt up Let the sweat drip from my fore head Clocked in for years till I drop to floor dead Thats my assumption for the cost of the life I proofread recite then lay it down right All in my hands since i control the panel Like a bike missing bars i built some handles To shift momentum and drive us straight To the flashin light center stages that awaitYou might also like</t>
+          <t>Aside from drums in the back I like a hi-hat More rhythm to blues that I chime wit rap My greater calling, sound wave free falling Blissful acts my pockets keep on staling But own the set up so my vision ain't outcast How I protect from temp artists I outlast DIY my circumference require From engineering to videos the mics on fire And Bluebird, so the garden is at peace Of which I planted so it roots beneath Surface thinkers mapped out like flashing blinkers Preserving quality art, new era incas For light on tv, which the dream was sold From the same hoods where those without the means will hold Memphis minnie where my ancest is I'm oakland living hardly cross that bridge To TL's where tree sells and pills pop Cocaine with no veins and white snot Its so chill yet so ferocious Picked apart the mind blocks we cope with Battle scarred and war wounds before june Sun rise the next day we all bloom Let it shine, let it shine I tell you A life filled wit things you love will never fail you Weekends here the whole world cheer Like we set from problems until next year Grip the henn, the current is turned up And if we don't win the city is burnt up Let the sweat drip from my fore head Clocked in for years till I drop to floor dead Thats my assumption for the cost of the life I proofread recite then lay it down right All in my hands since i control the panel Like a bike missing bars i built some handles To shift momentum and drive us straight To the flashin light center stages that await</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Une nuit que j'étais A me morfondre Dans quelque pub anglais Du cur de Londres Parcourant l'Amour Monstre de Pauwels Me vint une vision Dans l'eau de Seltz Tandis que des médailles D'impérator Font briller à sa taille Le bronze et l'or Le platine lui grave D'un cercle froid La marque des esclaves A chaque doigt Jusques en haut des cuisses Elle est bottée Et c'est comme un calice A sa beauté Elle ne porte rien D'autre qu'un peu D'essence de Guerlain Dans les cheveux You might also likeA chaque mouvement On entendait Les clochettes d'argent De ses poignets Agitant ses grelots Elle avança Et prononça ce mot Alméria</t>
+          <t>Une nuit que j'étais A me morfondre Dans quelque pub anglais Du cur de Londres Parcourant l'Amour Monstre de Pauwels Me vint une vision Dans l'eau de Seltz Tandis que des médailles D'impérator Font briller à sa taille Le bronze et l'or Le platine lui grave D'un cercle froid La marque des esclaves A chaque doigt Jusques en haut des cuisses Elle est bottée Et c'est comme un calice A sa beauté Elle ne porte rien D'autre qu'un peu D'essence de Guerlain Dans les cheveux A chaque mouvement On entendait Les clochettes d'argent De ses poignets Agitant ses grelots Elle avança Et prononça ce mot Alméria</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Yeah Kool Keith DJ Spooky, ha ha This is a true story word I was walking down One late night in the Bronx, Fordham Road And I seen things I mean it was, real Megasonic atomic, utilize frequency Inabilities format, you try to photograph European human beings, cruising in the BM Drop-top, stop and make the girls heads bop From LA Express, wearin' a fly suede dress From the mothership, you agree when I flip Jet rockets computer with money in my pockets 809 scientist flags TV in a Rolex Ro-ro-romance, sony prepares Joe We flow, cruise speeds shift slow Flying saucer, pretend that I never saw ya never saw ya Two people see me green and then need a lawyer UFOs on Fordham Road can reload I'm movin' travel, hurt my knee on gravel You might also like Ahhh, man, So I'm seein' objects What? Uh I'm seein' objects Seein' objects? I'm seein' objects What? Uh I'm seein' objects I'm seein' objects Two years ago, a friend of mine Axed me to kick some elevation vine So I'ma drop the sign for the knowledge today The rhyme was high-tech and it went this way Took a test at Howard University And all these wack MCs amazed by me Till Keith took me outside in a Space Cadillac Spooky drove off and we never came back Spooky cut the record down to the bone And now we're dropping science on the microphone Had me near to Uranus, Venus, Mars Transvestites, gays in bars Stars in drag, money in the bag It's hard never been so far from home Humans nowadays are being cloned Before this bag blew up I was all alone Now the space freaks, want to bone Sniffin' coke and ecstasy 'shrooms Next they recruitin' here skins in the red room I'm from the Max Headroom, generations Perverts, queers, Pee-Wee Herman masturbation Madison Square, vicious clockin' Me on stage in a Ferrari looking fly like Crockett Crockett Hold ya fire, that's what I told the FBI So the other marshalls the incubator baby cry Federal investigation, at the gas station You couldn't solve, figure the equation Look around them little people standin' with some big heads That was Captain Kirk walking with a black T-shirt LAPD the nurse asked if my knee hurts I was in pain, little marshalls tryna take my brain Hospitals came, detectives wrote down my name I was to blame, my life never been the same A true story, I'll tell you if you never bore me My classmate died, my other friend named Corey Drinkin' 40's, he jumped out the project window Stabbed himself wit a yellow number 2 pencil Oh Corey I'm seein' objects What? Huh I'm seein' objects I'm seein' objects I'm seein' objects What? Seein' object? Uh I'm seein' objects I'm seein' objects I got a big Space Cadillac like a Seville And written right on the side it says Smokin' Krills So if ya see me pullin' bitches, step to the side There ain't enough lunatic to y'all inside It's like, first come first crack on base Coolin' out son, writin' formulas, settin' cases Laid out cold in a crackhead daze I'm going through another phase One of a kind for the people to like Ever since Doctor Octagon could fight And all you don't stop the dude it just ain't right 'Cause you're bitin' all your life, beatin' your meat and your wife Hangin' out at Fat Beats tryna clown Son, you're wack, don't try to be down You don't even know your English from your words to noun You's an MC sucka and you're the clown As if you see me rockin' steady Bitches hop on my jock Around the clock, if you let me see I'm a fifty dolla bill, you sweatin' on my dill So Menelik always rips the ill, yo So Kool Keith if you're ready And beat ya meat 'til ya palms are sweaty Spendin' millions on porno Pushin' x-rated tapes in the telly I'm seein' objects Objects objects objects I'm seein' objects I'm seein' objects Objects objects objects I'm seein' objects As I walk down the street Seein' different things Like 2 o'clock in the morning There's another man across the street He has a long coat on But his face is green I go tell the police They look at me different Nobody believe me I go to tell the town The sheriff I'm seein' objects I'm seein' objects</t>
+          <t>Yeah Kool Keith DJ Spooky, ha ha This is a true story word I was walking down One late night in the Bronx, Fordham Road And I seen things I mean it was, real Megasonic atomic, utilize frequency Inabilities format, you try to photograph European human beings, cruising in the BM Drop-top, stop and make the girls heads bop From LA Express, wearin' a fly suede dress From the mothership, you agree when I flip Jet rockets computer with money in my pockets 809 scientist flags TV in a Rolex Ro-ro-romance, sony prepares Joe We flow, cruise speeds shift slow Flying saucer, pretend that I never saw ya never saw ya Two people see me green and then need a lawyer UFOs on Fordham Road can reload I'm movin' travel, hurt my knee on gravel Ahhh, man, So I'm seein' objects What? Uh I'm seein' objects Seein' objects? I'm seein' objects What? Uh I'm seein' objects I'm seein' objects Two years ago, a friend of mine Axed me to kick some elevation vine So I'ma drop the sign for the knowledge today The rhyme was high-tech and it went this way Took a test at Howard University And all these wack MCs amazed by me Till Keith took me outside in a Space Cadillac Spooky drove off and we never came back Spooky cut the record down to the bone And now we're dropping science on the microphone Had me near to Uranus, Venus, Mars Transvestites, gays in bars Stars in drag, money in the bag It's hard never been so far from home Humans nowadays are being cloned Before this bag blew up I was all alone Now the space freaks, want to bone Sniffin' coke and ecstasy 'shrooms Next they recruitin' here skins in the red room I'm from the Max Headroom, generations Perverts, queers, Pee-Wee Herman masturbation Madison Square, vicious clockin' Me on stage in a Ferrari looking fly like Crockett Crockett Hold ya fire, that's what I told the FBI So the other marshalls the incubator baby cry Federal investigation, at the gas station You couldn't solve, figure the equation Look around them little people standin' with some big heads That was Captain Kirk walking with a black T-shirt LAPD the nurse asked if my knee hurts I was in pain, little marshalls tryna take my brain Hospitals came, detectives wrote down my name I was to blame, my life never been the same A true story, I'll tell you if you never bore me My classmate died, my other friend named Corey Drinkin' 40's, he jumped out the project window Stabbed himself wit a yellow number 2 pencil Oh Corey I'm seein' objects What? Huh I'm seein' objects I'm seein' objects I'm seein' objects What? Seein' object? Uh I'm seein' objects I'm seein' objects I got a big Space Cadillac like a Seville And written right on the side it says Smokin' Krills So if ya see me pullin' bitches, step to the side There ain't enough lunatic to y'all inside It's like, first come first crack on base Coolin' out son, writin' formulas, settin' cases Laid out cold in a crackhead daze I'm going through another phase One of a kind for the people to like Ever since Doctor Octagon could fight And all you don't stop the dude it just ain't right 'Cause you're bitin' all your life, beatin' your meat and your wife Hangin' out at Fat Beats tryna clown Son, you're wack, don't try to be down You don't even know your English from your words to noun You's an MC sucka and you're the clown As if you see me rockin' steady Bitches hop on my jock Around the clock, if you let me see I'm a fifty dolla bill, you sweatin' on my dill So Menelik always rips the ill, yo So Kool Keith if you're ready And beat ya meat 'til ya palms are sweaty Spendin' millions on porno Pushin' x-rated tapes in the telly I'm seein' objects Objects objects objects I'm seein' objects I'm seein' objects Objects objects objects I'm seein' objects As I walk down the street Seein' different things Like 2 o'clock in the morning There's another man across the street He has a long coat on But his face is green I go tell the police They look at me different Nobody believe me I go to tell the town The sheriff I'm seein' objects I'm seein' objects</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>COUPLET 1 Je vais, je viens, je n'ai plus l'esprit serein Mais le sommeil veille et me couvre d'un drap de satin Je me réveille auprès d'un cyprès Où suis-je ? Soudain surgit le farfadet Comment va mon ami, aurais-tu quelques ennuis Ah je vois, je vois tu ne trouves pas la mélodie Trouve le donjon, tue le dragon, mais il il y a un hic N'oublie jamais cette phrase magique MENELIK pas de panique, écoute bien ce funky beat Mais le temps presse allons donc on doit agir au plus vite J'enfourche ma rythmique qui me mènera au donjon Le destrier m'est précieux prends garde à l'étalon Va mon ami mais n'oublie jamais ce qui tient ta vie Où que tu ailles tu dois toujours t'armer d'harmonie REFRAIN J'avance armé d'harmonie... COUPLET 2 J'avance, j'avance armé d'harmonie J'avance, j'oublie le vacarme honni Par mon esprit qui se sustente de mélodie Je vois la citadelle vers laquelle, mon ami me conduit Le paysage apparaît, s'efface puis revient Il agit comme une ombre qui cache ses reflets arlequins Je vois le fort, le château fort qui se dresse haut perché Je mets pied à terre et tel des perles que j'ai lâchées Les mots incantés qui me portent dans la salle principale J'incante à nouveau et saisi mon épée vorpale Bouche bée me fixe une foule de regards figés Le sort du châtelain est jeté en trois coups de dés J'ai le tempo en tête et à présent rien ne m'arrête Inlassablement je poursuis la quête You might also likeREFRAIN J'avance armé d'harmonie... COUPLET 3 Les murs s'évanouissent comme par enchantement La terre gronde, se démonte j'attends calmement Devant moi il se dresse et sans cesse me toise L'instant dure mille ans il a mis le temps en stase Le sort part je brûle de froid l'effroi m'envahit Le dogme du gnome résonne martèle mon esprit Cool mec regarde tout le sang froid que tu perds T dois le terrasser à tout prix le mettre à terre Ma robe résiste il persiste je subis les attaques du mage Qui enrage et bute sans fin sur mes barrages Le suprême maléfice, est parti j'applique une parade J'esquive la botte et porte l'estocade Hoo hoo je danse sur la tête du dragon La quête s'est faite, j'ai l'harmonie au diapason REFRAIN J'avance armé d'harmonie...</t>
+          <t>COUPLET 1 Je vais, je viens, je n'ai plus l'esprit serein Mais le sommeil veille et me couvre d'un drap de satin Je me réveille auprès d'un cyprès Où suis-je ? Soudain surgit le farfadet Comment va mon ami, aurais-tu quelques ennuis Ah je vois, je vois tu ne trouves pas la mélodie Trouve le donjon, tue le dragon, mais il il y a un hic N'oublie jamais cette phrase magique MENELIK pas de panique, écoute bien ce funky beat Mais le temps presse allons donc on doit agir au plus vite J'enfourche ma rythmique qui me mènera au donjon Le destrier m'est précieux prends garde à l'étalon Va mon ami mais n'oublie jamais ce qui tient ta vie Où que tu ailles tu dois toujours t'armer d'harmonie REFRAIN J'avance armé d'harmonie... COUPLET 2 J'avance, j'avance armé d'harmonie J'avance, j'oublie le vacarme honni Par mon esprit qui se sustente de mélodie Je vois la citadelle vers laquelle, mon ami me conduit Le paysage apparaît, s'efface puis revient Il agit comme une ombre qui cache ses reflets arlequins Je vois le fort, le château fort qui se dresse haut perché Je mets pied à terre et tel des perles que j'ai lâchées Les mots incantés qui me portent dans la salle principale J'incante à nouveau et saisi mon épée vorpale Bouche bée me fixe une foule de regards figés Le sort du châtelain est jeté en trois coups de dés J'ai le tempo en tête et à présent rien ne m'arrête Inlassablement je poursuis la quête REFRAIN J'avance armé d'harmonie... COUPLET 3 Les murs s'évanouissent comme par enchantement La terre gronde, se démonte j'attends calmement Devant moi il se dresse et sans cesse me toise L'instant dure mille ans il a mis le temps en stase Le sort part je brûle de froid l'effroi m'envahit Le dogme du gnome résonne martèle mon esprit Cool mec regarde tout le sang froid que tu perds T dois le terrasser à tout prix le mettre à terre Ma robe résiste il persiste je subis les attaques du mage Qui enrage et bute sans fin sur mes barrages Le suprême maléfice, est parti j'applique une parade J'esquive la botte et porte l'estocade Hoo hoo je danse sur la tête du dragon La quête s'est faite, j'ai l'harmonie au diapason REFRAIN J'avance armé d'harmonie...</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C'est comme une chanson, dont les paroles semblent familières Les souvenirs... Ce souvenir, que j'avais oublié Qu'elle aime ou ai de la haine Elle n'en fait pas qu'un... Je me souviens Je me souviens Je me souviens le départ ce matin là, amer Le discours que me tins la femme qui me servait de mère Je me souviens de mes frères, de l'expression de mes frères Je suis parti, en silence ils me regardèrent Le soleil brille à nouveau dans ma vie j'y vois plus clair Aveuglé par les néons, comme Icare je perds Donne-moi la main, maintes fois par toi j'ai voulu être choyé Je me suis dévoyé pourquoi n'as-tu jamais su m'écouter ? Je me souviens des discours qui enflammaient nos liens Tout allait si bien mais il fallait recoller au quotidien Ne dors pas car la mort se sert du somme comme appât Je pars, pardonne-moi pour la paix que tu ne connais pas x4 Je me souviens You might also like Je me souviens de toi m'écartant de ce monde malsain Consciente d'aider celui à qui tu donnas le sein Je me souviens la tristesse des larmes dont tu t'armes Si souvent pour toucher le cur de ton enfant qui fout le camp Je me souviens, c'est la pire torture, le meilleur remède Aide-moi l'abandon gagne du terrain peu à peu je cède Vos inquiétudes de me voir manipulé par les autres Je me souviens à présent mon amour affleure le vôtre Je me souviens, j'aimerais tant passer le bonjour à mes frères Compagnons de galère et par dessus tout solidaires Je me souviens toutes les fois où tu te moquais de moi Je me souviens hélas le souvenir ne vous remplace pas x4 Je me souviens Je me souviens mais désormais c'est loin bien trop loin Le regret s'installe, j' n'ai vu ma chance que quand elle passait au loin C'est drôle j'ai peur, tous ces souvenirs me fragilisent Peur de vous perdre pourtant je n'ai agi qu'à ma guise Le vent me grise, j'imagine le gris est de mise Le rituel respecté chacun lâche une poignée de poussière grise De plus il pleut un petit peu, le ciel s'en mêle J' me sens léger, j' n'ai jamais autant souhaité avoir des ailes J'ai froid Frère, même si ici les gens ici corps et âme se dévouent Perdu dans mes pensées, je me retrouve parmi vous Je ne dors pas car la mort se sert du somme comme appât Je pars, pardonne-moi pour la paix que tu ne connais pas car... x8 Je me souviens Je me souviens, je me souviens, je me souviens dis leur Armand Yo, Armand n'est pas mort travelling avant, pause, gros plan Vision d'une scène se déroulant tout le temps Une mère pleurant devant ses enfants, la raison étant simple le manque d'argent Contre-champs sur des ennuis croissants, un père absent Spirale du tourment pour des enfants à peine adolescents Dans cette jungle trop d'amis nous on quitté bêtement La crise a eu raison des bons sentiments, yeah ! Je me souviens, je me souviens, je me souviens n'est-ce pas Géo ? Je me souviens de mes parents pleurant, primant, s'privant, posant constamment uniquement pour leurs enfants Telle la première lueur du jour jusqu'au crépuscule Plus d'vingt ans d'labeur et d'amour pour maintenir la cellule Familiale, j'ai pensé que tout était rose Que personne ne faisait l'aumône et que les gens étaient en osmose Plus tard j'ai compris ce que me disait Papa et Mama Qu'la vie est un ring où constamment tu combats, je me souviens...</t>
+          <t>C'est comme une chanson, dont les paroles semblent familières Les souvenirs... Ce souvenir, que j'avais oublié Qu'elle aime ou ai de la haine Elle n'en fait pas qu'un... Je me souviens Je me souviens Je me souviens le départ ce matin là, amer Le discours que me tins la femme qui me servait de mère Je me souviens de mes frères, de l'expression de mes frères Je suis parti, en silence ils me regardèrent Le soleil brille à nouveau dans ma vie j'y vois plus clair Aveuglé par les néons, comme Icare je perds Donne-moi la main, maintes fois par toi j'ai voulu être choyé Je me suis dévoyé pourquoi n'as-tu jamais su m'écouter ? Je me souviens des discours qui enflammaient nos liens Tout allait si bien mais il fallait recoller au quotidien Ne dors pas car la mort se sert du somme comme appât Je pars, pardonne-moi pour la paix que tu ne connais pas x4 Je me souviens Je me souviens de toi m'écartant de ce monde malsain Consciente d'aider celui à qui tu donnas le sein Je me souviens la tristesse des larmes dont tu t'armes Si souvent pour toucher le cur de ton enfant qui fout le camp Je me souviens, c'est la pire torture, le meilleur remède Aide-moi l'abandon gagne du terrain peu à peu je cède Vos inquiétudes de me voir manipulé par les autres Je me souviens à présent mon amour affleure le vôtre Je me souviens, j'aimerais tant passer le bonjour à mes frères Compagnons de galère et par dessus tout solidaires Je me souviens toutes les fois où tu te moquais de moi Je me souviens hélas le souvenir ne vous remplace pas x4 Je me souviens Je me souviens mais désormais c'est loin bien trop loin Le regret s'installe, j' n'ai vu ma chance que quand elle passait au loin C'est drôle j'ai peur, tous ces souvenirs me fragilisent Peur de vous perdre pourtant je n'ai agi qu'à ma guise Le vent me grise, j'imagine le gris est de mise Le rituel respecté chacun lâche une poignée de poussière grise De plus il pleut un petit peu, le ciel s'en mêle J' me sens léger, j' n'ai jamais autant souhaité avoir des ailes J'ai froid Frère, même si ici les gens ici corps et âme se dévouent Perdu dans mes pensées, je me retrouve parmi vous Je ne dors pas car la mort se sert du somme comme appât Je pars, pardonne-moi pour la paix que tu ne connais pas car... x8 Je me souviens Je me souviens, je me souviens, je me souviens dis leur Armand Yo, Armand n'est pas mort travelling avant, pause, gros plan Vision d'une scène se déroulant tout le temps Une mère pleurant devant ses enfants, la raison étant simple le manque d'argent Contre-champs sur des ennuis croissants, un père absent Spirale du tourment pour des enfants à peine adolescents Dans cette jungle trop d'amis nous on quitté bêtement La crise a eu raison des bons sentiments, yeah ! Je me souviens, je me souviens, je me souviens n'est-ce pas Géo ? Je me souviens de mes parents pleurant, primant, s'privant, posant constamment uniquement pour leurs enfants Telle la première lueur du jour jusqu'au crépuscule Plus d'vingt ans d'labeur et d'amour pour maintenir la cellule Familiale, j'ai pensé que tout était rose Que personne ne faisait l'aumône et que les gens étaient en osmose Plus tard j'ai compris ce que me disait Papa et Mama Qu'la vie est un ring où constamment tu combats, je me souviens...</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ouais ! Je suis sûre que tu m'aimerais plus Si j'avais des seins comme ça ! Mais non, bébé, qu'est ce que tu racontes Je t'aime comme t'es. Je sais la peine qu'on s'fait parfois Tu sais comme c'est rare qu'on s'aime comme ça Je t'aime comme t'es, ne bouge pas, ne change pas Je t'aime comme t'es bébé, tu sais qu'c'est vrai C'est tel que t'es que j'aime, pour moi c'est parfait Avoir un fessier fait main, c'est dans l'air du temps C'est dur d'aimer, si tu gommes ce qui est différent Je t'aime comme t'es, mais comme t'es Tu te fais des reproches Ne bouge pas, ne change pas Regarde, j'ai des poches ! Tu sais que t'es pas moche, t'es tout l'inverse de '' Quasimodo'' Une fille solide sur qui je peux caser mon dos C'est quasi-mondiale pour chacun des faux nichons A bat le silicone, moi j'aime ta conversation Oh ! Je suis trop plate, regarde, ça craint ! T'achètes pas de nouveaux seins, les tiens me vont très bien You might also likeRefrain x2 Je t'aime comme t'es. Je sais la peine qu'on s'fait parfois Tu sais comme c'est rare qu'on s'aime comme ça Je t'aime comme t'es, je t'aime comme t'es Je t'aime comme t'es, ne bouge pas, ne change pas Les tops, j'm'en fous, t'es au top pour moi, p'tit bout J'ai un souvenir fou, d'la première fois qu'on s'est ché-tou Tu ne rêvais pas encore d'avoir un corps en plastique Je n'avais pas encore capté ton côté gymnastique Avoue que je suis grosse T'as juste c'qu'il faut, un peu plus ce serait trop Mais bon là, t'as juste c'qu'il faut Je t'aime comme t'es T'es pas parfaite, c'est ça qui me plaît Quand tu me regardes, t'es tout pour moi Le plus bel objet, on se chamaille parfois Mais tu sais t'es tout pour moi Tu m'aimes ? Mais bien sûr, tu sais que je n'aime que toi J'flippe tu sais ? Ouais, je sais, c'est pas prêt d'changer Mais je t'aime comme t'es, pile comme t'es T'es belle tu sais Refrain x2 Tu deviens folle en pensant que t'as les seins qui tombent T'es la même pour moi, bouge pas, t'es une bombe Une vraie bombasse à mes yeux Il suffirait qu'tu tournes un peu du fessier Pour rendre même les curés nerveux Mais, j'ai pas d'fesses ? Non, tu stresses, arrête-ça là J'touche pourtant, tout ce que tu dis qu'tu n'as pas Tu es ma Jeanne d'Arc, il est clair que j'bande pour toi T'as les boules, ça se voit, mais le billard, c'est pas pour toi J't'apprécie, et c'est comme ça qu'tu vas durer Ça peut coûter cher de chercher à s'faire charcuter J'aime pas ma bouche ! J'voudrais bien la faire gonfler un peu Oh regarde la mienne J'crois bien qu'elle suffit pour nous deux Refrain x2</t>
+          <t>Ouais ! Je suis sûre que tu m'aimerais plus Si j'avais des seins comme ça ! Mais non, bébé, qu'est ce que tu racontes Je t'aime comme t'es. Je sais la peine qu'on s'fait parfois Tu sais comme c'est rare qu'on s'aime comme ça Je t'aime comme t'es, ne bouge pas, ne change pas Je t'aime comme t'es bébé, tu sais qu'c'est vrai C'est tel que t'es que j'aime, pour moi c'est parfait Avoir un fessier fait main, c'est dans l'air du temps C'est dur d'aimer, si tu gommes ce qui est différent Je t'aime comme t'es, mais comme t'es Tu te fais des reproches Ne bouge pas, ne change pas Regarde, j'ai des poches ! Tu sais que t'es pas moche, t'es tout l'inverse de '' Quasimodo'' Une fille solide sur qui je peux caser mon dos C'est quasi-mondiale pour chacun des faux nichons A bat le silicone, moi j'aime ta conversation Oh ! Je suis trop plate, regarde, ça craint ! T'achètes pas de nouveaux seins, les tiens me vont très bien Refrain x2 Je t'aime comme t'es. Je sais la peine qu'on s'fait parfois Tu sais comme c'est rare qu'on s'aime comme ça Je t'aime comme t'es, je t'aime comme t'es Je t'aime comme t'es, ne bouge pas, ne change pas Les tops, j'm'en fous, t'es au top pour moi, p'tit bout J'ai un souvenir fou, d'la première fois qu'on s'est ché-tou Tu ne rêvais pas encore d'avoir un corps en plastique Je n'avais pas encore capté ton côté gymnastique Avoue que je suis grosse T'as juste c'qu'il faut, un peu plus ce serait trop Mais bon là, t'as juste c'qu'il faut Je t'aime comme t'es T'es pas parfaite, c'est ça qui me plaît Quand tu me regardes, t'es tout pour moi Le plus bel objet, on se chamaille parfois Mais tu sais t'es tout pour moi Tu m'aimes ? Mais bien sûr, tu sais que je n'aime que toi J'flippe tu sais ? Ouais, je sais, c'est pas prêt d'changer Mais je t'aime comme t'es, pile comme t'es T'es belle tu sais Refrain x2 Tu deviens folle en pensant que t'as les seins qui tombent T'es la même pour moi, bouge pas, t'es une bombe Une vraie bombasse à mes yeux Il suffirait qu'tu tournes un peu du fessier Pour rendre même les curés nerveux Mais, j'ai pas d'fesses ? Non, tu stresses, arrête-ça là J'touche pourtant, tout ce que tu dis qu'tu n'as pas Tu es ma Jeanne d'Arc, il est clair que j'bande pour toi T'as les boules, ça se voit, mais le billard, c'est pas pour toi J't'apprécie, et c'est comme ça qu'tu vas durer Ça peut coûter cher de chercher à s'faire charcuter J'aime pas ma bouche ! J'voudrais bien la faire gonfler un peu Oh regarde la mienne J'crois bien qu'elle suffit pour nous deux Refrain x2</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>COUPLET 1 Laissez vivre, loin des polémiques Qui est le vrai, le faux, le faux passe mieux mais il y a un hic Car nous sommes des pantins, entraînés depuis bambins À nous référer à des codes cela sans fin Mais qui me dit que le code n'est pas erroné ? Qui me dit qu'à ce numéro il y a un abonné ? On me dit HIP HOP ci, HIP HOP ça Pour moi le HIP HOP au top est d'entendre Mes gars crier Aaah!!! MENELIK avance épaulé de sa clique Collant la rythmique sans pour autant vendre sa technique Le second de personne s'empare de la plume J'n'suis pas billie jean mais comme un pavé mon son f'allume Tu piges? la leçon que le griot l'inflige Je n'dirige pas fais ce que ton corps exige Il bouge? cool mec mais là c'est toi qui voit Tu connais ma philosophie je n'y reviens pas De petits pas en petits pas il pique, comme une morsure Mon rap est chaud ou froid, tu redemandes de cette brûlure REFRAIN Laissez vivre COUPLET 2 J'ai plus de problèmes que Calimero Mais comment donc fait la morale pour dominer mon ego La pression de groupe me ramène dans le troupeau Interdit à mon esprit de flotter en solo Je suis libre, libre de pas déraper Pourtant mon être ivre volatile veut s'enflammer MAY DAY, MAY DAY Le S.O.S. est lancé mais risque fort de s'échouer J'agis seul mais la morale à mon pied s'est nouée M'a amadoué, j'étais doué donc ils m'ont écroué J'ai joué, j'ai paumé en vain j'attendais ma bouée Mais par le collectif j'ai été floué Sur les chemins d'habitude la morale sans cesse m'oppresse Méfie toi de MENELIK je suis comme un pitbull sans laisse Stressé, la potence se dresse à mes dépens La morale se love autour de moi et à mon cou se pend Non pas un épiphénomène le peuple marche au dépit Comme une feuille de biscana, je libère ton esprit You might also likeREFRAIN Laissez vivre COUPLET 3 Laissez vivre est l'objet des quelques lignes qui vont suivre Que ceux habitués à suivre suivent, je ne peux les poursuivre Qui est ce qui tique sur le parasite qui calque et me réplique ? MENELIK, tu sais bien qu'avec moi pas de mimiques Mon ami Mehdi m'a dit que ma vie valait moins qu'un radis Car la morale me shoote comme on shoote un Kennedy Comme au basket un contre ou une course contre la montre Le HIP HOP est trop fort on n'peut pas lutter contre Tranquille sur le style, MENELIK défile Use de sa langue comme d'un ustensile J'attends l'instant où les temps seront plus cléments En attendant l'instinct grégaire me suffit amplement Je reviens à la vie et je revis auprès des miens Ma philosophie UN POUR TOUS ET TOUS POUR UN La morale me lie au mal, ma volonté ramollit C'est comme la société, pour l'honnêteté elle est trop polie Je suis un phare, torturé par la bise Sur des récifs de consensus ma pensée se brise</t>
+          <t>COUPLET 1 Laissez vivre, loin des polémiques Qui est le vrai, le faux, le faux passe mieux mais il y a un hic Car nous sommes des pantins, entraînés depuis bambins À nous référer à des codes cela sans fin Mais qui me dit que le code n'est pas erroné ? Qui me dit qu'à ce numéro il y a un abonné ? On me dit HIP HOP ci, HIP HOP ça Pour moi le HIP HOP au top est d'entendre Mes gars crier Aaah!!! MENELIK avance épaulé de sa clique Collant la rythmique sans pour autant vendre sa technique Le second de personne s'empare de la plume J'n'suis pas billie jean mais comme un pavé mon son f'allume Tu piges? la leçon que le griot l'inflige Je n'dirige pas fais ce que ton corps exige Il bouge? cool mec mais là c'est toi qui voit Tu connais ma philosophie je n'y reviens pas De petits pas en petits pas il pique, comme une morsure Mon rap est chaud ou froid, tu redemandes de cette brûlure REFRAIN Laissez vivre COUPLET 2 J'ai plus de problèmes que Calimero Mais comment donc fait la morale pour dominer mon ego La pression de groupe me ramène dans le troupeau Interdit à mon esprit de flotter en solo Je suis libre, libre de pas déraper Pourtant mon être ivre volatile veut s'enflammer MAY DAY, MAY DAY Le S.O.S. est lancé mais risque fort de s'échouer J'agis seul mais la morale à mon pied s'est nouée M'a amadoué, j'étais doué donc ils m'ont écroué J'ai joué, j'ai paumé en vain j'attendais ma bouée Mais par le collectif j'ai été floué Sur les chemins d'habitude la morale sans cesse m'oppresse Méfie toi de MENELIK je suis comme un pitbull sans laisse Stressé, la potence se dresse à mes dépens La morale se love autour de moi et à mon cou se pend Non pas un épiphénomène le peuple marche au dépit Comme une feuille de biscana, je libère ton esprit REFRAIN Laissez vivre COUPLET 3 Laissez vivre est l'objet des quelques lignes qui vont suivre Que ceux habitués à suivre suivent, je ne peux les poursuivre Qui est ce qui tique sur le parasite qui calque et me réplique ? MENELIK, tu sais bien qu'avec moi pas de mimiques Mon ami Mehdi m'a dit que ma vie valait moins qu'un radis Car la morale me shoote comme on shoote un Kennedy Comme au basket un contre ou une course contre la montre Le HIP HOP est trop fort on n'peut pas lutter contre Tranquille sur le style, MENELIK défile Use de sa langue comme d'un ustensile J'attends l'instant où les temps seront plus cléments En attendant l'instinct grégaire me suffit amplement Je reviens à la vie et je revis auprès des miens Ma philosophie UN POUR TOUS ET TOUS POUR UN La morale me lie au mal, ma volonté ramollit C'est comme la société, pour l'honnêteté elle est trop polie Je suis un phare, torturé par la bise Sur des récifs de consensus ma pensée se brise</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Naguère les concierges étaient en vogue Désormais on les a remplacés par des digicodes Dans ma ville il n'y avait pas de parcmètres Je voyais des ouvriers manger des sandwichs à l'omelette Le passé me revient comme un bilboquet La présence d'un passé omniprésent n'est pas passée Les Halles supplantées par le Costes L'allégorie des madeleines file à la vitesse de Prost L'air y était pur, Paris plus beau Désormais le ticket de métro augmente comme le nombre d'autos Oh shit, à la télé y'a plus de speakerines Y'a des films de séries B que j'estime à quinze centimes Les States nous plaquent ces films de trois piécettes Que je mate, mais mon intellect constate qu'ils sont obsolètes Obsolète, mais stylée, la phrase qui suivra L'homme qui capte le mic et dont le nom possède le double a La variet' est sa cible Solaar larbalète Qui pique cette zique solite et alite l'élite Qui élabore depuis des décennies Une main basse sur mon art pour qu'il avance au ralenti Mais le Grand Manitou, manie tout, t'inquiète Il démasque la musique à masque et la place en hypothèque Puis, inscrit en italique sur son agenda Le top des trucs qu'il n'aime pas Bref pour être clair et net le ventricule s'accompagne de l'oreillette Tout comme à mes oreilles la variet' s'acoquine et rime avec obsolète Obsolète est aussi l'allumeuse qui Portait des bas résilles et empestait le patchouli Pour des services rendus elle me dit j'te paye en nature Et je reste stoïque quand elle me tend des confitures Ceci est oublié quand au mois de décembre Elle me téléphone et me dit Passe me prendre Bref ! J'en abuse avec délectation Douce comme de l'hydromel je suis en affection Puis me glisse, m'immisce, entre les cuisses lisses de la miss Ses yeux se plissent et elle dit Stop ton vice Je suis comme une balle, elle joue le rôle d'une raquette L'endormeuse allumeuse se prend pour une starlette Mais sache que dans les cinémathèques, tes presque galipettes désuètes Sont classées dans les séries B au rayon obsolète Toutes les choses dépassées, doivent rester classées Passé, assez, car c'est une menace, et Les Sages Poètes de la Rue représentent le futur Ménélik et Solaar vivent avec nous cette aventure Je vis à Paris, la ville où pleins de frères font le charivari sur le microphone avec le verbe Le dandy bandit Dan te prit donc d'être honnête Et de reconnaître que nous ne sommes pas obsolète Melopheelo s'accorde dans le jazz Le rythme est à la basse quand je place les vibes La musique sonne comme le passé Et l'évolution sonore donne la couleur tant recherchée Passe le pinceau que je peigne la place de bleu Car à mes yeux c'est le bleu qui me rend heureux Tu comprendras si tu n'es pas encore obsolète Le fond de toute ma pensée claire et nette You might also like Quand t'étais gosse tu r'gardais parce que toi t'avais un snoopy Maintenant t'as des Pataugas et moi des Pum' et je crie Youpi ! Comme une toupie tourne autour de ta groupie mais ne la touche pas J'ai fait un pacte avec tact, avec mes actes Exact ! Shit ! Il faut que je me pose sur le beat Paix à tous les frères qui sont dans la place aux posses funky Et là c'est la fin je trace, adios Hip-Hop junky Obsolète est l'écran Qui devant moi se reflète, tourbillonne, tourbillonne Et finit par me prendre la tête Ménélik pas de panique Non !, on me l'a trop souvent dit Dis-moi, dis-moi, miroir ce que tu ferais de celui qui Preuve en est le mal sans racine Je prend pour témoin tous ces sourires qu'on assassine Je n'suis pas, pas à pas, comme le ferai Lassie Avance, progresse, comme le fait le posse A l'attaque du troisième acte, avec tact Comme le cheval de Troie J'entre dans le crâne des MC's, voir où cela ne va pas L'hypothalamus et le néo-cortex, semble-t-il fonctionnent bien Mais les neuromédiateurs se prennent pour des américains Le rap est social donc s'adapte à une société donnée Je le fais de manière artistique, au lieu de me plaindre Ouin! comme un bébé Le néo grillot rit aux éclats, il est de Paname La différence est faite, il préfère Tom à l'Oncle Sam Paris ne rit pas de moi, car je paris sur Paris Ris-pa, ne rit pas parce qu'on ne rit pas sur Ris-pas nous Le son de Ri-pas s'exporte à bord de ripas son pari Fatal et léthal, je m'étale et m'installe dans les annales musicales l'occidental Comme dans le monde médical, précision chirurgicale Cuic ! et le coup de bistouri qui te coupe la tête comme une lame de Gillette En fait est obsolète</t>
+          <t>Naguère les concierges étaient en vogue Désormais on les a remplacés par des digicodes Dans ma ville il n'y avait pas de parcmètres Je voyais des ouvriers manger des sandwichs à l'omelette Le passé me revient comme un bilboquet La présence d'un passé omniprésent n'est pas passée Les Halles supplantées par le Costes L'allégorie des madeleines file à la vitesse de Prost L'air y était pur, Paris plus beau Désormais le ticket de métro augmente comme le nombre d'autos Oh shit, à la télé y'a plus de speakerines Y'a des films de séries B que j'estime à quinze centimes Les States nous plaquent ces films de trois piécettes Que je mate, mais mon intellect constate qu'ils sont obsolètes Obsolète, mais stylée, la phrase qui suivra L'homme qui capte le mic et dont le nom possède le double a La variet' est sa cible Solaar larbalète Qui pique cette zique solite et alite l'élite Qui élabore depuis des décennies Une main basse sur mon art pour qu'il avance au ralenti Mais le Grand Manitou, manie tout, t'inquiète Il démasque la musique à masque et la place en hypothèque Puis, inscrit en italique sur son agenda Le top des trucs qu'il n'aime pas Bref pour être clair et net le ventricule s'accompagne de l'oreillette Tout comme à mes oreilles la variet' s'acoquine et rime avec obsolète Obsolète est aussi l'allumeuse qui Portait des bas résilles et empestait le patchouli Pour des services rendus elle me dit j'te paye en nature Et je reste stoïque quand elle me tend des confitures Ceci est oublié quand au mois de décembre Elle me téléphone et me dit Passe me prendre Bref ! J'en abuse avec délectation Douce comme de l'hydromel je suis en affection Puis me glisse, m'immisce, entre les cuisses lisses de la miss Ses yeux se plissent et elle dit Stop ton vice Je suis comme une balle, elle joue le rôle d'une raquette L'endormeuse allumeuse se prend pour une starlette Mais sache que dans les cinémathèques, tes presque galipettes désuètes Sont classées dans les séries B au rayon obsolète Toutes les choses dépassées, doivent rester classées Passé, assez, car c'est une menace, et Les Sages Poètes de la Rue représentent le futur Ménélik et Solaar vivent avec nous cette aventure Je vis à Paris, la ville où pleins de frères font le charivari sur le microphone avec le verbe Le dandy bandit Dan te prit donc d'être honnête Et de reconnaître que nous ne sommes pas obsolète Melopheelo s'accorde dans le jazz Le rythme est à la basse quand je place les vibes La musique sonne comme le passé Et l'évolution sonore donne la couleur tant recherchée Passe le pinceau que je peigne la place de bleu Car à mes yeux c'est le bleu qui me rend heureux Tu comprendras si tu n'es pas encore obsolète Le fond de toute ma pensée claire et nette Quand t'étais gosse tu r'gardais parce que toi t'avais un snoopy Maintenant t'as des Pataugas et moi des Pum' et je crie Youpi ! Comme une toupie tourne autour de ta groupie mais ne la touche pas J'ai fait un pacte avec tact, avec mes actes Exact ! Shit ! Il faut que je me pose sur le beat Paix à tous les frères qui sont dans la place aux posses funky Et là c'est la fin je trace, adios Hip-Hop junky Obsolète est l'écran Qui devant moi se reflète, tourbillonne, tourbillonne Et finit par me prendre la tête Ménélik pas de panique Non !, on me l'a trop souvent dit Dis-moi, dis-moi, miroir ce que tu ferais de celui qui Preuve en est le mal sans racine Je prend pour témoin tous ces sourires qu'on assassine Je n'suis pas, pas à pas, comme le ferai Lassie Avance, progresse, comme le fait le posse A l'attaque du troisième acte, avec tact Comme le cheval de Troie J'entre dans le crâne des MC's, voir où cela ne va pas L'hypothalamus et le néo-cortex, semble-t-il fonctionnent bien Mais les neuromédiateurs se prennent pour des américains Le rap est social donc s'adapte à une société donnée Je le fais de manière artistique, au lieu de me plaindre Ouin! comme un bébé Le néo grillot rit aux éclats, il est de Paname La différence est faite, il préfère Tom à l'Oncle Sam Paris ne rit pas de moi, car je paris sur Paris Ris-pa, ne rit pas parce qu'on ne rit pas sur Ris-pas nous Le son de Ri-pas s'exporte à bord de ripas son pari Fatal et léthal, je m'étale et m'installe dans les annales musicales l'occidental Comme dans le monde médical, précision chirurgicale Cuic ! et le coup de bistouri qui te coupe la tête comme une lame de Gillette En fait est obsolète</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>La terre tourne, tout autour je cours Tranquille celui qui tombe à pic pour elle se pique d'amour Je me lève un matin, dieu que je me sens bien Dehors une journée ensoleillée me tend ses mains La berge s'anime, la rosée l'illumine Les brumes du matin fument s'évaporent emportant mon spleen J'enfile mes bottes de sept lieues MNLK décolle Tel un papillon sans pavillon je prends mon envol Vole, vole, vole, vole Je montre le chemin, je guide telle une luciole La terre s'éloigne, les oiseaux à moi se joignent Je tire ma révérence, délaisse la foire d'emopoigne Refrain La terre tourne, tout autour je cours La terre tourne tout autour je cours C'est inouï comme les pensées d'une vie en dirigent le cours Je suis seul, libre, du système je m'affranchis J'oublie la gâchette qui sans cesse fauche la vie, quel gâchis Pourquoi s'asseoir, tant de choses à voir Je ne peux me résoudre à écourter l'histoire Le soleil donne je me pose, repose mes ailes d'Icare Le sol est sec, dur, craquelé de toutes parts Le bonheur respire aussi fort ici qu'à Nampa L'eau manque ici et là mais la vie prend le pas La beauté de la rose des sables dégage un parfum délicieux Le jour baisse, me blesse à nouveau je reprends les cieux You might also like Refrain La terre tourne tout autour je cours Je fuis le vacarme qu'affectionnent les sourds Le vert que le brun chasse, l'automne à l'été fait place Le ciel se voile recouvre la terre d'un manteau de glace Je me sens bien Avec le combo premier, le Damier toujours au point Hum, malgré moi encore une fois on m'aspire La résurrection est un passage à ne pas franchir Je balaie l'obscur tentant de trouver le jour Loin des thèmes stériles sur lesquels l'humain discourt L'horizon m'appelle, je m'enfonce dans le bleu La terre tourne, je cours comme un enfant heureux Refrain</t>
+          <t>La terre tourne, tout autour je cours Tranquille celui qui tombe à pic pour elle se pique d'amour Je me lève un matin, dieu que je me sens bien Dehors une journée ensoleillée me tend ses mains La berge s'anime, la rosée l'illumine Les brumes du matin fument s'évaporent emportant mon spleen J'enfile mes bottes de sept lieues MNLK décolle Tel un papillon sans pavillon je prends mon envol Vole, vole, vole, vole Je montre le chemin, je guide telle une luciole La terre s'éloigne, les oiseaux à moi se joignent Je tire ma révérence, délaisse la foire d'emopoigne Refrain La terre tourne, tout autour je cours La terre tourne tout autour je cours C'est inouï comme les pensées d'une vie en dirigent le cours Je suis seul, libre, du système je m'affranchis J'oublie la gâchette qui sans cesse fauche la vie, quel gâchis Pourquoi s'asseoir, tant de choses à voir Je ne peux me résoudre à écourter l'histoire Le soleil donne je me pose, repose mes ailes d'Icare Le sol est sec, dur, craquelé de toutes parts Le bonheur respire aussi fort ici qu'à Nampa L'eau manque ici et là mais la vie prend le pas La beauté de la rose des sables dégage un parfum délicieux Le jour baisse, me blesse à nouveau je reprends les cieux Refrain La terre tourne tout autour je cours Je fuis le vacarme qu'affectionnent les sourds Le vert que le brun chasse, l'automne à l'été fait place Le ciel se voile recouvre la terre d'un manteau de glace Je me sens bien Avec le combo premier, le Damier toujours au point Hum, malgré moi encore une fois on m'aspire La résurrection est un passage à ne pas franchir Je balaie l'obscur tentant de trouver le jour Loin des thèmes stériles sur lesquels l'humain discourt L'horizon m'appelle, je m'enfonce dans le bleu La terre tourne, je cours comme un enfant heureux Refrain</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Le temps passe repasse toujours aucune trace J'm'déplace sur le trottoir du café d'en face 1 heure que j'attends sur la terrasse tranquillement Mon esprit s'élève s'échappe du présent Nous voyant tous les 2 peu à peu comme un jeu L'un de l'autre tombant amoureux Je savais c'était vrai que jamais non jamais Dans ma vie sans fortune cela n'arriverait Un doux visage caressé par la brise L'eau reflète encore ton image indécise Toujours sincère mais tu t'es jouée de moi En moi s'insère le poison qui t'éloigne de moi Tu m'as prise à ton jeu, je regrette la méprise Je me croyais le prince charmant dont tu étais éprise L'amour est cruel tu me l'as fait connaître À défaut d'être à toi je préfère disparaître Refrain Ce sont des mots qui vont très bien ensemble Christelle ma belle Tu prétends que tu m'aimes dans le même temps tu mens De chimères en chimères tu t'inventes un nouveau présent Je t'aimais pourtant d'un amour ardent Dont rien je le sens ne saurait défaire La vie est mauvaise me charrie dans son flot Et tout ce chavirant ne varie pas d'un mot Mais je ne suis pas de ceux qui sur une aventure pleurnichent Qui trichent et de la première meuf s'entichent Tu m'as eu je l'avoue et ceci est un fait Mais je préfère te quitter plus qu'une amère défaite Me refaire mais pourquoi faire plutôt l'enfer Nous étions l'un pour l'autre j'y croyais dur comme fer 1 sourire volontaire m'a maintenu dans l'espoir De te voir sur le pas de ma porte un soir Cruelle Christelle, Christelle si belle You might also likeRefrain Une simple équation pour moi 1 encore 1 2 aurait suffit à me rendre heureux Tu dis que tu m'aimes puis le doute tu sèmes La rengaine tourne toujours autour du même thème La suave saveur de ton corps parfumé Me fait oublier notre amour qui part en fumée J'ai si souvent eu faim, faim de ce parfum Car à la fin je reviens sans fin à ce refrain Mais l'amour s'use quand le partner abuse de ruse Et tout le temps refuse de me servir de muse Ménélik pa pa pa pa pa pa Je sais mais cette fois c'est moi qui vole en éclats Refrain</t>
+          <t>Le temps passe repasse toujours aucune trace J'm'déplace sur le trottoir du café d'en face 1 heure que j'attends sur la terrasse tranquillement Mon esprit s'élève s'échappe du présent Nous voyant tous les 2 peu à peu comme un jeu L'un de l'autre tombant amoureux Je savais c'était vrai que jamais non jamais Dans ma vie sans fortune cela n'arriverait Un doux visage caressé par la brise L'eau reflète encore ton image indécise Toujours sincère mais tu t'es jouée de moi En moi s'insère le poison qui t'éloigne de moi Tu m'as prise à ton jeu, je regrette la méprise Je me croyais le prince charmant dont tu étais éprise L'amour est cruel tu me l'as fait connaître À défaut d'être à toi je préfère disparaître Refrain Ce sont des mots qui vont très bien ensemble Christelle ma belle Tu prétends que tu m'aimes dans le même temps tu mens De chimères en chimères tu t'inventes un nouveau présent Je t'aimais pourtant d'un amour ardent Dont rien je le sens ne saurait défaire La vie est mauvaise me charrie dans son flot Et tout ce chavirant ne varie pas d'un mot Mais je ne suis pas de ceux qui sur une aventure pleurnichent Qui trichent et de la première meuf s'entichent Tu m'as eu je l'avoue et ceci est un fait Mais je préfère te quitter plus qu'une amère défaite Me refaire mais pourquoi faire plutôt l'enfer Nous étions l'un pour l'autre j'y croyais dur comme fer 1 sourire volontaire m'a maintenu dans l'espoir De te voir sur le pas de ma porte un soir Cruelle Christelle, Christelle si belle Refrain Une simple équation pour moi 1 encore 1 2 aurait suffit à me rendre heureux Tu dis que tu m'aimes puis le doute tu sèmes La rengaine tourne toujours autour du même thème La suave saveur de ton corps parfumé Me fait oublier notre amour qui part en fumée J'ai si souvent eu faim, faim de ce parfum Car à la fin je reviens sans fin à ce refrain Mais l'amour s'use quand le partner abuse de ruse Et tout le temps refuse de me servir de muse Ménélik pa pa pa pa pa pa Je sais mais cette fois c'est moi qui vole en éclats Refrain</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>REFRAIN Ainsi va la vie... Maldonne Ainsi va la vie, l'humanité est à ce prix COUPLET 1 Je retombe dans la quotidienne grisaille Je pose un pied dans le bal des racailles Un coup d'oeil au hublot de ma tour, je pense La hauteur vertigineuse désoriente mes sens Hum, que faire ? Dois-je traîner comme un hère Ou attendre sereinement le pigeon pendant que je galère J'ai besoin de thunes et je veux tout tout de suite C'est autour de cette valeur que ma vie s'est construite Ouais, je sais qu'quand tu travailles tu palpes pas mal Mais mes copains suivent le chemin du gangster original Voler ou travailler je sais bien où est la nuance Car la taule te guette quand tu entres dans la danse Je continue ma route, cerné par le doute Contre la vie, l'avis de mes amis me fait perdre la joute Le bien, le mal, l'ambivalence fait mal Je prends mon mal en patience, descends la spirale REFRAIN COUPLET 2 Ouf mi-temps je sens qu'il était temps D'autant plus que ma conscience me travaille méchamment D'un côté c'est bien mais côté n'est pas mon plan Car la société te paw quand le gangster fait semblant Dois-je aller au bout? d'impatience je bous Je me sens comme une cegar qui sans cesse tente le loup Le yakusa dort en moi, se manifeste quelquefois Il sera bientôt là c'est ce que me dit mon petit doigt You might also likeREFRAIN COUPLET 2 Le climat est malsain je me fous de ce qui est bien Je dégomme tout ce qui passe par mon chemin Cool man, OK ma colère je contiens Comme dit le schkoonk heepooz ne me traite pas moins qu'un chien J'ai sauté le pas mais le cash ne vient toujours pas À moi il ne viendra pas si je ne le cherche pas Un esprit criminel à la manière de K.R.S J'ai caressé tant de leurres, il faut que cela cesse Je porte un costume mais la vie n'est pas un bal Je joue au gangster mais le gangster me va mal Biaisée, ma pensée était biaisée il y a maldonne Par les dés pipés je me suis fais...</t>
+          <t>REFRAIN Ainsi va la vie... Maldonne Ainsi va la vie, l'humanité est à ce prix COUPLET 1 Je retombe dans la quotidienne grisaille Je pose un pied dans le bal des racailles Un coup d'oeil au hublot de ma tour, je pense La hauteur vertigineuse désoriente mes sens Hum, que faire ? Dois-je traîner comme un hère Ou attendre sereinement le pigeon pendant que je galère J'ai besoin de thunes et je veux tout tout de suite C'est autour de cette valeur que ma vie s'est construite Ouais, je sais qu'quand tu travailles tu palpes pas mal Mais mes copains suivent le chemin du gangster original Voler ou travailler je sais bien où est la nuance Car la taule te guette quand tu entres dans la danse Je continue ma route, cerné par le doute Contre la vie, l'avis de mes amis me fait perdre la joute Le bien, le mal, l'ambivalence fait mal Je prends mon mal en patience, descends la spirale REFRAIN COUPLET 2 Ouf mi-temps je sens qu'il était temps D'autant plus que ma conscience me travaille méchamment D'un côté c'est bien mais côté n'est pas mon plan Car la société te paw quand le gangster fait semblant Dois-je aller au bout? d'impatience je bous Je me sens comme une cegar qui sans cesse tente le loup Le yakusa dort en moi, se manifeste quelquefois Il sera bientôt là c'est ce que me dit mon petit doigt REFRAIN COUPLET 2 Le climat est malsain je me fous de ce qui est bien Je dégomme tout ce qui passe par mon chemin Cool man, OK ma colère je contiens Comme dit le schkoonk heepooz ne me traite pas moins qu'un chien J'ai sauté le pas mais le cash ne vient toujours pas À moi il ne viendra pas si je ne le cherche pas Un esprit criminel à la manière de K.R.S J'ai caressé tant de leurres, il faut que cela cesse Je porte un costume mais la vie n'est pas un bal Je joue au gangster mais le gangster me va mal Biaisée, ma pensée était biaisée il y a maldonne Par les dés pipés je me suis fais...</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Case par case, le Cercle Rouge s'agrandit Ma té-ci va ké-kra, gars Tu le sais. Quoi ? Ne dis pas que tu le sais pas Ça saute aux yeux gars, ma té-ci va ké-cra Tu le vois. Quoi ? Ne dis pas que tu le vois pas Ça saute aux yeux gars, ma té-ci va ké-cra Tu le sais refré, vingt ans que ça dure la poisse aux aguets Ne le nie pas, c'est un fait, rien ne cicatrises ses plaies Les tours m'environnent, les cloches de l'église sonnent Ce n'est pas le glas, gars, mais c'est tout comme J'observe la fourmilière, ses carreaux cassés, bâchés Toute une vie à passée à tchatcher, dans le ciment gâchée Dans les plans foireux, tant et tant de fois marché Qu'arrivé au bout du chemin, trop tard, faut se lâcher J'ai beau crier mon destin, à la rocaille lié, trop injuste Je ne peux l'accepter sans sourciller, sans interlocuteur Seul, face à face, képis, commissaires, excédé J'ai pris les tours comme boucs émissaires Tu le sais. Quoi ? Ne dis pas que tu le sais pas Ça saute aux yeux gars, ma té-ci va ké-cra Tu le vois. Quoi ? Ne dis pas que tu le vois pas Ça saute aux yeux gars, ma té-ci va ké-cra You might also like Contre-pied, t'en fait pas, je vais m'en sortir, ça c'est sûr Le sachet que je vends m'assure des rentes pour le futur Ne te bile pas, gars, la pagaille c'est mon fonds de commerce Laisse faire, c'est dans la merde que j'assure mon business 7 sur 7, je livre 2424, t'inquiète, des couilles en roro Hélas, la pénurie me guette, bullshit Coupez pas les vannes, la vie est telle que Que l'épicier fermera à coup sûr sans notre clientèle 10keus, 10keus, 10keus, plus 10keus, le manège était cramé Pécho, du shit dans le keus Je suis tombé, je suis sorti, je m'en suis pas sorti Je galère excédé, j'ai pris les tours comme boucs émissaires Tu le sais. Quoi ? Ne dis pas que tu le sais pas Ça saute aux yeux gars, ma té-ci va ké-cra Tu le vois. Quoi ? Ne dis pas que tu le vois pas Ça saute aux yeux gars, ma té-ci va ké-cra Un été dans la cité style Ministère AMER Toutes les mains en l'air, faire la foire, chauffe l'atmosphère Chauffe, gars, fais-toi plaisir La voisine supporte pas les éclats de rire, elle doit dormir Pas de bol, les filles sont folles, les gars décollent Conditions idéales, pas de bol, les condés sonnent La fête est finie, la cité sort de la soirée aigrie En bas des tours s'amassent ceux qui n'ont eu droit qu'au mépris Police, papiers, comme si ça suffisait pas, fouille Un civil qui parle mal, merde, voilà que ça part en couilles Les képis dispersent la foule, mais la foule ne se laisse pas faire Excédée, elle a pris les tours comme boucs émissaires Tu le sais. Quoi ? Ne dis pas que tu le sais pas Ça saute aux yeux gars, ma té-ci va ké-cra Tu le vois. Quoi ? Ne dis pas que tu le vois pas Ça saute aux yeux gars, ma té-ci va ké-cra</t>
+          <t>Case par case, le Cercle Rouge s'agrandit Ma té-ci va ké-kra, gars Tu le sais. Quoi ? Ne dis pas que tu le sais pas Ça saute aux yeux gars, ma té-ci va ké-cra Tu le vois. Quoi ? Ne dis pas que tu le vois pas Ça saute aux yeux gars, ma té-ci va ké-cra Tu le sais refré, vingt ans que ça dure la poisse aux aguets Ne le nie pas, c'est un fait, rien ne cicatrises ses plaies Les tours m'environnent, les cloches de l'église sonnent Ce n'est pas le glas, gars, mais c'est tout comme J'observe la fourmilière, ses carreaux cassés, bâchés Toute une vie à passée à tchatcher, dans le ciment gâchée Dans les plans foireux, tant et tant de fois marché Qu'arrivé au bout du chemin, trop tard, faut se lâcher J'ai beau crier mon destin, à la rocaille lié, trop injuste Je ne peux l'accepter sans sourciller, sans interlocuteur Seul, face à face, képis, commissaires, excédé J'ai pris les tours comme boucs émissaires Tu le sais. Quoi ? Ne dis pas que tu le sais pas Ça saute aux yeux gars, ma té-ci va ké-cra Tu le vois. Quoi ? Ne dis pas que tu le vois pas Ça saute aux yeux gars, ma té-ci va ké-cra Contre-pied, t'en fait pas, je vais m'en sortir, ça c'est sûr Le sachet que je vends m'assure des rentes pour le futur Ne te bile pas, gars, la pagaille c'est mon fonds de commerce Laisse faire, c'est dans la merde que j'assure mon business 7 sur 7, je livre 2424, t'inquiète, des couilles en roro Hélas, la pénurie me guette, bullshit Coupez pas les vannes, la vie est telle que Que l'épicier fermera à coup sûr sans notre clientèle 10keus, 10keus, 10keus, plus 10keus, le manège était cramé Pécho, du shit dans le keus Je suis tombé, je suis sorti, je m'en suis pas sorti Je galère excédé, j'ai pris les tours comme boucs émissaires Tu le sais. Quoi ? Ne dis pas que tu le sais pas Ça saute aux yeux gars, ma té-ci va ké-cra Tu le vois. Quoi ? Ne dis pas que tu le vois pas Ça saute aux yeux gars, ma té-ci va ké-cra Un été dans la cité style Ministère AMER Toutes les mains en l'air, faire la foire, chauffe l'atmosphère Chauffe, gars, fais-toi plaisir La voisine supporte pas les éclats de rire, elle doit dormir Pas de bol, les filles sont folles, les gars décollent Conditions idéales, pas de bol, les condés sonnent La fête est finie, la cité sort de la soirée aigrie En bas des tours s'amassent ceux qui n'ont eu droit qu'au mépris Police, papiers, comme si ça suffisait pas, fouille Un civil qui parle mal, merde, voilà que ça part en couilles Les képis dispersent la foule, mais la foule ne se laisse pas faire Excédée, elle a pris les tours comme boucs émissaires Tu le sais. Quoi ? Ne dis pas que tu le sais pas Ça saute aux yeux gars, ma té-ci va ké-cra Tu le vois. Quoi ? Ne dis pas que tu le vois pas Ça saute aux yeux gars, ma té-ci va ké-cra</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Case par case, le Cercle Rouge s'agrandit Ma té-ci va ké-kra, gars Tu le sais. Quoi? Ne dis pas que tu le sais pas Ca saute aux yeux gars, ma té-ci va ké-cra Tu le vois. Quoi? Ne dis pas que tu le vois pas Ca saute aux yeux gars, ma té-ci va ké-cra Tu le sais refré, vingt ans que ça dure la poisse aux Aguets Ne le nie pas, c'est un fait, rien ne cicatrises ses plaies Les tours m'environnent, les cloches de l'église sonnent Ce n'est pas le glas, gars, mais c'est tout comme J'observe la fourmilière, ses carreaux cassés, bâchés Toute une vie à passée à tchatcher, dans le ciment Gâchée Dans les plans foireux, tant et tant de fois marché Qu'arrivé au bout du chemin, trop tard, faut se lâcher J'ai beau crier mon destin, à la rocaille lié, trop Injuste Je ne peux l'accepter sans sourciller, sans interlocuteur Seul, face à face, képis, commissaires, excédé J'ai pris les tours comme boucs émissaires Contre-pied, t'en fait pas, je vais m'en sortir, ça c'est Sûr Le sachet que je vends m'assure des rentes pour le futur Ne te bite pas, gars, la pagaille c'est mon fonds de Commerce Laisse faire, c'est dans la merde que j'assure mon business 7 sur 7, je livre 2424, t'inquiète, des couilles en roro Hélas, la pénurie me guette, bullshit Coupez pas les vannes, la vie est telle que Que l'épicier fermera à coup sûr sans notre clientèle 10keus, 10keus, 10keus, plus 10keus, le manège était Cramé Pécho, du shit dans le keus Je suis tombé, je suis sorti, je m'en suis pas sorti Je galère excédé, j'ai pris les tours comme boucs Émissaires Un été dans la cité style Ministère AMER Toutes les mains en l'air, faire la foire, chauffe L'atmosphère Chauffe, gars, fais-toi plaisir La voisine supporte pas les éclats de rire, elle doit Dormir Pas de bol, les filles sont folles, les gars décollent Conditions idéales, pas de bol, les condés sonnent La fête est finie, la cité sort de la soirée aigrie En bas des tours s'amassent ceux qui n'ont eu droit qu'au Mépris Police, papiers, comme si ça suffisait pas, fouille Un civil qui parle mal, merde, voilà que ça part en Couilles Les képis dispersent la foule, mais la foule ne se laisse Pas faire Excédée, elle a pris les tours comme boucs émissairesYou might also like</t>
+          <t>Case par case, le Cercle Rouge s'agrandit Ma té-ci va ké-kra, gars Tu le sais. Quoi? Ne dis pas que tu le sais pas Ca saute aux yeux gars, ma té-ci va ké-cra Tu le vois. Quoi? Ne dis pas que tu le vois pas Ca saute aux yeux gars, ma té-ci va ké-cra Tu le sais refré, vingt ans que ça dure la poisse aux Aguets Ne le nie pas, c'est un fait, rien ne cicatrises ses plaies Les tours m'environnent, les cloches de l'église sonnent Ce n'est pas le glas, gars, mais c'est tout comme J'observe la fourmilière, ses carreaux cassés, bâchés Toute une vie à passée à tchatcher, dans le ciment Gâchée Dans les plans foireux, tant et tant de fois marché Qu'arrivé au bout du chemin, trop tard, faut se lâcher J'ai beau crier mon destin, à la rocaille lié, trop Injuste Je ne peux l'accepter sans sourciller, sans interlocuteur Seul, face à face, képis, commissaires, excédé J'ai pris les tours comme boucs émissaires Contre-pied, t'en fait pas, je vais m'en sortir, ça c'est Sûr Le sachet que je vends m'assure des rentes pour le futur Ne te bite pas, gars, la pagaille c'est mon fonds de Commerce Laisse faire, c'est dans la merde que j'assure mon business 7 sur 7, je livre 2424, t'inquiète, des couilles en roro Hélas, la pénurie me guette, bullshit Coupez pas les vannes, la vie est telle que Que l'épicier fermera à coup sûr sans notre clientèle 10keus, 10keus, 10keus, plus 10keus, le manège était Cramé Pécho, du shit dans le keus Je suis tombé, je suis sorti, je m'en suis pas sorti Je galère excédé, j'ai pris les tours comme boucs Émissaires Un été dans la cité style Ministère AMER Toutes les mains en l'air, faire la foire, chauffe L'atmosphère Chauffe, gars, fais-toi plaisir La voisine supporte pas les éclats de rire, elle doit Dormir Pas de bol, les filles sont folles, les gars décollent Conditions idéales, pas de bol, les condés sonnent La fête est finie, la cité sort de la soirée aigrie En bas des tours s'amassent ceux qui n'ont eu droit qu'au Mépris Police, papiers, comme si ça suffisait pas, fouille Un civil qui parle mal, merde, voilà que ça part en Couilles Les képis dispersent la foule, mais la foule ne se laisse Pas faire Excédée, elle a pris les tours comme boucs émissaires</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Coolest dude doin it, check the record its too legit Coasters under his feet as he walk case the vapor drip Breathe madness can't affect em wit sadness Sprouted from a seed to a plant quicker than radish In a lane wit no lames, the game changed Stairs reaching heights above another level plain Rest garbage for lack of some better words Due to days off missin out on essential verbs Work strive conquer then he became a monster Bangin out the tracks he recorded in a honda Vivic, now they saying he gifted Yet some only respect it if a artist was born wit it Makin believers outa people who been knew em Tougher than separation of joined twins but still doin Deliver daily, for the F but mainly Cause rap got in his system now it got him so crazy Calm collected i bet you know the third Wonder where i got my vision i took time to observe Now kick back i slang tracks like pure crack All day and night so they fein supply and gimmie racks For rockin this here better than your favorite If ya ears ain't filled wit wax then I'm on your playlist Might hop straight out the whip just to holla at ya girl Wordplay 'll get her tangled now she stuck in the world Of elegant music royal life she love it Only works if its natural don't take time to dub it Put my hours in and this what i get Go overboard wit over time to spit ruthless heh Party hardly workin until I'm godly The suite is at the top but traffic down in the lobby So differentiate myself from those West coast oakland, CA kept me on my toesYou might also like</t>
+          <t>Coolest dude doin it, check the record its too legit Coasters under his feet as he walk case the vapor drip Breathe madness can't affect em wit sadness Sprouted from a seed to a plant quicker than radish In a lane wit no lames, the game changed Stairs reaching heights above another level plain Rest garbage for lack of some better words Due to days off missin out on essential verbs Work strive conquer then he became a monster Bangin out the tracks he recorded in a honda Vivic, now they saying he gifted Yet some only respect it if a artist was born wit it Makin believers outa people who been knew em Tougher than separation of joined twins but still doin Deliver daily, for the F but mainly Cause rap got in his system now it got him so crazy Calm collected i bet you know the third Wonder where i got my vision i took time to observe Now kick back i slang tracks like pure crack All day and night so they fein supply and gimmie racks For rockin this here better than your favorite If ya ears ain't filled wit wax then I'm on your playlist Might hop straight out the whip just to holla at ya girl Wordplay 'll get her tangled now she stuck in the world Of elegant music royal life she love it Only works if its natural don't take time to dub it Put my hours in and this what i get Go overboard wit over time to spit ruthless heh Party hardly workin until I'm godly The suite is at the top but traffic down in the lobby So differentiate myself from those West coast oakland, CA kept me on my toes</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1 pour la basse, 2 pour les aiguës Passe-moi le mic j'ai du souffle comme Charles Mingus Je peux kicker des rimes pendant des journées entières Réciter mes vers, raconter mon univers J'ai 6 styles pas de failles car je boxe puis me taille Je pars à la bataille donc Nathalie Baye Nous sommes les Sages Poètes, Sinclair est dans la place Touche pas Ménélik ou j'te Patricia Kaas J'ai 16 sortes de délire, 164 plaisirs 1 spliff et je mets tout le monde à l'Amanda Lear Je m'appelle Dany Dan, grand frère fort de Boulogne Je vous présente Zoxea, jespère qu'il n'est pas en rogne Parfois je pars faire un parcours que je connais pas cur Pour oublier les rancurs de mon cur Je cours vers la sur, celle qui me tranquillise En un quart d'heure m'immobilise Le psychopathe ? Vise la cible mouvante, touche puis crible son ventre D'une saveur exotique Freddy Krue, Zoxea épouvante Taille la route, hante et shoote ceux qui lui prennent la tête Tout en étant smooth car telle est l'attitude d'un Sages Poètes Dany Dan m'a dit Sois plus cool et moins bandit Fais le fou avec les filles Mais fout pas ta merde quand tu brandis ce micro Dis la vérité tranquillement Car ton frère se prend une raclée méritée quand il ment Zilizoxea pour Sinclair, donne un style tranquille... You might also like Cherchant l'équilibre, je veux être libre Et du libre arbitre je veux que mon être s'enivre Le groove est là, il s'ouvre à moi La rime se réfugie dans ses bras M.E.N.E.L.I.K. tranquille loin de s'en faire Résume ainsi sa pensée, c'est succin mais claire La philosophie de tout le posse est d'éviter à tout prix les ennuis Sur une mer, le tempo baigné par le Soleil Poussé par le groove on s'interpelle Dis-moi Sinclair, pourquoi le monde est mauvais ? Pourquoi la violence a des traits si parfaits ? Pèse les mots, pour éviter toute controverse à l'égard de Pheelo Calme, sage et posé, je représente le jazz Comme l'illustre trompettiste Davis Miles Le beat est funky, Boom Bass a compris Comment éveiller les sentiments de l'endormi hum.. Vois-tu mon reflet dans l'eau paisible ? Placide sont les frères sur la version tranquille Laissez-moi tranquille, quand je suis en paix..1</t>
+          <t>1 pour la basse, 2 pour les aiguës Passe-moi le mic j'ai du souffle comme Charles Mingus Je peux kicker des rimes pendant des journées entières Réciter mes vers, raconter mon univers J'ai 6 styles pas de failles car je boxe puis me taille Je pars à la bataille donc Nathalie Baye Nous sommes les Sages Poètes, Sinclair est dans la place Touche pas Ménélik ou j'te Patricia Kaas J'ai 16 sortes de délire, 164 plaisirs 1 spliff et je mets tout le monde à l'Amanda Lear Je m'appelle Dany Dan, grand frère fort de Boulogne Je vous présente Zoxea, jespère qu'il n'est pas en rogne Parfois je pars faire un parcours que je connais pas cur Pour oublier les rancurs de mon cur Je cours vers la sur, celle qui me tranquillise En un quart d'heure m'immobilise Le psychopathe ? Vise la cible mouvante, touche puis crible son ventre D'une saveur exotique Freddy Krue, Zoxea épouvante Taille la route, hante et shoote ceux qui lui prennent la tête Tout en étant smooth car telle est l'attitude d'un Sages Poètes Dany Dan m'a dit Sois plus cool et moins bandit Fais le fou avec les filles Mais fout pas ta merde quand tu brandis ce micro Dis la vérité tranquillement Car ton frère se prend une raclée méritée quand il ment Zilizoxea pour Sinclair, donne un style tranquille... Cherchant l'équilibre, je veux être libre Et du libre arbitre je veux que mon être s'enivre Le groove est là, il s'ouvre à moi La rime se réfugie dans ses bras M.E.N.E.L.I.K. tranquille loin de s'en faire Résume ainsi sa pensée, c'est succin mais claire La philosophie de tout le posse est d'éviter à tout prix les ennuis Sur une mer, le tempo baigné par le Soleil Poussé par le groove on s'interpelle Dis-moi Sinclair, pourquoi le monde est mauvais ? Pourquoi la violence a des traits si parfaits ? Pèse les mots, pour éviter toute controverse à l'égard de Pheelo Calme, sage et posé, je représente le jazz Comme l'illustre trompettiste Davis Miles Le beat est funky, Boom Bass a compris Comment éveiller les sentiments de l'endormi hum.. Vois-tu mon reflet dans l'eau paisible ? Placide sont les frères sur la version tranquille Laissez-moi tranquille, quand je suis en paix..1</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>COUPLET 1 Il faudra bien qu'un jour je pense à mourir seul Enfin me laisser recouvrir par la blancheur d'un linceul C'est ma sur je rêve de l'étreindre 12 ans de passion que j'n'ai pu éteindre Non pas que je le veuille c'est ma vie plus qu'un deuil À elle j'étais uni dès que nous avons franchi le seuil Entraîné à traîner la savate de Cergy à Bonneuil Même si mes parents ne l voyaient pas d'un bon il En tailleur, en jan ou bien en pagne Qu'importe à mes idées il faut que la gagne Nous parlons souvent, j'aimerais la voir devant On l'attaque sans tact comme un beau diable Je la défends J'étais nouveau, à moi elle a du s'accoutumer Mais du fait, j'étais coutumier Elle s'évanouit dans la nuit pour jouer de l'aérosol Et sur la table au matin je retrouve ces paroles COUPLET 3 Je l'ai suivie et surprise très souvent se prostituant Par la lucarne elle se donnait au plus offrant Dois je subir le délire Ne rien dire ou au pire souffrir Sans arrêt on la citait par ci on la citait par là Faisant peur car elle mettait les pieds dans le plat L'ambiguïté s'affiche comme un serpent vil Un battement de cils et à nouveau servile J'ai épié ses courbes piquées mélanine Je ne taris pas comme un talri je la baratine Polyglotte parlant anglais français wollof ou allemand Calmement ses mots se saccadent comme un calmant Dès que je l'ai entendue j'ai su que c'était ma reine Elle incarne le damier, évanouit mes peines J'ai bien souvent vu des gens parler en son nom Mais ce n'est que de sa vie dont je ressens le son You might also likeCOUPLET 3 Les bonnes gens bien pensants, par elle son fâchés Quand elle me hèle me souffle les mots, à elle je me sens attachée Loin d'elle je peine la variet' me freine J'aimerais tant profiter de la magie qu'elle draine Comme un enfant pleure sa mère Elle n'est pas là, je déprime Pour moi c'est à cela que la vie rime Merveilleuse, je voudrais qu'on l'admire En veilleuse mes frères jaloux refusent de la sortir Plus le temps me prends, plus d'elle je m'éprends Ce que je lui donne plus de mille fois elle me le rends Je l'étudie elle m'a attribué mon nom MENELIK Pour toujours je lui vouerais un amour platonique J'étais en friche quand brutalement elle me dompta Les liens qui nous unissent sont de ceux qu'on ne romps pas Comme un alien en moi elle est celle qui me développe C'est la plus belle, c'est ma musique, le HIP HOP</t>
+          <t>COUPLET 1 Il faudra bien qu'un jour je pense à mourir seul Enfin me laisser recouvrir par la blancheur d'un linceul C'est ma sur je rêve de l'étreindre 12 ans de passion que j'n'ai pu éteindre Non pas que je le veuille c'est ma vie plus qu'un deuil À elle j'étais uni dès que nous avons franchi le seuil Entraîné à traîner la savate de Cergy à Bonneuil Même si mes parents ne l voyaient pas d'un bon il En tailleur, en jan ou bien en pagne Qu'importe à mes idées il faut que la gagne Nous parlons souvent, j'aimerais la voir devant On l'attaque sans tact comme un beau diable Je la défends J'étais nouveau, à moi elle a du s'accoutumer Mais du fait, j'étais coutumier Elle s'évanouit dans la nuit pour jouer de l'aérosol Et sur la table au matin je retrouve ces paroles COUPLET 3 Je l'ai suivie et surprise très souvent se prostituant Par la lucarne elle se donnait au plus offrant Dois je subir le délire Ne rien dire ou au pire souffrir Sans arrêt on la citait par ci on la citait par là Faisant peur car elle mettait les pieds dans le plat L'ambiguïté s'affiche comme un serpent vil Un battement de cils et à nouveau servile J'ai épié ses courbes piquées mélanine Je ne taris pas comme un talri je la baratine Polyglotte parlant anglais français wollof ou allemand Calmement ses mots se saccadent comme un calmant Dès que je l'ai entendue j'ai su que c'était ma reine Elle incarne le damier, évanouit mes peines J'ai bien souvent vu des gens parler en son nom Mais ce n'est que de sa vie dont je ressens le son COUPLET 3 Les bonnes gens bien pensants, par elle son fâchés Quand elle me hèle me souffle les mots, à elle je me sens attachée Loin d'elle je peine la variet' me freine J'aimerais tant profiter de la magie qu'elle draine Comme un enfant pleure sa mère Elle n'est pas là, je déprime Pour moi c'est à cela que la vie rime Merveilleuse, je voudrais qu'on l'admire En veilleuse mes frères jaloux refusent de la sortir Plus le temps me prends, plus d'elle je m'éprends Ce que je lui donne plus de mille fois elle me le rends Je l'étudie elle m'a attribué mon nom MENELIK Pour toujours je lui vouerais un amour platonique J'étais en friche quand brutalement elle me dompta Les liens qui nous unissent sont de ceux qu'on ne romps pas Comme un alien en moi elle est celle qui me développe C'est la plus belle, c'est ma musique, le HIP HOP</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Yea yea yea yea One time one, uhh uhh ,one time I pick the mic up beginning my verbal assault no cypher Attention from the critics taking place of pied pipers So light up like its 420 tho despite of Leaves going down in the autumn unlike us We fly high no medical so no coming down Natural elevation higher learning a better sound Who rock the crown, we just some nor cal natives And I'm right on time but I'm noted the latest So save it ain't no listening to a bitter man Eyes on the prize playa I got the bigger plan Every day I do this regardless I ain't sayin he garbage But if distance were to be measured than I'm sure he the farthest Like that and it keep on coming Need muzzle for my self the mouth keep on running Found the key to my future den I sharpened it up They saw me glisten in dark now its backin them up Slickened the delivery the talk of the zone Now the girls from high school steady blowin up my phone Can't act like I don't love it though but still I'm unsatisfied Hollering I got talent and I say they ain't neva lied So play the beat I keep it goin year round And its all off my dome like removin a crown Profoundly thinkin outside of the box and even under it Mine for the taking I really can't get enough of it One in a million million all for one spot Who gone stand out we all want to be a hot shot Check my degrees I'm rising on regular Consume what I'm breathing its a like a mind freshener Gettin ahead in the time they wasted sleepin Stayed real now they can't resist from peepin Where they found me intersection or crossroad A stoop wit a book know the streets wit eyes closed You might also like Yea yea yea yea One time one, uhh uhh ,one time I'm back at it like a crack addict that relapsed Niggas wasn't knocking my flow even wit rehab But pre-habs the best that ever did it My flows are so cold it'll freeze you off in summertime But never mind just popping off at the mouth They told me sky's was the limit so I'm aiming for the stars They hearing my cold raps feeling the way I'm flowing Like the energizer bunny I just keep on going Cause yeah I'm about to go in Royal fam for the taking, money for the baking Let it rise to the top then I throw it like Aikman</t>
+          <t>Yea yea yea yea One time one, uhh uhh ,one time I pick the mic up beginning my verbal assault no cypher Attention from the critics taking place of pied pipers So light up like its 420 tho despite of Leaves going down in the autumn unlike us We fly high no medical so no coming down Natural elevation higher learning a better sound Who rock the crown, we just some nor cal natives And I'm right on time but I'm noted the latest So save it ain't no listening to a bitter man Eyes on the prize playa I got the bigger plan Every day I do this regardless I ain't sayin he garbage But if distance were to be measured than I'm sure he the farthest Like that and it keep on coming Need muzzle for my self the mouth keep on running Found the key to my future den I sharpened it up They saw me glisten in dark now its backin them up Slickened the delivery the talk of the zone Now the girls from high school steady blowin up my phone Can't act like I don't love it though but still I'm unsatisfied Hollering I got talent and I say they ain't neva lied So play the beat I keep it goin year round And its all off my dome like removin a crown Profoundly thinkin outside of the box and even under it Mine for the taking I really can't get enough of it One in a million million all for one spot Who gone stand out we all want to be a hot shot Check my degrees I'm rising on regular Consume what I'm breathing its a like a mind freshener Gettin ahead in the time they wasted sleepin Stayed real now they can't resist from peepin Where they found me intersection or crossroad A stoop wit a book know the streets wit eyes closed Yea yea yea yea One time one, uhh uhh ,one time I'm back at it like a crack addict that relapsed Niggas wasn't knocking my flow even wit rehab But pre-habs the best that ever did it My flows are so cold it'll freeze you off in summertime But never mind just popping off at the mouth They told me sky's was the limit so I'm aiming for the stars They hearing my cold raps feeling the way I'm flowing Like the energizer bunny I just keep on going Cause yeah I'm about to go in Royal fam for the taking, money for the baking Let it rise to the top then I throw it like Aikman</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>COUPLET 1 Il est parti, d'une existence de rêve il s'est départi Pourtant pour la vie ensemble ils étaient partis Jusqu'à ce qu'elle vienne, mine sa vie, la vide Et la fasse sienne On lui dit qu'il est assis sur la branche qu'il scie Il vit par épisode le sursis se raccourcit Il est digne pas un rôle ne se lit sur son visage pâle Que la maladie a mis à mal Tant bien que mal oui mal de mal n pis La mort attend attend son tour dans l'ombre tapi Hélas hélas, trois fois hélas Son compagnon se lasse de leur bonheur qui fait volte face Il est parti, oui parti Plus de crédits il a fumé le délai imparti Quand le ciel bas et lourd comme un couvercle Étouffe et rétrécit peu à peu le cercle De toutes parts acculé il joue contre la montre La tension monte chaque seconde compte Il fuit mais c'est contre lui que luit la flamme Il est parti son esprit se nourrit de vague à l'âme REFRAIN Il est parti x4 COUPLET 2 Il en pâtit, une à une il a bouché toutes les issues Étudie, étudie mais désormais il n'entends plus Il n'a il n'a jamais peser le poids du dégât Voir sa mère pleurer dans ses bras Aventurier du temple maudit il vise la thune Cherche à déchiffrer les ruines qu'elle infortune Dans le mouvant le flou il glisse Il s'enfonce comme jadis dans les sables d'arrakis Lisse le collier de perles qu'il subtilise Manqué il pêche deux bracelets de ferraille grise Son horizon se profile rayé à la verticale Il songe à ses rêves de grandeur bancale Le maton tombe trop tard il a tiré Prisonnier plus qu'une seule balle dans le barillet Il est parti mais c'est pour nous que se noue le drame Il est parti son esprit se nourrit de vagues à l'âme You might also likeREFRAIN Il est parti... x4 COUPLET 3 Il est parti dans la partie à nouveau le chasseur suit la Piste de danse Pas à pas à sa vie il donne un sens Un battement, le néant qui s'approche calmement Le corps prends le contrôle domine l'esprit un instant Repartir décoller de la partie s'envoler Le cachet qu'il cachait le cloue il est collé Il appelle à l'aide danse sur la corde raide Chercher l'intermède fuir le temps qui le possède En voyage il monte ça y est le produit fait effet En cavale il tombe éconduit le mal est fait Le rythme a raison de lui mais à présent qui s'en soucie Son esprit fuit plein de vie tandis que sa vue s'obscurcit Un battement le raccroche maintenant à la vie Il s'accroche puis décroche, la musique est finie Il fuit mais c'est pour nous que se noue le drame Il est parti son esprit se nourrit de vagues à l'âme REFRAIN Il est parti... x4 95, Ménélik est dans la place Il est parti, il est parti...</t>
+          <t>COUPLET 1 Il est parti, d'une existence de rêve il s'est départi Pourtant pour la vie ensemble ils étaient partis Jusqu'à ce qu'elle vienne, mine sa vie, la vide Et la fasse sienne On lui dit qu'il est assis sur la branche qu'il scie Il vit par épisode le sursis se raccourcit Il est digne pas un rôle ne se lit sur son visage pâle Que la maladie a mis à mal Tant bien que mal oui mal de mal n pis La mort attend attend son tour dans l'ombre tapi Hélas hélas, trois fois hélas Son compagnon se lasse de leur bonheur qui fait volte face Il est parti, oui parti Plus de crédits il a fumé le délai imparti Quand le ciel bas et lourd comme un couvercle Étouffe et rétrécit peu à peu le cercle De toutes parts acculé il joue contre la montre La tension monte chaque seconde compte Il fuit mais c'est contre lui que luit la flamme Il est parti son esprit se nourrit de vague à l'âme REFRAIN Il est parti x4 COUPLET 2 Il en pâtit, une à une il a bouché toutes les issues Étudie, étudie mais désormais il n'entends plus Il n'a il n'a jamais peser le poids du dégât Voir sa mère pleurer dans ses bras Aventurier du temple maudit il vise la thune Cherche à déchiffrer les ruines qu'elle infortune Dans le mouvant le flou il glisse Il s'enfonce comme jadis dans les sables d'arrakis Lisse le collier de perles qu'il subtilise Manqué il pêche deux bracelets de ferraille grise Son horizon se profile rayé à la verticale Il songe à ses rêves de grandeur bancale Le maton tombe trop tard il a tiré Prisonnier plus qu'une seule balle dans le barillet Il est parti mais c'est pour nous que se noue le drame Il est parti son esprit se nourrit de vagues à l'âme REFRAIN Il est parti... x4 COUPLET 3 Il est parti dans la partie à nouveau le chasseur suit la Piste de danse Pas à pas à sa vie il donne un sens Un battement, le néant qui s'approche calmement Le corps prends le contrôle domine l'esprit un instant Repartir décoller de la partie s'envoler Le cachet qu'il cachait le cloue il est collé Il appelle à l'aide danse sur la corde raide Chercher l'intermède fuir le temps qui le possède En voyage il monte ça y est le produit fait effet En cavale il tombe éconduit le mal est fait Le rythme a raison de lui mais à présent qui s'en soucie Son esprit fuit plein de vie tandis que sa vue s'obscurcit Un battement le raccroche maintenant à la vie Il s'accroche puis décroche, la musique est finie Il fuit mais c'est pour nous que se noue le drame Il est parti son esprit se nourrit de vagues à l'âme REFRAIN Il est parti... x4 95, Ménélik est dans la place Il est parti, il est parti...</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Comme un glaçon qui glisse sur ton corps Je semble froid puis fond, tu m'as envoûté des lors Par les pores de la peau H2O s'inflitre Des niaiseries rabachées je constitue le filtre Quand à la foule s'enflamme et par ses flammes me lèche Je m'évapore mais le jus jamais ne s'assèche Le son coule, coule me donne l'aval Mes paroles noient tes croyances ancestrales Fluide le griot est au micro il émerge du troupeau Et rélève le niveau Liquide MNLK est à flot tranquille sur le style Il impose son voco, vos âmes sondées Sur cette base mon rap est fondé Donc je suis bien plus qu'une passagère ondée Meyeha ! La bourse ou la vie, je prends la vie en course Contemplant les ruisseaux dont je suis la source Refrain Toujours au sommet je me joue des creux de la vague Je suis l'ouragan qui avec son oeil t'alpaques d'huile Au démonté tout comme la mer Je viens des abysses c'est là que la magie s'opère MÉNÉLIK est là, le DAMIER est là Quoiqu'il en soit l'eau toujours là Hey ! dans certains coins du globe très cher on paye Pour vivre, survivre ma fluidité se monnaye Je réfléchis on n' m'attends pas je tombe comme la pluie Je suis le trottoir qui la nuit par son action luit Le débit, la mélodie du flow m'a plu Le travail a su m'aider à conserver le flux Comme le plic plac de l'eau sur le sol claque quand il pleut Le floc floc du pied dans une flaque me rend heureux You might also like Refrain Diluvienne je suis la pluie qui en trombe tombe Parfois acide, parfois en colère, j'inonde le monde Tant bien que mal tu tentes de retenir le phénomène Suis plutôt LIKMÈNE tu verras où il te mène Comme un bébé par le liquide est immergé Mon HIP HOP est si fort que tu es imbibé Ah Ah Ah je coule Le son irrigue à nouveau les canaux de ton cerveau Omniprésent aux quatre coins du globe je m'entends Tu croyais te la couler douce mais je suis au courant Gouttes à gouttes sur ton front tu ressens l'impact La molécule MÉNÉLIK est une vraie cataracte Mon art est comme une déferlante, qui bien que lente Balaie tout sur son passage et peu à peu s'implante Refrain</t>
+          <t>Comme un glaçon qui glisse sur ton corps Je semble froid puis fond, tu m'as envoûté des lors Par les pores de la peau H2O s'inflitre Des niaiseries rabachées je constitue le filtre Quand à la foule s'enflamme et par ses flammes me lèche Je m'évapore mais le jus jamais ne s'assèche Le son coule, coule me donne l'aval Mes paroles noient tes croyances ancestrales Fluide le griot est au micro il émerge du troupeau Et rélève le niveau Liquide MNLK est à flot tranquille sur le style Il impose son voco, vos âmes sondées Sur cette base mon rap est fondé Donc je suis bien plus qu'une passagère ondée Meyeha ! La bourse ou la vie, je prends la vie en course Contemplant les ruisseaux dont je suis la source Refrain Toujours au sommet je me joue des creux de la vague Je suis l'ouragan qui avec son oeil t'alpaques d'huile Au démonté tout comme la mer Je viens des abysses c'est là que la magie s'opère MÉNÉLIK est là, le DAMIER est là Quoiqu'il en soit l'eau toujours là Hey ! dans certains coins du globe très cher on paye Pour vivre, survivre ma fluidité se monnaye Je réfléchis on n' m'attends pas je tombe comme la pluie Je suis le trottoir qui la nuit par son action luit Le débit, la mélodie du flow m'a plu Le travail a su m'aider à conserver le flux Comme le plic plac de l'eau sur le sol claque quand il pleut Le floc floc du pied dans une flaque me rend heureux Refrain Diluvienne je suis la pluie qui en trombe tombe Parfois acide, parfois en colère, j'inonde le monde Tant bien que mal tu tentes de retenir le phénomène Suis plutôt LIKMÈNE tu verras où il te mène Comme un bébé par le liquide est immergé Mon HIP HOP est si fort que tu es imbibé Ah Ah Ah je coule Le son irrigue à nouveau les canaux de ton cerveau Omniprésent aux quatre coins du globe je m'entends Tu croyais te la couler douce mais je suis au courant Gouttes à gouttes sur ton front tu ressens l'impact La molécule MÉNÉLIK est une vraie cataracte Mon art est comme une déferlante, qui bien que lente Balaie tout sur son passage et peu à peu s'implante Refrain</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Comme un glaçon qui glisse sur ton corps Je semble froid puis fond, tu m'as envoûté des lors Par les pores de la peau H2O s'inflitre Des niaiseries rabachées je constitue le filtre Quand à la foule s'enflamme et par ses flammes me lèche Je m'évapore mais le jus jamais ne s'assèche Le son coule, coule me donne l'aval Mes paroles noient tes croyances ancestrales Fluide le griot est au micro il émerge du troupeau Et rélève le niveau Liquide MNLK est à flot tranquille sur le style Il impose son voco, vos âmes sondées Sur cette base mon rap est fondé Donc je suis bien plus qu'une passagère ondée Meyeha ! La bourse ou la vie, je prends la vie en course Contemplant les ruisseaux dont je suis la source Refrain Toujours au sommet je me joue des creux de la vague Je suis l'ouragan qui avec son oeil t'alpaques d'huile Au démonté tout comme la mer Je viens des abysses c'est là que la magie s'opère MÉNÉLIK est là, le DAMIER est là Quoiqu'il en soit l'eau toujours là Hey ! dans certains coins du globe très cher on paye Pour vivre, survivre ma fluidité se monnaye Je réfléchis on n' m'attends pas je tombe comme la pluie Je suis le trottoir qui la nuit par son action luit Le débit, la mélodie du flow m'a plu Le travail a su m'aider à conserver le flux Comme le plic plac de l'eau sur le sol claque quand il pleut Le floc floc du pied dans une flaque me rend heureux You might also like Refrain Diluvienne je suis la pluie qui en trombe tombe Parfois acide, parfois en colère, j'inonde le monde Tant bien que mal tu tentes de retenir le phénomène Suis plutôt LIKMÈNE tu verras où il te mène Comme un bébé par le liquide est immergé Mon HIP HOP est si fort que tu es imbibé Ah Ah Ah je coule Le son irrigue à nouveau les canaux de ton cerveau Omniprésent aux quatre coins du globe je m'entends Tu croyais te la couler douce mais je suis au courant Gouttes à gouttes sur ton front tu ressens l'impact La molécule MÉNÉLIK est une vraie cataracte Mon art est comme une déferlante, qui bien que lente Balaie tout sur son passage et peu à peu s'implante Refrain</t>
+          <t>Comme un glaçon qui glisse sur ton corps Je semble froid puis fond, tu m'as envoûté des lors Par les pores de la peau H2O s'inflitre Des niaiseries rabachées je constitue le filtre Quand à la foule s'enflamme et par ses flammes me lèche Je m'évapore mais le jus jamais ne s'assèche Le son coule, coule me donne l'aval Mes paroles noient tes croyances ancestrales Fluide le griot est au micro il émerge du troupeau Et rélève le niveau Liquide MNLK est à flot tranquille sur le style Il impose son voco, vos âmes sondées Sur cette base mon rap est fondé Donc je suis bien plus qu'une passagère ondée Meyeha ! La bourse ou la vie, je prends la vie en course Contemplant les ruisseaux dont je suis la source Refrain Toujours au sommet je me joue des creux de la vague Je suis l'ouragan qui avec son oeil t'alpaques d'huile Au démonté tout comme la mer Je viens des abysses c'est là que la magie s'opère MÉNÉLIK est là, le DAMIER est là Quoiqu'il en soit l'eau toujours là Hey ! dans certains coins du globe très cher on paye Pour vivre, survivre ma fluidité se monnaye Je réfléchis on n' m'attends pas je tombe comme la pluie Je suis le trottoir qui la nuit par son action luit Le débit, la mélodie du flow m'a plu Le travail a su m'aider à conserver le flux Comme le plic plac de l'eau sur le sol claque quand il pleut Le floc floc du pied dans une flaque me rend heureux Refrain Diluvienne je suis la pluie qui en trombe tombe Parfois acide, parfois en colère, j'inonde le monde Tant bien que mal tu tentes de retenir le phénomène Suis plutôt LIKMÈNE tu verras où il te mène Comme un bébé par le liquide est immergé Mon HIP HOP est si fort que tu es imbibé Ah Ah Ah je coule Le son irrigue à nouveau les canaux de ton cerveau Omniprésent aux quatre coins du globe je m'entends Tu croyais te la couler douce mais je suis au courant Gouttes à gouttes sur ton front tu ressens l'impact La molécule MÉNÉLIK est une vraie cataracte Mon art est comme une déferlante, qui bien que lente Balaie tout sur son passage et peu à peu s'implante Refrain</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>You tryna play these games, now what you mean Got substitutions to fill so how it seem My starting 5 of dimes look like they fell from the heaven Its a blessing they more than this 6 of your sevens And landed linen soft on sheets for beauty sleep Professionals the freak with the knowledge to keep descreet If you share me with another then we ain't got a problem If you tell me that you love then you probably forgotten that A piece of my love darling thats what you getting I hope it feed yo addiction What the fuck is monogamous I heard the tour brings a whole lotta women up on the bus Ask reed we was in midde school and they 16 He had the blonde i had her friend building self esteem Before i knew we was them when we was walking I simply bagged shorties on whims and shit talkin Game became proper on my metro phone Then side kick had to boost it cause to aim i roamed I could take it back it Bhigh see back in them days I was a mackin, hangin, training, now I'm stuck in my ways And prom night brought out the dawg life I'm currently living I had seven different dates my selection of women Then i finally chose up and got busy within cut While the dames i passed mad cause I'm on butt I said chill baby girl i can't chose you all If i could then i would and if you like me you'll call You might also like If you game goofy you played like recess 3rd grade Iont care if i smash ain't catching nobody fade Cause when i say these hoes for everybody I mean they for every body I could love you but regardless I'm too cool for that And i may care about you partly but won't see me tat Yo name upon my skin they sinking while i swim Its a logical explanation for why she be leaving him And skip to my lue, so flawless i subdue Heard i lied in the past I'm thinking thats prolly true You see I'm slicker than the ruler wit the sickest medulla Refrain from gettin sprung my lifestyle won't suit ya I may pull a young berg and show up to some awards Wit some candy on my arm you know I'm charmin the girls Cause i got mouf piece to get em out they thongs on site So i ain't never had to go to bed alone at night</t>
+          <t>You tryna play these games, now what you mean Got substitutions to fill so how it seem My starting 5 of dimes look like they fell from the heaven Its a blessing they more than this 6 of your sevens And landed linen soft on sheets for beauty sleep Professionals the freak with the knowledge to keep descreet If you share me with another then we ain't got a problem If you tell me that you love then you probably forgotten that A piece of my love darling thats what you getting I hope it feed yo addiction What the fuck is monogamous I heard the tour brings a whole lotta women up on the bus Ask reed we was in midde school and they 16 He had the blonde i had her friend building self esteem Before i knew we was them when we was walking I simply bagged shorties on whims and shit talkin Game became proper on my metro phone Then side kick had to boost it cause to aim i roamed I could take it back it Bhigh see back in them days I was a mackin, hangin, training, now I'm stuck in my ways And prom night brought out the dawg life I'm currently living I had seven different dates my selection of women Then i finally chose up and got busy within cut While the dames i passed mad cause I'm on butt I said chill baby girl i can't chose you all If i could then i would and if you like me you'll call If you game goofy you played like recess 3rd grade Iont care if i smash ain't catching nobody fade Cause when i say these hoes for everybody I mean they for every body I could love you but regardless I'm too cool for that And i may care about you partly but won't see me tat Yo name upon my skin they sinking while i swim Its a logical explanation for why she be leaving him And skip to my lue, so flawless i subdue Heard i lied in the past I'm thinking thats prolly true You see I'm slicker than the ruler wit the sickest medulla Refrain from gettin sprung my lifestyle won't suit ya I may pull a young berg and show up to some awards Wit some candy on my arm you know I'm charmin the girls Cause i got mouf piece to get em out they thongs on site So i ain't never had to go to bed alone at night</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>En éclats faire voler les mots libérer l'écriture Donner au style un futur quelle aventure Auparavant j'avais coutume d'éviter de la plume Dorénavant j'assume les foyers que j'allume Aucunement lapidaire mon flot se veut épistolaire Entretenir par les mots le feu qui régnait naguère Après un long périple mon rap s'est posé Outre Rhin sur un beat confectionné par No Sé Comme à son habitude sans inquiétude Il élude le temps et toutes ses certitudes MENELIK aime cet art et s'y implique L'homme à la vie dont on envie le caractère épique s'applique Pas de panique quand il rapplique armé d'une pensée prolifique On a coutume de dire que la vie est dure Moi je m'bats pour le futur quelle aventure Je n'te le fais pas dire mais cela ne va pas sans dire Plutôt que d'en pleurer je préfère en rire Quelle aventure en effet de faire éclore une langue Quand d'autres s'enterrent dans l'optique du gang Le français est beau le français me plaît Je mise dessus et non pas sur le mauvais baudet MENELIK est en piste mais hors piste Ni catégorie ni style le seul fait j'existe Ils mettent tout en oeuvre pour que mes efforts tombent à l'eau Ils dupliquent repiquent et rendent mon art pâlot Néanmoins je suis serein avec entrain sur le chemin Même si ce n'est pas le Rubicon j'ai passé le Rhin J'ai avancé par rapport aux pensées surannées Le rap coule et s'étale sur un battement de NO SE You might also like C'est pas joli joli d'agir en mal poli Et se contenter de faire de la pâle copie Laisse faire laisse couler le son mon frère Laisse mais ne te lasse pas de mon savoir-faire Ce n'était pas un mage mais un sage poète Qui m'a délivré ce message RESPECT Depuis la magie opère aux cotés de mes pairs Mes sortilèges m'aident à surmonter l'impair L'homme que l'on nomme MNLK et toute sa clique Tout comme le clic avant le bang provoque le déclic Je fais ce qui me plaît, je sais que cela te plaît Les pieds dans le plat de ce monde plat qui me déplaît J'avance j'avance malgré ce que les gens pensent Il ne tient qu'à toi d'entrer dans la danse</t>
+          <t>En éclats faire voler les mots libérer l'écriture Donner au style un futur quelle aventure Auparavant j'avais coutume d'éviter de la plume Dorénavant j'assume les foyers que j'allume Aucunement lapidaire mon flot se veut épistolaire Entretenir par les mots le feu qui régnait naguère Après un long périple mon rap s'est posé Outre Rhin sur un beat confectionné par No Sé Comme à son habitude sans inquiétude Il élude le temps et toutes ses certitudes MENELIK aime cet art et s'y implique L'homme à la vie dont on envie le caractère épique s'applique Pas de panique quand il rapplique armé d'une pensée prolifique On a coutume de dire que la vie est dure Moi je m'bats pour le futur quelle aventure Je n'te le fais pas dire mais cela ne va pas sans dire Plutôt que d'en pleurer je préfère en rire Quelle aventure en effet de faire éclore une langue Quand d'autres s'enterrent dans l'optique du gang Le français est beau le français me plaît Je mise dessus et non pas sur le mauvais baudet MENELIK est en piste mais hors piste Ni catégorie ni style le seul fait j'existe Ils mettent tout en oeuvre pour que mes efforts tombent à l'eau Ils dupliquent repiquent et rendent mon art pâlot Néanmoins je suis serein avec entrain sur le chemin Même si ce n'est pas le Rubicon j'ai passé le Rhin J'ai avancé par rapport aux pensées surannées Le rap coule et s'étale sur un battement de NO SE C'est pas joli joli d'agir en mal poli Et se contenter de faire de la pâle copie Laisse faire laisse couler le son mon frère Laisse mais ne te lasse pas de mon savoir-faire Ce n'était pas un mage mais un sage poète Qui m'a délivré ce message RESPECT Depuis la magie opère aux cotés de mes pairs Mes sortilèges m'aident à surmonter l'impair L'homme que l'on nomme MNLK et toute sa clique Tout comme le clic avant le bang provoque le déclic Je fais ce qui me plaît, je sais que cela te plaît Les pieds dans le plat de ce monde plat qui me déplaît J'avance j'avance malgré ce que les gens pensent Il ne tient qu'à toi d'entrer dans la danse</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>En éclats faire voler les mots libérer l'écriture Donner au style un futur quelle aventure Auparavant j'avais coutume d'éviter de la plume Dorénavant j'assume les foyers que j'allume Aucunement lapidaire mon flot se veut épistolaire Entretenir par les mots le feu qui régnait naguère Après un long périple mon rap s'est posé Outre Rhin sur un beat confectionné par No Sé Comme à son habitude sans inquiétude Il élude le tmps et toutes ses crtitudes MENELIK aime cet art et s'y implique L'homme à la vie dont on envie le caractère épique s'applique Pas de panique quand il rapplique armé d'une pensée prolifique On a coutume de dire que la vie est dure Moi je m'bats pour le futur quelle aventure Je n'te le fais pas dire mais cela ne va pas sans dire Plutôt que d'en pleurer je préfère en rire Quelle aventure en effet de faire éclore une langue Quand d'autres s'enterrent dans l'optique du gang Le français est beau le français me plaît Je mise dessus et non pas sur le mauvais baudet MENELIK est en piste mais hors piste Ni catégorie ni style le seul fait j'existe Ils mettent tout en oeuvre pour que mes efforts tombent à l'eau Ils dupliquent repiquent et rendent mon art pâlot Néanmoins je suis serein avec entrain sur le chemin Même si ce n'est pas le Rubicon j'ai passé le Rhin J'ai avancé par rapport aux pensées surannées Le rap coule et s'étale sur un battement de NO SE You might also like C'est pas joli joli d'agir en mal poli Et se contenter de faire de la pâle copie Laisse faire laisse couler le son mon frère Laisse mais ne te lasse pas de mon savoir-faire Ce n'était pas un mage mais un sage poète Qui m'a délivré ce message RESPECT Depuis la magie opère aux cotés de mes pairs Mes sortilèges m'aident à surmonter l'impair L'homme que l'on nomme MNLK et toute sa clique Tout comme le clic avant le bang provoque le déclic Je fais ce qui me plaît, je sais que cela te plaît Les pieds dans le plat de ce monde plat qui me déplaît J'avance j'avance malgré ce que les gens pensent Il ne tient qu'à toi d'entrer dans la danse</t>
+          <t>En éclats faire voler les mots libérer l'écriture Donner au style un futur quelle aventure Auparavant j'avais coutume d'éviter de la plume Dorénavant j'assume les foyers que j'allume Aucunement lapidaire mon flot se veut épistolaire Entretenir par les mots le feu qui régnait naguère Après un long périple mon rap s'est posé Outre Rhin sur un beat confectionné par No Sé Comme à son habitude sans inquiétude Il élude le tmps et toutes ses crtitudes MENELIK aime cet art et s'y implique L'homme à la vie dont on envie le caractère épique s'applique Pas de panique quand il rapplique armé d'une pensée prolifique On a coutume de dire que la vie est dure Moi je m'bats pour le futur quelle aventure Je n'te le fais pas dire mais cela ne va pas sans dire Plutôt que d'en pleurer je préfère en rire Quelle aventure en effet de faire éclore une langue Quand d'autres s'enterrent dans l'optique du gang Le français est beau le français me plaît Je mise dessus et non pas sur le mauvais baudet MENELIK est en piste mais hors piste Ni catégorie ni style le seul fait j'existe Ils mettent tout en oeuvre pour que mes efforts tombent à l'eau Ils dupliquent repiquent et rendent mon art pâlot Néanmoins je suis serein avec entrain sur le chemin Même si ce n'est pas le Rubicon j'ai passé le Rhin J'ai avancé par rapport aux pensées surannées Le rap coule et s'étale sur un battement de NO SE C'est pas joli joli d'agir en mal poli Et se contenter de faire de la pâle copie Laisse faire laisse couler le son mon frère Laisse mais ne te lasse pas de mon savoir-faire Ce n'était pas un mage mais un sage poète Qui m'a délivré ce message RESPECT Depuis la magie opère aux cotés de mes pairs Mes sortilèges m'aident à surmonter l'impair L'homme que l'on nomme MNLK et toute sa clique Tout comme le clic avant le bang provoque le déclic Je fais ce qui me plaît, je sais que cela te plaît Les pieds dans le plat de ce monde plat qui me déplaît J'avance j'avance malgré ce que les gens pensent Il ne tient qu'à toi d'entrer dans la danse</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>They try to tell me not to But still I got to What we gone call this Rambling Cause I'm a talk about everything Mix the scholar wit the hustla and the player wit the lover Get the lust between another and the friction bust the rubber Something all new we discovered with great sight like a buzzard Though raspberry is the preference all the donuts filled with custard So, cops'll roll through the hood with their mug on Passin judgement on the residents who've done none Wrong to any but hit the store for henny After raiders lose Super Bowl and can't go to disney Land, of where we all thought we were free to rome casually But as we step its through blood stained casualties Yet never fearin, cause life changin is nearin Some people may lead ya wrong but the outcome I'm steering How many snorts of inhalations til you stuck to powder How many replays of this song til you realize i devoured Each millisecond of seconds while significantly reppin The status within my brethren, royal fam came from peasants Had to get rid of my shorty even though she adored me The complications were arising and had me wantin a 40 To chug down and wash away any problems present A quick fix to the issue then i won't resent Resent her soul as we begin to get to old-er Look back at 12 to 17 i got cold-er Cause they set us up to lose thats how we sang the blues And granted with acceptance in the game ya got to pay ya dues Shouts to icons raised on ya albums But the sounds I embraced from other genres warped outcome Greatly needed cause even the blind can see it We need me to arise and that praise with being conceited Now I've been rambling darling give me a break This is the product of my mind finding words to state How I feel bout my appeal and how i deal wit the hills That we face throughout our days and drive the sane to killYou might also like</t>
+          <t>They try to tell me not to But still I got to What we gone call this Rambling Cause I'm a talk about everything Mix the scholar wit the hustla and the player wit the lover Get the lust between another and the friction bust the rubber Something all new we discovered with great sight like a buzzard Though raspberry is the preference all the donuts filled with custard So, cops'll roll through the hood with their mug on Passin judgement on the residents who've done none Wrong to any but hit the store for henny After raiders lose Super Bowl and can't go to disney Land, of where we all thought we were free to rome casually But as we step its through blood stained casualties Yet never fearin, cause life changin is nearin Some people may lead ya wrong but the outcome I'm steering How many snorts of inhalations til you stuck to powder How many replays of this song til you realize i devoured Each millisecond of seconds while significantly reppin The status within my brethren, royal fam came from peasants Had to get rid of my shorty even though she adored me The complications were arising and had me wantin a 40 To chug down and wash away any problems present A quick fix to the issue then i won't resent Resent her soul as we begin to get to old-er Look back at 12 to 17 i got cold-er Cause they set us up to lose thats how we sang the blues And granted with acceptance in the game ya got to pay ya dues Shouts to icons raised on ya albums But the sounds I embraced from other genres warped outcome Greatly needed cause even the blind can see it We need me to arise and that praise with being conceited Now I've been rambling darling give me a break This is the product of my mind finding words to state How I feel bout my appeal and how i deal wit the hills That we face throughout our days and drive the sane to kill</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Just Imagine What it could be You see I couldn't help notice your style and grace Wantin to catch back up to you got me changin my pace To roll the dice and see they land Conversation never sinkin this is not quick sand Won't you take my arm and have a walk wit me You gone dig my intellect baby so talk to me They call me Lik a young hustla from around the way Since got yo attention just let me say Somebody blessed yea, your momma musta gave it to you No need for make up already got some flavor to you Them lames phony and I does what it do You need up date town on the low just me and you I'm sayin maybe it was destined for our paths to collide I'm way out my jurisdiction this where I reside Since we met might as well get better acquainted Rather get to know you now than when I'm already famous Relax girl Relax Come on now Let you mind relax You might also likeRelax girl Relax your mind Relax your mind girl Now say you took that offer and we took that date That I been anticipatin but you made me wait, well You enjoyed it kicked a couple laughs Surprised at the speed in which time passed By intriguing ya mind I made ya know for sure That I'm the right one and not to let me go Thinkin the same about you the vibe is now mutual A leap out yo box cause I'm far from the usual Probably them eyes not to mention your smile That had you passing through my mind like you runnin a mile Us meeting was a change in the plans Iont normally deviate but here I am So get a grip ona moment, settle and just own it Team could be complete just missing one component That's you, I made the statement ain't taking it back I got it covered over here so let your mind relax Relax girl Relax Come on now Let you mind relax Relax girl Relax your mind Relax your mind girl Fast forward some months ya wakin up in my bed Eatin breakfast reminiscing of the day we met Said you thought I was smooth and liked my delivery A smirk on ya face while recollectin so vividly Patience brought us closer openness of emotions Floatin as one like a boat out in the ocean I let you in on what I'm all about You can see I live my words ain't just running my mouth Got my eyes on the prize come along if you desire Plan to tour across the country settin clubs of fire Turn my name into a household thing like wonder bread Money come in and won't nobody go unfed Is you tryna take the chance cuz baby the wheels rolling I'm the designated driver and I know where I'm going Get a glimpse of the future see girl we'll be set But I ain't trying to get ahead of myself we just met Relax girl Relax Come on now Let you mind relax Relax girl Relax your mind Relax your mind girl</t>
+          <t>Just Imagine What it could be You see I couldn't help notice your style and grace Wantin to catch back up to you got me changin my pace To roll the dice and see they land Conversation never sinkin this is not quick sand Won't you take my arm and have a walk wit me You gone dig my intellect baby so talk to me They call me Lik a young hustla from around the way Since got yo attention just let me say Somebody blessed yea, your momma musta gave it to you No need for make up already got some flavor to you Them lames phony and I does what it do You need up date town on the low just me and you I'm sayin maybe it was destined for our paths to collide I'm way out my jurisdiction this where I reside Since we met might as well get better acquainted Rather get to know you now than when I'm already famous Relax girl Relax Come on now Let you mind relax Relax girl Relax your mind Relax your mind girl Now say you took that offer and we took that date That I been anticipatin but you made me wait, well You enjoyed it kicked a couple laughs Surprised at the speed in which time passed By intriguing ya mind I made ya know for sure That I'm the right one and not to let me go Thinkin the same about you the vibe is now mutual A leap out yo box cause I'm far from the usual Probably them eyes not to mention your smile That had you passing through my mind like you runnin a mile Us meeting was a change in the plans Iont normally deviate but here I am So get a grip ona moment, settle and just own it Team could be complete just missing one component That's you, I made the statement ain't taking it back I got it covered over here so let your mind relax Relax girl Relax Come on now Let you mind relax Relax girl Relax your mind Relax your mind girl Fast forward some months ya wakin up in my bed Eatin breakfast reminiscing of the day we met Said you thought I was smooth and liked my delivery A smirk on ya face while recollectin so vividly Patience brought us closer openness of emotions Floatin as one like a boat out in the ocean I let you in on what I'm all about You can see I live my words ain't just running my mouth Got my eyes on the prize come along if you desire Plan to tour across the country settin clubs of fire Turn my name into a household thing like wonder bread Money come in and won't nobody go unfed Is you tryna take the chance cuz baby the wheels rolling I'm the designated driver and I know where I'm going Get a glimpse of the future see girl we'll be set But I ain't trying to get ahead of myself we just met Relax girl Relax Come on now Let you mind relax Relax girl Relax your mind Relax your mind girl</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Stress building up watching the walls cave in Learned the cali purp is the remedy for some savin Cause I got bills out the rectum and they past due My landlord keep requesting but my cash blew Comcast won't let me order on demand And the high speed net goes off tomorrow thats they plan With these online classes its complicatin progression Givin everything i make back just to get through the seconds I place it all the track like the pimps'll tell ya Slanging legit through my audio i ain't tryna sell ya Its dropping here for the F so they can see that I'm def- -initely doper than the mass of the rest They tell me I should Smoke one let my worries slide Puff on the cali tree let my spirit rise Join the club homie we all high Don't fear the mountains of the kush gone and take that dive They tell me i should, smoke one They tell me i should, smoke one My shawty like, you got money for rap but you'nt take me out Do like my girlfriends man and take another route I'm sick and tired of not gettin attention Betta look me in my eye right now you gone listen Ya so insensitive and i been livin wit This stiff armin neglect that got me temperish And what you gone do about the car overheating Plus the dishes in the sink from the 3 days of eating I'm like, shawty step back i need my space Yo nagging all on my brain interruptin my taste In these instrumentals I'm scrolling through to get my name poppin I been said we chosen few royal fam they knockin You might also like So should I touch What if I puff it You think I'll love it Or all the above it They tell me I should Smoke one let my worries slide Puff on the cali tree let my spirit rise Join the club homie we all high Don't fear the mountains of the kush gone and take that dive They tell me i should, smoke one They tell me i should, smoke one All im seein elegance in rotation My boys bagging and shipping across the nation I play the back and watch it all go down While the mounds now rolled slowly burn without a sound Simple, the sweet escape is how they phrase it You would think they were arsonists how they blaze it Much like the damage I'm placin on many beats With the base turned up loud and the cymbals takin the heat So what you won't, it don't get better than this Specially where I'm comin my whole proximity a trip Of course they gone indulge in the burden liftin plant Brings level among the lows and the voices saying ya can't Got em thinking they can coast wit the planes above And on the rise in elevation throw the deuce to doves The mary jane in my hand to fix my problems like the world do Deep while lookin dead at the blunt and said nah I'm cool They tell me I should Smoke one let my worries slide Puff on the cali tree let my spirit rise Join the club homie we all high Don't fear the mountains of the kush gone and take that dive They tell me i should, smoke one They tell me i should, smoke one</t>
+          <t>Stress building up watching the walls cave in Learned the cali purp is the remedy for some savin Cause I got bills out the rectum and they past due My landlord keep requesting but my cash blew Comcast won't let me order on demand And the high speed net goes off tomorrow thats they plan With these online classes its complicatin progression Givin everything i make back just to get through the seconds I place it all the track like the pimps'll tell ya Slanging legit through my audio i ain't tryna sell ya Its dropping here for the F so they can see that I'm def- -initely doper than the mass of the rest They tell me I should Smoke one let my worries slide Puff on the cali tree let my spirit rise Join the club homie we all high Don't fear the mountains of the kush gone and take that dive They tell me i should, smoke one They tell me i should, smoke one My shawty like, you got money for rap but you'nt take me out Do like my girlfriends man and take another route I'm sick and tired of not gettin attention Betta look me in my eye right now you gone listen Ya so insensitive and i been livin wit This stiff armin neglect that got me temperish And what you gone do about the car overheating Plus the dishes in the sink from the 3 days of eating I'm like, shawty step back i need my space Yo nagging all on my brain interruptin my taste In these instrumentals I'm scrolling through to get my name poppin I been said we chosen few royal fam they knockin So should I touch What if I puff it You think I'll love it Or all the above it They tell me I should Smoke one let my worries slide Puff on the cali tree let my spirit rise Join the club homie we all high Don't fear the mountains of the kush gone and take that dive They tell me i should, smoke one They tell me i should, smoke one All im seein elegance in rotation My boys bagging and shipping across the nation I play the back and watch it all go down While the mounds now rolled slowly burn without a sound Simple, the sweet escape is how they phrase it You would think they were arsonists how they blaze it Much like the damage I'm placin on many beats With the base turned up loud and the cymbals takin the heat So what you won't, it don't get better than this Specially where I'm comin my whole proximity a trip Of course they gone indulge in the burden liftin plant Brings level among the lows and the voices saying ya can't Got em thinking they can coast wit the planes above And on the rise in elevation throw the deuce to doves The mary jane in my hand to fix my problems like the world do Deep while lookin dead at the blunt and said nah I'm cool They tell me I should Smoke one let my worries slide Puff on the cali tree let my spirit rise Join the club homie we all high Don't fear the mountains of the kush gone and take that dive They tell me i should, smoke one They tell me i should, smoke one</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Trying to find my sound Maybe this my sound My sound Where ever we go tell the waiter keep my glass filled Loss of memory forgot how many tracks killed But she know cause she been eyein through the peep hole Reciting lines like homework 10 deep though Don't run past this, make a listener back flip Bubble off the venue i'll packed then hit up saks fifth Spiffen the fly to glide now its an effortless Arrangement of fabric designed boostin my leverage Must admit from initial to now Them words come off the dome quicker than milking a cow From, practice a rolling grace like AXIS Comfortable in my zone like tempur-pedic mattress Disregard despise I know they see my ethic Field pulling them in, you know thats magnetic Started wit the ground work putting on my self Cause I don't know nobody I'm just making sure I'm felt So smooth, what it sound like Can't lose,I do this all night Well alright, what I been fienin for Came up and I'm hungry watch me get and go What it sound like, yea, what it sound like You might also like See they can't haunt us when heart pumps wit honor Lapped the ones that started ahead now we some goners Waving in the wind its the ribbon in sight Not a soul in my peripheral i look left and right But it just keeps movin, further is the distance Continual chase shall greaten up my existence Departed the path and built my ave To map out the route to the greener of grass Pipe dreaming it seems until fru..i..tion Stand out among rest based on description Plus i push this like cocaine in the 80's The product of a dealer no choice i am that baby Get yo people tell em gather arouuunnnnddd I'll overwhelm they ears and astound Document the moment when my train arrives A young black male that'll change some lives So smooth, what it sound like Can't lose,I do this all night Well alright, what I been fienin for Came up and I'm hungry watch me get and go What it sound like, yea, what it sound like</t>
+          <t>Trying to find my sound Maybe this my sound My sound Where ever we go tell the waiter keep my glass filled Loss of memory forgot how many tracks killed But she know cause she been eyein through the peep hole Reciting lines like homework 10 deep though Don't run past this, make a listener back flip Bubble off the venue i'll packed then hit up saks fifth Spiffen the fly to glide now its an effortless Arrangement of fabric designed boostin my leverage Must admit from initial to now Them words come off the dome quicker than milking a cow From, practice a rolling grace like AXIS Comfortable in my zone like tempur-pedic mattress Disregard despise I know they see my ethic Field pulling them in, you know thats magnetic Started wit the ground work putting on my self Cause I don't know nobody I'm just making sure I'm felt So smooth, what it sound like Can't lose,I do this all night Well alright, what I been fienin for Came up and I'm hungry watch me get and go What it sound like, yea, what it sound like See they can't haunt us when heart pumps wit honor Lapped the ones that started ahead now we some goners Waving in the wind its the ribbon in sight Not a soul in my peripheral i look left and right But it just keeps movin, further is the distance Continual chase shall greaten up my existence Departed the path and built my ave To map out the route to the greener of grass Pipe dreaming it seems until fru..i..tion Stand out among rest based on description Plus i push this like cocaine in the 80's The product of a dealer no choice i am that baby Get yo people tell em gather arouuunnnnddd I'll overwhelm they ears and astound Document the moment when my train arrives A young black male that'll change some lives So smooth, what it sound like Can't lose,I do this all night Well alright, what I been fienin for Came up and I'm hungry watch me get and go What it sound like, yea, what it sound like</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>La gueule béante du tunnel me tend ses bras L'ombre m'appelle, le fouille la nuit et guide mes pas J'avance mais ce qui me reste de conscience ne le Veut pas La démence me gagne, je fais mon méa culpa Chutt... j'entends du bruit quelqu'un vient par ici Non O.K Le sombre autour de moi forme une envelopp qui vit Je le repouss il veut prendre mon corps et mon esprit Hein? de la musique Mais d'où vient donc cette voix aux accents Diaboliques ? Aaah! je me souviens mon nom est MENELIK Je suis le seigneur qui tombe à pic Soudain les murs scintillent, du bruit, j'entends des choeurs Au fond une lueur qui brille annihile mes peurs Qu'elle est belle, baignée par la chaleur du soleil La clarté je n'y comprends rien pourtant j'essaye Un champ de bleuets à présent m'environne J'écarquille les yeux et ne calcule personne Une porte s'ouvre la réalité s'y engouffre Je marche et me rapproche du gouffre Mes réfrés, les amis, le posse me tend les bras Un damier case par case se forme sous mes pasYou might also like</t>
+          <t>La gueule béante du tunnel me tend ses bras L'ombre m'appelle, le fouille la nuit et guide mes pas J'avance mais ce qui me reste de conscience ne le Veut pas La démence me gagne, je fais mon méa culpa Chutt... j'entends du bruit quelqu'un vient par ici Non O.K Le sombre autour de moi forme une envelopp qui vit Je le repouss il veut prendre mon corps et mon esprit Hein? de la musique Mais d'où vient donc cette voix aux accents Diaboliques ? Aaah! je me souviens mon nom est MENELIK Je suis le seigneur qui tombe à pic Soudain les murs scintillent, du bruit, j'entends des choeurs Au fond une lueur qui brille annihile mes peurs Qu'elle est belle, baignée par la chaleur du soleil La clarté je n'y comprends rien pourtant j'essaye Un champ de bleuets à présent m'environne J'écarquille les yeux et ne calcule personne Une porte s'ouvre la réalité s'y engouffre Je marche et me rapproche du gouffre Mes réfrés, les amis, le posse me tend les bras Un damier case par case se forme sous mes pas</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Le destin exécute bien curieusement ses desseins Le cri du bambin déchire 1 univers serein Les ruisseaux d'innocence prennent un visage hideux Quand le gosse en rade, la mère s'éloigne 2 Recueilli au foyer que la providence octroie Étranger à l'étroit dans un cheval de 3 Esseulé, harcelé, il vole aux 4 vents Sans réminiscence, nomader sur le temps L'âge de raison passé de 5, il sent la trappe Chaque soir il trinque son destin le rattrape Délire éthylique suppléé par le vice Le parquet met le paquet et il tombe pour 6 Le cloisonnement s'y prête, il devient ascète À 7 fin il coupe tout lien qui rappelle la fête À la poursuite du bien il se paie une cond'8 De l'avant vers l'arrière il fait face à la fuite Tant de printemps sans vie il continue le bluff La ligne domine, voici la preuve par 9You might also like</t>
+          <t>Le destin exécute bien curieusement ses desseins Le cri du bambin déchire 1 univers serein Les ruisseaux d'innocence prennent un visage hideux Quand le gosse en rade, la mère s'éloigne 2 Recueilli au foyer que la providence octroie Étranger à l'étroit dans un cheval de 3 Esseulé, harcelé, il vole aux 4 vents Sans réminiscence, nomader sur le temps L'âge de raison passé de 5, il sent la trappe Chaque soir il trinque son destin le rattrape Délire éthylique suppléé par le vice Le parquet met le paquet et il tombe pour 6 Le cloisonnement s'y prête, il devient ascète À 7 fin il coupe tout lien qui rappelle la fête À la poursuite du bien il se paie une cond'8 De l'avant vers l'arrière il fait face à la fuite Tant de printemps sans vie il continue le bluff La ligne domine, voici la preuve par 9</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Le destin exécute bien curieusement ses desseins Le cri du bambin déchire 1 univers serein Les ruisseaux d'innocence prennent un visage hideux Quand le gosse en rade, la mère s'éloigne 2 Recueilli au foyer que la providence octroie Étranger à l'étroit dans un cheval de 3 Esseulé, harcelé, il vole aux 4 vents Sans réminiscence, nomader sur le temps L'âge de raison passé de 5, il sent la trappe Chaque soir il trinque son destin le rattrape Délire éthylique suppléé par le vice Le parquet met le paquet et il tombe pour 6 Le cloisonnement s'y prête, il devient ascète À 7 fin il coupe tout lien qui rappelle la fête À la poursuite du bien il se paie une cond'8 De l'avant vers l'arrière il fait face à la fuite Tant de printemps sans vie il continue le bluff La ligne domine, voici la preuve par 9You might also like</t>
+          <t>Le destin exécute bien curieusement ses desseins Le cri du bambin déchire 1 univers serein Les ruisseaux d'innocence prennent un visage hideux Quand le gosse en rade, la mère s'éloigne 2 Recueilli au foyer que la providence octroie Étranger à l'étroit dans un cheval de 3 Esseulé, harcelé, il vole aux 4 vents Sans réminiscence, nomader sur le temps L'âge de raison passé de 5, il sent la trappe Chaque soir il trinque son destin le rattrape Délire éthylique suppléé par le vice Le parquet met le paquet et il tombe pour 6 Le cloisonnement s'y prête, il devient ascète À 7 fin il coupe tout lien qui rappelle la fête À la poursuite du bien il se paie une cond'8 De l'avant vers l'arrière il fait face à la fuite Tant de printemps sans vie il continue le bluff La ligne domine, voici la preuve par 9</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Tranquille le griot ne se fait pas de bile Les rimes s'échappent de mon corps d'ébène qui les distille Raffinées elles coulent pures à toute allure Sur les lignes de mon cahier je les épure T comme la troupe R comme le rôle I l'initiation Je poursuis B le But U dans un but d'union Laisse faire le rythme sans accoups il se déroule Cool à souhait il apaise les foules Il prend tout son temps qu'importe s'il est lent L'important est qu'il t'emporte dans son élan Ouais, OK il te soutien refrain Parfait le style pour toi n'a plus de secret Le griot que je suis ou que je prétends être Veut calmer ton âme pour t'aider à renaître Suis moi ou plutôt suis le rythme Qui t'invite à te connaître jusqu'aux limites TRANQUILLE... LE STYLE DÉFILE Longtemps oui longtemps en observant patiemment J'ai attendu le moment présent De prendre le stylo en solo Laissez libre cours au flot de mots et ceci sans défauts Sur 1 tempo comme celui-ci il t'enveloppe Prends le contrôle éberlué tu es full up Ecoute ce son si cool pas de doute Calme phases après phases tiens goûtes A ce nectar si rare qui te pénètres Inspire ton être sans jamais laisser transparaître La joie qui te prends dès l'instant où tu l'entends Cela reste entre nous bien évidemment Le style défile tranquill, je t'invite à voir Pas à pas où te mène ce rap sans histoire Elle m'inspire sur ces quelques lignes qui ruissellent La muse de plus en plus belle délivre le beat qui s'emmêle You might also likeTRANQUILLE Car je t'emmène en ballade sans salades Je t'évade de cette musique pop désormais si fade Le griot de la tribu MENELIK Possède en tous cas la clé qui chasse tous tes tracas Au fur et à mesure tu te sens plus sûr, plus sûr D'échapper à coup 7 censure Je vends du rêve, je suis un peu comme la sève Qui coule en toi te calme apporte la trêve Nous le savons tu attends depuis longtemps ce son Fais maison de la tribu en action Loin du stress qui te presse, de la cité qui te broie Du gris de ces murs dont tu es l'unique proie Cool MENELIK montre la voie De la voix tout droit au paradis il t'envoie Immobile tu capte le rêve que je deale Naturellement un seul mot s'impose tranquille TRANQUILLE</t>
+          <t>Tranquille le griot ne se fait pas de bile Les rimes s'échappent de mon corps d'ébène qui les distille Raffinées elles coulent pures à toute allure Sur les lignes de mon cahier je les épure T comme la troupe R comme le rôle I l'initiation Je poursuis B le But U dans un but d'union Laisse faire le rythme sans accoups il se déroule Cool à souhait il apaise les foules Il prend tout son temps qu'importe s'il est lent L'important est qu'il t'emporte dans son élan Ouais, OK il te soutien refrain Parfait le style pour toi n'a plus de secret Le griot que je suis ou que je prétends être Veut calmer ton âme pour t'aider à renaître Suis moi ou plutôt suis le rythme Qui t'invite à te connaître jusqu'aux limites TRANQUILLE... LE STYLE DÉFILE Longtemps oui longtemps en observant patiemment J'ai attendu le moment présent De prendre le stylo en solo Laissez libre cours au flot de mots et ceci sans défauts Sur 1 tempo comme celui-ci il t'enveloppe Prends le contrôle éberlué tu es full up Ecoute ce son si cool pas de doute Calme phases après phases tiens goûtes A ce nectar si rare qui te pénètres Inspire ton être sans jamais laisser transparaître La joie qui te prends dès l'instant où tu l'entends Cela reste entre nous bien évidemment Le style défile tranquill, je t'invite à voir Pas à pas où te mène ce rap sans histoire Elle m'inspire sur ces quelques lignes qui ruissellent La muse de plus en plus belle délivre le beat qui s'emmêle TRANQUILLE Car je t'emmène en ballade sans salades Je t'évade de cette musique pop désormais si fade Le griot de la tribu MENELIK Possède en tous cas la clé qui chasse tous tes tracas Au fur et à mesure tu te sens plus sûr, plus sûr D'échapper à coup 7 censure Je vends du rêve, je suis un peu comme la sève Qui coule en toi te calme apporte la trêve Nous le savons tu attends depuis longtemps ce son Fais maison de la tribu en action Loin du stress qui te presse, de la cité qui te broie Du gris de ces murs dont tu es l'unique proie Cool MENELIK montre la voie De la voix tout droit au paradis il t'envoie Immobile tu capte le rêve que je deale Naturellement un seul mot s'impose tranquille TRANQUILLE</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Tranquille le griot ne se fait pas de bile Les rimes s'échappent de mon corps d'ébène qui les distille Raffinées elles coulent pures à toute allure Sur les lignes de mon cahier je les épure T comme la troupe R comme le rôle I l'initiation Je poursuis B le But U dans un but d'union Laisse faire le rythme sans accoups il se déroule Cool à souhait il apaise les foules Il prend tout son temps qu'importe s'il est lent L'important est qu'il t'emporte dans son élan Ouais, OK il te soutien refrain Parfait le style pour toi n'a plus de secret Le griot que je suis ou que je prétends être Veut calmer ton âme pour t'aider à renaître Suis moi ou plutôt suis le rythme Qui t'invite à te connaître jusqu'aux limites TRANQUILLE... LE STYLE DÉFILE Longtemps oui longtemps en observant patiemment J'ai attendu le moment présent De prendre le stylo en solo Laissez libre cours au flot de mots et ceci sans défauts Sur 1 tempo comme celui-ci il t'enveloppe Prends le contrôle éberlué tu es full up Ecoute ce son si cool pas de doute Calme phases après phases tiens goûtes A ce nectar si rare qui te pénètres Inspire ton être sans jamais laisser transparaître La joie qui te prends dès l'instant où tu l'entends Cela reste entre nous bien évidemment Le style défile tranquill, je t'invite à voir Pas à pas où te mène ce rap sans histoire Elle m'inspire sur ces quelques lignes qui ruissellent La muse de plus en plus belle délivre le beat qui s'emmêle You might also likeTRANQUILLE Car je t'emmène en ballade sans salades Je t'évade de cette musique pop désormais si fade Le griot de la tribu MENELIK Possède en tous cas la clé qui chasse tous tes tracas Au fur et à mesure tu te sens plus sûr, plus sûr D'échapper à coup 7 censure Je vends du rêve, je suis un peu comme la sève Qui coule en toi te calme apporte la trêve Nous le savons tu attends depuis longtemps ce son Fais maison de la tribu en action Loin du stress qui te presse, de la cité qui te broie Du gris de ces murs dont tu es l'unique proie Cool MENELIK montre la voie De la voix tout droit au paradis il t'envoie Immobile tu capte le rêve que je deale Naturellement un seul mot s'impose tranquille TRANQUILLE</t>
+          <t>Tranquille le griot ne se fait pas de bile Les rimes s'échappent de mon corps d'ébène qui les distille Raffinées elles coulent pures à toute allure Sur les lignes de mon cahier je les épure T comme la troupe R comme le rôle I l'initiation Je poursuis B le But U dans un but d'union Laisse faire le rythme sans accoups il se déroule Cool à souhait il apaise les foules Il prend tout son temps qu'importe s'il est lent L'important est qu'il t'emporte dans son élan Ouais, OK il te soutien refrain Parfait le style pour toi n'a plus de secret Le griot que je suis ou que je prétends être Veut calmer ton âme pour t'aider à renaître Suis moi ou plutôt suis le rythme Qui t'invite à te connaître jusqu'aux limites TRANQUILLE... LE STYLE DÉFILE Longtemps oui longtemps en observant patiemment J'ai attendu le moment présent De prendre le stylo en solo Laissez libre cours au flot de mots et ceci sans défauts Sur 1 tempo comme celui-ci il t'enveloppe Prends le contrôle éberlué tu es full up Ecoute ce son si cool pas de doute Calme phases après phases tiens goûtes A ce nectar si rare qui te pénètres Inspire ton être sans jamais laisser transparaître La joie qui te prends dès l'instant où tu l'entends Cela reste entre nous bien évidemment Le style défile tranquill, je t'invite à voir Pas à pas où te mène ce rap sans histoire Elle m'inspire sur ces quelques lignes qui ruissellent La muse de plus en plus belle délivre le beat qui s'emmêle TRANQUILLE Car je t'emmène en ballade sans salades Je t'évade de cette musique pop désormais si fade Le griot de la tribu MENELIK Possède en tous cas la clé qui chasse tous tes tracas Au fur et à mesure tu te sens plus sûr, plus sûr D'échapper à coup 7 censure Je vends du rêve, je suis un peu comme la sève Qui coule en toi te calme apporte la trêve Nous le savons tu attends depuis longtemps ce son Fais maison de la tribu en action Loin du stress qui te presse, de la cité qui te broie Du gris de ces murs dont tu es l'unique proie Cool MENELIK montre la voie De la voix tout droit au paradis il t'envoie Immobile tu capte le rêve que je deale Naturellement un seul mot s'impose tranquille TRANQUILLE</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Le Hip Hop est trop fort Fort, fort, fort, fort, fort, fort Huh, Sens Unik, pour Le Damier devant, comme d'hab La radio joue un petit rien de Fabe Autour d'un move qui Soon E, euh, j'voulais dire s'unit Le cercle des Sages Poètes s'élargit Sléo est là, le Solaar à son zénith Le Boom de la Bass se balade sur le beat Maintenir La Tribu dans l'Alliance Ethnik Telle est la tâche dont doit s'acquitter toute ma Cliqu... J'injecte le venin et rpars, dare, dare Rapide comm une abeille se servant de son Zdar Dan repense au temps où il s'accomModa Avec le son qui ne tarda pas à devenir son dada Haha, et v'la que Démocrates rapplique Libérés par Jones, Seeq et Logistik C'est un Coup d'État Phonique, je touche et coule Inspiré par ma Positive Black Soul C'est succ'Saint, mais Clair, ok celle là j'lai déjà faite IAM en pleine forme, j'ai envie de faire la fête La la la, La la la, huh, huh 95, le Yakuza fait la razzia, repart tranquillement À la casa, les ambiances, huh huh, Les Blues sont là Osmoz est là, Menelik La Tribu sont là Et Le Damier en plein effet, toujours prêtYou might also like</t>
+          <t>Le Hip Hop est trop fort Fort, fort, fort, fort, fort, fort Huh, Sens Unik, pour Le Damier devant, comme d'hab La radio joue un petit rien de Fabe Autour d'un move qui Soon E, euh, j'voulais dire s'unit Le cercle des Sages Poètes s'élargit Sléo est là, le Solaar à son zénith Le Boom de la Bass se balade sur le beat Maintenir La Tribu dans l'Alliance Ethnik Telle est la tâche dont doit s'acquitter toute ma Cliqu... J'injecte le venin et rpars, dare, dare Rapide comm une abeille se servant de son Zdar Dan repense au temps où il s'accomModa Avec le son qui ne tarda pas à devenir son dada Haha, et v'la que Démocrates rapplique Libérés par Jones, Seeq et Logistik C'est un Coup d'État Phonique, je touche et coule Inspiré par ma Positive Black Soul C'est succ'Saint, mais Clair, ok celle là j'lai déjà faite IAM en pleine forme, j'ai envie de faire la fête La la la, La la la, huh, huh 95, le Yakuza fait la razzia, repart tranquillement À la casa, les ambiances, huh huh, Les Blues sont là Osmoz est là, Menelik La Tribu sont là Et Le Damier en plein effet, toujours prêt</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Un petit rien de jazz, yeah Un petit rien de jazz, hein hein Un petit rien de jazz Comme un flow de est logé dans mon cerveau Exprimant sans défaut, la maîtrise dont je suis l'écho Capable d'être instable, à l'instar de mes semblables Je produis un trésor de rimes inestimable Témoin, je le suis de la vie, de l'esprit Qui rythme l'ennui, de tout ce qui vient de la té-ci Je file tranquille, perfectionnant mon style Oublie les bruits, la ville, ces équilibres fragiles Quand le blues me prend dans l'instant, je le sens Les souvenirs affluent mêlés de sentiments Je largue les amarres et pars loin de ce tintamarre Sur cette nouvelle dimension dans laquelle je mégare Le temps qui s'évanouit, un brun de nostalgie Toujours cette mélodie, alors je mépanouis Quelques notes jouées, pour que mon cur sembrase A la moindre occas' Un petit rien de jazz Un petit rien de jazz Un petit rien de jazz You might also like C'est une douce folie, d'un été sans pareil Le soleil, la joie, c'est la nouvelle Je me fais pas de bile, je joue l'esprit tranquille Le climat est propice, pour des nouvelles idylles L'esprit ouvert, les murs plus légères L'univers des affaires, oui c'est la paix, mon frère Mais la frénésie que le besoin guide Prend de l'ampleur, chaleur, comme le feu qui s'attise L'influence du décor, confirme les états d'âmes Soudain la lame, le drame, alors la scène s'enflamme Puis la pensée s'anime, suivie du geste Et la violence s'exprime, dans l'incident prétexte La vie reprend ses droits comme si de rien était Le soul-jazz, m'amène la paix re-frè Quand le rap rêveur, pleure, déchire nos curs Entre douceur et douleur Un petit rien de jazz Pa pa pa pa pa dam... Un petit rien de jazz Pa pa pa pa pa dam... Un petit rien de jazz Pa pa pa dam... Mon héritage jazz, diversifie les phases En faisant table rase, me rapproche de l'extase Je me relaxe tranquille, et mes soucis explosent Le jazz me libère, de toute pensée morose Épicurien je crée, le plaisir, de mes mains c'est important de prendre la vie, comme elle vient La Tribu résonne, détonations qui me passionnent Transmis par les ancêtres, ou Ellington Tradition orale, sur accord musical Les griots m'insufflent un son qui fait très mal Il n'y a rien de tel, pour finir mes phrases Un petit rien de jazz, oh yeah Pa pa pa pa pa dam... Un petit rien de jazz Pa pa pa pa pa dam... Un petit rien de jazz Pa pa pa pa pa dam... Quand je ressens le blues Pa pa pa pa pa dam... Un petit rien de jazz Pa pa pa pa pa dam... Pa pa pa pa pa dam... Pa pa pa pa pa dam... Pa pa pa pa pa dam... Quand je ressens le blues Un petit rien de jazz Pa pa pa pa pa dam...</t>
+          <t>Un petit rien de jazz, yeah Un petit rien de jazz, hein hein Un petit rien de jazz Comme un flow de est logé dans mon cerveau Exprimant sans défaut, la maîtrise dont je suis l'écho Capable d'être instable, à l'instar de mes semblables Je produis un trésor de rimes inestimable Témoin, je le suis de la vie, de l'esprit Qui rythme l'ennui, de tout ce qui vient de la té-ci Je file tranquille, perfectionnant mon style Oublie les bruits, la ville, ces équilibres fragiles Quand le blues me prend dans l'instant, je le sens Les souvenirs affluent mêlés de sentiments Je largue les amarres et pars loin de ce tintamarre Sur cette nouvelle dimension dans laquelle je mégare Le temps qui s'évanouit, un brun de nostalgie Toujours cette mélodie, alors je mépanouis Quelques notes jouées, pour que mon cur sembrase A la moindre occas' Un petit rien de jazz Un petit rien de jazz Un petit rien de jazz C'est une douce folie, d'un été sans pareil Le soleil, la joie, c'est la nouvelle Je me fais pas de bile, je joue l'esprit tranquille Le climat est propice, pour des nouvelles idylles L'esprit ouvert, les murs plus légères L'univers des affaires, oui c'est la paix, mon frère Mais la frénésie que le besoin guide Prend de l'ampleur, chaleur, comme le feu qui s'attise L'influence du décor, confirme les états d'âmes Soudain la lame, le drame, alors la scène s'enflamme Puis la pensée s'anime, suivie du geste Et la violence s'exprime, dans l'incident prétexte La vie reprend ses droits comme si de rien était Le soul-jazz, m'amène la paix re-frè Quand le rap rêveur, pleure, déchire nos curs Entre douceur et douleur Un petit rien de jazz Pa pa pa pa pa dam... Un petit rien de jazz Pa pa pa pa pa dam... Un petit rien de jazz Pa pa pa dam... Mon héritage jazz, diversifie les phases En faisant table rase, me rapproche de l'extase Je me relaxe tranquille, et mes soucis explosent Le jazz me libère, de toute pensée morose Épicurien je crée, le plaisir, de mes mains c'est important de prendre la vie, comme elle vient La Tribu résonne, détonations qui me passionnent Transmis par les ancêtres, ou Ellington Tradition orale, sur accord musical Les griots m'insufflent un son qui fait très mal Il n'y a rien de tel, pour finir mes phrases Un petit rien de jazz, oh yeah Pa pa pa pa pa dam... Un petit rien de jazz Pa pa pa pa pa dam... Un petit rien de jazz Pa pa pa pa pa dam... Quand je ressens le blues Pa pa pa pa pa dam... Un petit rien de jazz Pa pa pa pa pa dam... Pa pa pa pa pa dam... Pa pa pa pa pa dam... Pa pa pa pa pa dam... Quand je ressens le blues Un petit rien de jazz Pa pa pa pa pa dam...</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>When you up you can look around and see they faces Bandwagon full of love while you winning the races Caught up in the moment flashin lights get blinding While ya movin up the ladder cause love yo rhyming Or ya stats on hail mary's caught But maybe its the average on the threes you dropped Either way above the rest so they tagging along Ridin ya coat tail hoping you a put them onnn Get a little revenue they got you covering tabs From a dollar store trip to a sacks fifth ave Since they knew as juvenile banging the set A portion of yo success is what they grew to expect Like, they the ones responsible for goals you accomplished Like yo funds supposed to put they kids through college They got one thang in common thats what they all fear Yo money maker disabling bet they all disappear I bet And when you need em they ain't never around Hand swipe hittin air cause the help is no where to be found Don't act foolish and get left in the cold See the bond between ya two is but a few years old Came around bout the same time you came up So when you fall its in they nature for a quick change up Stay focused keep sharp eyes for users If at all goes south they gone be yo accusers But those who was round while you was ballin wit nothing Genuine as can be thats the end of discussion They was always down hang when it was nowhere to go Hit the mall and window shop when it was no dough to blow But, thats real love so don't ever depart The ones that want you for the fame on the hunt like sharks Now do ya best to part from the fake and the phony Long distance on the road the mission get lonelyYou might also like</t>
+          <t>When you up you can look around and see they faces Bandwagon full of love while you winning the races Caught up in the moment flashin lights get blinding While ya movin up the ladder cause love yo rhyming Or ya stats on hail mary's caught But maybe its the average on the threes you dropped Either way above the rest so they tagging along Ridin ya coat tail hoping you a put them onnn Get a little revenue they got you covering tabs From a dollar store trip to a sacks fifth ave Since they knew as juvenile banging the set A portion of yo success is what they grew to expect Like, they the ones responsible for goals you accomplished Like yo funds supposed to put they kids through college They got one thang in common thats what they all fear Yo money maker disabling bet they all disappear I bet And when you need em they ain't never around Hand swipe hittin air cause the help is no where to be found Don't act foolish and get left in the cold See the bond between ya two is but a few years old Came around bout the same time you came up So when you fall its in they nature for a quick change up Stay focused keep sharp eyes for users If at all goes south they gone be yo accusers But those who was round while you was ballin wit nothing Genuine as can be thats the end of discussion They was always down hang when it was nowhere to go Hit the mall and window shop when it was no dough to blow But, thats real love so don't ever depart The ones that want you for the fame on the hunt like sharks Now do ya best to part from the fake and the phony Long distance on the road the mission get lonely</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>They like, who he be Im like, RFG What you thought this was Who I be, a young go getta Hold the city on my back like im the pillars Put it all in the hustle like a king pin I was destined for greatness I'm built to win Who I be, a young go getta Hold the city on my back like im the pillars Who I be, thats who I be Who I be, a young go getta Bound to be the man no if or depends Hatched a plan and a drive just to get my ends In it to win now I blend with the wind like oxygen Sharper than a corner or a flap to the end Im royal fam coast smoother than nasa pilot Rep been fly they ain't checkin my flight milage Ain't no stopping 'til I'm poppin like some good years Tingle in my veins mean my times near My two legs built better than ford tough Ain't another click out workin harder than us Had to pick to the right team to get my whole scene buzzin Now all im seein is green like st pats lovin Its game time and I'm clutch, gimmie the rock son I won't fail on my shot, I only got one Peelin caps of the ones thats tryna stop young Can't deny I was born for this now stop frontin You might also like Who I be, a young go getta Hold the city on my back like im the pillars Put it all in the hustle like a king pin I was destined for greatness I'm built to win Who I be, a young go getta Hold the city on my back like im the pillars Who I be, thats who I be Who I be, a young go getta Verse 2 Menelik Young legend in the making breath takin How i develop the context in statement You a fan then why you waiting Share my every song wit the world and help me get to greatness Beyond grind i was bread wit cold game Contradicting end the line wit propane Know what it mean i can't help my blazin Brutal to the mental like a frat boy hazin I then heard it all before like a echo Doubting anything on my path you should let go Cause i, go insolo for the most part Passed you in the marathon tho you had a head start See the same shows around the same time Cousin been gettin money now they blowin up his phone line Missed calls dissed calls, iont even trip calls Mostly from the one who wasn't there when it was downfall Who I be, a young go getta Hold the city on my back like im the pillars Put it all in the hustle like a king pin I was destined for greatness I'm built to win Who I be, a young go getta Hold the city on my back like im the pillars Who I be, thats who I be Who I be, a young go getta</t>
+          <t>They like, who he be Im like, RFG What you thought this was Who I be, a young go getta Hold the city on my back like im the pillars Put it all in the hustle like a king pin I was destined for greatness I'm built to win Who I be, a young go getta Hold the city on my back like im the pillars Who I be, thats who I be Who I be, a young go getta Bound to be the man no if or depends Hatched a plan and a drive just to get my ends In it to win now I blend with the wind like oxygen Sharper than a corner or a flap to the end Im royal fam coast smoother than nasa pilot Rep been fly they ain't checkin my flight milage Ain't no stopping 'til I'm poppin like some good years Tingle in my veins mean my times near My two legs built better than ford tough Ain't another click out workin harder than us Had to pick to the right team to get my whole scene buzzin Now all im seein is green like st pats lovin Its game time and I'm clutch, gimmie the rock son I won't fail on my shot, I only got one Peelin caps of the ones thats tryna stop young Can't deny I was born for this now stop frontin Who I be, a young go getta Hold the city on my back like im the pillars Put it all in the hustle like a king pin I was destined for greatness I'm built to win Who I be, a young go getta Hold the city on my back like im the pillars Who I be, thats who I be Who I be, a young go getta Verse 2 Menelik Young legend in the making breath takin How i develop the context in statement You a fan then why you waiting Share my every song wit the world and help me get to greatness Beyond grind i was bread wit cold game Contradicting end the line wit propane Know what it mean i can't help my blazin Brutal to the mental like a frat boy hazin I then heard it all before like a echo Doubting anything on my path you should let go Cause i, go insolo for the most part Passed you in the marathon tho you had a head start See the same shows around the same time Cousin been gettin money now they blowin up his phone line Missed calls dissed calls, iont even trip calls Mostly from the one who wasn't there when it was downfall Who I be, a young go getta Hold the city on my back like im the pillars Put it all in the hustle like a king pin I was destined for greatness I'm built to win Who I be, a young go getta Hold the city on my back like im the pillars Who I be, thats who I be Who I be, a young go getta</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Menelik_songs.xlsx
+++ b/data/02_intermediate/cleaned_Menelik_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bye Bye (Louis &amp; Margot)</t>
+          <t>Dancing Girls</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MADAME SWANN AT HOME A BREAK IN THE NARRATIVE OLD FRIENDS IN NEW ASPECTS THE MARQUIS DE NORPOIS BERGOTTE HOW I CEASE FOR THE TIME BEING TO SEE GILBERTE A GENERAL OUTLINE OF THE SORROW CAUSED BY A PARTING AND OF THE IRREGULAR PROCESS OF OBLIVION My mother, when it was a question of our having M. de Norpois to dinner for the first time, having expressed her regret that Professor Cottard was away from home, and that she herself had quite ceased to see anything of Swann, since either of these might have helped to entertain the old Ambassador, my father replied that so eminent a guest, so distinguished a man of science as Cottard could never be out of place at a dinner-table, but that Swann, with his ostentation, his habit of crying aloud from the housetops the name of everyone that he knew, however slightly, was an impossible vulgarian whom the Marquis de Norpois would be sure to dismiss as to use his own epithet a pestilent fellow. Now, this attitude on my fathers part may be felt to require a few words of explanation, inasmuch as some of us, no doubt, remember a Cottard of distinct mediocrity and a Swann by whom modesty and discretion, in all his social relations, were carried to the utmost refinement of delicacy. But in his case, what had happened was that, to the original young Swann and also to the Swann of the Jockey Club, our old friend had added a fresh personality which was not to be his last, that of Odettes husband. Adapting to the humble ambitions of that lady the instinct, the desire, the industry which he had always had, he had laboriously constructed for himself, a long way beneath the old, a new position more appropriate to the companion who was to share it with him. In this he shewed himself another man. Since while he continued to go, by himself, to the houses of his own friends, on whom he did not care to inflict Odette unless they had expressly asked that she should be introduced to them it was a new life that he had begun to lead, in common with his wife, among a new set of people, it was quite intelligible that, in order to estimate the importance of these new friends and thereby the pleasure, the self-esteem that were to be derived from entertaining them, he should have made use, as a standard of comparison, not of the brilliant society in which he himself had moved before his marriage but of the earlier environment of Odette. And yet, even when one knew that it was with unfashionable officials and their faded wives, the wallflowers of ministerial ball-rooms, that he was now anxious to associate, it was still astonishing to hear him, who in the old days, and even still, would so gracefully refrain from mentioning an invitation to Twickenham or to Marlborough House, proclaim with quite unnecessary emphasis that the wife of some Assistant Under-Secretary for Something had returned Mme. Swanns call. It will perhaps be objected here that what this really implied was that the simplicity of the fashionable Swann had been nothing more than a supreme refinement of vanity, and that, like certain other Israelites, my parents old friend had contrived to illustrate in turn all the stages through which his race had passed, from the crudest and coarsest form of snobbishness up to the highest pitch of good manners. But the chief reason and one which is applicable to humanity as a whole was that our virtues themselves are not free and floating qualities over which we retain a permanent control and power of disposal they come to be so closely linked in our minds with the actions in conjunction with which we make it our duty to practise them, that, if we are suddenly called upon to perform some action of a different order, it takes us by surprise, and without our supposing for a moment that it might involve the bringing of those very same virtues into play. Swann, in his intense consciousness of his new social surroundings, and in the pride with which he referred to them, was like those great artists modest or generous by nature who, if at the end of their career they take to cooking or to gardening, display a childlike gratification at the compliments that are paid to their dishes or their borders, and will not listen to any of the criticism which they heard unmoved when it was applied to their real achievements or who, after giving away a canvas, cannot conceal their annoyance if they lose a couple of francs at dominoes As for Professor Cottard, we shall meet him again and can study him at our leisure, much later in the course of our story, with the Mistress, Mme. Verdurin, in her country house La Raspelière. For the present, the following observations must suffice first of all, in the case of Swann the alteration might indeed be surprising, since it had been accomplished and yet was not suspected by me when I used to see Gilbertes father in the Champs-Elysées, where, moreover, as he never spoke to me, he could not very well have made any display of his political relations. It is true that, if he had done so, I might not at once have discerned his vanity, for the idea that one has long held of a person is apt to stop ones eyes and ears my mother, for three whole years, had no more noticed the salve with which one of her nieces used to paint her lips than if it had been wholly and invisibly dissolved in some clear liquid until one day a streak too much, or possibly something else, brought about the phenomenon known as super-saturation all the paint that had hitherto passed unperceived was now crystallised, and my mother, in the face of this sudden riot of colour, declared, in the best Combray manner, that it was a perfect scandal, and almost severed relations with her niece. With Cottard, on the contrary, the epoch in which we have seen him assisting at the first introduction of Swann to the Verdurins was now buried in the past whereas honours, offices and titles come with the passage of years moreover, a man may be illiterate, and make stupid puns, and yet have a special gift, which no amount of general culture can replace such as the gift of a great strategist or physician. And so it was not merely as an obscure practitioner, who had attained in course of time to European celebrity, that the rest of his profession regarded Cottard. The most intelligent of the younger doctors used to assert for a year or two, that is to say, for fashions, being themselves begotten of the desire for change, are quick to change also that if they themselves ever fell ill Cottard was the only one of the leading men to whom they would entrust their lives. No doubt they preferred, socially, to meet certain others who were better read, more artistic, with whom they could discuss Nietzsche and Wagner. When there was a musical party at Mme. Cottards, on the evenings when she entertained in the hope that it might one day make him Dean of the Faculty the colleagues and pupils of her husband, he, instead of listening, preferred to play cards in another room. Yet everybody praised the quickness, the penetration, the unerring confidence with which, at a glance, he could diagnose disease. Thirdly, in considering the general impression which Professor Cottard must have made on a man like my father, we must bear in mind that the character which a man exhibits in the latter half of his life is not always, even if it is often his original character developed or withered, attenuated or enlarged it is sometimes the exact opposite, like a garment that has been turned. Except from the Verdurins, who were infatuated with him, Cottards hesitating manner, his excessive timidity and affability had, in his young days, called down upon him endless taunts and sneers. What charitable friend counselled that glacial air? The importance of his professional standing made it all the more easy to adopt. Wherever he went, save at the Verdurins, where he instinctively became himself again, he would assume a repellent coldness, remain silent as long as possible, be peremptory when he was obliged to speak, and not forget to say the most cutting things. He had every opportunity of rehearsing this new attitude before his patients, who, seeing him for the first time, were not in a position to make comparisons, and would have been greatly surprised to learn that he was not at all a rude man by nature. Complete impassivity was what he strove to attain, and even while visiting his hospital wards, when he allowed himself to utter one of those puns which left everyone, from the house physician to the junior student, helpless with laughter, he would always make it without moving a muscle of his face, while even that was no longer recognisable now that he had shaved off his beard and moustache But who, the reader has been asking, was the Marquis de Norpois? Well, he had been Minister Plenipotentiary before the War, and was actually an Ambassador on the Sixteenth of May in spite of which, and to the general astonishment, he had since been several times chosen to represent France on Extraordinary Missions even as Controller of the Public Debt in Egypt, where, thanks to his great capability as a financier, he had rendered important services by Radical Cabinets under which a reactionary of the middle classes would have declined to serve, and in whose eyes M. de Norpois, in view of his past, his connexions and his opinions, ought presumably to have been suspect. But these advanced Ministers seemed to consider that, in making such an appointment, they were shewing how broad their own minds were, when the supreme interests of France were at stake, were raising themselves above the general run of politicians, were meriting, from the Journal des Débats itself, the title of Statesmen, and were reaping direct advantage from the weight that attaches to an aristocratic name and the dramatic interest always aroused by an unexpected appointment. And they knew also that they could reap these advantages by making an appeal to M. de Norpois, without having to fear any want of political loyalty on his part, a fault against which his noble birth not only need not put them on their guard but offered a positive guarantee. And in this calculation the Government of the Republic were not mistaken. In the first place, because an aristocrat of a certain type, brought up from his cradle to regard his name as an integral part of himself of which no accident can deprive him an asset of whose value his peers, or persons of even higher rank, can form a fairly exact estimate, knows that he can dispense with the efforts since they can in no way enhance his position in which, without any appreciable result, so many public men of the middle class spend themselves to profess only the right opinions, to frequent only the sound people. Anxious, on the other hand, to increase his own importance in the eyes of the princely or ducal families which take immediate precedence of his own, he knows that he can do so by giving his name that complement which hitherto it has lacked, which will give it priority over other names heraldically its equals such as political power, a literary or an artistic reputation, or a large fortune. And so what he saves by avoiding the society of the ineffective country squires, after whom all the professional families run helter-skelter, but of his intimacy with whom, were he to profess it, a prince would think nothing, he will lavish on the politicians who free-masons, or worse, though they be can advance him in Diplomacy or back him in an election, and on the artists or scientists whose patronage can help him to arrive in those departments in which they excel, on everyone, in fact, who is in a position to confer a fresh distinction or to bring off a rich marriage But in the character of M. de Norpois there was this predominant feature, that, in the course of a long career of diplomacy, he had become imbued with that negative, methodical, conservative spirit, called governmental, which is common to all Governments and, under every Government, particularly inspires its Foreign Office. He had imbibed, during that career, an aversion, a dread, a contempt for the methods of procedure, more or less revolutionary and in any event quite incorrect, which are those of an Opposition. Save in the case of a few illiterates high or low, it makes no matter by whom no difference in quality is perceptible, what attracts men one to another is not a common point of view but a consanguinity of spirit. An Academician of the kind of Legouvé, and therefore an upholder of the classics, would applaud Maxime Ducamps or Mezières eulogy of Victor Hugo with more fervour than that of Boileau by Claudel. A common Nationalism suffices to endear Barrés to his electors, who scarcely distinguish between him and M. Georges Berry, but does not endear him to those of his brother Academicians who, with a similar outlook on politics but a different type of mind, will prefer to him even such open adversaries as M. Ribot and M. Deschanel, with whom, in turn, the most loyal Monarchists feel themselves more closely allied than with Maurras or Léon Daudet, although these also are living in the hope of a glorious Restoration. Miserly in the use of words, not only from a professional scruple of prudence and reserve, but because words themselves have more value, present more subtleties of definition to men whose efforts, protracted over a decade, to bring two countries to an understanding, are condensed, translated in a speech or in a protocol into a single adjective, colourless in all appearance, but to them pregnant with a world of meaning, M. de Norpois was considered very stiff, at the Commission, where he sat next to my father, whom everyone else congratulated on the astonishing way in which the old Ambassador unbent to him. My father was himself more astonished than anyone. For not being, as a rule, very affable, his company was little sought outside his own intimate circle, a limitation which he used modestly and frankly to avow. He realised that these overtures were an outcome, in the diplomat, of that point of view which everyone adopts for himself in making his choice of friends, from which all a mans intellectual qualities, his refinement, his affection are a far less potent recommendation of him, when at the same time he bores or irritates one, than are the mere straightforwardness and good-humour of another man whom most people would regard as frivolous or even fatuous. De Norpois has asked me to dinner again its quite extraordinary everyone on the Commission is amazed, as he never has any personal relations with any of us. I am sure hes going to tell me something thrilling, again, about the Seventy war. My father knew that M. de Norpois had warned, had perhaps been alone in warning the Emperor of the growing strength and bellicose designs of Prussia, and that Bismarck rated his intelligence most highly. Only the other day, at the Opera, during the gala performance given for King Theodosius, the newspapers had all drawn attention to the long conversation which that Monarch had held with M. de Norpois. I must ask him whether the Kings visit had any real significance, my father went on, for he was keenly interested in foreign politics. I know old Norpois keeps very close as a rule, but when hes with me he opens out quite charmingly. As for my mother, perhaps the Ambassador had not the type of mind towards which she felt herself most attracted. I should add that his conversation furnished so exhaustive a glossary of the superannuated forms of speech peculiar to a certain profession, class and period a period which, for that profession and that class, might be said not to have altogether passed away that I sometimes regret that I have not kept any literal record simply of the things that I have heard him say. I should thus have obtained an effect of old-fashioned courtesy by the same process and at as little expense as that actor at the Palais-Royal who, when asked where on earth he managed to find his astounding hats, answered, I do not find my hats. I keep them. In a word, I suppose that my mother considered M. de Norpois a trifle out-of-date, which was by no means a fault in her eyes, so far as manners were concerned, but attracted her less in the region not, in this instance, of ideas, for those of M. de Norpois were extremely modern but of idiom. She felt, however, that she was paying a delicate compliment to her husband when she spoke admiringly of the diplomat who had shewn so remarkable a predilection for him. By confirming in my fathers mind the good opinion that he already had of M. de Norpois, and so inducing him to form a good opinion of himself also, she knew that she was carrying out that one of her wifely duties which consisted in making life pleasant and comfortable for her husband, just as when she saw to it that his dinner was perfectly cooked and served in silence. And as she was incapable of deceiving my father, she compelled herself to admire the old Ambassador, so as to be able to praise him with sincerity. Incidentally she could naturally, and did, appreciate his kindness, his somewhat antiquated courtesy so ceremonious that when, as he was walking along the street, his tall figure rigidly erect, he caught sight of my mother driving past, before raising his hat to her he would fling away the cigar that he had just lighted his conversation, so elaborately circumspect, in which he referred as seldom as possible to himself and always considered what might interest the person to whom he was speaking his promptness in answering a letter, which was so astonishing that whenever my father, just after posting one himself to M. de Norpois, saw his handwriting upon an envelope, his first thought was always one of annoyance that their letters must, unfortunately, have crossed in the post which, one was led to suppose, bestowed upon him the special and luxurious privilege of extraordinary deliveries and collections at all hours of the day and night. My mother marvelled at his being so punctilious although so busy, so friendly although so much in demand, never realising that although, with such people, is invariably an unrecognised because, and that just as old men are always wonderful for their age, and kings extraordinarily simple, and country cousins astonishingly well-informed it was the same system of habits that enabled M. de Norpois to undertake so many duties and to be so methodical in answering letters, to go everywhere and to be so friendly when he came to us. Moreover she made the mistake which everyone makes who is unduly modest she rated everything that concerned herself below, and consequently outside the range of, other peoples duties and engagements. The letter which it seemed to her so meritorious in my fathers friend to have written us promptly, since in the course of the day he must have had ever so many letters to write, she excepted from that great number of letters, of which actually it was a unit in the same way she did not consider that dining with us was, for M. de Norpois, merely one of the innumerable activities of his social life she never guessed that the Ambassador had trained himself, long ago, to look upon dining-out as one of his diplomatic functions, and to display, at table, an inveterate charm which it would have been too much to have expected him specially to discard when he came to dine with us The evening on which M. de Norpois first appeared at our table, in a year when I still went to play in the Champs-Elysées, has remained fixed in my memory because the afternoon of the same day was that upon which I at last went to hear Berma, at a matinée, in Phèdre, and also because in talking to M. de Norpois I realised suddenly, and in a new and different way, how completely the feelings aroused in me by all that concerned Gilberte Swann and her parents differed from any that the same family could inspire in anyone else It was no doubt the sight of the depression in which I was plunged by the approach of the New Year holidays, in which, as she herself had informed me, I was to see nothing of Gilberte, that prompted my mother one day, in the hope of distracting my mind, to suggest, If you are still so anxious to hear Berma, I think that your father would allow you perhaps to go your grandmother can take you. But it was because M. de Norpois had told him that he ought to let me hear Berma, that it was an experience for a young man to remember in later life, that my father, who had hitherto been so resolutely opposed to my going and wasting my time, with the added risk of my falling ill again, on what he used to shock my grandmother by calling futilities, was now not far from regarding this manner of spending an afternoon as included, in some vague way, in the list of precious formulae for success in a brilliant career. My grandmother, who, in renouncing on my behalf the profit which, according to her, I should have derived from hearing Berma, had made a considerable sacrifice in the interests of my health, was surprised to find that this last had become of no account at a mere word from M. de Norpois. Reposing the unconquerable hopes of her rationalist spirit in the strict course of fresh air and early hours which had been prescribed for me, she now deplored, as something disastrous, this infringement that I was to make of my rules, and in a tone of despair protested, How easily led you are! to my father, who replied angrily What! So its you that are not for letting him go, now. That is really too much, after your telling us all day and every day that it would be so good for him. M. de Norpois had also brought about a change in my fathers plans in a matter of far greater importance to myself. My father had always meant me to become a diplomat, and I could not endure the thought that, even if I did have to stay for some years, first, at the Ministry, I should run the risk of being sent, later on, as Ambassador, to capitals in which no Gilberte dwelt. I should have preferred to return to the literary career that I had planned for myself, and had been abandoned, years before, in my wanderings along the Guermantes way. But my father had steadily opposed my devoting myself to literature, which he regarded as vastly inferior to diplomacy, refusing even to dignify it with the title of career, until the day when M. de Norpois, who had little love for the more recent generations of diplomatic agents, assured him that it was quite possible, by writing, to attract as much attention, to receive as much consideration, to exercise as much influence, and at the same time to preserve more independence than in the Embassies Well, well, I should never have believed it. Old Norpois doesnt at all disapprove of your idea of taking up writing, my father had reported. And as he had a certain amount of influence himself, he imagined that there was nothing that could not be arranged, no problem for which a happy solution might not be found in the conversation of people who counted. I shall bring him back to dinner, one of these days, from the Commission. You must talk to him a little, and let him see what he thinks of you. Write something good that you can shew him he is an intimate friend of the editor of the Deux-Mondes he will get you in there he will arrange it all, the cunning old fox and, upon my soul, he seems to think that diplomacy, nowadays ! My happiness in the prospect of not being separated from Gilberte made me desirous, but not capable, of writing something good which could be shewn to M. de Norpois. After a few laboured pages, weariness made the pen drop from my fingers I cried with anger at the thought that I should never have any talent, that I was not gifted, that I could not even take advantage of the chance that M. de Norpoiss coming visit was to offer me of spending the rest of my life in Paris. The recollection that I was to be taken to hear Berma alone distracted me from my grief. But just as I did not wish to see any storms except on those coasts where they raged with most violence, so I should not have cared to hear the great actress except in one of those classic parts in which Swann had told me that she touched the sublime. For when it is in the hope of making a priceless discovery that we desire to receive certain impressions from nature or from works of art, we have certain scruples about allowing our soul to gather, instead of these, other, inferior, impressions, which are liable to make us form a false estimate of the value of Beauty. Berma in Andromaque, in Les Caprices de Marianne, in Phèdre, was one of those famous spectacles which my imagination had so long desired. I should enjoy the same rapture as on the day when in a gondola I glided to the foot of the Titian of the Frari or the Carpaccios of San Giorgio dei Schiavoni, were I ever to hear Berma repeat the lines beginning On dit quun prompt départ vous éloigne de nous, Seigneur I was familiar with them from the simple reproduction in black and white which was given of them upon the printed page but my heart beat furiously at the thought as of the realisation of a long-planned voyage that I should at length behold them, bathed and brought to life in the atmosphere and sunshine of the voice of gold. A Carpaccio in Venice, Berma in Phèdre, masterpieces of pictorial or dramatic art which the glamour, the dignity attaching to them made so living to me, that is to say so indivisible, that if I had been taken to see Carpaccios in one of the galleries of the Louvre, or Berma in some piece of which I had never heard, I should not have experienced the same delicious amazement at finding myself at length, with wide-open eyes, before the unique and inconceivable object of so many thousand dreams. Then, while I waited, expecting to derive from Bermas playing the revelation of certain aspects of nobility and tragic grief, it would seem to me that whatever greatness, whatever truth there might be in her playing must be enhanced if the actress imposed it upon a work of real value, instead of what would, after all, be but embroidering a pattern of truth and beauty upon a commonplace and vulgar web Finally, if I went to hear Berma in a new piece, it would not be easy for me to judge of her art, of her diction, since I should not be able to differentiate between a text which was not already familiar and what she added to it by her intonations and gestures, an addition which would seem to me to be embodied in the play itself whereas the old plays, the classics which I knew by heart, presented themselves to me as vast and empty walls, reserved and made ready for my inspection, on which I should be able to appreciate without restriction the devices by which Berma would cover them, as with frescoes, with the perpetually fresh treasures of her inspiration. Unfortunately, for some years now, since she had retired from the great theatres, to make the fortune of one on the boulevards where she was the star, she had ceased to appear in classic parts and in vain did I scan the hoardings they never advertised any but the newest pieces, written specially for her by authors in fashion at the moment. When, one morning, as I stood searching the column of announcements to find the afternoon performances for the week of the New Year holidays, I saw there for the first time at the foot of the bill, after some probably insignificant curtain-raiser, whose title was opaque to me because it had latent in it all the details of an action of which I was ignorant two acts ofPhèdre with Mme. Berma, and, on the following afternoons, Le Demi-Monde, Les Caprices de Marianne, names which, like that of Phèdre, were for me transparent, filled with light only, so familiar were those works to me, illuminated to their very depths by the revealing smile of art. They seemed to me to invest with a fresh nobility Mme. Berma herself when I read in the newspapers, after the programme of these performances, that it was she who had decided to shew herself once more to the public in some of her early creations. She was conscious, then, that certain stage-parts have an interest which survives the novelty of their first production or the success of a revival she regarded them, when interpreted by herself, as museum pieces which it might be instructive to set before the eyes of the generation which had admired her in them long ago, or of that which had never yet seen her in them. In thus advertising, in the middle of a column of plays intended only to while away an evening, this Phèdre, a title no longer than any of the rest, nor set in different type, she added something indescribable, as though a hostess, introducing you, before you all go in to dinner, to her other guests, were to mention, casually, amid the string of names which are the names of guests and nothing more, and without any change of toneM. Anatole France. The doctor who was attending me the same who had forbidden me to travel advised my parents not to let me go to the theatre I should only be ill again afterwards, perhaps for weeks, and should in the long run derive more pain than pleasure from the experience. The fear of this might have availed to stop me, if what I had anticipated from such a spectacle had been only a pleasure for which a subsequent pain could so compensate as to cancel it. But what I demanded from this performance just as from the visit to Balbec, the visit to Venice for which I had so intensely longed was something quite different from pleasure a series of verities pertaining to a world more real than that in which I lived, which, once acquired, could never be taken from me again by any of the trivial incidents even though it were the cause of bodily suffering of my otiose existence. At best, the pleasure which I was to feel during the performance appeared to me as the perhaps inevitable form of the perception of these truths and I hoped only that the illness which had been forecast for me would not begin until the play was finished, so that my pleasure should not be in any way compromised or spoiled. I implored my parents, who, after the doctors visit, were no longer inclined to let me go to Phèdre. I repeated, all day long, to myself, the speech beginning On dit quun prompt départ vous éloigne de nous seeking out every intonation that could be put into it, so as to be able better to measure my surprise at the way which Berma would have found of uttering the lines. Concealed, like the Holy of Holies, beneath the veil that screened her from my gaze, behind which I invested her, every moment, with a fresh aspect, according to which of the words of Bergotte in the pamphlet that Gilberte had found for me was passing through my mind plastic nobility, Christian austerity or Jansenist pallor, Princess of Troezen and of Cleves or Mycenean drama, Delphic symbol, Solar myth that divine Beauty, whom Bermas acting was to reveal to me, night and day, upon an altar perpetually illumined, sat enthroned hi the sanctuary of my mind, my mind for which not itself but my stern, my fickle parents were to decide whether or not it was to enshrine, and for all time, the perfections of the Deity unveiled, in the same spot where was now her invisible form. And with my eyes fixed upon that inconceivable image, I strove from morning to night to overcome the barriers which my family were putting in my way. But when those had at last fallen, when my mother albeit this matinée was actually to coincide with the meeting of the Commission from which my father had promised to bring M. de Norpois home to dinner had said to me, Very well, we dont wish you to be unhappy if you think that you will enjoy it so very much, you must go thats all when this day of theatre-going, hitherto forbidden and unattainable, depended now only upon myself, then for the first time, being no longer troubled by the wish that it might cease to be impossible, I asked myself if it were desirable, if there were not other reasons than my parents prohibition which should make me abandon my design. In the first place, whereas I had been detesting them for their cruelty, their consent made them now so dear to me that the thought of causing them pain stabbed me also with a pain through which the purpose of life shewed itself as the pursuit not of truth but of loving-kindness, and life itself seemed good or evil only as my parents were happy or sad. I would rather not go, if it hurts you, I told my mother, who, on the contrary, strove hard to expel from my mind any lurking fear that she might regret my going, since that, she said, would spoil the pleasure that I should otherwise derive fromPhèdre, and it was the thought of my pleasure that had induced my father and her to reverse their ear</t>
+          <t>Gmoney been up on that rari flow You know how it go life of a mack Hippy girls, ratchets and the models too This here, is something you can clap it to Couple dollars, you know I'm finna throw a few One night, then you know he gone be done with you Wavy body attitude so cold She dispose any clothes over few weeks old Keep a grinder and a eighth got her ready to roll But how she keep her bottoms red got her losing her soul Every weekend its her friends who call Like bitch get up we fina go hit the mall Get something tight for the night but don't reveal it all Then we gone shake our ass to get a man that ball Like chris, trey usher or alsina or sumn Maybe a royal fam cat cause i heard they be stuntin See she used to want the dealer cause she know he be thuggin But got the boot when he pressed her and she thought he was bluffin Told her if you wanna stay here at my crib Then E14 where you grindin for the kid Now its one nights for lime light searching for the one pipe In hopes she can be a kardashian over night He said if i made them dollars then why the hell i can't throw em She gone pop that ass cause my chain been glowin Want block boys wit cash so my 8 ball showin And a mink on my back cause my ice keep snowing I know, i know she just tryna live Like the dons doin better than beverly in the hills Wit the goons from the hood where yo best friend was killed Or the migo brought the brick and the bubble became real See i mentioned jimmy choo and her face then lit up Like a fat boy eatin the birthday cake up Plus for that christian louboutin She would kneel for my pleasure longer than marathons But i ain't nobody played out sugar daddy You make that money then you bring it back to me Occupation where the weather don't control the rain Make it flood and them youngins probably running a train</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dancing Girls</t>
+          <t>Déchire</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Gmoney been up on that rari flow You know how it go life of a mack Hippy girls, ratchets and the models too This here, is something you can clap it to Couple dollars, you know I'm finna throw a few One night, then you know he gone be done with you Wavy body attitude so cold She dispose any clothes over few weeks old Keep a grinder and a eighth got her ready to roll But how she keep her bottoms red got her losing her soul Every weekend its her friends who call Like bitch get up we fina go hit the mall Get something tight for the night but don't reveal it all Then we gone shake our ass to get a man that ball Like chris, trey usher or alsina or sumn Maybe a royal fam cat cause i heard they be stuntin See she used to want the dealer cause she know he be thuggin But got the boot when he pressed her and she thought he was bluffin Told her if you wanna stay here at my crib Then E14 where you grindin for the kid Now its one nights for lime light searching for the one pipe In hopes she can be a kardashian over night He said if i made them dollars then why the hell i can't throw em She gone pop that ass cause my chain been glowin Want block boys wit cash so my 8 ball showin And a mink on my back cause my ice keep snowing I know, i know she just tryna live Like the dons doin better than beverly in the hills Wit the goons from the hood where yo best friend was killed Or the migo brought the brick and the bubble became real See i mentioned jimmy choo and her face then lit up Like a fat boy eatin the birthday cake up Plus for that christian louboutin She would kneel for my pleasure longer than marathons But i ain't nobody played out sugar daddy You make that money then you bring it back to me Occupation where the weather don't control the rain Make it flood and them youngins probably running a train</t>
+          <t>TBD</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Déchire</t>
+          <t>Délinquants</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>bis Trop de jeunes sont dans la délinquance, ils n'ont plus de conscience Parce qu'ils vivent dans la souffrance Manque de chance, prennent le mauvais sens J'expose, les mots sont dures Car ils font partie d'la prose, des temps futurs Et la dose est pure, soyez en sûrs Mayday, quand j'vois un re-frè perdre la tête, qui peut l'aider ? La vie lui fait mal car il s'entête comme un ? Il continue de croire, à leurs histoires, et sa mémoire est aliénée Seul, dans le couloir, on lui fait croire des vérités, truquées Les jeunes se font fumer, par des camés, pour un regard mal placé Je prends l'exemple d'Alfredo, qui trempe son zen dans la pe-do En 2 ans il est passé d'la blanche à la paco, comme un pur toxico Cours plus vite que les balles, les flics se régalent Tirent sur les délinquants, ça leur est égal Je suis maudit, pourri jusqu'à l'os Ne joue pas chez moi gosse, ou tu finiras plein de bosses Le Lunatic dans la peau du délinquant voyou J'en ai rien à foutre vas-y, achète mes cailloux C'est d'la pure négro, d'la fraîche Tu goûtes pas, paie cash et puis barre-toi avant qu'j'te sèche</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Délinquants</t>
+          <t>Donnons nous la main (Une chanson pour l’Asie)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>bis Trop de jeunes sont dans la délinquance, ils n'ont plus de conscience Parce qu'ils vivent dans la souffrance Manque de chance, prennent le mauvais sens J'expose, les mots sont dures Car ils font partie d'la prose, des temps futurs Et la dose est pure, soyez en sûrs Mayday, quand j'vois un re-frè perdre la tête, qui peut l'aider ? La vie lui fait mal car il s'entête comme un ? Il continue de croire, à leurs histoires, et sa mémoire est aliénée Seul, dans le couloir, on lui fait croire des vérités, truquées Les jeunes se font fumer, par des camés, pour un regard mal placé Je prends l'exemple d'Alfredo, qui trempe son zen dans la pe-do En 2 ans il est passé d'la blanche à la paco, comme un pur toxico Cours plus vite que les balles, les flics se régalent Tirent sur les délinquants, ça leur est égal Je suis maudit, pourri jusqu'à l'os Ne joue pas chez moi gosse, ou tu finiras plein de bosses Le Lunatic dans la peau du délinquant voyou J'en ai rien à foutre vas-y, achète mes cailloux C'est d'la pure négro, d'la fraîche Tu goûtes pas, paie cash et puis barre-toi avant qu'j'te sèche</t>
+          <t>Donnons nous la main pour aider le monde à se relever Pour que la solidarité fasse renaître l'espoir La mer et la terre se sont déchaîné Et contre ça nous n'avons pas pu lutter Alors si on n'veut pas subir à nouveau Nous devons tous nous unir Essayer de reconstruire Beaucoup de gens innocents ont péri Des parents, des enfants encore meurtris Oublions les frontières et rassemblons Tous nos efforts pour aspirer à un monde nouveau, oh Donnons tout ce que l'on a Solidaire il faut l'être pour qu'il n'y ait pas Des problèmes Un Homme dans le besoin Donnons-nous la main Car il n'reste plus rien Car il n'reste plus rien Beaucoup de vies en dépendent Il y a beaucoup de gens, ça fait beaucoup de gens Il y a beaucoup de gens qui attendent Nous savons tous qu'il reste un espoir C'est à nous de tout faire pour qu'ils y croient Appelons à l'unité À l'unité Améliorons cette réalité Pourrais-tu laisser ton propre enfant mourir ? Jamais le voir grandir ? Non ? Alors faut réagir Donnons tout ce que l'on a Solidaire il faut l'être pour qu'il n'y ait pas Un Homme dans le besoin Donnons-nous la main Car il ne reste plus rien Oh yeah Donne ta main Donne ta main Si t'as le cur triste Un peu d'amour Ici, c'est tout c'que tu risques Rien d'plus Alors parfois Le bonheur a des frontières Le malheur lui n'en a pas La couleur s'appelle douleur Marchons ensemble Tous unis Qui nous sommes ? Rien n'est difficile À reconstruire Courage Pendant qu'la terre tremble Et qu'les hommes tombent L'espoir renaît quand le monde se rassemble Se rassemble Yeah Donnons tout ce que l'on a Ce que l'on a Solidaire il faut l'être pour qu'il n'y ait pas Un Homme dans le besoin Donnons-nous la main Car il ne reste plus rien Yes All we gotta do is'a lend a hand Though we have a problem as one we will stand Unissons-nous pour reconstruire Human beings we are, clear the fog Ooh, understand Tous unis, il faut réagir The world knows it's not a game It's not a game Even in the sun, it's not a shame 'Cause here we are And all we got, oh Nothing else can do, oh oh Donnons tout ce que l'on a Solidaire il faut l'être pour qu'il n'y ait pas Un Homme dans le besoin Donnons-nous la main Car il ne reste plus rien Donnons tout ce que l'on a Solidaire il faut l'être pour qu'il n'y ait pas Un homme dans le besoin Donnons-nous la main Car il ne reste plus rien Donnons tout ce que l'on a Solidaire il faut l'être pour qu'il n'y ait pas Un homme dans le besoin Donnons-nous la main Donnons-nous la main Car il ne reste plus rien Fi aintizar altarjmat</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Donnons nous la main (Une chanson pour l’Asie)</t>
+          <t>Failure Meet Success</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Donnons nous la main pour aider le monde à se relever Pour que la solidarité fasse renaître l'espoir La mer et la terre se sont déchaîné Et contre ça nous n'avons pas pu lutter Alors si on n'veut pas subir à nouveau Nous devons tous nous unir Essayer de reconstruire Beaucoup de gens innocents ont péri Des parents, des enfants encore meurtris Oublions les frontières et rassemblons Tous nos efforts pour aspirer à un monde nouveau, oh Donnons tout ce que l'on a Solidaire il faut l'être pour qu'il n'y ait pas Des problèmes Un Homme dans le besoin Donnons-nous la main Car il n'reste plus rien Car il n'reste plus rien Beaucoup de vies en dépendent Il y a beaucoup de gens, ça fait beaucoup de gens Il y a beaucoup de gens qui attendent Nous savons tous qu'il reste un espoir C'est à nous de tout faire pour qu'ils y croient Appelons à l'unité À l'unité Améliorons cette réalité Pourrais-tu laisser ton propre enfant mourir ? Jamais le voir grandir ? Non ? Alors faut réagir Donnons tout ce que l'on a Solidaire il faut l'être pour qu'il n'y ait pas Un Homme dans le besoin Donnons-nous la main Car il ne reste plus rien Oh yeah Donne ta main Donne ta main Si t'as le cur triste Un peu d'amour Ici, c'est tout c'que tu risques Rien d'plus Alors parfois Le bonheur a des frontières Le malheur lui n'en a pas La couleur s'appelle douleur Marchons ensemble Tous unis Qui nous sommes ? Rien n'est difficile À reconstruire Courage Pendant qu'la terre tremble Et qu'les hommes tombent L'espoir renaît quand le monde se rassemble Se rassemble Yeah Donnons tout ce que l'on a Ce que l'on a Solidaire il faut l'être pour qu'il n'y ait pas Un Homme dans le besoin Donnons-nous la main Car il ne reste plus rien Yes All we gotta do is'a lend a hand Though we have a problem as one we will stand Unissons-nous pour reconstruire Human beings we are, clear the fog Ooh, understand Tous unis, il faut réagir The world knows it's not a game It's not a game Even in the sun, it's not a shame 'Cause here we are And all we got, oh Nothing else can do, oh oh Donnons tout ce que l'on a Solidaire il faut l'être pour qu'il n'y ait pas Un Homme dans le besoin Donnons-nous la main Car il ne reste plus rien Donnons tout ce que l'on a Solidaire il faut l'être pour qu'il n'y ait pas Un homme dans le besoin Donnons-nous la main Car il ne reste plus rien Donnons tout ce que l'on a Solidaire il faut l'être pour qu'il n'y ait pas Un homme dans le besoin Donnons-nous la main Donnons-nous la main Car il ne reste plus rien Fi aintizar altarjmat</t>
+          <t>I gotta get it I gotta get it I gotta get it And if it's out of my reach then I'm gonna stretch in the morning Get up out the bed and grind Cause my family has got to eat See all the haters want me dead cause I stay up on my grind They putting prices on my head I got money on my mind I think I finally made it, failure meet success See I'm rising from the bottom this as hard it gets I found my passion in this rap now I'm delivering this Friends switching up when you rising to the fame They ain't getting what it takes to be establishing a name Any trip u take want a plane ticket too And any broad u get in they trying to get in them too Second that you signed they asking where they cut at Hittin u wit bs lines like where the love at They thinkin simple if u got u can spend it But I'm trying to eat for life so what I earn I ain't gone lend it Taking this here serious got the whole world curious Lounging on grind that's got the women all delirious Day by day I'm engraving my name deeper Never waisting time as an insomniac sleeper No fear in my step cause I know just where I'm going Even without a beat these words gone keep on flowing I gotta get it I gotta get it I gotta get it And if it's out of my reach then I'm gonna stretch in the morning Get up out the bed and grind Cause my family has got to eat See all the haters want me dead cause I stay up on my grind They putting prices on my head I got money on my mind I think I finally made it, failure meet success These diggers out here schemin when they see my ears gleamin And they everywhere I turn you would think I was dreamin man Hates brewin in my enemies eyes It comes wit the success that's along wit the lies yup Seems no matter what I do it'll never be good enough But its not up to they standards for my life that I'm livin up nah I'm goin in so my family can eat Big plates plenty to go 'round we all have a feast Large house on the hill so I can shelter 'em all Snag a deal and not I, but we all gone ball Most anticipated moment for a artist on the mission While my face on ya tv what ya life been missin haaa Fullfillin the prophecy we posed to be on top They can weigh a couple tons still gettin knocked out the spot I ain't cocky I'm determined to make this actuality Not to mention I'd love the boost in my overall salary I gotta get it I gotta get it I gotta get it And if it's out of my reach then I'm gonna stretch in the morning Get up out the bed and grind Cause my family has got to eat See all the haters want me dead cause I stay up on my grind They putting prices on my head I got money on my mind I think I finally made it, failure meet success</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Failure Meet Success</t>
+          <t>For My Dreams</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>I gotta get it I gotta get it I gotta get it And if it's out of my reach then I'm gonna stretch in the morning Get up out the bed and grind Cause my family has got to eat See all the haters want me dead cause I stay up on my grind They putting prices on my head I got money on my mind I think I finally made it, failure meet success See I'm rising from the bottom this as hard it gets I found my passion in this rap now I'm delivering this Friends switching up when you rising to the fame They ain't getting what it takes to be establishing a name Any trip u take want a plane ticket too And any broad u get in they trying to get in them too Second that you signed they asking where they cut at Hittin u wit bs lines like where the love at They thinkin simple if u got u can spend it But I'm trying to eat for life so what I earn I ain't gone lend it Taking this here serious got the whole world curious Lounging on grind that's got the women all delirious Day by day I'm engraving my name deeper Never waisting time as an insomniac sleeper No fear in my step cause I know just where I'm going Even without a beat these words gone keep on flowing I gotta get it I gotta get it I gotta get it And if it's out of my reach then I'm gonna stretch in the morning Get up out the bed and grind Cause my family has got to eat See all the haters want me dead cause I stay up on my grind They putting prices on my head I got money on my mind I think I finally made it, failure meet success These diggers out here schemin when they see my ears gleamin And they everywhere I turn you would think I was dreamin man Hates brewin in my enemies eyes It comes wit the success that's along wit the lies yup Seems no matter what I do it'll never be good enough But its not up to they standards for my life that I'm livin up nah I'm goin in so my family can eat Big plates plenty to go 'round we all have a feast Large house on the hill so I can shelter 'em all Snag a deal and not I, but we all gone ball Most anticipated moment for a artist on the mission While my face on ya tv what ya life been missin haaa Fullfillin the prophecy we posed to be on top They can weigh a couple tons still gettin knocked out the spot I ain't cocky I'm determined to make this actuality Not to mention I'd love the boost in my overall salary I gotta get it I gotta get it I gotta get it And if it's out of my reach then I'm gonna stretch in the morning Get up out the bed and grind Cause my family has got to eat See all the haters want me dead cause I stay up on my grind They putting prices on my head I got money on my mind I think I finally made it, failure meet success</t>
+          <t>Deep at night I'm awaken for my dreams 4X A rose cracking the concrete, relevant when they obsolete Lookin at my economic status opposite elite Pre-made to embrace struggle another way Delineate the art of a hustle through the words i say Not an idea gets by without me writing a line Text edit, thoughts and finger tips are so intertwined Hearin get yo grind on and you can yo shine on I'm telling you its not a joke the other side has greener lawns Mine dirt right now too but wit the seeds I'm planting I'll have em memorizing verses and forever chanting And of course, it one hell of a feeling When the work you put in got you the keys to building Told homies when i cop me the whip ima scoop you Never did i go back on the word i was glued to Though its just a bucket civic push it like a benz All through the east, no longer footin so its still a win Deep at night I'm awaken for my dreams 4X I'll cross the country bare foot for the life i want A couple family members on my back i can't even front But i won't let em down even if my ankles break Crawl across the finish line i promise I'mma make a way This the only route, ain't no second option Go out and get it the motto betta quit the sobbing Yea you born at disadvantage but so was HOV Think he stopped for minuscule bumps in the road Voices in my head like get outa bed Thats the hunger on my mind that'll get me ahead Crash course everyday til I'm in fast porsche The jewel to it all reference me as a primary source Since i could walk they been claiming i was old souled Still i made mistakes ignoring the things i was told Yet I'm present so it ain't too late And I'm knowing this wasn't planned ima rewrite fate Deep at night I'm awaken for my dreams 4X</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>For My Dreams</t>
+          <t>Génèse</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Deep at night I'm awaken for my dreams 4X A rose cracking the concrete, relevant when they obsolete Lookin at my economic status opposite elite Pre-made to embrace struggle another way Delineate the art of a hustle through the words i say Not an idea gets by without me writing a line Text edit, thoughts and finger tips are so intertwined Hearin get yo grind on and you can yo shine on I'm telling you its not a joke the other side has greener lawns Mine dirt right now too but wit the seeds I'm planting I'll have em memorizing verses and forever chanting And of course, it one hell of a feeling When the work you put in got you the keys to building Told homies when i cop me the whip ima scoop you Never did i go back on the word i was glued to Though its just a bucket civic push it like a benz All through the east, no longer footin so its still a win Deep at night I'm awaken for my dreams 4X I'll cross the country bare foot for the life i want A couple family members on my back i can't even front But i won't let em down even if my ankles break Crawl across the finish line i promise I'mma make a way This the only route, ain't no second option Go out and get it the motto betta quit the sobbing Yea you born at disadvantage but so was HOV Think he stopped for minuscule bumps in the road Voices in my head like get outa bed Thats the hunger on my mind that'll get me ahead Crash course everyday til I'm in fast porsche The jewel to it all reference me as a primary source Since i could walk they been claiming i was old souled Still i made mistakes ignoring the things i was told Yet I'm present so it ain't too late And I'm knowing this wasn't planned ima rewrite fate Deep at night I'm awaken for my dreams 4X</t>
+          <t>Mairo, monde libre, pour toujours et à jamais Moi, l'fric, ça m'fait bander comme le boule à Julia Channel Arrière-petit-fils de Bachay, dans l'village comme Gargamel Gros, j'te raconte pas ma semaine Embrouille avec des skins en Lonsdale en loucedé Je vois que le barman s'mêle Dommage on va faire des naces-me J'suis pas Fatman, moi, j'suis un scoop J'suis pas Batman, moi, j'ai un scoot' Même si t'es bad man, tu vas t'manger un coup Ok, bande de cons y a pas d'fierté à faire d'la son-pri Tous là à imiter ls skins, les habits d'zombies Jamais j'arrive armé, j'ai un group à reformer J'arrive avec C'est plus l'époque des KKK, les noirs, on a des AK-Qua' Vous allez vous excuser pour Chaka Khan Serre-moi une lichette, il m'faut un mi-ovni, mi-jet Une liasse grande comme une midget Toute petite Co-plateau avec Isha, J'suis d'accord Ils ont voulu que j'fasse la première partie d'Michel, nachav Pas d'accord J'ai dit oui, après, j'ai dit non, j'ai le droit Ah bon ? Comme une meuf, quand elle dit oui, après, elle dit non J'ai rappé, j'ai rappé, j'suis passé d'banal à légende J'refuserai toujours les bananes alléchantes, t'sais ? Quand on dit cinq-cents plaques, gros contrat En fait, c'est on sort ton album, on prend tes tunes, on t'racontera Là, c'est la Suisse, pas les Français et pas les Belges Force aux femmes ébènes et métissées comme Amel Bent Afro, débardeur, hmm, ah, gros Seize piges, j'étais encore un amateur, mais déjà pro M.A.I., j'garde ma dignité, tu peux imiter C'est cadeau, le coup d'la main tendue, tu l'as fait à d'autres À Genève, comme la RDB, j'viens de Ménélik J'ai RDV, mais on s'voit après, comme on s'était dit T'es un fou, un fada, ne joue pas les badass Tu peux disparaître, tadam tadam, tadam J'connais l'rap comme Jadakiss ou Jada Smith Bientôt, j'sors ma mixtape, préviens d'ja ta miss</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Génèse</t>
+          <t>Impetuous</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mairo, monde libre, pour toujours et à jamais Moi, l'fric, ça m'fait bander comme le boule à Julia Channel Arrière-petit-fils de Bachay, dans l'village comme Gargamel Gros, j'te raconte pas ma semaine Embrouille avec des skins en Lonsdale en loucedé Je vois que le barman s'mêle Dommage on va faire des naces-me J'suis pas Fatman, moi, j'suis un scoop J'suis pas Batman, moi, j'ai un scoot' Même si t'es bad man, tu vas t'manger un coup Ok, bande de cons y a pas d'fierté à faire d'la son-pri Tous là à imiter ls skins, les habits d'zombies Jamais j'arrive armé, j'ai un group à reformer J'arrive avec C'est plus l'époque des KKK, les noirs, on a des AK-Qua' Vous allez vous excuser pour Chaka Khan Serre-moi une lichette, il m'faut un mi-ovni, mi-jet Une liasse grande comme une midget Toute petite Co-plateau avec Isha, J'suis d'accord Ils ont voulu que j'fasse la première partie d'Michel, nachav Pas d'accord J'ai dit oui, après, j'ai dit non, j'ai le droit Ah bon ? Comme une meuf, quand elle dit oui, après, elle dit non J'ai rappé, j'ai rappé, j'suis passé d'banal à légende J'refuserai toujours les bananes alléchantes, t'sais ? Quand on dit cinq-cents plaques, gros contrat En fait, c'est on sort ton album, on prend tes tunes, on t'racontera Là, c'est la Suisse, pas les Français et pas les Belges Force aux femmes ébènes et métissées comme Amel Bent Afro, débardeur, hmm, ah, gros Seize piges, j'étais encore un amateur, mais déjà pro M.A.I., j'garde ma dignité, tu peux imiter C'est cadeau, le coup d'la main tendue, tu l'as fait à d'autres À Genève, comme la RDB, j'viens de Ménélik J'ai RDV, mais on s'voit après, comme on s'était dit T'es un fou, un fada, ne joue pas les badass Tu peux disparaître, tadam tadam, tadam J'connais l'rap comme Jadakiss ou Jada Smith Bientôt, j'sors ma mixtape, préviens d'ja ta miss</t>
+          <t>Aside from drums in the back I like a hi-hat More rhythm to blues that I chime wit rap My greater calling, sound wave free falling Blissful acts my pockets keep on staling But own the set up so my vision ain't outcast How I protect from temp artists I outlast DIY my circumference require From engineering to videos the mics on fire And Bluebird, so the garden is at peace Of which I planted so it roots beneath Surface thinkers mapped out like flashing blinkers Preserving quality art, new era incas For light on tv, which the dream was sold From the same hoods where those without the means will hold Memphis minnie where my ancest is I'm oakland living hardly cross that bridge To TL's where tree sells and pills pop Cocaine with no veins and white snot Its so chill yet so ferocious Picked apart the mind blocks we cope with Battle scarred and war wounds before june Sun rise the next day we all bloom Let it shine, let it shine I tell you A life filled wit things you love will never fail you Weekends here the whole world cheer Like we set from problems until next year Grip the henn, the current is turned up And if we don't win the city is burnt up Let the sweat drip from my fore head Clocked in for years till I drop to floor dead Thats my assumption for the cost of the life I proofread recite then lay it down right All in my hands since i control the panel Like a bike missing bars i built some handles To shift momentum and drive us straight To the flashin light center stages that await</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Impetuous</t>
+          <t>Initials B.B.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Aside from drums in the back I like a hi-hat More rhythm to blues that I chime wit rap My greater calling, sound wave free falling Blissful acts my pockets keep on staling But own the set up so my vision ain't outcast How I protect from temp artists I outlast DIY my circumference require From engineering to videos the mics on fire And Bluebird, so the garden is at peace Of which I planted so it roots beneath Surface thinkers mapped out like flashing blinkers Preserving quality art, new era incas For light on tv, which the dream was sold From the same hoods where those without the means will hold Memphis minnie where my ancest is I'm oakland living hardly cross that bridge To TL's where tree sells and pills pop Cocaine with no veins and white snot Its so chill yet so ferocious Picked apart the mind blocks we cope with Battle scarred and war wounds before june Sun rise the next day we all bloom Let it shine, let it shine I tell you A life filled wit things you love will never fail you Weekends here the whole world cheer Like we set from problems until next year Grip the henn, the current is turned up And if we don't win the city is burnt up Let the sweat drip from my fore head Clocked in for years till I drop to floor dead Thats my assumption for the cost of the life I proofread recite then lay it down right All in my hands since i control the panel Like a bike missing bars i built some handles To shift momentum and drive us straight To the flashin light center stages that await</t>
+          <t>Une nuit que j'étais A me morfondre Dans quelque pub anglais Du cur de Londres Parcourant l'Amour Monstre de Pauwels Me vint une vision Dans l'eau de Seltz Tandis que des médailles D'impérator Font briller à sa taille Le bronze et l'or Le platine lui grave D'un cercle froid La marque des esclaves A chaque doigt Jusques en haut des cuisses Elle est bottée Et c'est comme un calice A sa beauté Elle ne porte rien D'autre qu'un peu D'essence de Guerlain Dans les cheveux A chaque mouvement On entendait Les clochettes d'argent De ses poignets Agitant ses grelots Elle avança Et prononça ce mot Alméria</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Initials B.B.</t>
+          <t>I Was Outside</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Une nuit que j'étais A me morfondre Dans quelque pub anglais Du cur de Londres Parcourant l'Amour Monstre de Pauwels Me vint une vision Dans l'eau de Seltz Tandis que des médailles D'impérator Font briller à sa taille Le bronze et l'or Le platine lui grave D'un cercle froid La marque des esclaves A chaque doigt Jusques en haut des cuisses Elle est bottée Et c'est comme un calice A sa beauté Elle ne porte rien D'autre qu'un peu D'essence de Guerlain Dans les cheveux A chaque mouvement On entendait Les clochettes d'argent De ses poignets Agitant ses grelots Elle avança Et prononça ce mot Alméria</t>
+          <t>Yeah Kool Keith DJ Spooky, ha ha This is a true story word I was walking down One late night in the Bronx, Fordham Road And I seen things I mean it was, real Megasonic atomic, utilize frequency Inabilities format, you try to photograph European human beings, cruising in the BM Drop-top, stop and make the girls heads bop From LA Express, wearin' a fly suede dress From the mothership, you agree when I flip Jet rockets computer with money in my pockets 809 scientist flags TV in a Rolex Ro-ro-romance, sony prepares Joe We flow, cruise speeds shift slow Flying saucer, pretend that I never saw ya never saw ya Two people see me green and then need a lawyer UFOs on Fordham Road can reload I'm movin' travel, hurt my knee on gravel Ahhh, man, So I'm seein' objects What? Uh I'm seein' objects Seein' objects? I'm seein' objects What? Uh I'm seein' objects I'm seein' objects Two years ago, a friend of mine Axed me to kick some elevation vine So I'ma drop the sign for the knowledge today The rhyme was high-tech and it went this way Took a test at Howard University And all these wack MCs amazed by me Till Keith took me outside in a Space Cadillac Spooky drove off and we never came back Spooky cut the record down to the bone And now we're dropping science on the microphone Had me near to Uranus, Venus, Mars Transvestites, gays in bars Stars in drag, money in the bag It's hard never been so far from home Humans nowadays are being cloned Before this bag blew up I was all alone Now the space freaks, want to bone Sniffin' coke and ecstasy 'shrooms Next they recruitin' here skins in the red room I'm from the Max Headroom, generations Perverts, queers, Pee-Wee Herman masturbation Madison Square, vicious clockin' Me on stage in a Ferrari looking fly like Crockett Crockett Hold ya fire, that's what I told the FBI So the other marshalls the incubator baby cry Federal investigation, at the gas station You couldn't solve, figure the equation Look around them little people standin' with some big heads That was Captain Kirk walking with a black T-shirt LAPD the nurse asked if my knee hurts I was in pain, little marshalls tryna take my brain Hospitals came, detectives wrote down my name I was to blame, my life never been the same A true story, I'll tell you if you never bore me My classmate died, my other friend named Corey Drinkin' 40's, he jumped out the project window Stabbed himself wit a yellow number 2 pencil Oh Corey I'm seein' objects What? Huh I'm seein' objects I'm seein' objects I'm seein' objects What? Seein' object? Uh I'm seein' objects I'm seein' objects I got a big Space Cadillac like a Seville And written right on the side it says Smokin' Krills So if ya see me pullin' bitches, step to the side There ain't enough lunatic to y'all inside It's like, first come first crack on base Coolin' out son, writin' formulas, settin' cases Laid out cold in a crackhead daze I'm going through another phase One of a kind for the people to like Ever since Doctor Octagon could fight And all you don't stop the dude it just ain't right 'Cause you're bitin' all your life, beatin' your meat and your wife Hangin' out at Fat Beats tryna clown Son, you're wack, don't try to be down You don't even know your English from your words to noun You's an MC sucka and you're the clown As if you see me rockin' steady Bitches hop on my jock Around the clock, if you let me see I'm a fifty dolla bill, you sweatin' on my dill So Menelik always rips the ill, yo So Kool Keith if you're ready And beat ya meat 'til ya palms are sweaty Spendin' millions on porno Pushin' x-rated tapes in the telly I'm seein' objects Objects objects objects I'm seein' objects I'm seein' objects Objects objects objects I'm seein' objects As I walk down the street Seein' different things Like 2 o'clock in the morning There's another man across the street He has a long coat on But his face is green I go tell the police They look at me different Nobody believe me I go to tell the town The sheriff I'm seein' objects I'm seein' objects</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>I Was Outside</t>
+          <t>J’Avance</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Yeah Kool Keith DJ Spooky, ha ha This is a true story word I was walking down One late night in the Bronx, Fordham Road And I seen things I mean it was, real Megasonic atomic, utilize frequency Inabilities format, you try to photograph European human beings, cruising in the BM Drop-top, stop and make the girls heads bop From LA Express, wearin' a fly suede dress From the mothership, you agree when I flip Jet rockets computer with money in my pockets 809 scientist flags TV in a Rolex Ro-ro-romance, sony prepares Joe We flow, cruise speeds shift slow Flying saucer, pretend that I never saw ya never saw ya Two people see me green and then need a lawyer UFOs on Fordham Road can reload I'm movin' travel, hurt my knee on gravel Ahhh, man, So I'm seein' objects What? Uh I'm seein' objects Seein' objects? I'm seein' objects What? Uh I'm seein' objects I'm seein' objects Two years ago, a friend of mine Axed me to kick some elevation vine So I'ma drop the sign for the knowledge today The rhyme was high-tech and it went this way Took a test at Howard University And all these wack MCs amazed by me Till Keith took me outside in a Space Cadillac Spooky drove off and we never came back Spooky cut the record down to the bone And now we're dropping science on the microphone Had me near to Uranus, Venus, Mars Transvestites, gays in bars Stars in drag, money in the bag It's hard never been so far from home Humans nowadays are being cloned Before this bag blew up I was all alone Now the space freaks, want to bone Sniffin' coke and ecstasy 'shrooms Next they recruitin' here skins in the red room I'm from the Max Headroom, generations Perverts, queers, Pee-Wee Herman masturbation Madison Square, vicious clockin' Me on stage in a Ferrari looking fly like Crockett Crockett Hold ya fire, that's what I told the FBI So the other marshalls the incubator baby cry Federal investigation, at the gas station You couldn't solve, figure the equation Look around them little people standin' with some big heads That was Captain Kirk walking with a black T-shirt LAPD the nurse asked if my knee hurts I was in pain, little marshalls tryna take my brain Hospitals came, detectives wrote down my name I was to blame, my life never been the same A true story, I'll tell you if you never bore me My classmate died, my other friend named Corey Drinkin' 40's, he jumped out the project window Stabbed himself wit a yellow number 2 pencil Oh Corey I'm seein' objects What? Huh I'm seein' objects I'm seein' objects I'm seein' objects What? Seein' object? Uh I'm seein' objects I'm seein' objects I got a big Space Cadillac like a Seville And written right on the side it says Smokin' Krills So if ya see me pullin' bitches, step to the side There ain't enough lunatic to y'all inside It's like, first come first crack on base Coolin' out son, writin' formulas, settin' cases Laid out cold in a crackhead daze I'm going through another phase One of a kind for the people to like Ever since Doctor Octagon could fight And all you don't stop the dude it just ain't right 'Cause you're bitin' all your life, beatin' your meat and your wife Hangin' out at Fat Beats tryna clown Son, you're wack, don't try to be down You don't even know your English from your words to noun You's an MC sucka and you're the clown As if you see me rockin' steady Bitches hop on my jock Around the clock, if you let me see I'm a fifty dolla bill, you sweatin' on my dill So Menelik always rips the ill, yo So Kool Keith if you're ready And beat ya meat 'til ya palms are sweaty Spendin' millions on porno Pushin' x-rated tapes in the telly I'm seein' objects Objects objects objects I'm seein' objects I'm seein' objects Objects objects objects I'm seein' objects As I walk down the street Seein' different things Like 2 o'clock in the morning There's another man across the street He has a long coat on But his face is green I go tell the police They look at me different Nobody believe me I go to tell the town The sheriff I'm seein' objects I'm seein' objects</t>
+          <t>COUPLET 1 Je vais, je viens, je n'ai plus l'esprit serein Mais le sommeil veille et me couvre d'un drap de satin Je me réveille auprès d'un cyprès Où suis-je ? Soudain surgit le farfadet Comment va mon ami, aurais-tu quelques ennuis Ah je vois, je vois tu ne trouves pas la mélodie Trouve le donjon, tue le dragon, mais il il y a un hic N'oublie jamais cette phrase magique MENELIK pas de panique, écoute bien ce funky beat Mais le temps presse allons donc on doit agir au plus vite J'enfourche ma rythmique qui me mènera au donjon Le destrier m'est précieux prends garde à l'étalon Va mon ami mais n'oublie jamais ce qui tient ta vie Où que tu ailles tu dois toujours t'armer d'harmonie REFRAIN J'avance armé d'harmonie... COUPLET 2 J'avance, j'avance armé d'harmonie J'avance, j'oublie le vacarme honni Par mon esprit qui se sustente de mélodie Je vois la citadelle vers laquelle, mon ami me conduit Le paysage apparaît, s'efface puis revient Il agit comme une ombre qui cache ses reflets arlequins Je vois le fort, le château fort qui se dresse haut perché Je mets pied à terre et tel des perles que j'ai lâchées Les mots incantés qui me portent dans la salle principale J'incante à nouveau et saisi mon épée vorpale Bouche bée me fixe une foule de regards figés Le sort du châtelain est jeté en trois coups de dés J'ai le tempo en tête et à présent rien ne m'arrête Inlassablement je poursuis la quête REFRAIN J'avance armé d'harmonie... COUPLET 3 Les murs s'évanouissent comme par enchantement La terre gronde, se démonte j'attends calmement Devant moi il se dresse et sans cesse me toise L'instant dure mille ans il a mis le temps en stase Le sort part je brûle de froid l'effroi m'envahit Le dogme du gnome résonne martèle mon esprit Cool mec regarde tout le sang froid que tu perds T dois le terrasser à tout prix le mettre à terre Ma robe résiste il persiste je subis les attaques du mage Qui enrage et bute sans fin sur mes barrages Le suprême maléfice, est parti j'applique une parade J'esquive la botte et porte l'estocade Hoo hoo je danse sur la tête du dragon La quête s'est faite, j'ai l'harmonie au diapason REFRAIN J'avance armé d'harmonie...</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>J’Avance</t>
+          <t>Je Me Souviens</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>COUPLET 1 Je vais, je viens, je n'ai plus l'esprit serein Mais le sommeil veille et me couvre d'un drap de satin Je me réveille auprès d'un cyprès Où suis-je ? Soudain surgit le farfadet Comment va mon ami, aurais-tu quelques ennuis Ah je vois, je vois tu ne trouves pas la mélodie Trouve le donjon, tue le dragon, mais il il y a un hic N'oublie jamais cette phrase magique MENELIK pas de panique, écoute bien ce funky beat Mais le temps presse allons donc on doit agir au plus vite J'enfourche ma rythmique qui me mènera au donjon Le destrier m'est précieux prends garde à l'étalon Va mon ami mais n'oublie jamais ce qui tient ta vie Où que tu ailles tu dois toujours t'armer d'harmonie REFRAIN J'avance armé d'harmonie... COUPLET 2 J'avance, j'avance armé d'harmonie J'avance, j'oublie le vacarme honni Par mon esprit qui se sustente de mélodie Je vois la citadelle vers laquelle, mon ami me conduit Le paysage apparaît, s'efface puis revient Il agit comme une ombre qui cache ses reflets arlequins Je vois le fort, le château fort qui se dresse haut perché Je mets pied à terre et tel des perles que j'ai lâchées Les mots incantés qui me portent dans la salle principale J'incante à nouveau et saisi mon épée vorpale Bouche bée me fixe une foule de regards figés Le sort du châtelain est jeté en trois coups de dés J'ai le tempo en tête et à présent rien ne m'arrête Inlassablement je poursuis la quête REFRAIN J'avance armé d'harmonie... COUPLET 3 Les murs s'évanouissent comme par enchantement La terre gronde, se démonte j'attends calmement Devant moi il se dresse et sans cesse me toise L'instant dure mille ans il a mis le temps en stase Le sort part je brûle de froid l'effroi m'envahit Le dogme du gnome résonne martèle mon esprit Cool mec regarde tout le sang froid que tu perds T dois le terrasser à tout prix le mettre à terre Ma robe résiste il persiste je subis les attaques du mage Qui enrage et bute sans fin sur mes barrages Le suprême maléfice, est parti j'applique une parade J'esquive la botte et porte l'estocade Hoo hoo je danse sur la tête du dragon La quête s'est faite, j'ai l'harmonie au diapason REFRAIN J'avance armé d'harmonie...</t>
+          <t>C'est comme une chanson, dont les paroles semblent familières Les souvenirs... Ce souvenir, que j'avais oublié Qu'elle aime ou ai de la haine Elle n'en fait pas qu'un... Je me souviens Je me souviens Je me souviens le départ ce matin là, amer Le discours que me tins la femme qui me servait de mère Je me souviens de mes frères, de l'expression de mes frères Je suis parti, en silence ils me regardèrent Le soleil brille à nouveau dans ma vie j'y vois plus clair Aveuglé par les néons, comme Icare je perds Donne-moi la main, maintes fois par toi j'ai voulu être choyé Je me suis dévoyé pourquoi n'as-tu jamais su m'écouter ? Je me souviens des discours qui enflammaient nos liens Tout allait si bien mais il fallait recoller au quotidien Ne dors pas car la mort se sert du somme comme appât Je pars, pardonne-moi pour la paix que tu ne connais pas x4 Je me souviens Je me souviens de toi m'écartant de ce monde malsain Consciente d'aider celui à qui tu donnas le sein Je me souviens la tristesse des larmes dont tu t'armes Si souvent pour toucher le cur de ton enfant qui fout le camp Je me souviens, c'est la pire torture, le meilleur remède Aide-moi l'abandon gagne du terrain peu à peu je cède Vos inquiétudes de me voir manipulé par les autres Je me souviens à présent mon amour affleure le vôtre Je me souviens, j'aimerais tant passer le bonjour à mes frères Compagnons de galère et par dessus tout solidaires Je me souviens toutes les fois où tu te moquais de moi Je me souviens hélas le souvenir ne vous remplace pas x4 Je me souviens Je me souviens mais désormais c'est loin bien trop loin Le regret s'installe, j' n'ai vu ma chance que quand elle passait au loin C'est drôle j'ai peur, tous ces souvenirs me fragilisent Peur de vous perdre pourtant je n'ai agi qu'à ma guise Le vent me grise, j'imagine le gris est de mise Le rituel respecté chacun lâche une poignée de poussière grise De plus il pleut un petit peu, le ciel s'en mêle J' me sens léger, j' n'ai jamais autant souhaité avoir des ailes J'ai froid Frère, même si ici les gens ici corps et âme se dévouent Perdu dans mes pensées, je me retrouve parmi vous Je ne dors pas car la mort se sert du somme comme appât Je pars, pardonne-moi pour la paix que tu ne connais pas car... x8 Je me souviens Je me souviens, je me souviens, je me souviens dis leur Armand Yo, Armand n'est pas mort travelling avant, pause, gros plan Vision d'une scène se déroulant tout le temps Une mère pleurant devant ses enfants, la raison étant simple le manque d'argent Contre-champs sur des ennuis croissants, un père absent Spirale du tourment pour des enfants à peine adolescents Dans cette jungle trop d'amis nous on quitté bêtement La crise a eu raison des bons sentiments, yeah ! Je me souviens, je me souviens, je me souviens n'est-ce pas Géo ? Je me souviens de mes parents pleurant, primant, s'privant, posant constamment uniquement pour leurs enfants Telle la première lueur du jour jusqu'au crépuscule Plus d'vingt ans d'labeur et d'amour pour maintenir la cellule Familiale, j'ai pensé que tout était rose Que personne ne faisait l'aumône et que les gens étaient en osmose Plus tard j'ai compris ce que me disait Papa et Mama Qu'la vie est un ring où constamment tu combats, je me souviens...</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Je Me Souviens</t>
+          <t>Je t’aime comme t’es</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C'est comme une chanson, dont les paroles semblent familières Les souvenirs... Ce souvenir, que j'avais oublié Qu'elle aime ou ai de la haine Elle n'en fait pas qu'un... Je me souviens Je me souviens Je me souviens le départ ce matin là, amer Le discours que me tins la femme qui me servait de mère Je me souviens de mes frères, de l'expression de mes frères Je suis parti, en silence ils me regardèrent Le soleil brille à nouveau dans ma vie j'y vois plus clair Aveuglé par les néons, comme Icare je perds Donne-moi la main, maintes fois par toi j'ai voulu être choyé Je me suis dévoyé pourquoi n'as-tu jamais su m'écouter ? Je me souviens des discours qui enflammaient nos liens Tout allait si bien mais il fallait recoller au quotidien Ne dors pas car la mort se sert du somme comme appât Je pars, pardonne-moi pour la paix que tu ne connais pas x4 Je me souviens Je me souviens de toi m'écartant de ce monde malsain Consciente d'aider celui à qui tu donnas le sein Je me souviens la tristesse des larmes dont tu t'armes Si souvent pour toucher le cur de ton enfant qui fout le camp Je me souviens, c'est la pire torture, le meilleur remède Aide-moi l'abandon gagne du terrain peu à peu je cède Vos inquiétudes de me voir manipulé par les autres Je me souviens à présent mon amour affleure le vôtre Je me souviens, j'aimerais tant passer le bonjour à mes frères Compagnons de galère et par dessus tout solidaires Je me souviens toutes les fois où tu te moquais de moi Je me souviens hélas le souvenir ne vous remplace pas x4 Je me souviens Je me souviens mais désormais c'est loin bien trop loin Le regret s'installe, j' n'ai vu ma chance que quand elle passait au loin C'est drôle j'ai peur, tous ces souvenirs me fragilisent Peur de vous perdre pourtant je n'ai agi qu'à ma guise Le vent me grise, j'imagine le gris est de mise Le rituel respecté chacun lâche une poignée de poussière grise De plus il pleut un petit peu, le ciel s'en mêle J' me sens léger, j' n'ai jamais autant souhaité avoir des ailes J'ai froid Frère, même si ici les gens ici corps et âme se dévouent Perdu dans mes pensées, je me retrouve parmi vous Je ne dors pas car la mort se sert du somme comme appât Je pars, pardonne-moi pour la paix que tu ne connais pas car... x8 Je me souviens Je me souviens, je me souviens, je me souviens dis leur Armand Yo, Armand n'est pas mort travelling avant, pause, gros plan Vision d'une scène se déroulant tout le temps Une mère pleurant devant ses enfants, la raison étant simple le manque d'argent Contre-champs sur des ennuis croissants, un père absent Spirale du tourment pour des enfants à peine adolescents Dans cette jungle trop d'amis nous on quitté bêtement La crise a eu raison des bons sentiments, yeah ! Je me souviens, je me souviens, je me souviens n'est-ce pas Géo ? Je me souviens de mes parents pleurant, primant, s'privant, posant constamment uniquement pour leurs enfants Telle la première lueur du jour jusqu'au crépuscule Plus d'vingt ans d'labeur et d'amour pour maintenir la cellule Familiale, j'ai pensé que tout était rose Que personne ne faisait l'aumône et que les gens étaient en osmose Plus tard j'ai compris ce que me disait Papa et Mama Qu'la vie est un ring où constamment tu combats, je me souviens...</t>
+          <t>Ouais ! Je suis sûre que tu m'aimerais plus Si j'avais des seins comme ça ! Mais non, bébé, qu'est ce que tu racontes Je t'aime comme t'es. Je sais la peine qu'on s'fait parfois Tu sais comme c'est rare qu'on s'aime comme ça Je t'aime comme t'es, ne bouge pas, ne change pas Je t'aime comme t'es bébé, tu sais qu'c'est vrai C'est tel que t'es que j'aime, pour moi c'est parfait Avoir un fessier fait main, c'est dans l'air du temps C'est dur d'aimer, si tu gommes ce qui est différent Je t'aime comme t'es, mais comme t'es Tu te fais des reproches Ne bouge pas, ne change pas Regarde, j'ai des poches ! Tu sais que t'es pas moche, t'es tout l'inverse de '' Quasimodo'' Une fille solide sur qui je peux caser mon dos C'est quasi-mondiale pour chacun des faux nichons A bat le silicone, moi j'aime ta conversation Oh ! Je suis trop plate, regarde, ça craint ! T'achètes pas de nouveaux seins, les tiens me vont très bien Refrain x2 Je t'aime comme t'es. Je sais la peine qu'on s'fait parfois Tu sais comme c'est rare qu'on s'aime comme ça Je t'aime comme t'es, je t'aime comme t'es Je t'aime comme t'es, ne bouge pas, ne change pas Les tops, j'm'en fous, t'es au top pour moi, p'tit bout J'ai un souvenir fou, d'la première fois qu'on s'est ché-tou Tu ne rêvais pas encore d'avoir un corps en plastique Je n'avais pas encore capté ton côté gymnastique Avoue que je suis grosse T'as juste c'qu'il faut, un peu plus ce serait trop Mais bon là, t'as juste c'qu'il faut Je t'aime comme t'es T'es pas parfaite, c'est ça qui me plaît Quand tu me regardes, t'es tout pour moi Le plus bel objet, on se chamaille parfois Mais tu sais t'es tout pour moi Tu m'aimes ? Mais bien sûr, tu sais que je n'aime que toi J'flippe tu sais ? Ouais, je sais, c'est pas prêt d'changer Mais je t'aime comme t'es, pile comme t'es T'es belle tu sais Refrain x2 Tu deviens folle en pensant que t'as les seins qui tombent T'es la même pour moi, bouge pas, t'es une bombe Une vraie bombasse à mes yeux Il suffirait qu'tu tournes un peu du fessier Pour rendre même les curés nerveux Mais, j'ai pas d'fesses ? Non, tu stresses, arrête-ça là J'touche pourtant, tout ce que tu dis qu'tu n'as pas Tu es ma Jeanne d'Arc, il est clair que j'bande pour toi T'as les boules, ça se voit, mais le billard, c'est pas pour toi J't'apprécie, et c'est comme ça qu'tu vas durer Ça peut coûter cher de chercher à s'faire charcuter J'aime pas ma bouche ! J'voudrais bien la faire gonfler un peu Oh regarde la mienne J'crois bien qu'elle suffit pour nous deux Refrain x2</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Je t’aime comme t’es</t>
+          <t>Laissez Vivre</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ouais ! Je suis sûre que tu m'aimerais plus Si j'avais des seins comme ça ! Mais non, bébé, qu'est ce que tu racontes Je t'aime comme t'es. Je sais la peine qu'on s'fait parfois Tu sais comme c'est rare qu'on s'aime comme ça Je t'aime comme t'es, ne bouge pas, ne change pas Je t'aime comme t'es bébé, tu sais qu'c'est vrai C'est tel que t'es que j'aime, pour moi c'est parfait Avoir un fessier fait main, c'est dans l'air du temps C'est dur d'aimer, si tu gommes ce qui est différent Je t'aime comme t'es, mais comme t'es Tu te fais des reproches Ne bouge pas, ne change pas Regarde, j'ai des poches ! Tu sais que t'es pas moche, t'es tout l'inverse de '' Quasimodo'' Une fille solide sur qui je peux caser mon dos C'est quasi-mondiale pour chacun des faux nichons A bat le silicone, moi j'aime ta conversation Oh ! Je suis trop plate, regarde, ça craint ! T'achètes pas de nouveaux seins, les tiens me vont très bien Refrain x2 Je t'aime comme t'es. Je sais la peine qu'on s'fait parfois Tu sais comme c'est rare qu'on s'aime comme ça Je t'aime comme t'es, je t'aime comme t'es Je t'aime comme t'es, ne bouge pas, ne change pas Les tops, j'm'en fous, t'es au top pour moi, p'tit bout J'ai un souvenir fou, d'la première fois qu'on s'est ché-tou Tu ne rêvais pas encore d'avoir un corps en plastique Je n'avais pas encore capté ton côté gymnastique Avoue que je suis grosse T'as juste c'qu'il faut, un peu plus ce serait trop Mais bon là, t'as juste c'qu'il faut Je t'aime comme t'es T'es pas parfaite, c'est ça qui me plaît Quand tu me regardes, t'es tout pour moi Le plus bel objet, on se chamaille parfois Mais tu sais t'es tout pour moi Tu m'aimes ? Mais bien sûr, tu sais que je n'aime que toi J'flippe tu sais ? Ouais, je sais, c'est pas prêt d'changer Mais je t'aime comme t'es, pile comme t'es T'es belle tu sais Refrain x2 Tu deviens folle en pensant que t'as les seins qui tombent T'es la même pour moi, bouge pas, t'es une bombe Une vraie bombasse à mes yeux Il suffirait qu'tu tournes un peu du fessier Pour rendre même les curés nerveux Mais, j'ai pas d'fesses ? Non, tu stresses, arrête-ça là J'touche pourtant, tout ce que tu dis qu'tu n'as pas Tu es ma Jeanne d'Arc, il est clair que j'bande pour toi T'as les boules, ça se voit, mais le billard, c'est pas pour toi J't'apprécie, et c'est comme ça qu'tu vas durer Ça peut coûter cher de chercher à s'faire charcuter J'aime pas ma bouche ! J'voudrais bien la faire gonfler un peu Oh regarde la mienne J'crois bien qu'elle suffit pour nous deux Refrain x2</t>
+          <t>COUPLET 1 Laissez vivre, loin des polémiques Qui est le vrai, le faux, le faux passe mieux mais il y a un hic Car nous sommes des pantins, entraînés depuis bambins À nous référer à des codes cela sans fin Mais qui me dit que le code n'est pas erroné ? Qui me dit qu'à ce numéro il y a un abonné ? On me dit HIP HOP ci, HIP HOP ça Pour moi le HIP HOP au top est d'entendre Mes gars crier Aaah!!! MENELIK avance épaulé de sa clique Collant la rythmique sans pour autant vendre sa technique Le second de personne s'empare de la plume J'n'suis pas billie jean mais comme un pavé mon son f'allume Tu piges? la leçon que le griot l'inflige Je n'dirige pas fais ce que ton corps exige Il bouge? cool mec mais là c'est toi qui voit Tu connais ma philosophie je n'y reviens pas De petits pas en petits pas il pique, comme une morsure Mon rap est chaud ou froid, tu redemandes de cette brûlure REFRAIN Laissez vivre COUPLET 2 J'ai plus de problèmes que Calimero Mais comment donc fait la morale pour dominer mon ego La pression de groupe me ramène dans le troupeau Interdit à mon esprit de flotter en solo Je suis libre, libre de pas déraper Pourtant mon être ivre volatile veut s'enflammer MAY DAY, MAY DAY Le S.O.S. est lancé mais risque fort de s'échouer J'agis seul mais la morale à mon pied s'est nouée M'a amadoué, j'étais doué donc ils m'ont écroué J'ai joué, j'ai paumé en vain j'attendais ma bouée Mais par le collectif j'ai été floué Sur les chemins d'habitude la morale sans cesse m'oppresse Méfie toi de MENELIK je suis comme un pitbull sans laisse Stressé, la potence se dresse à mes dépens La morale se love autour de moi et à mon cou se pend Non pas un épiphénomène le peuple marche au dépit Comme une feuille de biscana, je libère ton esprit REFRAIN Laissez vivre COUPLET 3 Laissez vivre est l'objet des quelques lignes qui vont suivre Que ceux habitués à suivre suivent, je ne peux les poursuivre Qui est ce qui tique sur le parasite qui calque et me réplique ? MENELIK, tu sais bien qu'avec moi pas de mimiques Mon ami Mehdi m'a dit que ma vie valait moins qu'un radis Car la morale me shoote comme on shoote un Kennedy Comme au basket un contre ou une course contre la montre Le HIP HOP est trop fort on n'peut pas lutter contre Tranquille sur le style, MENELIK défile Use de sa langue comme d'un ustensile J'attends l'instant où les temps seront plus cléments En attendant l'instinct grégaire me suffit amplement Je reviens à la vie et je revis auprès des miens Ma philosophie UN POUR TOUS ET TOUS POUR UN La morale me lie au mal, ma volonté ramollit C'est comme la société, pour l'honnêteté elle est trop polie Je suis un phare, torturé par la bise Sur des récifs de consensus ma pensée se brise</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Laissez Vivre</t>
+          <t>Le Freestyle d’obsolète</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>COUPLET 1 Laissez vivre, loin des polémiques Qui est le vrai, le faux, le faux passe mieux mais il y a un hic Car nous sommes des pantins, entraînés depuis bambins À nous référer à des codes cela sans fin Mais qui me dit que le code n'est pas erroné ? Qui me dit qu'à ce numéro il y a un abonné ? On me dit HIP HOP ci, HIP HOP ça Pour moi le HIP HOP au top est d'entendre Mes gars crier Aaah!!! MENELIK avance épaulé de sa clique Collant la rythmique sans pour autant vendre sa technique Le second de personne s'empare de la plume J'n'suis pas billie jean mais comme un pavé mon son f'allume Tu piges? la leçon que le griot l'inflige Je n'dirige pas fais ce que ton corps exige Il bouge? cool mec mais là c'est toi qui voit Tu connais ma philosophie je n'y reviens pas De petits pas en petits pas il pique, comme une morsure Mon rap est chaud ou froid, tu redemandes de cette brûlure REFRAIN Laissez vivre COUPLET 2 J'ai plus de problèmes que Calimero Mais comment donc fait la morale pour dominer mon ego La pression de groupe me ramène dans le troupeau Interdit à mon esprit de flotter en solo Je suis libre, libre de pas déraper Pourtant mon être ivre volatile veut s'enflammer MAY DAY, MAY DAY Le S.O.S. est lancé mais risque fort de s'échouer J'agis seul mais la morale à mon pied s'est nouée M'a amadoué, j'étais doué donc ils m'ont écroué J'ai joué, j'ai paumé en vain j'attendais ma bouée Mais par le collectif j'ai été floué Sur les chemins d'habitude la morale sans cesse m'oppresse Méfie toi de MENELIK je suis comme un pitbull sans laisse Stressé, la potence se dresse à mes dépens La morale se love autour de moi et à mon cou se pend Non pas un épiphénomène le peuple marche au dépit Comme une feuille de biscana, je libère ton esprit REFRAIN Laissez vivre COUPLET 3 Laissez vivre est l'objet des quelques lignes qui vont suivre Que ceux habitués à suivre suivent, je ne peux les poursuivre Qui est ce qui tique sur le parasite qui calque et me réplique ? MENELIK, tu sais bien qu'avec moi pas de mimiques Mon ami Mehdi m'a dit que ma vie valait moins qu'un radis Car la morale me shoote comme on shoote un Kennedy Comme au basket un contre ou une course contre la montre Le HIP HOP est trop fort on n'peut pas lutter contre Tranquille sur le style, MENELIK défile Use de sa langue comme d'un ustensile J'attends l'instant où les temps seront plus cléments En attendant l'instinct grégaire me suffit amplement Je reviens à la vie et je revis auprès des miens Ma philosophie UN POUR TOUS ET TOUS POUR UN La morale me lie au mal, ma volonté ramollit C'est comme la société, pour l'honnêteté elle est trop polie Je suis un phare, torturé par la bise Sur des récifs de consensus ma pensée se brise</t>
+          <t>Naguère les concierges étaient en vogue Désormais on les a remplacés par des digicodes Dans ma ville il n'y avait pas de parcmètres Je voyais des ouvriers manger des sandwichs à l'omelette Le passé me revient comme un bilboquet La présence d'un passé omniprésent n'est pas passée Les Halles supplantées par le Costes L'allégorie des madeleines file à la vitesse de Prost L'air y était pur, Paris plus beau Désormais le ticket de métro augmente comme le nombre d'autos Oh shit, à la télé y'a plus de speakerines Y'a des films de séries B que j'estime à quinze centimes Les States nous plaquent ces films de trois piécettes Que je mate, mais mon intellect constate qu'ils sont obsolètes Obsolète, mais stylée, la phrase qui suivra L'homme qui capte le mic et dont le nom possède le double a La variet' est sa cible Solaar larbalète Qui pique cette zique solite et alite l'élite Qui élabore depuis des décennies Une main basse sur mon art pour qu'il avance au ralenti Mais le Grand Manitou, manie tout, t'inquiète Il démasque la musique à masque et la place en hypothèque Puis, inscrit en italique sur son agenda Le top des trucs qu'il n'aime pas Bref pour être clair et net le ventricule s'accompagne de l'oreillette Tout comme à mes oreilles la variet' s'acoquine et rime avec obsolète Obsolète est aussi l'allumeuse qui Portait des bas résilles et empestait le patchouli Pour des services rendus elle me dit j'te paye en nature Et je reste stoïque quand elle me tend des confitures Ceci est oublié quand au mois de décembre Elle me téléphone et me dit Passe me prendre Bref ! J'en abuse avec délectation Douce comme de l'hydromel je suis en affection Puis me glisse, m'immisce, entre les cuisses lisses de la miss Ses yeux se plissent et elle dit Stop ton vice Je suis comme une balle, elle joue le rôle d'une raquette L'endormeuse allumeuse se prend pour une starlette Mais sache que dans les cinémathèques, tes presque galipettes désuètes Sont classées dans les séries B au rayon obsolète Toutes les choses dépassées, doivent rester classées Passé, assez, car c'est une menace, et Les Sages Poètes de la Rue représentent le futur Ménélik et Solaar vivent avec nous cette aventure Je vis à Paris, la ville où pleins de frères font le charivari sur le microphone avec le verbe Le dandy bandit Dan te prit donc d'être honnête Et de reconnaître que nous ne sommes pas obsolète Melopheelo s'accorde dans le jazz Le rythme est à la basse quand je place les vibes La musique sonne comme le passé Et l'évolution sonore donne la couleur tant recherchée Passe le pinceau que je peigne la place de bleu Car à mes yeux c'est le bleu qui me rend heureux Tu comprendras si tu n'es pas encore obsolète Le fond de toute ma pensée claire et nette Quand t'étais gosse tu r'gardais parce que toi t'avais un snoopy Maintenant t'as des Pataugas et moi des Pum' et je crie Youpi ! Comme une toupie tourne autour de ta groupie mais ne la touche pas J'ai fait un pacte avec tact, avec mes actes Exact ! Shit ! Il faut que je me pose sur le beat Paix à tous les frères qui sont dans la place aux posses funky Et là c'est la fin je trace, adios Hip-Hop junky Obsolète est l'écran Qui devant moi se reflète, tourbillonne, tourbillonne Et finit par me prendre la tête Ménélik pas de panique Non !, on me l'a trop souvent dit Dis-moi, dis-moi, miroir ce que tu ferais de celui qui Preuve en est le mal sans racine Je prend pour témoin tous ces sourires qu'on assassine Je n'suis pas, pas à pas, comme le ferai Lassie Avance, progresse, comme le fait le posse A l'attaque du troisième acte, avec tact Comme le cheval de Troie J'entre dans le crâne des MC's, voir où cela ne va pas L'hypothalamus et le néo-cortex, semble-t-il fonctionnent bien Mais les neuromédiateurs se prennent pour des américains Le rap est social donc s'adapte à une société donnée Je le fais de manière artistique, au lieu de me plaindre Ouin! comme un bébé Le néo grillot rit aux éclats, il est de Paname La différence est faite, il préfère Tom à l'Oncle Sam Paris ne rit pas de moi, car je paris sur Paris Ris-pa, ne rit pas parce qu'on ne rit pas sur Ris-pas nous Le son de Ri-pas s'exporte à bord de ripas son pari Fatal et léthal, je m'étale et m'installe dans les annales musicales l'occidental Comme dans le monde médical, précision chirurgicale Cuic ! et le coup de bistouri qui te coupe la tête comme une lame de Gillette En fait est obsolète</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Le Freestyle d’obsolète</t>
+          <t>Le Manège</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Naguère les concierges étaient en vogue Désormais on les a remplacés par des digicodes Dans ma ville il n'y avait pas de parcmètres Je voyais des ouvriers manger des sandwichs à l'omelette Le passé me revient comme un bilboquet La présence d'un passé omniprésent n'est pas passée Les Halles supplantées par le Costes L'allégorie des madeleines file à la vitesse de Prost L'air y était pur, Paris plus beau Désormais le ticket de métro augmente comme le nombre d'autos Oh shit, à la télé y'a plus de speakerines Y'a des films de séries B que j'estime à quinze centimes Les States nous plaquent ces films de trois piécettes Que je mate, mais mon intellect constate qu'ils sont obsolètes Obsolète, mais stylée, la phrase qui suivra L'homme qui capte le mic et dont le nom possède le double a La variet' est sa cible Solaar larbalète Qui pique cette zique solite et alite l'élite Qui élabore depuis des décennies Une main basse sur mon art pour qu'il avance au ralenti Mais le Grand Manitou, manie tout, t'inquiète Il démasque la musique à masque et la place en hypothèque Puis, inscrit en italique sur son agenda Le top des trucs qu'il n'aime pas Bref pour être clair et net le ventricule s'accompagne de l'oreillette Tout comme à mes oreilles la variet' s'acoquine et rime avec obsolète Obsolète est aussi l'allumeuse qui Portait des bas résilles et empestait le patchouli Pour des services rendus elle me dit j'te paye en nature Et je reste stoïque quand elle me tend des confitures Ceci est oublié quand au mois de décembre Elle me téléphone et me dit Passe me prendre Bref ! J'en abuse avec délectation Douce comme de l'hydromel je suis en affection Puis me glisse, m'immisce, entre les cuisses lisses de la miss Ses yeux se plissent et elle dit Stop ton vice Je suis comme une balle, elle joue le rôle d'une raquette L'endormeuse allumeuse se prend pour une starlette Mais sache que dans les cinémathèques, tes presque galipettes désuètes Sont classées dans les séries B au rayon obsolète Toutes les choses dépassées, doivent rester classées Passé, assez, car c'est une menace, et Les Sages Poètes de la Rue représentent le futur Ménélik et Solaar vivent avec nous cette aventure Je vis à Paris, la ville où pleins de frères font le charivari sur le microphone avec le verbe Le dandy bandit Dan te prit donc d'être honnête Et de reconnaître que nous ne sommes pas obsolète Melopheelo s'accorde dans le jazz Le rythme est à la basse quand je place les vibes La musique sonne comme le passé Et l'évolution sonore donne la couleur tant recherchée Passe le pinceau que je peigne la place de bleu Car à mes yeux c'est le bleu qui me rend heureux Tu comprendras si tu n'es pas encore obsolète Le fond de toute ma pensée claire et nette Quand t'étais gosse tu r'gardais parce que toi t'avais un snoopy Maintenant t'as des Pataugas et moi des Pum' et je crie Youpi ! Comme une toupie tourne autour de ta groupie mais ne la touche pas J'ai fait un pacte avec tact, avec mes actes Exact ! Shit ! Il faut que je me pose sur le beat Paix à tous les frères qui sont dans la place aux posses funky Et là c'est la fin je trace, adios Hip-Hop junky Obsolète est l'écran Qui devant moi se reflète, tourbillonne, tourbillonne Et finit par me prendre la tête Ménélik pas de panique Non !, on me l'a trop souvent dit Dis-moi, dis-moi, miroir ce que tu ferais de celui qui Preuve en est le mal sans racine Je prend pour témoin tous ces sourires qu'on assassine Je n'suis pas, pas à pas, comme le ferai Lassie Avance, progresse, comme le fait le posse A l'attaque du troisième acte, avec tact Comme le cheval de Troie J'entre dans le crâne des MC's, voir où cela ne va pas L'hypothalamus et le néo-cortex, semble-t-il fonctionnent bien Mais les neuromédiateurs se prennent pour des américains Le rap est social donc s'adapte à une société donnée Je le fais de manière artistique, au lieu de me plaindre Ouin! comme un bébé Le néo grillot rit aux éclats, il est de Paname La différence est faite, il préfère Tom à l'Oncle Sam Paris ne rit pas de moi, car je paris sur Paris Ris-pa, ne rit pas parce qu'on ne rit pas sur Ris-pas nous Le son de Ri-pas s'exporte à bord de ripas son pari Fatal et léthal, je m'étale et m'installe dans les annales musicales l'occidental Comme dans le monde médical, précision chirurgicale Cuic ! et le coup de bistouri qui te coupe la tête comme une lame de Gillette En fait est obsolète</t>
+          <t>La terre tourne, tout autour je cours Tranquille celui qui tombe à pic pour elle se pique d'amour Je me lève un matin, dieu que je me sens bien Dehors une journée ensoleillée me tend ses mains La berge s'anime, la rosée l'illumine Les brumes du matin fument s'évaporent emportant mon spleen J'enfile mes bottes de sept lieues MNLK décolle Tel un papillon sans pavillon je prends mon envol Vole, vole, vole, vole Je montre le chemin, je guide telle une luciole La terre s'éloigne, les oiseaux à moi se joignent Je tire ma révérence, délaisse la foire d'emopoigne Refrain La terre tourne, tout autour je cours La terre tourne tout autour je cours C'est inouï comme les pensées d'une vie en dirigent le cours Je suis seul, libre, du système je m'affranchis J'oublie la gâchette qui sans cesse fauche la vie, quel gâchis Pourquoi s'asseoir, tant de choses à voir Je ne peux me résoudre à écourter l'histoire Le soleil donne je me pose, repose mes ailes d'Icare Le sol est sec, dur, craquelé de toutes parts Le bonheur respire aussi fort ici qu'à Nampa L'eau manque ici et là mais la vie prend le pas La beauté de la rose des sables dégage un parfum délicieux Le jour baisse, me blesse à nouveau je reprends les cieux Refrain La terre tourne tout autour je cours Je fuis le vacarme qu'affectionnent les sourds Le vert que le brun chasse, l'automne à l'été fait place Le ciel se voile recouvre la terre d'un manteau de glace Je me sens bien Avec le combo premier, le Damier toujours au point Hum, malgré moi encore une fois on m'aspire La résurrection est un passage à ne pas franchir Je balaie l'obscur tentant de trouver le jour Loin des thèmes stériles sur lesquels l'humain discourt L'horizon m'appelle, je m'enfonce dans le bleu La terre tourne, je cours comme un enfant heureux Refrain</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Le Manège</t>
+          <t>Ma Belle</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>La terre tourne, tout autour je cours Tranquille celui qui tombe à pic pour elle se pique d'amour Je me lève un matin, dieu que je me sens bien Dehors une journée ensoleillée me tend ses mains La berge s'anime, la rosée l'illumine Les brumes du matin fument s'évaporent emportant mon spleen J'enfile mes bottes de sept lieues MNLK décolle Tel un papillon sans pavillon je prends mon envol Vole, vole, vole, vole Je montre le chemin, je guide telle une luciole La terre s'éloigne, les oiseaux à moi se joignent Je tire ma révérence, délaisse la foire d'emopoigne Refrain La terre tourne, tout autour je cours La terre tourne tout autour je cours C'est inouï comme les pensées d'une vie en dirigent le cours Je suis seul, libre, du système je m'affranchis J'oublie la gâchette qui sans cesse fauche la vie, quel gâchis Pourquoi s'asseoir, tant de choses à voir Je ne peux me résoudre à écourter l'histoire Le soleil donne je me pose, repose mes ailes d'Icare Le sol est sec, dur, craquelé de toutes parts Le bonheur respire aussi fort ici qu'à Nampa L'eau manque ici et là mais la vie prend le pas La beauté de la rose des sables dégage un parfum délicieux Le jour baisse, me blesse à nouveau je reprends les cieux Refrain La terre tourne tout autour je cours Je fuis le vacarme qu'affectionnent les sourds Le vert que le brun chasse, l'automne à l'été fait place Le ciel se voile recouvre la terre d'un manteau de glace Je me sens bien Avec le combo premier, le Damier toujours au point Hum, malgré moi encore une fois on m'aspire La résurrection est un passage à ne pas franchir Je balaie l'obscur tentant de trouver le jour Loin des thèmes stériles sur lesquels l'humain discourt L'horizon m'appelle, je m'enfonce dans le bleu La terre tourne, je cours comme un enfant heureux Refrain</t>
+          <t>Le temps passe repasse toujours aucune trace J'm'déplace sur le trottoir du café d'en face 1 heure que j'attends sur la terrasse tranquillement Mon esprit s'élève s'échappe du présent Nous voyant tous les 2 peu à peu comme un jeu L'un de l'autre tombant amoureux Je savais c'était vrai que jamais non jamais Dans ma vie sans fortune cela n'arriverait Un doux visage caressé par la brise L'eau reflète encore ton image indécise Toujours sincère mais tu t'es jouée de moi En moi s'insère le poison qui t'éloigne de moi Tu m'as prise à ton jeu, je regrette la méprise Je me croyais le prince charmant dont tu étais éprise L'amour est cruel tu me l'as fait connaître À défaut d'être à toi je préfère disparaître Refrain Ce sont des mots qui vont très bien ensemble Christelle ma belle Tu prétends que tu m'aimes dans le même temps tu mens De chimères en chimères tu t'inventes un nouveau présent Je t'aimais pourtant d'un amour ardent Dont rien je le sens ne saurait défaire La vie est mauvaise me charrie dans son flot Et tout ce chavirant ne varie pas d'un mot Mais je ne suis pas de ceux qui sur une aventure pleurnichent Qui trichent et de la première meuf s'entichent Tu m'as eu je l'avoue et ceci est un fait Mais je préfère te quitter plus qu'une amère défaite Me refaire mais pourquoi faire plutôt l'enfer Nous étions l'un pour l'autre j'y croyais dur comme fer 1 sourire volontaire m'a maintenu dans l'espoir De te voir sur le pas de ma porte un soir Cruelle Christelle, Christelle si belle Refrain Une simple équation pour moi 1 encore 1 2 aurait suffit à me rendre heureux Tu dis que tu m'aimes puis le doute tu sèmes La rengaine tourne toujours autour du même thème La suave saveur de ton corps parfumé Me fait oublier notre amour qui part en fumée J'ai si souvent eu faim, faim de ce parfum Car à la fin je reviens sans fin à ce refrain Mais l'amour s'use quand le partner abuse de ruse Et tout le temps refuse de me servir de muse Ménélik pa pa pa pa pa pa Je sais mais cette fois c'est moi qui vole en éclats Refrain</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ma Belle</t>
+          <t>Maldonne</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Le temps passe repasse toujours aucune trace J'm'déplace sur le trottoir du café d'en face 1 heure que j'attends sur la terrasse tranquillement Mon esprit s'élève s'échappe du présent Nous voyant tous les 2 peu à peu comme un jeu L'un de l'autre tombant amoureux Je savais c'était vrai que jamais non jamais Dans ma vie sans fortune cela n'arriverait Un doux visage caressé par la brise L'eau reflète encore ton image indécise Toujours sincère mais tu t'es jouée de moi En moi s'insère le poison qui t'éloigne de moi Tu m'as prise à ton jeu, je regrette la méprise Je me croyais le prince charmant dont tu étais éprise L'amour est cruel tu me l'as fait connaître À défaut d'être à toi je préfère disparaître Refrain Ce sont des mots qui vont très bien ensemble Christelle ma belle Tu prétends que tu m'aimes dans le même temps tu mens De chimères en chimères tu t'inventes un nouveau présent Je t'aimais pourtant d'un amour ardent Dont rien je le sens ne saurait défaire La vie est mauvaise me charrie dans son flot Et tout ce chavirant ne varie pas d'un mot Mais je ne suis pas de ceux qui sur une aventure pleurnichent Qui trichent et de la première meuf s'entichent Tu m'as eu je l'avoue et ceci est un fait Mais je préfère te quitter plus qu'une amère défaite Me refaire mais pourquoi faire plutôt l'enfer Nous étions l'un pour l'autre j'y croyais dur comme fer 1 sourire volontaire m'a maintenu dans l'espoir De te voir sur le pas de ma porte un soir Cruelle Christelle, Christelle si belle Refrain Une simple équation pour moi 1 encore 1 2 aurait suffit à me rendre heureux Tu dis que tu m'aimes puis le doute tu sèmes La rengaine tourne toujours autour du même thème La suave saveur de ton corps parfumé Me fait oublier notre amour qui part en fumée J'ai si souvent eu faim, faim de ce parfum Car à la fin je reviens sans fin à ce refrain Mais l'amour s'use quand le partner abuse de ruse Et tout le temps refuse de me servir de muse Ménélik pa pa pa pa pa pa Je sais mais cette fois c'est moi qui vole en éclats Refrain</t>
+          <t>REFRAIN Ainsi va la vie... Maldonne Ainsi va la vie, l'humanité est à ce prix COUPLET 1 Je retombe dans la quotidienne grisaille Je pose un pied dans le bal des racailles Un coup d'oeil au hublot de ma tour, je pense La hauteur vertigineuse désoriente mes sens Hum, que faire ? Dois-je traîner comme un hère Ou attendre sereinement le pigeon pendant que je galère J'ai besoin de thunes et je veux tout tout de suite C'est autour de cette valeur que ma vie s'est construite Ouais, je sais qu'quand tu travailles tu palpes pas mal Mais mes copains suivent le chemin du gangster original Voler ou travailler je sais bien où est la nuance Car la taule te guette quand tu entres dans la danse Je continue ma route, cerné par le doute Contre la vie, l'avis de mes amis me fait perdre la joute Le bien, le mal, l'ambivalence fait mal Je prends mon mal en patience, descends la spirale REFRAIN COUPLET 2 Ouf mi-temps je sens qu'il était temps D'autant plus que ma conscience me travaille méchamment D'un côté c'est bien mais côté n'est pas mon plan Car la société te paw quand le gangster fait semblant Dois-je aller au bout? d'impatience je bous Je me sens comme une cegar qui sans cesse tente le loup Le yakusa dort en moi, se manifeste quelquefois Il sera bientôt là c'est ce que me dit mon petit doigt REFRAIN COUPLET 2 Le climat est malsain je me fous de ce qui est bien Je dégomme tout ce qui passe par mon chemin Cool man, OK ma colère je contiens Comme dit le schkoonk heepooz ne me traite pas moins qu'un chien J'ai sauté le pas mais le cash ne vient toujours pas À moi il ne viendra pas si je ne le cherche pas Un esprit criminel à la manière de K.R.S J'ai caressé tant de leurres, il faut que cela cesse Je porte un costume mais la vie n'est pas un bal Je joue au gangster mais le gangster me va mal Biaisée, ma pensée était biaisée il y a maldonne Par les dés pipés je me suis fais...</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Maldonne</t>
+          <t>Ma té-ci va ké-cra</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>REFRAIN Ainsi va la vie... Maldonne Ainsi va la vie, l'humanité est à ce prix COUPLET 1 Je retombe dans la quotidienne grisaille Je pose un pied dans le bal des racailles Un coup d'oeil au hublot de ma tour, je pense La hauteur vertigineuse désoriente mes sens Hum, que faire ? Dois-je traîner comme un hère Ou attendre sereinement le pigeon pendant que je galère J'ai besoin de thunes et je veux tout tout de suite C'est autour de cette valeur que ma vie s'est construite Ouais, je sais qu'quand tu travailles tu palpes pas mal Mais mes copains suivent le chemin du gangster original Voler ou travailler je sais bien où est la nuance Car la taule te guette quand tu entres dans la danse Je continue ma route, cerné par le doute Contre la vie, l'avis de mes amis me fait perdre la joute Le bien, le mal, l'ambivalence fait mal Je prends mon mal en patience, descends la spirale REFRAIN COUPLET 2 Ouf mi-temps je sens qu'il était temps D'autant plus que ma conscience me travaille méchamment D'un côté c'est bien mais côté n'est pas mon plan Car la société te paw quand le gangster fait semblant Dois-je aller au bout? d'impatience je bous Je me sens comme une cegar qui sans cesse tente le loup Le yakusa dort en moi, se manifeste quelquefois Il sera bientôt là c'est ce que me dit mon petit doigt REFRAIN COUPLET 2 Le climat est malsain je me fous de ce qui est bien Je dégomme tout ce qui passe par mon chemin Cool man, OK ma colère je contiens Comme dit le schkoonk heepooz ne me traite pas moins qu'un chien J'ai sauté le pas mais le cash ne vient toujours pas À moi il ne viendra pas si je ne le cherche pas Un esprit criminel à la manière de K.R.S J'ai caressé tant de leurres, il faut que cela cesse Je porte un costume mais la vie n'est pas un bal Je joue au gangster mais le gangster me va mal Biaisée, ma pensée était biaisée il y a maldonne Par les dés pipés je me suis fais...</t>
+          <t>Case par case, le Cercle Rouge s'agrandit Ma té-ci va ké-kra, gars Tu le sais. Quoi ? Ne dis pas que tu le sais pas Ça saute aux yeux gars, ma té-ci va ké-cra Tu le vois. Quoi ? Ne dis pas que tu le vois pas Ça saute aux yeux gars, ma té-ci va ké-cra Tu le sais refré, vingt ans que ça dure la poisse aux aguets Ne le nie pas, c'est un fait, rien ne cicatrises ses plaies Les tours m'environnent, les cloches de l'église sonnent Ce n'est pas le glas, gars, mais c'est tout comme J'observe la fourmilière, ses carreaux cassés, bâchés Toute une vie à passée à tchatcher, dans le ciment gâchée Dans les plans foireux, tant et tant de fois marché Qu'arrivé au bout du chemin, trop tard, faut se lâcher J'ai beau crier mon destin, à la rocaille lié, trop injuste Je ne peux l'accepter sans sourciller, sans interlocuteur Seul, face à face, képis, commissaires, excédé J'ai pris les tours comme boucs émissaires Tu le sais. Quoi ? Ne dis pas que tu le sais pas Ça saute aux yeux gars, ma té-ci va ké-cra Tu le vois. Quoi ? Ne dis pas que tu le vois pas Ça saute aux yeux gars, ma té-ci va ké-cra Contre-pied, t'en fait pas, je vais m'en sortir, ça c'est sûr Le sachet que je vends m'assure des rentes pour le futur Ne te bile pas, gars, la pagaille c'est mon fonds de commerce Laisse faire, c'est dans la merde que j'assure mon business 7 sur 7, je livre 2424, t'inquiète, des couilles en roro Hélas, la pénurie me guette, bullshit Coupez pas les vannes, la vie est telle que Que l'épicier fermera à coup sûr sans notre clientèle 10keus, 10keus, 10keus, plus 10keus, le manège était cramé Pécho, du shit dans le keus Je suis tombé, je suis sorti, je m'en suis pas sorti Je galère excédé, j'ai pris les tours comme boucs émissaires Tu le sais. Quoi ? Ne dis pas que tu le sais pas Ça saute aux yeux gars, ma té-ci va ké-cra Tu le vois. Quoi ? Ne dis pas que tu le vois pas Ça saute aux yeux gars, ma té-ci va ké-cra Un été dans la cité style Ministère AMER Toutes les mains en l'air, faire la foire, chauffe l'atmosphère Chauffe, gars, fais-toi plaisir La voisine supporte pas les éclats de rire, elle doit dormir Pas de bol, les filles sont folles, les gars décollent Conditions idéales, pas de bol, les condés sonnent La fête est finie, la cité sort de la soirée aigrie En bas des tours s'amassent ceux qui n'ont eu droit qu'au mépris Police, papiers, comme si ça suffisait pas, fouille Un civil qui parle mal, merde, voilà que ça part en couilles Les képis dispersent la foule, mais la foule ne se laisse pas faire Excédée, elle a pris les tours comme boucs émissaires Tu le sais. Quoi ? Ne dis pas que tu le sais pas Ça saute aux yeux gars, ma té-ci va ké-cra Tu le vois. Quoi ? Ne dis pas que tu le vois pas Ça saute aux yeux gars, ma té-ci va ké-cra</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ma té-ci va ké-cra</t>
+          <t>Ma Té-ci va Ké-kra</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Case par case, le Cercle Rouge s'agrandit Ma té-ci va ké-kra, gars Tu le sais. Quoi ? Ne dis pas que tu le sais pas Ça saute aux yeux gars, ma té-ci va ké-cra Tu le vois. Quoi ? Ne dis pas que tu le vois pas Ça saute aux yeux gars, ma té-ci va ké-cra Tu le sais refré, vingt ans que ça dure la poisse aux aguets Ne le nie pas, c'est un fait, rien ne cicatrises ses plaies Les tours m'environnent, les cloches de l'église sonnent Ce n'est pas le glas, gars, mais c'est tout comme J'observe la fourmilière, ses carreaux cassés, bâchés Toute une vie à passée à tchatcher, dans le ciment gâchée Dans les plans foireux, tant et tant de fois marché Qu'arrivé au bout du chemin, trop tard, faut se lâcher J'ai beau crier mon destin, à la rocaille lié, trop injuste Je ne peux l'accepter sans sourciller, sans interlocuteur Seul, face à face, képis, commissaires, excédé J'ai pris les tours comme boucs émissaires Tu le sais. Quoi ? Ne dis pas que tu le sais pas Ça saute aux yeux gars, ma té-ci va ké-cra Tu le vois. Quoi ? Ne dis pas que tu le vois pas Ça saute aux yeux gars, ma té-ci va ké-cra Contre-pied, t'en fait pas, je vais m'en sortir, ça c'est sûr Le sachet que je vends m'assure des rentes pour le futur Ne te bile pas, gars, la pagaille c'est mon fonds de commerce Laisse faire, c'est dans la merde que j'assure mon business 7 sur 7, je livre 2424, t'inquiète, des couilles en roro Hélas, la pénurie me guette, bullshit Coupez pas les vannes, la vie est telle que Que l'épicier fermera à coup sûr sans notre clientèle 10keus, 10keus, 10keus, plus 10keus, le manège était cramé Pécho, du shit dans le keus Je suis tombé, je suis sorti, je m'en suis pas sorti Je galère excédé, j'ai pris les tours comme boucs émissaires Tu le sais. Quoi ? Ne dis pas que tu le sais pas Ça saute aux yeux gars, ma té-ci va ké-cra Tu le vois. Quoi ? Ne dis pas que tu le vois pas Ça saute aux yeux gars, ma té-ci va ké-cra Un été dans la cité style Ministère AMER Toutes les mains en l'air, faire la foire, chauffe l'atmosphère Chauffe, gars, fais-toi plaisir La voisine supporte pas les éclats de rire, elle doit dormir Pas de bol, les filles sont folles, les gars décollent Conditions idéales, pas de bol, les condés sonnent La fête est finie, la cité sort de la soirée aigrie En bas des tours s'amassent ceux qui n'ont eu droit qu'au mépris Police, papiers, comme si ça suffisait pas, fouille Un civil qui parle mal, merde, voilà que ça part en couilles Les képis dispersent la foule, mais la foule ne se laisse pas faire Excédée, elle a pris les tours comme boucs émissaires Tu le sais. Quoi ? Ne dis pas que tu le sais pas Ça saute aux yeux gars, ma té-ci va ké-cra Tu le vois. Quoi ? Ne dis pas que tu le vois pas Ça saute aux yeux gars, ma té-ci va ké-cra</t>
+          <t>Case par case, le Cercle Rouge s'agrandit Ma té-ci va ké-kra, gars Tu le sais. Quoi? Ne dis pas que tu le sais pas Ca saute aux yeux gars, ma té-ci va ké-cra Tu le vois. Quoi? Ne dis pas que tu le vois pas Ca saute aux yeux gars, ma té-ci va ké-cra Tu le sais refré, vingt ans que ça dure la poisse aux Aguets Ne le nie pas, c'est un fait, rien ne cicatrises ses plaies Les tours m'environnent, les cloches de l'église sonnent Ce n'est pas le glas, gars, mais c'est tout comme J'observe la fourmilière, ses carreaux cassés, bâchés Toute une vie à passée à tchatcher, dans le ciment Gâchée Dans les plans foireux, tant et tant de fois marché Qu'arrivé au bout du chemin, trop tard, faut se lâcher J'ai beau crier mon destin, à la rocaille lié, trop Injuste Je ne peux l'accepter sans sourciller, sans interlocuteur Seul, face à face, képis, commissaires, excédé J'ai pris les tours comme boucs émissaires Contre-pied, t'en fait pas, je vais m'en sortir, ça c'est Sûr Le sachet que je vends m'assure des rentes pour le futur Ne te bite pas, gars, la pagaille c'est mon fonds de Commerce Laisse faire, c'est dans la merde que j'assure mon business 7 sur 7, je livre 2424, t'inquiète, des couilles en roro Hélas, la pénurie me guette, bullshit Coupez pas les vannes, la vie est telle que Que l'épicier fermera à coup sûr sans notre clientèle 10keus, 10keus, 10keus, plus 10keus, le manège était Cramé Pécho, du shit dans le keus Je suis tombé, je suis sorti, je m'en suis pas sorti Je galère excédé, j'ai pris les tours comme boucs Émissaires Un été dans la cité style Ministère AMER Toutes les mains en l'air, faire la foire, chauffe L'atmosphère Chauffe, gars, fais-toi plaisir La voisine supporte pas les éclats de rire, elle doit Dormir Pas de bol, les filles sont folles, les gars décollent Conditions idéales, pas de bol, les condés sonnent La fête est finie, la cité sort de la soirée aigrie En bas des tours s'amassent ceux qui n'ont eu droit qu'au Mépris Police, papiers, comme si ça suffisait pas, fouille Un civil qui parle mal, merde, voilà que ça part en Couilles Les képis dispersent la foule, mais la foule ne se laisse Pas faire Excédée, elle a pris les tours comme boucs émissaires</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ma Té-ci va Ké-kra</t>
+          <t>Mister Mellow</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Case par case, le Cercle Rouge s'agrandit Ma té-ci va ké-kra, gars Tu le sais. Quoi? Ne dis pas que tu le sais pas Ca saute aux yeux gars, ma té-ci va ké-cra Tu le vois. Quoi? Ne dis pas que tu le vois pas Ca saute aux yeux gars, ma té-ci va ké-cra Tu le sais refré, vingt ans que ça dure la poisse aux Aguets Ne le nie pas, c'est un fait, rien ne cicatrises ses plaies Les tours m'environnent, les cloches de l'église sonnent Ce n'est pas le glas, gars, mais c'est tout comme J'observe la fourmilière, ses carreaux cassés, bâchés Toute une vie à passée à tchatcher, dans le ciment Gâchée Dans les plans foireux, tant et tant de fois marché Qu'arrivé au bout du chemin, trop tard, faut se lâcher J'ai beau crier mon destin, à la rocaille lié, trop Injuste Je ne peux l'accepter sans sourciller, sans interlocuteur Seul, face à face, képis, commissaires, excédé J'ai pris les tours comme boucs émissaires Contre-pied, t'en fait pas, je vais m'en sortir, ça c'est Sûr Le sachet que je vends m'assure des rentes pour le futur Ne te bite pas, gars, la pagaille c'est mon fonds de Commerce Laisse faire, c'est dans la merde que j'assure mon business 7 sur 7, je livre 2424, t'inquiète, des couilles en roro Hélas, la pénurie me guette, bullshit Coupez pas les vannes, la vie est telle que Que l'épicier fermera à coup sûr sans notre clientèle 10keus, 10keus, 10keus, plus 10keus, le manège était Cramé Pécho, du shit dans le keus Je suis tombé, je suis sorti, je m'en suis pas sorti Je galère excédé, j'ai pris les tours comme boucs Émissaires Un été dans la cité style Ministère AMER Toutes les mains en l'air, faire la foire, chauffe L'atmosphère Chauffe, gars, fais-toi plaisir La voisine supporte pas les éclats de rire, elle doit Dormir Pas de bol, les filles sont folles, les gars décollent Conditions idéales, pas de bol, les condés sonnent La fête est finie, la cité sort de la soirée aigrie En bas des tours s'amassent ceux qui n'ont eu droit qu'au Mépris Police, papiers, comme si ça suffisait pas, fouille Un civil qui parle mal, merde, voilà que ça part en Couilles Les képis dispersent la foule, mais la foule ne se laisse Pas faire Excédée, elle a pris les tours comme boucs émissaires</t>
+          <t>Coolest dude doin it, check the record its too legit Coasters under his feet as he walk case the vapor drip Breathe madness can't affect em wit sadness Sprouted from a seed to a plant quicker than radish In a lane wit no lames, the game changed Stairs reaching heights above another level plain Rest garbage for lack of some better words Due to days off missin out on essential verbs Work strive conquer then he became a monster Bangin out the tracks he recorded in a honda Vivic, now they saying he gifted Yet some only respect it if a artist was born wit it Makin believers outa people who been knew em Tougher than separation of joined twins but still doin Deliver daily, for the F but mainly Cause rap got in his system now it got him so crazy Calm collected i bet you know the third Wonder where i got my vision i took time to observe Now kick back i slang tracks like pure crack All day and night so they fein supply and gimmie racks For rockin this here better than your favorite If ya ears ain't filled wit wax then I'm on your playlist Might hop straight out the whip just to holla at ya girl Wordplay 'll get her tangled now she stuck in the world Of elegant music royal life she love it Only works if its natural don't take time to dub it Put my hours in and this what i get Go overboard wit over time to spit ruthless heh Party hardly workin until I'm godly The suite is at the top but traffic down in the lobby So differentiate myself from those West coast oakland, CA kept me on my toes</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mister Mellow</t>
+          <t>Newskoolintro</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Coolest dude doin it, check the record its too legit Coasters under his feet as he walk case the vapor drip Breathe madness can't affect em wit sadness Sprouted from a seed to a plant quicker than radish In a lane wit no lames, the game changed Stairs reaching heights above another level plain Rest garbage for lack of some better words Due to days off missin out on essential verbs Work strive conquer then he became a monster Bangin out the tracks he recorded in a honda Vivic, now they saying he gifted Yet some only respect it if a artist was born wit it Makin believers outa people who been knew em Tougher than separation of joined twins but still doin Deliver daily, for the F but mainly Cause rap got in his system now it got him so crazy Calm collected i bet you know the third Wonder where i got my vision i took time to observe Now kick back i slang tracks like pure crack All day and night so they fein supply and gimmie racks For rockin this here better than your favorite If ya ears ain't filled wit wax then I'm on your playlist Might hop straight out the whip just to holla at ya girl Wordplay 'll get her tangled now she stuck in the world Of elegant music royal life she love it Only works if its natural don't take time to dub it Put my hours in and this what i get Go overboard wit over time to spit ruthless heh Party hardly workin until I'm godly The suite is at the top but traffic down in the lobby So differentiate myself from those West coast oakland, CA kept me on my toes</t>
+          <t>1 pour la basse, 2 pour les aiguës Passe-moi le mic j'ai du souffle comme Charles Mingus Je peux kicker des rimes pendant des journées entières Réciter mes vers, raconter mon univers J'ai 6 styles pas de failles car je boxe puis me taille Je pars à la bataille donc Nathalie Baye Nous sommes les Sages Poètes, Sinclair est dans la place Touche pas Ménélik ou j'te Patricia Kaas J'ai 16 sortes de délire, 164 plaisirs 1 spliff et je mets tout le monde à l'Amanda Lear Je m'appelle Dany Dan, grand frère fort de Boulogne Je vous présente Zoxea, jespère qu'il n'est pas en rogne Parfois je pars faire un parcours que je connais pas cur Pour oublier les rancurs de mon cur Je cours vers la sur, celle qui me tranquillise En un quart d'heure m'immobilise Le psychopathe ? Vise la cible mouvante, touche puis crible son ventre D'une saveur exotique Freddy Krue, Zoxea épouvante Taille la route, hante et shoote ceux qui lui prennent la tête Tout en étant smooth car telle est l'attitude d'un Sages Poètes Dany Dan m'a dit Sois plus cool et moins bandit Fais le fou avec les filles Mais fout pas ta merde quand tu brandis ce micro Dis la vérité tranquillement Car ton frère se prend une raclée méritée quand il ment Zilizoxea pour Sinclair, donne un style tranquille... Cherchant l'équilibre, je veux être libre Et du libre arbitre je veux que mon être s'enivre Le groove est là, il s'ouvre à moi La rime se réfugie dans ses bras M.E.N.E.L.I.K. tranquille loin de s'en faire Résume ainsi sa pensée, c'est succin mais claire La philosophie de tout le posse est d'éviter à tout prix les ennuis Sur une mer, le tempo baigné par le Soleil Poussé par le groove on s'interpelle Dis-moi Sinclair, pourquoi le monde est mauvais ? Pourquoi la violence a des traits si parfaits ? Pèse les mots, pour éviter toute controverse à l'égard de Pheelo Calme, sage et posé, je représente le jazz Comme l'illustre trompettiste Davis Miles Le beat est funky, Boom Bass a compris Comment éveiller les sentiments de l'endormi hum.. Vois-tu mon reflet dans l'eau paisible ? Placide sont les frères sur la version tranquille Laissez-moi tranquille, quand je suis en paix..1</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Newskoolintro</t>
+          <t>Ode</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1 pour la basse, 2 pour les aiguës Passe-moi le mic j'ai du souffle comme Charles Mingus Je peux kicker des rimes pendant des journées entières Réciter mes vers, raconter mon univers J'ai 6 styles pas de failles car je boxe puis me taille Je pars à la bataille donc Nathalie Baye Nous sommes les Sages Poètes, Sinclair est dans la place Touche pas Ménélik ou j'te Patricia Kaas J'ai 16 sortes de délire, 164 plaisirs 1 spliff et je mets tout le monde à l'Amanda Lear Je m'appelle Dany Dan, grand frère fort de Boulogne Je vous présente Zoxea, jespère qu'il n'est pas en rogne Parfois je pars faire un parcours que je connais pas cur Pour oublier les rancurs de mon cur Je cours vers la sur, celle qui me tranquillise En un quart d'heure m'immobilise Le psychopathe ? Vise la cible mouvante, touche puis crible son ventre D'une saveur exotique Freddy Krue, Zoxea épouvante Taille la route, hante et shoote ceux qui lui prennent la tête Tout en étant smooth car telle est l'attitude d'un Sages Poètes Dany Dan m'a dit Sois plus cool et moins bandit Fais le fou avec les filles Mais fout pas ta merde quand tu brandis ce micro Dis la vérité tranquillement Car ton frère se prend une raclée méritée quand il ment Zilizoxea pour Sinclair, donne un style tranquille... Cherchant l'équilibre, je veux être libre Et du libre arbitre je veux que mon être s'enivre Le groove est là, il s'ouvre à moi La rime se réfugie dans ses bras M.E.N.E.L.I.K. tranquille loin de s'en faire Résume ainsi sa pensée, c'est succin mais claire La philosophie de tout le posse est d'éviter à tout prix les ennuis Sur une mer, le tempo baigné par le Soleil Poussé par le groove on s'interpelle Dis-moi Sinclair, pourquoi le monde est mauvais ? Pourquoi la violence a des traits si parfaits ? Pèse les mots, pour éviter toute controverse à l'égard de Pheelo Calme, sage et posé, je représente le jazz Comme l'illustre trompettiste Davis Miles Le beat est funky, Boom Bass a compris Comment éveiller les sentiments de l'endormi hum.. Vois-tu mon reflet dans l'eau paisible ? Placide sont les frères sur la version tranquille Laissez-moi tranquille, quand je suis en paix..1</t>
+          <t>COUPLET 1 Il faudra bien qu'un jour je pense à mourir seul Enfin me laisser recouvrir par la blancheur d'un linceul C'est ma sur je rêve de l'étreindre 12 ans de passion que j'n'ai pu éteindre Non pas que je le veuille c'est ma vie plus qu'un deuil À elle j'étais uni dès que nous avons franchi le seuil Entraîné à traîner la savate de Cergy à Bonneuil Même si mes parents ne l voyaient pas d'un bon il En tailleur, en jan ou bien en pagne Qu'importe à mes idées il faut que la gagne Nous parlons souvent, j'aimerais la voir devant On l'attaque sans tact comme un beau diable Je la défends J'étais nouveau, à moi elle a du s'accoutumer Mais du fait, j'étais coutumier Elle s'évanouit dans la nuit pour jouer de l'aérosol Et sur la table au matin je retrouve ces paroles COUPLET 3 Je l'ai suivie et surprise très souvent se prostituant Par la lucarne elle se donnait au plus offrant Dois je subir le délire Ne rien dire ou au pire souffrir Sans arrêt on la citait par ci on la citait par là Faisant peur car elle mettait les pieds dans le plat L'ambiguïté s'affiche comme un serpent vil Un battement de cils et à nouveau servile J'ai épié ses courbes piquées mélanine Je ne taris pas comme un talri je la baratine Polyglotte parlant anglais français wollof ou allemand Calmement ses mots se saccadent comme un calmant Dès que je l'ai entendue j'ai su que c'était ma reine Elle incarne le damier, évanouit mes peines J'ai bien souvent vu des gens parler en son nom Mais ce n'est que de sa vie dont je ressens le son COUPLET 3 Les bonnes gens bien pensants, par elle son fâchés Quand elle me hèle me souffle les mots, à elle je me sens attachée Loin d'elle je peine la variet' me freine J'aimerais tant profiter de la magie qu'elle draine Comme un enfant pleure sa mère Elle n'est pas là, je déprime Pour moi c'est à cela que la vie rime Merveilleuse, je voudrais qu'on l'admire En veilleuse mes frères jaloux refusent de la sortir Plus le temps me prends, plus d'elle je m'éprends Ce que je lui donne plus de mille fois elle me le rends Je l'étudie elle m'a attribué mon nom MENELIK Pour toujours je lui vouerais un amour platonique J'étais en friche quand brutalement elle me dompta Les liens qui nous unissent sont de ceux qu'on ne romps pas Comme un alien en moi elle est celle qui me développe C'est la plus belle, c'est ma musique, le HIP HOP</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ode</t>
+          <t>One Time</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>COUPLET 1 Il faudra bien qu'un jour je pense à mourir seul Enfin me laisser recouvrir par la blancheur d'un linceul C'est ma sur je rêve de l'étreindre 12 ans de passion que j'n'ai pu éteindre Non pas que je le veuille c'est ma vie plus qu'un deuil À elle j'étais uni dès que nous avons franchi le seuil Entraîné à traîner la savate de Cergy à Bonneuil Même si mes parents ne l voyaient pas d'un bon il En tailleur, en jan ou bien en pagne Qu'importe à mes idées il faut que la gagne Nous parlons souvent, j'aimerais la voir devant On l'attaque sans tact comme un beau diable Je la défends J'étais nouveau, à moi elle a du s'accoutumer Mais du fait, j'étais coutumier Elle s'évanouit dans la nuit pour jouer de l'aérosol Et sur la table au matin je retrouve ces paroles COUPLET 3 Je l'ai suivie et surprise très souvent se prostituant Par la lucarne elle se donnait au plus offrant Dois je subir le délire Ne rien dire ou au pire souffrir Sans arrêt on la citait par ci on la citait par là Faisant peur car elle mettait les pieds dans le plat L'ambiguïté s'affiche comme un serpent vil Un battement de cils et à nouveau servile J'ai épié ses courbes piquées mélanine Je ne taris pas comme un talri je la baratine Polyglotte parlant anglais français wollof ou allemand Calmement ses mots se saccadent comme un calmant Dès que je l'ai entendue j'ai su que c'était ma reine Elle incarne le damier, évanouit mes peines J'ai bien souvent vu des gens parler en son nom Mais ce n'est que de sa vie dont je ressens le son COUPLET 3 Les bonnes gens bien pensants, par elle son fâchés Quand elle me hèle me souffle les mots, à elle je me sens attachée Loin d'elle je peine la variet' me freine J'aimerais tant profiter de la magie qu'elle draine Comme un enfant pleure sa mère Elle n'est pas là, je déprime Pour moi c'est à cela que la vie rime Merveilleuse, je voudrais qu'on l'admire En veilleuse mes frères jaloux refusent de la sortir Plus le temps me prends, plus d'elle je m'éprends Ce que je lui donne plus de mille fois elle me le rends Je l'étudie elle m'a attribué mon nom MENELIK Pour toujours je lui vouerais un amour platonique J'étais en friche quand brutalement elle me dompta Les liens qui nous unissent sont de ceux qu'on ne romps pas Comme un alien en moi elle est celle qui me développe C'est la plus belle, c'est ma musique, le HIP HOP</t>
+          <t>Yea yea yea yea One time one, uhh uhh ,one time I pick the mic up beginning my verbal assault no cypher Attention from the critics taking place of pied pipers So light up like its 420 tho despite of Leaves going down in the autumn unlike us We fly high no medical so no coming down Natural elevation higher learning a better sound Who rock the crown, we just some nor cal natives And I'm right on time but I'm noted the latest So save it ain't no listening to a bitter man Eyes on the prize playa I got the bigger plan Every day I do this regardless I ain't sayin he garbage But if distance were to be measured than I'm sure he the farthest Like that and it keep on coming Need muzzle for my self the mouth keep on running Found the key to my future den I sharpened it up They saw me glisten in dark now its backin them up Slickened the delivery the talk of the zone Now the girls from high school steady blowin up my phone Can't act like I don't love it though but still I'm unsatisfied Hollering I got talent and I say they ain't neva lied So play the beat I keep it goin year round And its all off my dome like removin a crown Profoundly thinkin outside of the box and even under it Mine for the taking I really can't get enough of it One in a million million all for one spot Who gone stand out we all want to be a hot shot Check my degrees I'm rising on regular Consume what I'm breathing its a like a mind freshener Gettin ahead in the time they wasted sleepin Stayed real now they can't resist from peepin Where they found me intersection or crossroad A stoop wit a book know the streets wit eyes closed Yea yea yea yea One time one, uhh uhh ,one time I'm back at it like a crack addict that relapsed Niggas wasn't knocking my flow even wit rehab But pre-habs the best that ever did it My flows are so cold it'll freeze you off in summertime But never mind just popping off at the mouth They told me sky's was the limit so I'm aiming for the stars They hearing my cold raps feeling the way I'm flowing Like the energizer bunny I just keep on going Cause yeah I'm about to go in Royal fam for the taking, money for the baking Let it rise to the top then I throw it like Aikman</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>One Time</t>
+          <t>Onze 44</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Yea yea yea yea One time one, uhh uhh ,one time I pick the mic up beginning my verbal assault no cypher Attention from the critics taking place of pied pipers So light up like its 420 tho despite of Leaves going down in the autumn unlike us We fly high no medical so no coming down Natural elevation higher learning a better sound Who rock the crown, we just some nor cal natives And I'm right on time but I'm noted the latest So save it ain't no listening to a bitter man Eyes on the prize playa I got the bigger plan Every day I do this regardless I ain't sayin he garbage But if distance were to be measured than I'm sure he the farthest Like that and it keep on coming Need muzzle for my self the mouth keep on running Found the key to my future den I sharpened it up They saw me glisten in dark now its backin them up Slickened the delivery the talk of the zone Now the girls from high school steady blowin up my phone Can't act like I don't love it though but still I'm unsatisfied Hollering I got talent and I say they ain't neva lied So play the beat I keep it goin year round And its all off my dome like removin a crown Profoundly thinkin outside of the box and even under it Mine for the taking I really can't get enough of it One in a million million all for one spot Who gone stand out we all want to be a hot shot Check my degrees I'm rising on regular Consume what I'm breathing its a like a mind freshener Gettin ahead in the time they wasted sleepin Stayed real now they can't resist from peepin Where they found me intersection or crossroad A stoop wit a book know the streets wit eyes closed Yea yea yea yea One time one, uhh uhh ,one time I'm back at it like a crack addict that relapsed Niggas wasn't knocking my flow even wit rehab But pre-habs the best that ever did it My flows are so cold it'll freeze you off in summertime But never mind just popping off at the mouth They told me sky's was the limit so I'm aiming for the stars They hearing my cold raps feeling the way I'm flowing Like the energizer bunny I just keep on going Cause yeah I'm about to go in Royal fam for the taking, money for the baking Let it rise to the top then I throw it like Aikman</t>
+          <t>African Culture We have followed the history of mankind in Africa down the valley of the Nile, past Ethiopia to Egypt we have seen kingdoms arise along the great bend of the Niger and strive with the ancient culture at its mouth. We have seen the remnants of mankind at Land's End, the ancient culture at Punt and Zymbabwe, and followed the invading Bantu east, south, and west to their greatest center in the vast jungle of the Congo valleys. We must now gather these threads together and ask what manner of men these were and how far and in what way they progressed on the road of human culture. That Negro peoples were the beginners of civilization along the Ganges, the Euphrates, and the Nile seems proven. Early Babylon was founded by a Negroid race. Hammurabi's code, the most ancient known, says Anna and Bel called me, Hammurabi the exalted prince, the worshiper of the gods to cause justice to prevail in the land, to destroy the wicked, to prevent the strong from oppressing the weak, to go forth like the sun over the black-head race, to enlighten the land, and to further the welfare of the people. The Assyrians show a distinct Negroid strain and early Egypt was predominantly Negro. These earliest of cultures were crude and primitive, but they represented the highest attainment of mankind after tens of thousands of years in unawakened savagery. It has often been assumed that the Negro is physically inferior to other races and markedly distinguishable from them modern science gives no authority for such an assumption. The supposed inferiority cannot rest on color, for that is due to the combined influences of a great number of factors of environment working through physiological processes, and however marked the contrasts may be, there is no corresponding difference in anatomical structure discoverable. So, too, difference in texture of hair is a matter of degree, not kind, and is caused by heat, moisture, exposure, and the like. The bony skeleton presents no distinctly racial lines of variation. Prognathism presents too many individual varieties to be taken as a distinctive character of race. Difference in physical measurements does not show the Negro to be a more primitive evolutionary form. Comparative ethnology to-day affords no support to the view which sees in the so-called lower races of mankind a transition stage from beast to man. Much has been made of the supposed smaller brain of the Negro race but this is as yet an unproved assumption, based on the uncritical measurement of less than a thousand Negro brains as compared with eleven thousand or more European brains. Even if future measurement prove the average Negro brain lighter, the vast majority of Negro brain weights fall within the same limits as the whites and finally, neither size nor weight of the brain seems to be of importance as an index of mental capacity. We may, therefore, say with Ratzel, There is only one species of man. The variations are numerous, but do not go deep. To this we may add the word of the Secretary of the First Races Congress We are, then, under the necessity of concluding that an impartial investigator would be inclined to look upon the various important peoples of the world as to all intents and purposes essentially equal in intellect, enterprise, morality, and physique. If these conclusions are true, we should expect to see in Africa the human drama play itself out much as in other lands, and such has actually been the fact. At the same time we must expect peculiarities arising from the physiography of the landits climate, its rainfall, its deserts, and the peculiar inaccessibility of the coast. Three principal zones of habitation appear first, the steppes and deserts around the Sahara in the north and the Kalahari desert in the south secondly, the grassy highlands bordering the Great Lakes and connecting these two regions thirdly, the forests and rivers of Central and West Africa. In the deserts are the nomads, and the Pygmies are in the forest fastnesses. Herdsmen and their cattle cover the steppes and highlands, save where the tsetse fly prevents. In the open forests and grassy highlands are the agriculturists. Among the forest farmers the village is the center of life, while in the open steppes political life tends to spread into larger political units. Political integration is, however, hindered by an ease of internal communication almost as great as the difficulty of reaching outer worlds beyond the continent. The narrow Nile valley alone presented physical barriers formidable enough to keep back the invading barbarians of the south, and even then with difficulty. Elsewhere communication was all too easy. For a while the Congo forests fended away the restless, but this only temporarily. On the whole Africa from the Sahara to the Cape offered no great physical barrier to the invader, and we continually have whirlwinds of invading hosts rushing now southward, now northward, from the interior to the coast and from the coast inland, and hurling their force against states, kingdoms, and cities. Some resisted for generations, some for centuries, some but a few years. It is, then, this sudden change and the fear of it that marks African culture, particularly in its political aspects, and which makes it so difficult to trace this changing past. Nevertheless beneath all change rests the strong substructure of custom, religion, industry, and art well worth the attention of students. Starting with agriculture, we learn that among all the great groups of the 'natural' races, the Negroes are the best and keenest tillers of the ground. A minority despise agriculture and breed cattle many combine both occupations. Among the genuine tillers the whole life of the family is taken up in agriculture, and hence the months are by preference called after the operations which they demand. Constant clearings change forests to fields, and the ground is manured with the ashes of the burnt thicket. In the middle of the fields rise the light watch-towers, from which a watchman scares grain-eating birds and other thieves. An African cultivated landscape is incomplete without barns. The rapidity with which, when newly imported, the most various forms of cultivation spread in Africa says much for the attention which is devoted to this branch of economy. Industries, again, which may be called agricultural, like the preparation of meal from millet and other crops, also from cassava, the fabrication of fermented drinks from grain, or the manufacture of cotton, are widely known and sedulously fostered. Bücher reminds us of the deep impression made upon travelers when they sight suddenly the well-attended fields of the natives on emerging from the primeval forests. In the more thickly populated parts of Africa these fields often stretch for many a mile, and the assiduous care of the Negro women shines in all the brighter light when we consider the insecurity of life, the constant feuds and pillages, in which no one knows whether he will in the end be able to harvest what he has sown. Livingstone gives somewhere a graphic description of the devastations wrought by slave hunts the people were lying about slain, the dwellings were demolished in the fields, however, the grain was ripening and there was none to harvest it. Sheep, goat, and chickens are domestic animals all over Africa, and Von Franzius considers Africa the home of the house cattle and the Negro as the original tamer. Northeastern Africa especially is noted for agriculture, cattle raising, and fruit culture. In the eastern Sudan, and among the great Bantu tribes extending from the Sudan down toward the south, cattle are evidences of wealth one tribe, for instance, having so many oxen that each village had ten or twelve thousand head. Lenz 1884, Bouet-Williaumez 1848, Hecquard 1854, Bosman 1805, and Baker 1868 all bear witness to this, and Schweinfurth 1878 tells us of great cattle parks with two to three thousand head and of numerous agricultural and cattle-raising tribes. Von der Decken 1859-61 described the paradise of the dwellers about Kilimanjarothe bananas, fruit, beans and peas, cattle raising with stall feed, the fertilizing of the fields, and irrigation. The Negroid Gallas have seven or eight cattle to each inhabitant. Livingstone bears witness to the busy cattle raising of the Bantus and Kaffirs. Hulub 1881 and Chapman 1868 tell of agriculture and fruit raising in South Africa. Shutt 1884 found the tribes in the southwestern basin of the Congo with sheep, swine, goats, and cattle. On this agricultural and cattle-raising economic foundation has arisen the organized industry of the artisan, the trader, and the manufacturer. While the Pygmies, still living in the age of wood, make no iron or stone implements, they seem to know how to make bark cloth and fiber baskets and simple outfits for hunting and fishing. Among the Bushmen the art of making weapons and working in hides is quite common. The Hottentots are further advanced in the industrial arts, being well versed in the manufacture of clothing, weapons, and utensils. In the dressing of skins and furs, as well as in the plaiting of cords and the weaving of mats, we find evidences of their workmanship. In addition they are good workers in iron and copper, using the sheepskin bellows for this purpose. The Ashantis of the Gold Coast know how to make cotton fabrics, turn and glaze earthenware, forge iron, fabricate instruments and arms, embroider rugs and carpets, and set gold and precious stones. Among the people of the banana zone we find rough basket work, coarse pottery, grass cloth, and spoons made of wood and ivory. The people of the millet zone, because of uncertain agricultural resources, quite generally turn to manufacturing. Charcoal is prepared by the smiths, iron is smelted, and numerous implements are manufactured. Among them we find axes, hatchets, hoes, knives, nails, scythes, and other hardware. Cloaks, shoes, sandals, shields, and water and oil vessels are made from leather which the natives have dressed. Soap is manufactured in the Bautschi district, glass is made, formed, and colored by the people of Nupeland, and in almost every city cotton is spun and woven and dyed. Barth tells us that the weaving of cotton was known in the Sudan as early as the eleventh century. There is also extensive manufacture of wooden ware, tools, implements, and utensils. In describing particular tribes, Baker and Felkin tell of smiths of wonderful adroitness, goatskins prepared better than a European tanner could do, drinking cups and kegs of remarkable symmetry, and polished clay floors. Schweinfurth says, The arrow and the spear heads are of the finest and most artistic work their bristlelike barbs and points are baffling when one knows how few tools these smiths have. Excellent wood carving is found among the Bongo, Ovambo, and Makololo. Pottery and basketry and careful hut building distinguish many tribes. Cameron 1877 tells of villages so clean, with huts so artistic, that, save in book knowledge, the people occupied no low plane of civilization. The Mangbettu work both iron and copper. The masterpieces of the Monbutto smiths are the fine chains worn as ornaments, and which in perfection of form and fineness compare well with our best steel chains. Shubotz in 1911 called the Mangbettu a highly cultivated people in architecture and handicraft. Barth found copper exported from Central Africa in competition with European copper at Kano. Nor is the iron industry confined to the Sudan. About the Great Lakes and other parts of Central Africa it is widely distributed. Thornton says, This iron industry proves that the East Africans stand by no means on so low a plane of culture as many travelers would have us think. It is unnecessary to be reminded what a people without instruction, and with the rudest tools to do such skilled work, could do if furnished with steel tools. Arrows made east of Lake Nyanza were found to be nearly as good as the best Swedish iron in Birmingham. From Egypt to the Cape, Livingstone assures us that the mortar and pestle, the long-handled axe, the goatskin bellows, etc., have the same form, size, etc., pointing to a migration southwestward. Holub 1879, on the Zambesi, found fine workers in iron and bronze. The Bantu huts contain spoons, wooden dishes, milk pails, calabashes, handmills, and axes. Kaffirs and Zulus, in the extreme south, are good smiths, and the latter melt copper and tin together and draw wire from it, according to Kranz 1880. West of the Great Lakes, Stanley 1878 found wonderful examples of smith work figures worked out of brass and much work in copper. Cameron 1878 saw vases made near Lake Tanganyika which reminded him of the amphorae in the Villa of Diomedes, Pompeii. Horn 1882 praises tribes here for iron and copper work. Livingstone 1871 passed thirty smelting houses in one journey, and Cameron came across bellows with valves, and tribes who used knives in eating. He found tribes which no Europeans had ever visited, who made ingots of copper in the form of the St. Andrew's cross, which circulated even to the coast. In the southern Congo basin iron and copper are worked also wood and ivory carving and pottery making are pursued. In equatorial West Africa, Lenz and Du Chaillu 1861 found iron workers with charcoal, and also carvers of bone and ivory. Near Cape Lopez, Hübbe-Schleiden found tribes making ivory needles inlaid with ebony, while the arms and dishes of the Osaka are found among many tribes even as far as the Atlantic Ocean. Wilson 1856 found natives in West Africa who could repair American watches. Gold Coast Negroes make gold rings and chains, forming the metal into all kinds of forms. Soyaux says, The works in relief which natives of Lower Guinea carve with their own knives out of ivory and hippopotamus teeth are really entitled to be called works of art, and many wooden figures of fetishes in the Ethnographical Museum of Berlin show some understanding of the proportions of the human body. Great Bassam is called by Hecquard the Fatherland of Smiths. The Mandingo in the northwest are remarkable workers in iron, silver, and gold, we are told by Mungo Park 1800, while there is a mass of testimony as to the work in the north-west of Africa in gold, tin, weaving, and dyeing. Caille found the Negroes in Bambana manufacturing gunpowder 1824-28, and the Hausa make soap so, too, Negroes in Uganda and other parts have made guns after seeing European models. So marked has been the work of Negro artisans and traders in the manufacture and exchange of iron implements that a growing number of archeologists are disposed to-day to consider the Negro as the originator of the art of smelting iron. Gabriel de Mortillet 1883 declared Negroes the only iron users among primitive people. Some would, therefore, argue that the Negro learned it from other folk, but Andree declares that the Negro developed his own Iron Kingdom. Schweinfurth, Von Luschan, Boaz, and others incline to the belief that the Negroes invented the smelting of iron and passed it on to the Egyptians and to modern Europe. Boaz says, It seems likely that at a time when the European was still satisfied with rude stone tools, the African had invented or adopted the art of smelting iron. Consider for a moment what this invention has meant for the advance of the human race. As long as the hammer, knife, saw, drill, the spade, and the hoe had to be chipped out of stone, or had to be made of shell or hard wood, effective industrial work was not impossible, but difficult. A great progress was made when copper found in large nuggets was hammered out into tools and later on shaped by melting, and when bronze was introduced but the true advancement of industrial life did not begin until the hard iron was discovered. It seems not unlikely that the people who made the marvelous discovery of reducing iron ores by smelting were the African Negroes. Neither ancient Europe, nor ancient western Asia, nor ancient China knew the iron, and everything points to its introduction from Africa. At the time of the great African discoveries toward the end of the past century, the trade of the blacksmith was found all over Africa, from north to south and from east to west. With his simple bellows and a charcoal fire he reduced the ore that is found in many parts of the continent and forged implements of great usefulness and beauty. Torday has argued recently, I feel convinced by certain arguments that seem to prove to my satisfaction that we are indebted to the Negro for the very keystone of our modern civilization and that we owe him the discovery of iron. That iron could be discovered by accident in Africa seems beyond doubt if this is so in other parts of the world, I am not competent to say. I will only remind you that Schweinfurth and Petherick record the fact that in the northern part of East Africa smelting furnaces are worked without artificial air current and, on the other hand, Stuhlmann and Kollmann found near Victoria Nyanza that the natives simply mixed powdered ore with charcoal and by introduction of air currents obtained the metal. These simple processes make it simple that iron should have been discovered in East or Central Africa. No bronze implements have ever been found in black Africa had the Africans received iron from the Egyptians, bronze would have preceded this metal and all traces of it would not have disappeared. Black Africa was for a long time an exporter of iron, and even in the twelfth century exports to India and Java are recorded by Idrisi. It is difficult to imagine that Egypt should have obtained it from Europe where the oldest find in Hallstadt cannot be of an earlier period than 800 B.C., or from Asia, where iron is not known before 1000 B.C., and where, in the times of Ashur Nazir Pal, it was still used concurrently with bronze, while iron beads have been only recently discovered by Messrs. G.A. Wainwright and Bushe Fox in a predynastic grave, and where a piece of this metal, possibly a tool, was found in the masonry of the great pyramid. The Negro is a born trader. Lenz says, our sharpest European merchants, even Jews and Armenians, can learn much of the cunning and trade of the Negroes. We know that the trade between Central Africa and Egypt was in the hands of Negroes for thousands of years, and in early days the cities of the Sudan and North Africa grew rich through Negro trade. Leo Africanus, writing of Timbuktu in the sixteenth century, said, It is a wonder to see what plentie of Merchandize is daily brought hither and how costly and sumptuous all things be.... Here are many shops of artificers and merchants and especially of such as weave linnen and cloth. Long before cotton weaving was a British industry, West Africa and the Sudan were supplying a large part of the world with cotton cloth. Even to-day cities like Kuka on the west shore of Lake Chad and Sokota are manufacturing centers where cotton is spun and woven, skins tanned, implements and iron ornaments made. Travelers, says Bücher, have often observed this tribal or local development of industrial technique. 'The native villages,' relates a Belgian observer of the Lower Congo, 'are often situated in groups. Their activities are based upon reciprocality, and they are to a certain extent the complements of one another. Each group has its more or less strongly defined specialty. One carries on fishing another produces palm wine a third devotes itself to trade and is broker for the others, supplying the community with all products from outside another has reserved to itself work in iron and copper, making weapons for war and hunting, various utensils, etc. None may, however, pass beyond the sphere of its own specialty without exposing itself to the risk of being universally proscribed.' From the Loango Coast, Bastian tells of a great number of centers for special products of domestic industry. Loango excels in mats and fishing baskets, while the carving of elephants' tusks is specially followed in Chilungo. The so-called Mafooka hats with raised patterns are drawn chiefly from the bordering country of Kakongo and Mayyume. In Bakunya are made potter's wares, which are in great demand in Basanza, excellent swords in Basundi, especially beautiful ornamented copper rings on the Congo, clever wood and tablet carvings in Loango, ornamented clothes and intricately designed mats in Mayumbe, clothing of finely woven mat-work in Kakongo, embroidered hats and also burnt clay pitchers and among the Bayakas and Mantetjes, stuffs of woven grass. A native Negro student tells of the development of trade among the Ashanti. It was a part of the state system of Ashanti to encourage trade. The king once in every forty days, at the Adai custom, distributed among a number of chiefs various sums of gold dust with a charge to turn the same to good account. These chiefs then sent down to the coast caravans of tradesmen, some of whom would be their slaves, sometimes some two or three hundred strong, to barter ivory for European goods, or buy such goods with gold dust, which the king obtained from the royal alluvial workings. Down to 1873 a constant stream of Ashanti traders might be seen daily wending their way to the merchants of the coast and back again, yielding more certain wealth and prosperity to the merchants of the Gold Coast and Great Britain than may be expected for some time yet to come from the mining industry and railway development put together. The trade chiefs would, in due time, render a faithful account to the king's stewards, being allowed to retain a fair portion of the profit. In the king's household, too, he would have special men who directly traded for him. Important chiefs carried on the same system of trading with the coast as did the king. Thus every member of the state, from the king downward, took an active interest in the promotion of trade and in the keeping open of trade routes into the interior. The trade thus encouraged and carried on in various parts of West Africa reached wide areas. From the Fish River to Kuka, and from Lagos to Zanzibar, the markets have become great centers of trade, the leading implement to civilization. Permanent markets are found in places like Ujiji and Nyangwe, where everything can be bought and sold from earthenware to wives from the one to three thousand traders flocked here. How like is the market traffic, with all its uproar and sound of human voices, to one of our own markets! There is the same rivalry in praising the goods, the violent, brisk movements, the expressive gesture, the inquiring, searching glance, the changing looks of depreciation or triumph, of apprehension, delight, approbation. So says Stanley. Trade customs are not everywhere alike. If when negotiating with the Bangalas of Angola you do not quickly give them what they want, they go away and do not come back. Then perhaps they try to get possession of the coveted object by means of theft. It is otherwise with the Songos and Kiokos, who let you deal with them in the usual way. To buy even a small article you must go to the market people avoid trading anywhere else. If a man says to another 'Sell me this hen' or 'that fruit,' the answer as a rule will be, 'Come to the market place.' The crowd gives confidence to individuals, and the inviolability of the visitor to the market, and of the market itself, looks like an idea of justice consecrated by long practice. Does not this remind us of the old Germanic 'market place'? Turning now to Negro family and social life we find, as among all primitive peoples, polygamy and marriage by actual or simulated purchase. Out of the family develops the typical African village organization, which is thus described in Ashanti by a native Gold Coast writer The headman, as his name implies, is the head of a village community, a ward in a township, or of a family. His position is important, inasmuch as he has directly to deal with the composite elements of the general bulk of the people. It is the duty of the head of a family to bring up the members thereof in the way they should go and by 'family' you must understand the entire lineal descendants of a materfamilias, if I may coin a convenient phrase. It is expected of him by the state to bring up his charge in the knowledge of matters political and traditional. It is his work to train up his wards in the ways of loyalty and obedience to the powers that be. He is held responsible for the freaks of recalcitrant members of his family, and he is looked to to keep them within bounds and to insist upon conformity of their party with the customs, laws, and traditional observances of the community. In early times he could send off to exile by sale a troublesome relative who would not observe the laws of the community. It is a difficult task that he is set to, but in this matter he has all-powerful helpers in the female members of the family, who will be either the aunts, or the sisters, or the cousins, or the nieces of the headman and as their interests are identical with his in every particular, the good women spontaneously train up their children to implicit obedience to the headman, whose rule in the family thus becomes a simple and an easy matter. 'The hand that rocks the cradle rules the world.' What a power for good in the native state system would the mothers of the Gold Coast and Ashanti become by judicious training upon native lines! The headman is par excellence the judge of his family or ward. Not only is he called upon to settle domestic squabbles, but frequently he sits judge over more serious matters arising between one member of the ward and another and where he is a man of ability and influence, men from other wards bring him their disputes to settle. When he so settles disputes, he is entitled to a hearing fee, which, however, is not so much as would be payable in the regular court of the king or chief. The headman is naturally an important member of his company and often is a captain thereof. When he combines the two offices of headman and captain, he renders to the community a very important service. For in times of war, where the members of the ward would not serve cordially under a stranger, they would in all cases face any danger with their own kinsman as their leader. The headman is always succeeded by his uterine brother, cousin, or nephewthe line of succession, that is to say, following the customary law. We may contrast this picture with the more warlike Bantus of Southeast Africa. Each tribe lived by itself in a town with from five to fifteen thousand inhabitants, surrounded by gardens of millet, beans, and watermelon. Beyond these roamed their cattle, sheep, and goats. Their religion was ancestor worship with sacrifice to spirits and the dead, and some of the tribes made mummies of the corpses and clothed them for burial. They wove cloth of cotton and bark, they carved wood and built walls of unhewn stone. They had a standing military organization, and the tribes had their various totems, so that they were known as the Men of Iron, the Men of the Sun, the Men of the Serpents, Sons of the Corn Cleaners, and the like. Their system of common law was well conceived and there were organized tribunals of justice. In difficult cases precedents were sought and learned antiquaries consulted. At the age of fifteen or sixteen the boys were circumcised and formed into guilds. The land was owned by the tribe and apportioned to the chief by each family, and the main wealth of the tribe was in its cattle. In general, among the African clans the idea of private property was but imperfectly developed and never included land. The main mass of visible wealth belonged to the family and clan rather than to the individual only in the matter of weapons and ornaments was exclusive private ownership generally recognized. The government, vested in fathers and chiefs, varied in different tribes from absolute despotisms to limited monarchies, almost republican. Viewing the Basuto National Assembly in South Africa, Lord Bryce recently wrote, The resemblance to the primary assemblies of the early peoples of Europe is close enough to add another to the arguments which discredit the theory that there is any such thing as an Aryan type of institutions. While women are sold into marriage throughout Africa, nevertheless their status is far removed from slavery. In the first place the tracing of relationships through the female line, which is all but universal in Africa, gives the mother great influence. Parental affection is very strong, and throughout Negro Africa the mother is the most influential councilor, even in cases of tyrants like Chaka or Mutesa. No mother can love more tenderly or be more deeply beloved than the Negro mother. Robin tells of a slave in Martinique who, with his savings, freed his mother instead of himself. 'Everywhere in Africa,' writes Mungo Park, 'I have noticed that no greater affront can be offered a Negro than insulting his mother. 'Strike me,' cried a Mandingo to his enemy, 'but revile not my mother!' ... The Herero swears 'By my mother's tears!'.. The Angola Negroes have a saying, 'As a mist lingers on the swamps, so lingers the love of father and mother.' Black queens have often ruled African tribes. Among the Ba-Lolo, we are told, women take part in public assemblies where all-important questions are discussed. The system of educating children among such tribes as the Yoruba is worthy of emulation by many more civilized peoples. Close knit with the family and social organization comes the religious life of the Negro. The religion of Africa is the universal animism or fetishism of primitive peoples, rising to polytheism and approaching monotheism chiefly, but not wholly, as a result of Christian and Islamic missions. Of fetishism there is much misapprehension. It is not mere senseless degradation. It is a philosophy of life. Among primitive Negroes there can be, as Miss Kingsley reminds us, no such divorce of religion from practical life as is common in civilized lands. Religion is life, and fetish an expression of the practical recognition of dominant forces in which the Negro lives. To him all the world is spirit. Miss Kingsley says, If you want, for example, to understand the position of man in nature according to fetish, there is, as far as I know, no clearer statement of it made than is made by Goethe in his superb 'Prometheus.' Fetish is a severely logical way of accounting for the world in terms of good and malignant spirits. It is this power of being able logically to account for everything that is, I believe, at the back of the tremendous permanency of fetish in Africa, and the cause of many of the relapses into it by Africans converted to other religions it is also the explanation of the fact that white men who live in the districts where death and danger are everyday affairs, under a grim pall of boredom, are liable to believe in fetish, though ashamed of so doing. For the African, whose mind has been soaked in fetish during his early and most impressionable years, the voice of fetish is almost irresistible when affliction comes to him. Ellis tells us of the spirit belief of the Ewe people, who believe that men and all nature have the indwelling Kra, which is immortal that the man himself after death may exist as a ghost, which is often conceived of as departed from the Kra, a shadowy continuing of the man. Bryce, speaking of the Kaffirs of South Africa, says, To the Kaffirs, as to the most savage races, the world was full of spiritsspirits of the rivers, the mountains, and the woods. Most important were the ghosts of the dead, who had power to injure or help the living, and who were, therefore, propitiated by offerings at stated periods, as well as on occasions when their aid was especially desired. This kind of worship, the worship once most generally diffused throughout the world, and which held its ground among the Greeks and Italians in the most flourishing period of ancient civilization, as it does in China and Japan to-day, was, and is, virtually the religion of the Kaffirs. African religion does not, however, stop with fetish, but, as in the case of other peoples, tends toward polytheism and monotheism. Among the Yoruba, for instance, Frobenius shows that religion and city-state go hand in hand. The first experienced glance will here detect the fact that this nation originally possessed a clear and definite organization so duly ordered and so logical that we but seldom meet with its like among all the peoples of the earth. And the basic idea of every clan's progenitur</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Onze 44</t>
+          <t>Parti</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>African Culture We have followed the history of mankind in Africa down the valley of the Nile, past Ethiopia to Egypt we have seen kingdoms arise along the great bend of the Niger and strive with the ancient culture at its mouth. We have seen the remnants of mankind at Land's End, the ancient culture at Punt and Zymbabwe, and followed the invading Bantu east, south, and west to their greatest center in the vast jungle of the Congo valleys. We must now gather these threads together and ask what manner of men these were and how far and in what way they progressed on the road of human culture. That Negro peoples were the beginners of civilization along the Ganges, the Euphrates, and the Nile seems proven. Early Babylon was founded by a Negroid race. Hammurabi's code, the most ancient known, says Anna and Bel called me, Hammurabi the exalted prince, the worshiper of the gods to cause justice to prevail in the land, to destroy the wicked, to prevent the strong from oppressing the weak, to go forth like the sun over the black-head race, to enlighten the land, and to further the welfare of the people. The Assyrians show a distinct Negroid strain and early Egypt was predominantly Negro. These earliest of cultures were crude and primitive, but they represented the highest attainment of mankind after tens of thousands of years in unawakened savagery. It has often been assumed that the Negro is physically inferior to other races and markedly distinguishable from them modern science gives no authority for such an assumption. The supposed inferiority cannot rest on color, for that is due to the combined influences of a great number of factors of environment working through physiological processes, and however marked the contrasts may be, there is no corresponding difference in anatomical structure discoverable. So, too, difference in texture of hair is a matter of degree, not kind, and is caused by heat, moisture, exposure, and the like. The bony skeleton presents no distinctly racial lines of variation. Prognathism presents too many individual varieties to be taken as a distinctive character of race. Difference in physical measurements does not show the Negro to be a more primitive evolutionary form. Comparative ethnology to-day affords no support to the view which sees in the so-called lower races of mankind a transition stage from beast to man. Much has been made of the supposed smaller brain of the Negro race but this is as yet an unproved assumption, based on the uncritical measurement of less than a thousand Negro brains as compared with eleven thousand or more European brains. Even if future measurement prove the average Negro brain lighter, the vast majority of Negro brain weights fall within the same limits as the whites and finally, neither size nor weight of the brain seems to be of importance as an index of mental capacity. We may, therefore, say with Ratzel, There is only one species of man. The variations are numerous, but do not go deep. To this we may add the word of the Secretary of the First Races Congress We are, then, under the necessity of concluding that an impartial investigator would be inclined to look upon the various important peoples of the world as to all intents and purposes essentially equal in intellect, enterprise, morality, and physique. If these conclusions are true, we should expect to see in Africa the human drama play itself out much as in other lands, and such has actually been the fact. At the same time we must expect peculiarities arising from the physiography of the landits climate, its rainfall, its deserts, and the peculiar inaccessibility of the coast. Three principal zones of habitation appear first, the steppes and deserts around the Sahara in the north and the Kalahari desert in the south secondly, the grassy highlands bordering the Great Lakes and connecting these two regions thirdly, the forests and rivers of Central and West Africa. In the deserts are the nomads, and the Pygmies are in the forest fastnesses. Herdsmen and their cattle cover the steppes and highlands, save where the tsetse fly prevents. In the open forests and grassy highlands are the agriculturists. Among the forest farmers the village is the center of life, while in the open steppes political life tends to spread into larger political units. Political integration is, however, hindered by an ease of internal communication almost as great as the difficulty of reaching outer worlds beyond the continent. The narrow Nile valley alone presented physical barriers formidable enough to keep back the invading barbarians of the south, and even then with difficulty. Elsewhere communication was all too easy. For a while the Congo forests fended away the restless, but this only temporarily. On the whole Africa from the Sahara to the Cape offered no great physical barrier to the invader, and we continually have whirlwinds of invading hosts rushing now southward, now northward, from the interior to the coast and from the coast inland, and hurling their force against states, kingdoms, and cities. Some resisted for generations, some for centuries, some but a few years. It is, then, this sudden change and the fear of it that marks African culture, particularly in its political aspects, and which makes it so difficult to trace this changing past. Nevertheless beneath all change rests the strong substructure of custom, religion, industry, and art well worth the attention of students. Starting with agriculture, we learn that among all the great groups of the 'natural' races, the Negroes are the best and keenest tillers of the ground. A minority despise agriculture and breed cattle many combine both occupations. Among the genuine tillers the whole life of the family is taken up in agriculture, and hence the months are by preference called after the operations which they demand. Constant clearings change forests to fields, and the ground is manured with the ashes of the burnt thicket. In the middle of the fields rise the light watch-towers, from which a watchman scares grain-eating birds and other thieves. An African cultivated landscape is incomplete without barns. The rapidity with which, when newly imported, the most various forms of cultivation spread in Africa says much for the attention which is devoted to this branch of economy. Industries, again, which may be called agricultural, like the preparation of meal from millet and other crops, also from cassava, the fabrication of fermented drinks from grain, or the manufacture of cotton, are widely known and sedulously fostered. Bücher reminds us of the deep impression made upon travelers when they sight suddenly the well-attended fields of the natives on emerging from the primeval forests. In the more thickly populated parts of Africa these fields often stretch for many a mile, and the assiduous care of the Negro women shines in all the brighter light when we consider the insecurity of life, the constant feuds and pillages, in which no one knows whether he will in the end be able to harvest what he has sown. Livingstone gives somewhere a graphic description of the devastations wrought by slave hunts the people were lying about slain, the dwellings were demolished in the fields, however, the grain was ripening and there was none to harvest it. Sheep, goat, and chickens are domestic animals all over Africa, and Von Franzius considers Africa the home of the house cattle and the Negro as the original tamer. Northeastern Africa especially is noted for agriculture, cattle raising, and fruit culture. In the eastern Sudan, and among the great Bantu tribes extending from the Sudan down toward the south, cattle are evidences of wealth one tribe, for instance, having so many oxen that each village had ten or twelve thousand head. Lenz 1884, Bouet-Williaumez 1848, Hecquard 1854, Bosman 1805, and Baker 1868 all bear witness to this, and Schweinfurth 1878 tells us of great cattle parks with two to three thousand head and of numerous agricultural and cattle-raising tribes. Von der Decken 1859-61 described the paradise of the dwellers about Kilimanjarothe bananas, fruit, beans and peas, cattle raising with stall feed, the fertilizing of the fields, and irrigation. The Negroid Gallas have seven or eight cattle to each inhabitant. Livingstone bears witness to the busy cattle raising of the Bantus and Kaffirs. Hulub 1881 and Chapman 1868 tell of agriculture and fruit raising in South Africa. Shutt 1884 found the tribes in the southwestern basin of the Congo with sheep, swine, goats, and cattle. On this agricultural and cattle-raising economic foundation has arisen the organized industry of the artisan, the trader, and the manufacturer. While the Pygmies, still living in the age of wood, make no iron or stone implements, they seem to know how to make bark cloth and fiber baskets and simple outfits for hunting and fishing. Among the Bushmen the art of making weapons and working in hides is quite common. The Hottentots are further advanced in the industrial arts, being well versed in the manufacture of clothing, weapons, and utensils. In the dressing of skins and furs, as well as in the plaiting of cords and the weaving of mats, we find evidences of their workmanship. In addition they are good workers in iron and copper, using the sheepskin bellows for this purpose. The Ashantis of the Gold Coast know how to make cotton fabrics, turn and glaze earthenware, forge iron, fabricate instruments and arms, embroider rugs and carpets, and set gold and precious stones. Among the people of the banana zone we find rough basket work, coarse pottery, grass cloth, and spoons made of wood and ivory. The people of the millet zone, because of uncertain agricultural resources, quite generally turn to manufacturing. Charcoal is prepared by the smiths, iron is smelted, and numerous implements are manufactured. Among them we find axes, hatchets, hoes, knives, nails, scythes, and other hardware. Cloaks, shoes, sandals, shields, and water and oil vessels are made from leather which the natives have dressed. Soap is manufactured in the Bautschi district, glass is made, formed, and colored by the people of Nupeland, and in almost every city cotton is spun and woven and dyed. Barth tells us that the weaving of cotton was known in the Sudan as early as the eleventh century. There is also extensive manufacture of wooden ware, tools, implements, and utensils. In describing particular tribes, Baker and Felkin tell of smiths of wonderful adroitness, goatskins prepared better than a European tanner could do, drinking cups and kegs of remarkable symmetry, and polished clay floors. Schweinfurth says, The arrow and the spear heads are of the finest and most artistic work their bristlelike barbs and points are baffling when one knows how few tools these smiths have. Excellent wood carving is found among the Bongo, Ovambo, and Makololo. Pottery and basketry and careful hut building distinguish many tribes. Cameron 1877 tells of villages so clean, with huts so artistic, that, save in book knowledge, the people occupied no low plane of civilization. The Mangbettu work both iron and copper. The masterpieces of the Monbutto smiths are the fine chains worn as ornaments, and which in perfection of form and fineness compare well with our best steel chains. Shubotz in 1911 called the Mangbettu a highly cultivated people in architecture and handicraft. Barth found copper exported from Central Africa in competition with European copper at Kano. Nor is the iron industry confined to the Sudan. About the Great Lakes and other parts of Central Africa it is widely distributed. Thornton says, This iron industry proves that the East Africans stand by no means on so low a plane of culture as many travelers would have us think. It is unnecessary to be reminded what a people without instruction, and with the rudest tools to do such skilled work, could do if furnished with steel tools. Arrows made east of Lake Nyanza were found to be nearly as good as the best Swedish iron in Birmingham. From Egypt to the Cape, Livingstone assures us that the mortar and pestle, the long-handled axe, the goatskin bellows, etc., have the same form, size, etc., pointing to a migration southwestward. Holub 1879, on the Zambesi, found fine workers in iron and bronze. The Bantu huts contain spoons, wooden dishes, milk pails, calabashes, handmills, and axes. Kaffirs and Zulus, in the extreme south, are good smiths, and the latter melt copper and tin together and draw wire from it, according to Kranz 1880. West of the Great Lakes, Stanley 1878 found wonderful examples of smith work figures worked out of brass and much work in copper. Cameron 1878 saw vases made near Lake Tanganyika which reminded him of the amphorae in the Villa of Diomedes, Pompeii. Horn 1882 praises tribes here for iron and copper work. Livingstone 1871 passed thirty smelting houses in one journey, and Cameron came across bellows with valves, and tribes who used knives in eating. He found tribes which no Europeans had ever visited, who made ingots of copper in the form of the St. Andrew's cross, which circulated even to the coast. In the southern Congo basin iron and copper are worked also wood and ivory carving and pottery making are pursued. In equatorial West Africa, Lenz and Du Chaillu 1861 found iron workers with charcoal, and also carvers of bone and ivory. Near Cape Lopez, Hübbe-Schleiden found tribes making ivory needles inlaid with ebony, while the arms and dishes of the Osaka are found among many tribes even as far as the Atlantic Ocean. Wilson 1856 found natives in West Africa who could repair American watches. Gold Coast Negroes make gold rings and chains, forming the metal into all kinds of forms. Soyaux says, The works in relief which natives of Lower Guinea carve with their own knives out of ivory and hippopotamus teeth are really entitled to be called works of art, and many wooden figures of fetishes in the Ethnographical Museum of Berlin show some understanding of the proportions of the human body. Great Bassam is called by Hecquard the Fatherland of Smiths. The Mandingo in the northwest are remarkable workers in iron, silver, and gold, we are told by Mungo Park 1800, while there is a mass of testimony as to the work in the north-west of Africa in gold, tin, weaving, and dyeing. Caille found the Negroes in Bambana manufacturing gunpowder 1824-28, and the Hausa make soap so, too, Negroes in Uganda and other parts have made guns after seeing European models. So marked has been the work of Negro artisans and traders in the manufacture and exchange of iron implements that a growing number of archeologists are disposed to-day to consider the Negro as the originator of the art of smelting iron. Gabriel de Mortillet 1883 declared Negroes the only iron users among primitive people. Some would, therefore, argue that the Negro learned it from other folk, but Andree declares that the Negro developed his own Iron Kingdom. Schweinfurth, Von Luschan, Boaz, and others incline to the belief that the Negroes invented the smelting of iron and passed it on to the Egyptians and to modern Europe. Boaz says, It seems likely that at a time when the European was still satisfied with rude stone tools, the African had invented or adopted the art of smelting iron. Consider for a moment what this invention has meant for the advance of the human race. As long as the hammer, knife, saw, drill, the spade, and the hoe had to be chipped out of stone, or had to be made of shell or hard wood, effective industrial work was not impossible, but difficult. A great progress was made when copper found in large nuggets was hammered out into tools and later on shaped by melting, and when bronze was introduced but the true advancement of industrial life did not begin until the hard iron was discovered. It seems not unlikely that the people who made the marvelous discovery of reducing iron ores by smelting were the African Negroes. Neither ancient Europe, nor ancient western Asia, nor ancient China knew the iron, and everything points to its introduction from Africa. At the time of the great African discoveries toward the end of the past century, the trade of the blacksmith was found all over Africa, from north to south and from east to west. With his simple bellows and a charcoal fire he reduced the ore that is found in many parts of the continent and forged implements of great usefulness and beauty. Torday has argued recently, I feel convinced by certain arguments that seem to prove to my satisfaction that we are indebted to the Negro for the very keystone of our modern civilization and that we owe him the discovery of iron. That iron could be discovered by accident in Africa seems beyond doubt if this is so in other parts of the world, I am not competent to say. I will only remind you that Schweinfurth and Petherick record the fact that in the northern part of East Africa smelting furnaces are worked without artificial air current and, on the other hand, Stuhlmann and Kollmann found near Victoria Nyanza that the natives simply mixed powdered ore with charcoal and by introduction of air currents obtained the metal. These simple processes make it simple that iron should have been discovered in East or Central Africa. No bronze implements have ever been found in black Africa had the Africans received iron from the Egyptians, bronze would have preceded this metal and all traces of it would not have disappeared. Black Africa was for a long time an exporter of iron, and even in the twelfth century exports to India and Java are recorded by Idrisi. It is difficult to imagine that Egypt should have obtained it from Europe where the oldest find in Hallstadt cannot be of an earlier period than 800 B.C., or from Asia, where iron is not known before 1000 B.C., and where, in the times of Ashur Nazir Pal, it was still used concurrently with bronze, while iron beads have been only recently discovered by Messrs. G.A. Wainwright and Bushe Fox in a predynastic grave, and where a piece of this metal, possibly a tool, was found in the masonry of the great pyramid. The Negro is a born trader. Lenz says, our sharpest European merchants, even Jews and Armenians, can learn much of the cunning and trade of the Negroes. We know that the trade between Central Africa and Egypt was in the hands of Negroes for thousands of years, and in early days the cities of the Sudan and North Africa grew rich through Negro trade. Leo Africanus, writing of Timbuktu in the sixteenth century, said, It is a wonder to see what plentie of Merchandize is daily brought hither and how costly and sumptuous all things be.... Here are many shops of artificers and merchants and especially of such as weave linnen and cloth. Long before cotton weaving was a British industry, West Africa and the Sudan were supplying a large part of the world with cotton cloth. Even to-day cities like Kuka on the west shore of Lake Chad and Sokota are manufacturing centers where cotton is spun and woven, skins tanned, implements and iron ornaments made. Travelers, says Bücher, have often observed this tribal or local development of industrial technique. 'The native villages,' relates a Belgian observer of the Lower Congo, 'are often situated in groups. Their activities are based upon reciprocality, and they are to a certain extent the complements of one another. Each group has its more or less strongly defined specialty. One carries on fishing another produces palm wine a third devotes itself to trade and is broker for the others, supplying the community with all products from outside another has reserved to itself work in iron and copper, making weapons for war and hunting, various utensils, etc. None may, however, pass beyond the sphere of its own specialty without exposing itself to the risk of being universally proscribed.' From the Loango Coast, Bastian tells of a great number of centers for special products of domestic industry. Loango excels in mats and fishing baskets, while the carving of elephants' tusks is specially followed in Chilungo. The so-called Mafooka hats with raised patterns are drawn chiefly from the bordering country of Kakongo and Mayyume. In Bakunya are made potter's wares, which are in great demand in Basanza, excellent swords in Basundi, especially beautiful ornamented copper rings on the Congo, clever wood and tablet carvings in Loango, ornamented clothes and intricately designed mats in Mayumbe, clothing of finely woven mat-work in Kakongo, embroidered hats and also burnt clay pitchers and among the Bayakas and Mantetjes, stuffs of woven grass. A native Negro student tells of the development of trade among the Ashanti. It was a part of the state system of Ashanti to encourage trade. The king once in every forty days, at the Adai custom, distributed among a number of chiefs various sums of gold dust with a charge to turn the same to good account. These chiefs then sent down to the coast caravans of tradesmen, some of whom would be their slaves, sometimes some two or three hundred strong, to barter ivory for European goods, or buy such goods with gold dust, which the king obtained from the royal alluvial workings. Down to 1873 a constant stream of Ashanti traders might be seen daily wending their way to the merchants of the coast and back again, yielding more certain wealth and prosperity to the merchants of the Gold Coast and Great Britain than may be expected for some time yet to come from the mining industry and railway development put together. The trade chiefs would, in due time, render a faithful account to the king's stewards, being allowed to retain a fair portion of the profit. In the king's household, too, he would have special men who directly traded for him. Important chiefs carried on the same system of trading with the coast as did the king. Thus every member of the state, from the king downward, took an active interest in the promotion of trade and in the keeping open of trade routes into the interior. The trade thus encouraged and carried on in various parts of West Africa reached wide areas. From the Fish River to Kuka, and from Lagos to Zanzibar, the markets have become great centers of trade, the leading implement to civilization. Permanent markets are found in places like Ujiji and Nyangwe, where everything can be bought and sold from earthenware to wives from the one to three thousand traders flocked here. How like is the market traffic, with all its uproar and sound of human voices, to one of our own markets! There is the same rivalry in praising the goods, the violent, brisk movements, the expressive gesture, the inquiring, searching glance, the changing looks of depreciation or triumph, of apprehension, delight, approbation. So says Stanley. Trade customs are not everywhere alike. If when negotiating with the Bangalas of Angola you do not quickly give them what they want, they go away and do not come back. Then perhaps they try to get possession of the coveted object by means of theft. It is otherwise with the Songos and Kiokos, who let you deal with them in the usual way. To buy even a small article you must go to the market people avoid trading anywhere else. If a man says to another 'Sell me this hen' or 'that fruit,' the answer as a rule will be, 'Come to the market place.' The crowd gives confidence to individuals, and the inviolability of the visitor to the market, and of the market itself, looks like an idea of justice consecrated by long practice. Does not this remind us of the old Germanic 'market place'? Turning now to Negro family and social life we find, as among all primitive peoples, polygamy and marriage by actual or simulated purchase. Out of the family develops the typical African village organization, which is thus described in Ashanti by a native Gold Coast writer The headman, as his name implies, is the head of a village community, a ward in a township, or of a family. His position is important, inasmuch as he has directly to deal with the composite elements of the general bulk of the people. It is the duty of the head of a family to bring up the members thereof in the way they should go and by 'family' you must understand the entire lineal descendants of a materfamilias, if I may coin a convenient phrase. It is expected of him by the state to bring up his charge in the knowledge of matters political and traditional. It is his work to train up his wards in the ways of loyalty and obedience to the powers that be. He is held responsible for the freaks of recalcitrant members of his family, and he is looked to to keep them within bounds and to insist upon conformity of their party with the customs, laws, and traditional observances of the community. In early times he could send off to exile by sale a troublesome relative who would not observe the laws of the community. It is a difficult task that he is set to, but in this matter he has all-powerful helpers in the female members of the family, who will be either the aunts, or the sisters, or the cousins, or the nieces of the headman and as their interests are identical with his in every particular, the good women spontaneously train up their children to implicit obedience to the headman, whose rule in the family thus becomes a simple and an easy matter. 'The hand that rocks the cradle rules the world.' What a power for good in the native state system would the mothers of the Gold Coast and Ashanti become by judicious training upon native lines! The headman is par excellence the judge of his family or ward. Not only is he called upon to settle domestic squabbles, but frequently he sits judge over more serious matters arising between one member of the ward and another and where he is a man of ability and influence, men from other wards bring him their disputes to settle. When he so settles disputes, he is entitled to a hearing fee, which, however, is not so much as would be payable in the regular court of the king or chief. The headman is naturally an important member of his company and often is a captain thereof. When he combines the two offices of headman and captain, he renders to the community a very important service. For in times of war, where the members of the ward would not serve cordially under a stranger, they would in all cases face any danger with their own kinsman as their leader. The headman is always succeeded by his uterine brother, cousin, or nephewthe line of succession, that is to say, following the customary law. We may contrast this picture with the more warlike Bantus of Southeast Africa. Each tribe lived by itself in a town with from five to fifteen thousand inhabitants, surrounded by gardens of millet, beans, and watermelon. Beyond these roamed their cattle, sheep, and goats. Their religion was ancestor worship with sacrifice to spirits and the dead, and some of the tribes made mummies of the corpses and clothed them for burial. They wove cloth of cotton and bark, they carved wood and built walls of unhewn stone. They had a standing military organization, and the tribes had their various totems, so that they were known as the Men of Iron, the Men of the Sun, the Men of the Serpents, Sons of the Corn Cleaners, and the like. Their system of common law was well conceived and there were organized tribunals of justice. In difficult cases precedents were sought and learned antiquaries consulted. At the age of fifteen or sixteen the boys were circumcised and formed into guilds. The land was owned by the tribe and apportioned to the chief by each family, and the main wealth of the tribe was in its cattle. In general, among the African clans the idea of private property was but imperfectly developed and never included land. The main mass of visible wealth belonged to the family and clan rather than to the individual only in the matter of weapons and ornaments was exclusive private ownership generally recognized. The government, vested in fathers and chiefs, varied in different tribes from absolute despotisms to limited monarchies, almost republican. Viewing the Basuto National Assembly in South Africa, Lord Bryce recently wrote, The resemblance to the primary assemblies of the early peoples of Europe is close enough to add another to the arguments which discredit the theory that there is any such thing as an Aryan type of institutions. While women are sold into marriage throughout Africa, nevertheless their status is far removed from slavery. In the first place the tracing of relationships through the female line, which is all but universal in Africa, gives the mother great influence. Parental affection is very strong, and throughout Negro Africa the mother is the most influential councilor, even in cases of tyrants like Chaka or Mutesa. No mother can love more tenderly or be more deeply beloved than the Negro mother. Robin tells of a slave in Martinique who, with his savings, freed his mother instead of himself. 'Everywhere in Africa,' writes Mungo Park, 'I have noticed that no greater affront can be offered a Negro than insulting his mother. 'Strike me,' cried a Mandingo to his enemy, 'but revile not my mother!' ... The Herero swears 'By my mother's tears!'.. The Angola Negroes have a saying, 'As a mist lingers on the swamps, so lingers the love of father and mother.' Black queens have often ruled African tribes. Among the Ba-Lolo, we are told, women take part in public assemblies where all-important questions are discussed. The system of educating children among such tribes as the Yoruba is worthy of emulation by many more civilized peoples. Close knit with the family and social organization comes the religious life of the Negro. The religion of Africa is the universal animism or fetishism of primitive peoples, rising to polytheism and approaching monotheism chiefly, but not wholly, as a result of Christian and Islamic missions. Of fetishism there is much misapprehension. It is not mere senseless degradation. It is a philosophy of life. Among primitive Negroes there can be, as Miss Kingsley reminds us, no such divorce of religion from practical life as is common in civilized lands. Religion is life, and fetish an expression of the practical recognition of dominant forces in which the Negro lives. To him all the world is spirit. Miss Kingsley says, If you want, for example, to understand the position of man in nature according to fetish, there is, as far as I know, no clearer statement of it made than is made by Goethe in his superb 'Prometheus.' Fetish is a severely logical way of accounting for the world in terms of good and malignant spirits. It is this power of being able logically to account for everything that is, I believe, at the back of the tremendous permanency of fetish in Africa, and the cause of many of the relapses into it by Africans converted to other religions it is also the explanation of the fact that white men who live in the districts where death and danger are everyday affairs, under a grim pall of boredom, are liable to believe in fetish, though ashamed of so doing. For the African, whose mind has been soaked in fetish during his early and most impressionable years, the voice of fetish is almost irresistible when affliction comes to him. Ellis tells us of the spirit belief of the Ewe people, who believe that men and all nature have the indwelling Kra, which is immortal that the man himself after death may exist as a ghost, which is often conceived of as departed from the Kra, a shadowy continuing of the man. Bryce, speaking of the Kaffirs of South Africa, says, To the Kaffirs, as to the most savage races, the world was full of spiritsspirits of the rivers, the mountains, and the woods. Most important were the ghosts of the dead, who had power to injure or help the living, and who were, therefore, propitiated by offerings at stated periods, as well as on occasions when their aid was especially desired. This kind of worship, the worship once most generally diffused throughout the world, and which held its ground among the Greeks and Italians in the most flourishing period of ancient civilization, as it does in China and Japan to-day, was, and is, virtually the religion of the Kaffirs. African religion does not, however, stop with fetish, but, as in the case of other peoples, tends toward polytheism and monotheism. Among the Yoruba, for instance, Frobenius shows that religion and city-state go hand in hand. The first experienced glance will here detect the fact that this nation originally possessed a clear and definite organization so duly ordered and so logical that we but seldom meet with its like among all the peoples of the earth. And the basic idea of every clan's progenitur</t>
+          <t>COUPLET 1 Il est parti, d'une existence de rêve il s'est départi Pourtant pour la vie ensemble ils étaient partis Jusqu'à ce qu'elle vienne, mine sa vie, la vide Et la fasse sienne On lui dit qu'il est assis sur la branche qu'il scie Il vit par épisode le sursis se raccourcit Il est digne pas un rôle ne se lit sur son visage pâle Que la maladie a mis à mal Tant bien que mal oui mal de mal n pis La mort attend attend son tour dans l'ombre tapi Hélas hélas, trois fois hélas Son compagnon se lasse de leur bonheur qui fait volte face Il est parti, oui parti Plus de crédits il a fumé le délai imparti Quand le ciel bas et lourd comme un couvercle Étouffe et rétrécit peu à peu le cercle De toutes parts acculé il joue contre la montre La tension monte chaque seconde compte Il fuit mais c'est contre lui que luit la flamme Il est parti son esprit se nourrit de vague à l'âme REFRAIN Il est parti x4 COUPLET 2 Il en pâtit, une à une il a bouché toutes les issues Étudie, étudie mais désormais il n'entends plus Il n'a il n'a jamais peser le poids du dégât Voir sa mère pleurer dans ses bras Aventurier du temple maudit il vise la thune Cherche à déchiffrer les ruines qu'elle infortune Dans le mouvant le flou il glisse Il s'enfonce comme jadis dans les sables d'arrakis Lisse le collier de perles qu'il subtilise Manqué il pêche deux bracelets de ferraille grise Son horizon se profile rayé à la verticale Il songe à ses rêves de grandeur bancale Le maton tombe trop tard il a tiré Prisonnier plus qu'une seule balle dans le barillet Il est parti mais c'est pour nous que se noue le drame Il est parti son esprit se nourrit de vagues à l'âme REFRAIN Il est parti... x4 COUPLET 3 Il est parti dans la partie à nouveau le chasseur suit la Piste de danse Pas à pas à sa vie il donne un sens Un battement, le néant qui s'approche calmement Le corps prends le contrôle domine l'esprit un instant Repartir décoller de la partie s'envoler Le cachet qu'il cachait le cloue il est collé Il appelle à l'aide danse sur la corde raide Chercher l'intermède fuir le temps qui le possède En voyage il monte ça y est le produit fait effet En cavale il tombe éconduit le mal est fait Le rythme a raison de lui mais à présent qui s'en soucie Son esprit fuit plein de vie tandis que sa vue s'obscurcit Un battement le raccroche maintenant à la vie Il s'accroche puis décroche, la musique est finie Il fuit mais c'est pour nous que se noue le drame Il est parti son esprit se nourrit de vagues à l'âme REFRAIN Il est parti... x4 95, Ménélik est dans la place Il est parti, il est parti...</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Parti</t>
+          <t>Phénoménélik</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>COUPLET 1 Il est parti, d'une existence de rêve il s'est départi Pourtant pour la vie ensemble ils étaient partis Jusqu'à ce qu'elle vienne, mine sa vie, la vide Et la fasse sienne On lui dit qu'il est assis sur la branche qu'il scie Il vit par épisode le sursis se raccourcit Il est digne pas un rôle ne se lit sur son visage pâle Que la maladie a mis à mal Tant bien que mal oui mal de mal n pis La mort attend attend son tour dans l'ombre tapi Hélas hélas, trois fois hélas Son compagnon se lasse de leur bonheur qui fait volte face Il est parti, oui parti Plus de crédits il a fumé le délai imparti Quand le ciel bas et lourd comme un couvercle Étouffe et rétrécit peu à peu le cercle De toutes parts acculé il joue contre la montre La tension monte chaque seconde compte Il fuit mais c'est contre lui que luit la flamme Il est parti son esprit se nourrit de vague à l'âme REFRAIN Il est parti x4 COUPLET 2 Il en pâtit, une à une il a bouché toutes les issues Étudie, étudie mais désormais il n'entends plus Il n'a il n'a jamais peser le poids du dégât Voir sa mère pleurer dans ses bras Aventurier du temple maudit il vise la thune Cherche à déchiffrer les ruines qu'elle infortune Dans le mouvant le flou il glisse Il s'enfonce comme jadis dans les sables d'arrakis Lisse le collier de perles qu'il subtilise Manqué il pêche deux bracelets de ferraille grise Son horizon se profile rayé à la verticale Il songe à ses rêves de grandeur bancale Le maton tombe trop tard il a tiré Prisonnier plus qu'une seule balle dans le barillet Il est parti mais c'est pour nous que se noue le drame Il est parti son esprit se nourrit de vagues à l'âme REFRAIN Il est parti... x4 COUPLET 3 Il est parti dans la partie à nouveau le chasseur suit la Piste de danse Pas à pas à sa vie il donne un sens Un battement, le néant qui s'approche calmement Le corps prends le contrôle domine l'esprit un instant Repartir décoller de la partie s'envoler Le cachet qu'il cachait le cloue il est collé Il appelle à l'aide danse sur la corde raide Chercher l'intermède fuir le temps qui le possède En voyage il monte ça y est le produit fait effet En cavale il tombe éconduit le mal est fait Le rythme a raison de lui mais à présent qui s'en soucie Son esprit fuit plein de vie tandis que sa vue s'obscurcit Un battement le raccroche maintenant à la vie Il s'accroche puis décroche, la musique est finie Il fuit mais c'est pour nous que se noue le drame Il est parti son esprit se nourrit de vagues à l'âme REFRAIN Il est parti... x4 95, Ménélik est dans la place Il est parti, il est parti...</t>
+          <t>Comme un glaçon qui glisse sur ton corps Je semble froid puis fond, tu m'as envoûté des lors Par les pores de la peau H2O s'inflitre Des niaiseries rabachées je constitue le filtre Quand à la foule s'enflamme et par ses flammes me lèche Je m'évapore mais le jus jamais ne s'assèche Le son coule, coule me donne l'aval Mes paroles noient tes croyances ancestrales Fluide le griot est au micro il émerge du troupeau Et rélève le niveau Liquide MNLK est à flot tranquille sur le style Il impose son voco, vos âmes sondées Sur cette base mon rap est fondé Donc je suis bien plus qu'une passagère ondée Meyeha ! La bourse ou la vie, je prends la vie en course Contemplant les ruisseaux dont je suis la source Refrain Toujours au sommet je me joue des creux de la vague Je suis l'ouragan qui avec son oeil t'alpaques d'huile Au démonté tout comme la mer Je viens des abysses c'est là que la magie s'opère MÉNÉLIK est là, le DAMIER est là Quoiqu'il en soit l'eau toujours là Hey ! dans certains coins du globe très cher on paye Pour vivre, survivre ma fluidité se monnaye Je réfléchis on n' m'attends pas je tombe comme la pluie Je suis le trottoir qui la nuit par son action luit Le débit, la mélodie du flow m'a plu Le travail a su m'aider à conserver le flux Comme le plic plac de l'eau sur le sol claque quand il pleut Le floc floc du pied dans une flaque me rend heureux Refrain Diluvienne je suis la pluie qui en trombe tombe Parfois acide, parfois en colère, j'inonde le monde Tant bien que mal tu tentes de retenir le phénomène Suis plutôt LIKMÈNE tu verras où il te mène Comme un bébé par le liquide est immergé Mon HIP HOP est si fort que tu es imbibé Ah Ah Ah je coule Le son irrigue à nouveau les canaux de ton cerveau Omniprésent aux quatre coins du globe je m'entends Tu croyais te la couler douce mais je suis au courant Gouttes à gouttes sur ton front tu ressens l'impact La molécule MÉNÉLIK est une vraie cataracte Mon art est comme une déferlante, qui bien que lente Balaie tout sur son passage et peu à peu s'implante Refrain</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Phénoménélik</t>
+          <t>Piece Of My Love</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Comme un glaçon qui glisse sur ton corps Je semble froid puis fond, tu m'as envoûté des lors Par les pores de la peau H2O s'inflitre Des niaiseries rabachées je constitue le filtre Quand à la foule s'enflamme et par ses flammes me lèche Je m'évapore mais le jus jamais ne s'assèche Le son coule, coule me donne l'aval Mes paroles noient tes croyances ancestrales Fluide le griot est au micro il émerge du troupeau Et rélève le niveau Liquide MNLK est à flot tranquille sur le style Il impose son voco, vos âmes sondées Sur cette base mon rap est fondé Donc je suis bien plus qu'une passagère ondée Meyeha ! La bourse ou la vie, je prends la vie en course Contemplant les ruisseaux dont je suis la source Refrain Toujours au sommet je me joue des creux de la vague Je suis l'ouragan qui avec son oeil t'alpaques d'huile Au démonté tout comme la mer Je viens des abysses c'est là que la magie s'opère MÉNÉLIK est là, le DAMIER est là Quoiqu'il en soit l'eau toujours là Hey ! dans certains coins du globe très cher on paye Pour vivre, survivre ma fluidité se monnaye Je réfléchis on n' m'attends pas je tombe comme la pluie Je suis le trottoir qui la nuit par son action luit Le débit, la mélodie du flow m'a plu Le travail a su m'aider à conserver le flux Comme le plic plac de l'eau sur le sol claque quand il pleut Le floc floc du pied dans une flaque me rend heureux Refrain Diluvienne je suis la pluie qui en trombe tombe Parfois acide, parfois en colère, j'inonde le monde Tant bien que mal tu tentes de retenir le phénomène Suis plutôt LIKMÈNE tu verras où il te mène Comme un bébé par le liquide est immergé Mon HIP HOP est si fort que tu es imbibé Ah Ah Ah je coule Le son irrigue à nouveau les canaux de ton cerveau Omniprésent aux quatre coins du globe je m'entends Tu croyais te la couler douce mais je suis au courant Gouttes à gouttes sur ton front tu ressens l'impact La molécule MÉNÉLIK est une vraie cataracte Mon art est comme une déferlante, qui bien que lente Balaie tout sur son passage et peu à peu s'implante Refrain</t>
+          <t>You tryna play these games, now what you mean Got substitutions to fill so how it seem My starting 5 of dimes look like they fell from the heaven Its a blessing they more than this 6 of your sevens And landed linen soft on sheets for beauty sleep Professionals the freak with the knowledge to keep descreet If you share me with another then we ain't got a problem If you tell me that you love then you probably forgotten that A piece of my love darling thats what you getting I hope it feed yo addiction What the fuck is monogamous I heard the tour brings a whole lotta women up on the bus Ask reed we was in midde school and they 16 He had the blonde i had her friend building self esteem Before i knew we was them when we was walking I simply bagged shorties on whims and shit talkin Game became proper on my metro phone Then side kick had to boost it cause to aim i roamed I could take it back it Bhigh see back in them days I was a mackin, hangin, training, now I'm stuck in my ways And prom night brought out the dawg life I'm currently living I had seven different dates my selection of women Then i finally chose up and got busy within cut While the dames i passed mad cause I'm on butt I said chill baby girl i can't chose you all If i could then i would and if you like me you'll call If you game goofy you played like recess 3rd grade Iont care if i smash ain't catching nobody fade Cause when i say these hoes for everybody I mean they for every body I could love you but regardless I'm too cool for that And i may care about you partly but won't see me tat Yo name upon my skin they sinking while i swim Its a logical explanation for why she be leaving him And skip to my lue, so flawless i subdue Heard i lied in the past I'm thinking thats prolly true You see I'm slicker than the ruler wit the sickest medulla Refrain from gettin sprung my lifestyle won't suit ya I may pull a young berg and show up to some awards Wit some candy on my arm you know I'm charmin the girls Cause i got mouf piece to get em out they thongs on site So i ain't never had to go to bed alone at night</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Piece Of My Love</t>
+          <t>Quelle Aventure !</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>You tryna play these games, now what you mean Got substitutions to fill so how it seem My starting 5 of dimes look like they fell from the heaven Its a blessing they more than this 6 of your sevens And landed linen soft on sheets for beauty sleep Professionals the freak with the knowledge to keep descreet If you share me with another then we ain't got a problem If you tell me that you love then you probably forgotten that A piece of my love darling thats what you getting I hope it feed yo addiction What the fuck is monogamous I heard the tour brings a whole lotta women up on the bus Ask reed we was in midde school and they 16 He had the blonde i had her friend building self esteem Before i knew we was them when we was walking I simply bagged shorties on whims and shit talkin Game became proper on my metro phone Then side kick had to boost it cause to aim i roamed I could take it back it Bhigh see back in them days I was a mackin, hangin, training, now I'm stuck in my ways And prom night brought out the dawg life I'm currently living I had seven different dates my selection of women Then i finally chose up and got busy within cut While the dames i passed mad cause I'm on butt I said chill baby girl i can't chose you all If i could then i would and if you like me you'll call If you game goofy you played like recess 3rd grade Iont care if i smash ain't catching nobody fade Cause when i say these hoes for everybody I mean they for every body I could love you but regardless I'm too cool for that And i may care about you partly but won't see me tat Yo name upon my skin they sinking while i swim Its a logical explanation for why she be leaving him And skip to my lue, so flawless i subdue Heard i lied in the past I'm thinking thats prolly true You see I'm slicker than the ruler wit the sickest medulla Refrain from gettin sprung my lifestyle won't suit ya I may pull a young berg and show up to some awards Wit some candy on my arm you know I'm charmin the girls Cause i got mouf piece to get em out they thongs on site So i ain't never had to go to bed alone at night</t>
+          <t>En éclats faire voler les mots libérer l'écriture Donner au style un futur quelle aventure Auparavant j'avais coutume d'éviter de la plume Dorénavant j'assume les foyers que j'allume Aucunement lapidaire mon flot se veut épistolaire Entretenir par les mots le feu qui régnait naguère Après un long périple mon rap s'est posé Outre Rhin sur un beat confectionné par No Sé Comme à son habitude sans inquiétude Il élude le temps et toutes ses certitudes MENELIK aime cet art et s'y implique L'homme à la vie dont on envie le caractère épique s'applique Pas de panique quand il rapplique armé d'une pensée prolifique On a coutume de dire que la vie est dure Moi je m'bats pour le futur quelle aventure Je n'te le fais pas dire mais cela ne va pas sans dire Plutôt que d'en pleurer je préfère en rire Quelle aventure en effet de faire éclore une langue Quand d'autres s'enterrent dans l'optique du gang Le français est beau le français me plaît Je mise dessus et non pas sur le mauvais baudet MENELIK est en piste mais hors piste Ni catégorie ni style le seul fait j'existe Ils mettent tout en oeuvre pour que mes efforts tombent à l'eau Ils dupliquent repiquent et rendent mon art pâlot Néanmoins je suis serein avec entrain sur le chemin Même si ce n'est pas le Rubicon j'ai passé le Rhin J'ai avancé par rapport aux pensées surannées Le rap coule et s'étale sur un battement de NO SE C'est pas joli joli d'agir en mal poli Et se contenter de faire de la pâle copie Laisse faire laisse couler le son mon frère Laisse mais ne te lasse pas de mon savoir-faire Ce n'était pas un mage mais un sage poète Qui m'a délivré ce message RESPECT Depuis la magie opère aux cotés de mes pairs Mes sortilèges m'aident à surmonter l'impair L'homme que l'on nomme MNLK et toute sa clique Tout comme le clic avant le bang provoque le déclic Je fais ce qui me plaît, je sais que cela te plaît Les pieds dans le plat de ce monde plat qui me déplaît J'avance j'avance malgré ce que les gens pensent Il ne tient qu'à toi d'entrer dans la danse</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Quelle Aventure !</t>
+          <t>Quelle Aventure (Bonus Track)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>En éclats faire voler les mots libérer l'écriture Donner au style un futur quelle aventure Auparavant j'avais coutume d'éviter de la plume Dorénavant j'assume les foyers que j'allume Aucunement lapidaire mon flot se veut épistolaire Entretenir par les mots le feu qui régnait naguère Après un long périple mon rap s'est posé Outre Rhin sur un beat confectionné par No Sé Comme à son habitude sans inquiétude Il élude le temps et toutes ses certitudes MENELIK aime cet art et s'y implique L'homme à la vie dont on envie le caractère épique s'applique Pas de panique quand il rapplique armé d'une pensée prolifique On a coutume de dire que la vie est dure Moi je m'bats pour le futur quelle aventure Je n'te le fais pas dire mais cela ne va pas sans dire Plutôt que d'en pleurer je préfère en rire Quelle aventure en effet de faire éclore une langue Quand d'autres s'enterrent dans l'optique du gang Le français est beau le français me plaît Je mise dessus et non pas sur le mauvais baudet MENELIK est en piste mais hors piste Ni catégorie ni style le seul fait j'existe Ils mettent tout en oeuvre pour que mes efforts tombent à l'eau Ils dupliquent repiquent et rendent mon art pâlot Néanmoins je suis serein avec entrain sur le chemin Même si ce n'est pas le Rubicon j'ai passé le Rhin J'ai avancé par rapport aux pensées surannées Le rap coule et s'étale sur un battement de NO SE C'est pas joli joli d'agir en mal poli Et se contenter de faire de la pâle copie Laisse faire laisse couler le son mon frère Laisse mais ne te lasse pas de mon savoir-faire Ce n'était pas un mage mais un sage poète Qui m'a délivré ce message RESPECT Depuis la magie opère aux cotés de mes pairs Mes sortilèges m'aident à surmonter l'impair L'homme que l'on nomme MNLK et toute sa clique Tout comme le clic avant le bang provoque le déclic Je fais ce qui me plaît, je sais que cela te plaît Les pieds dans le plat de ce monde plat qui me déplaît J'avance j'avance malgré ce que les gens pensent Il ne tient qu'à toi d'entrer dans la danse</t>
+          <t>En éclats faire voler les mots libérer l'écriture Donner au style un futur quelle aventure Auparavant j'avais coutume d'éviter de la plume Dorénavant j'assume les foyers que j'allume Aucunement lapidaire mon flot se veut épistolaire Entretenir par les mots le feu qui régnait naguère Après un long périple mon rap s'est posé Outre Rhin sur un beat confectionné par No Sé Comme à son habitude sans inquiétude Il élude le tmps et toutes ses crtitudes MENELIK aime cet art et s'y implique L'homme à la vie dont on envie le caractère épique s'applique Pas de panique quand il rapplique armé d'une pensée prolifique On a coutume de dire que la vie est dure Moi je m'bats pour le futur quelle aventure Je n'te le fais pas dire mais cela ne va pas sans dire Plutôt que d'en pleurer je préfère en rire Quelle aventure en effet de faire éclore une langue Quand d'autres s'enterrent dans l'optique du gang Le français est beau le français me plaît Je mise dessus et non pas sur le mauvais baudet MENELIK est en piste mais hors piste Ni catégorie ni style le seul fait j'existe Ils mettent tout en oeuvre pour que mes efforts tombent à l'eau Ils dupliquent repiquent et rendent mon art pâlot Néanmoins je suis serein avec entrain sur le chemin Même si ce n'est pas le Rubicon j'ai passé le Rhin J'ai avancé par rapport aux pensées surannées Le rap coule et s'étale sur un battement de NO SE C'est pas joli joli d'agir en mal poli Et se contenter de faire de la pâle copie Laisse faire laisse couler le son mon frère Laisse mais ne te lasse pas de mon savoir-faire Ce n'était pas un mage mais un sage poète Qui m'a délivré ce message RESPECT Depuis la magie opère aux cotés de mes pairs Mes sortilèges m'aident à surmonter l'impair L'homme que l'on nomme MNLK et toute sa clique Tout comme le clic avant le bang provoque le déclic Je fais ce qui me plaît, je sais que cela te plaît Les pieds dans le plat de ce monde plat qui me déplaît J'avance j'avance malgré ce que les gens pensent Il ne tient qu'à toi d'entrer dans la danse</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Quelle Aventure (Bonus Track)</t>
+          <t>Rambling</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>En éclats faire voler les mots libérer l'écriture Donner au style un futur quelle aventure Auparavant j'avais coutume d'éviter de la plume Dorénavant j'assume les foyers que j'allume Aucunement lapidaire mon flot se veut épistolaire Entretenir par les mots le feu qui régnait naguère Après un long périple mon rap s'est posé Outre Rhin sur un beat confectionné par No Sé Comme à son habitude sans inquiétude Il élude le tmps et toutes ses crtitudes MENELIK aime cet art et s'y implique L'homme à la vie dont on envie le caractère épique s'applique Pas de panique quand il rapplique armé d'une pensée prolifique On a coutume de dire que la vie est dure Moi je m'bats pour le futur quelle aventure Je n'te le fais pas dire mais cela ne va pas sans dire Plutôt que d'en pleurer je préfère en rire Quelle aventure en effet de faire éclore une langue Quand d'autres s'enterrent dans l'optique du gang Le français est beau le français me plaît Je mise dessus et non pas sur le mauvais baudet MENELIK est en piste mais hors piste Ni catégorie ni style le seul fait j'existe Ils mettent tout en oeuvre pour que mes efforts tombent à l'eau Ils dupliquent repiquent et rendent mon art pâlot Néanmoins je suis serein avec entrain sur le chemin Même si ce n'est pas le Rubicon j'ai passé le Rhin J'ai avancé par rapport aux pensées surannées Le rap coule et s'étale sur un battement de NO SE C'est pas joli joli d'agir en mal poli Et se contenter de faire de la pâle copie Laisse faire laisse couler le son mon frère Laisse mais ne te lasse pas de mon savoir-faire Ce n'était pas un mage mais un sage poète Qui m'a délivré ce message RESPECT Depuis la magie opère aux cotés de mes pairs Mes sortilèges m'aident à surmonter l'impair L'homme que l'on nomme MNLK et toute sa clique Tout comme le clic avant le bang provoque le déclic Je fais ce qui me plaît, je sais que cela te plaît Les pieds dans le plat de ce monde plat qui me déplaît J'avance j'avance malgré ce que les gens pensent Il ne tient qu'à toi d'entrer dans la danse</t>
+          <t>They try to tell me not to But still I got to What we gone call this Rambling Cause I'm a talk about everything Mix the scholar wit the hustla and the player wit the lover Get the lust between another and the friction bust the rubber Something all new we discovered with great sight like a buzzard Though raspberry is the preference all the donuts filled with custard So, cops'll roll through the hood with their mug on Passin judgement on the residents who've done none Wrong to any but hit the store for henny After raiders lose Super Bowl and can't go to disney Land, of where we all thought we were free to rome casually But as we step its through blood stained casualties Yet never fearin, cause life changin is nearin Some people may lead ya wrong but the outcome I'm steering How many snorts of inhalations til you stuck to powder How many replays of this song til you realize i devoured Each millisecond of seconds while significantly reppin The status within my brethren, royal fam came from peasants Had to get rid of my shorty even though she adored me The complications were arising and had me wantin a 40 To chug down and wash away any problems present A quick fix to the issue then i won't resent Resent her soul as we begin to get to old-er Look back at 12 to 17 i got cold-er Cause they set us up to lose thats how we sang the blues And granted with acceptance in the game ya got to pay ya dues Shouts to icons raised on ya albums But the sounds I embraced from other genres warped outcome Greatly needed cause even the blind can see it We need me to arise and that praise with being conceited Now I've been rambling darling give me a break This is the product of my mind finding words to state How I feel bout my appeal and how i deal wit the hills That we face throughout our days and drive the sane to kill</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Rambling</t>
+          <t>Relax Your Mind</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>They try to tell me not to But still I got to What we gone call this Rambling Cause I'm a talk about everything Mix the scholar wit the hustla and the player wit the lover Get the lust between another and the friction bust the rubber Something all new we discovered with great sight like a buzzard Though raspberry is the preference all the donuts filled with custard So, cops'll roll through the hood with their mug on Passin judgement on the residents who've done none Wrong to any but hit the store for henny After raiders lose Super Bowl and can't go to disney Land, of where we all thought we were free to rome casually But as we step its through blood stained casualties Yet never fearin, cause life changin is nearin Some people may lead ya wrong but the outcome I'm steering How many snorts of inhalations til you stuck to powder How many replays of this song til you realize i devoured Each millisecond of seconds while significantly reppin The status within my brethren, royal fam came from peasants Had to get rid of my shorty even though she adored me The complications were arising and had me wantin a 40 To chug down and wash away any problems present A quick fix to the issue then i won't resent Resent her soul as we begin to get to old-er Look back at 12 to 17 i got cold-er Cause they set us up to lose thats how we sang the blues And granted with acceptance in the game ya got to pay ya dues Shouts to icons raised on ya albums But the sounds I embraced from other genres warped outcome Greatly needed cause even the blind can see it We need me to arise and that praise with being conceited Now I've been rambling darling give me a break This is the product of my mind finding words to state How I feel bout my appeal and how i deal wit the hills That we face throughout our days and drive the sane to kill</t>
+          <t>Just Imagine What it could be You see I couldn't help notice your style and grace Wantin to catch back up to you got me changin my pace To roll the dice and see they land Conversation never sinkin this is not quick sand Won't you take my arm and have a walk wit me You gone dig my intellect baby so talk to me They call me Lik a young hustla from around the way Since got yo attention just let me say Somebody blessed yea, your momma musta gave it to you No need for make up already got some flavor to you Them lames phony and I does what it do You need up date town on the low just me and you I'm sayin maybe it was destined for our paths to collide I'm way out my jurisdiction this where I reside Since we met might as well get better acquainted Rather get to know you now than when I'm already famous Relax girl Relax Come on now Let you mind relax Relax girl Relax your mind Relax your mind girl Now say you took that offer and we took that date That I been anticipatin but you made me wait, well You enjoyed it kicked a couple laughs Surprised at the speed in which time passed By intriguing ya mind I made ya know for sure That I'm the right one and not to let me go Thinkin the same about you the vibe is now mutual A leap out yo box cause I'm far from the usual Probably them eyes not to mention your smile That had you passing through my mind like you runnin a mile Us meeting was a change in the plans Iont normally deviate but here I am So get a grip ona moment, settle and just own it Team could be complete just missing one component That's you, I made the statement ain't taking it back I got it covered over here so let your mind relax Relax girl Relax Come on now Let you mind relax Relax girl Relax your mind Relax your mind girl Fast forward some months ya wakin up in my bed Eatin breakfast reminiscing of the day we met Said you thought I was smooth and liked my delivery A smirk on ya face while recollectin so vividly Patience brought us closer openness of emotions Floatin as one like a boat out in the ocean I let you in on what I'm all about You can see I live my words ain't just running my mouth Got my eyes on the prize come along if you desire Plan to tour across the country settin clubs of fire Turn my name into a household thing like wonder bread Money come in and won't nobody go unfed Is you tryna take the chance cuz baby the wheels rolling I'm the designated driver and I know where I'm going Get a glimpse of the future see girl we'll be set But I ain't trying to get ahead of myself we just met Relax girl Relax Come on now Let you mind relax Relax girl Relax your mind Relax your mind girl</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Relax Your Mind</t>
+          <t>Smoke One</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Just Imagine What it could be You see I couldn't help notice your style and grace Wantin to catch back up to you got me changin my pace To roll the dice and see they land Conversation never sinkin this is not quick sand Won't you take my arm and have a walk wit me You gone dig my intellect baby so talk to me They call me Lik a young hustla from around the way Since got yo attention just let me say Somebody blessed yea, your momma musta gave it to you No need for make up already got some flavor to you Them lames phony and I does what it do You need up date town on the low just me and you I'm sayin maybe it was destined for our paths to collide I'm way out my jurisdiction this where I reside Since we met might as well get better acquainted Rather get to know you now than when I'm already famous Relax girl Relax Come on now Let you mind relax Relax girl Relax your mind Relax your mind girl Now say you took that offer and we took that date That I been anticipatin but you made me wait, well You enjoyed it kicked a couple laughs Surprised at the speed in which time passed By intriguing ya mind I made ya know for sure That I'm the right one and not to let me go Thinkin the same about you the vibe is now mutual A leap out yo box cause I'm far from the usual Probably them eyes not to mention your smile That had you passing through my mind like you runnin a mile Us meeting was a change in the plans Iont normally deviate but here I am So get a grip ona moment, settle and just own it Team could be complete just missing one component That's you, I made the statement ain't taking it back I got it covered over here so let your mind relax Relax girl Relax Come on now Let you mind relax Relax girl Relax your mind Relax your mind girl Fast forward some months ya wakin up in my bed Eatin breakfast reminiscing of the day we met Said you thought I was smooth and liked my delivery A smirk on ya face while recollectin so vividly Patience brought us closer openness of emotions Floatin as one like a boat out in the ocean I let you in on what I'm all about You can see I live my words ain't just running my mouth Got my eyes on the prize come along if you desire Plan to tour across the country settin clubs of fire Turn my name into a household thing like wonder bread Money come in and won't nobody go unfed Is you tryna take the chance cuz baby the wheels rolling I'm the designated driver and I know where I'm going Get a glimpse of the future see girl we'll be set But I ain't trying to get ahead of myself we just met Relax girl Relax Come on now Let you mind relax Relax girl Relax your mind Relax your mind girl</t>
+          <t>Stress building up watching the walls cave in Learned the cali purp is the remedy for some savin Cause I got bills out the rectum and they past due My landlord keep requesting but my cash blew Comcast won't let me order on demand And the high speed net goes off tomorrow thats they plan With these online classes its complicatin progression Givin everything i make back just to get through the seconds I place it all the track like the pimps'll tell ya Slanging legit through my audio i ain't tryna sell ya Its dropping here for the F so they can see that I'm def- -initely doper than the mass of the rest They tell me I should Smoke one let my worries slide Puff on the cali tree let my spirit rise Join the club homie we all high Don't fear the mountains of the kush gone and take that dive They tell me i should, smoke one They tell me i should, smoke one My shawty like, you got money for rap but you'nt take me out Do like my girlfriends man and take another route I'm sick and tired of not gettin attention Betta look me in my eye right now you gone listen Ya so insensitive and i been livin wit This stiff armin neglect that got me temperish And what you gone do about the car overheating Plus the dishes in the sink from the 3 days of eating I'm like, shawty step back i need my space Yo nagging all on my brain interruptin my taste In these instrumentals I'm scrolling through to get my name poppin I been said we chosen few royal fam they knockin So should I touch What if I puff it You think I'll love it Or all the above it They tell me I should Smoke one let my worries slide Puff on the cali tree let my spirit rise Join the club homie we all high Don't fear the mountains of the kush gone and take that dive They tell me i should, smoke one They tell me i should, smoke one All im seein elegance in rotation My boys bagging and shipping across the nation I play the back and watch it all go down While the mounds now rolled slowly burn without a sound Simple, the sweet escape is how they phrase it You would think they were arsonists how they blaze it Much like the damage I'm placin on many beats With the base turned up loud and the cymbals takin the heat So what you won't, it don't get better than this Specially where I'm comin my whole proximity a trip Of course they gone indulge in the burden liftin plant Brings level among the lows and the voices saying ya can't Got em thinking they can coast wit the planes above And on the rise in elevation throw the deuce to doves The mary jane in my hand to fix my problems like the world do Deep while lookin dead at the blunt and said nah I'm cool They tell me I should Smoke one let my worries slide Puff on the cali tree let my spirit rise Join the club homie we all high Don't fear the mountains of the kush gone and take that dive They tell me i should, smoke one They tell me i should, smoke one</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Smoke One</t>
+          <t>Sound Like</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Stress building up watching the walls cave in Learned the cali purp is the remedy for some savin Cause I got bills out the rectum and they past due My landlord keep requesting but my cash blew Comcast won't let me order on demand And the high speed net goes off tomorrow thats they plan With these online classes its complicatin progression Givin everything i make back just to get through the seconds I place it all the track like the pimps'll tell ya Slanging legit through my audio i ain't tryna sell ya Its dropping here for the F so they can see that I'm def- -initely doper than the mass of the rest They tell me I should Smoke one let my worries slide Puff on the cali tree let my spirit rise Join the club homie we all high Don't fear the mountains of the kush gone and take that dive They tell me i should, smoke one They tell me i should, smoke one My shawty like, you got money for rap but you'nt take me out Do like my girlfriends man and take another route I'm sick and tired of not gettin attention Betta look me in my eye right now you gone listen Ya so insensitive and i been livin wit This stiff armin neglect that got me temperish And what you gone do about the car overheating Plus the dishes in the sink from the 3 days of eating I'm like, shawty step back i need my space Yo nagging all on my brain interruptin my taste In these instrumentals I'm scrolling through to get my name poppin I been said we chosen few royal fam they knockin So should I touch What if I puff it You think I'll love it Or all the above it They tell me I should Smoke one let my worries slide Puff on the cali tree let my spirit rise Join the club homie we all high Don't fear the mountains of the kush gone and take that dive They tell me i should, smoke one They tell me i should, smoke one All im seein elegance in rotation My boys bagging and shipping across the nation I play the back and watch it all go down While the mounds now rolled slowly burn without a sound Simple, the sweet escape is how they phrase it You would think they were arsonists how they blaze it Much like the damage I'm placin on many beats With the base turned up loud and the cymbals takin the heat So what you won't, it don't get better than this Specially where I'm comin my whole proximity a trip Of course they gone indulge in the burden liftin plant Brings level among the lows and the voices saying ya can't Got em thinking they can coast wit the planes above And on the rise in elevation throw the deuce to doves The mary jane in my hand to fix my problems like the world do Deep while lookin dead at the blunt and said nah I'm cool They tell me I should Smoke one let my worries slide Puff on the cali tree let my spirit rise Join the club homie we all high Don't fear the mountains of the kush gone and take that dive They tell me i should, smoke one They tell me i should, smoke one</t>
+          <t>Trying to find my sound Maybe this my sound My sound Where ever we go tell the waiter keep my glass filled Loss of memory forgot how many tracks killed But she know cause she been eyein through the peep hole Reciting lines like homework 10 deep though Don't run past this, make a listener back flip Bubble off the venue i'll packed then hit up saks fifth Spiffen the fly to glide now its an effortless Arrangement of fabric designed boostin my leverage Must admit from initial to now Them words come off the dome quicker than milking a cow From, practice a rolling grace like AXIS Comfortable in my zone like tempur-pedic mattress Disregard despise I know they see my ethic Field pulling them in, you know thats magnetic Started wit the ground work putting on my self Cause I don't know nobody I'm just making sure I'm felt So smooth, what it sound like Can't lose,I do this all night Well alright, what I been fienin for Came up and I'm hungry watch me get and go What it sound like, yea, what it sound like See they can't haunt us when heart pumps wit honor Lapped the ones that started ahead now we some goners Waving in the wind its the ribbon in sight Not a soul in my peripheral i look left and right But it just keeps movin, further is the distance Continual chase shall greaten up my existence Departed the path and built my ave To map out the route to the greener of grass Pipe dreaming it seems until fru..i..tion Stand out among rest based on description Plus i push this like cocaine in the 80's The product of a dealer no choice i am that baby Get yo people tell em gather arouuunnnnddd I'll overwhelm they ears and astound Document the moment when my train arrives A young black male that'll change some lives So smooth, what it sound like Can't lose,I do this all night Well alright, what I been fienin for Came up and I'm hungry watch me get and go What it sound like, yea, what it sound like</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sound Like</t>
+          <t>Stase</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Trying to find my sound Maybe this my sound My sound Where ever we go tell the waiter keep my glass filled Loss of memory forgot how many tracks killed But she know cause she been eyein through the peep hole Reciting lines like homework 10 deep though Don't run past this, make a listener back flip Bubble off the venue i'll packed then hit up saks fifth Spiffen the fly to glide now its an effortless Arrangement of fabric designed boostin my leverage Must admit from initial to now Them words come off the dome quicker than milking a cow From, practice a rolling grace like AXIS Comfortable in my zone like tempur-pedic mattress Disregard despise I know they see my ethic Field pulling them in, you know thats magnetic Started wit the ground work putting on my self Cause I don't know nobody I'm just making sure I'm felt So smooth, what it sound like Can't lose,I do this all night Well alright, what I been fienin for Came up and I'm hungry watch me get and go What it sound like, yea, what it sound like See they can't haunt us when heart pumps wit honor Lapped the ones that started ahead now we some goners Waving in the wind its the ribbon in sight Not a soul in my peripheral i look left and right But it just keeps movin, further is the distance Continual chase shall greaten up my existence Departed the path and built my ave To map out the route to the greener of grass Pipe dreaming it seems until fru..i..tion Stand out among rest based on description Plus i push this like cocaine in the 80's The product of a dealer no choice i am that baby Get yo people tell em gather arouuunnnnddd I'll overwhelm they ears and astound Document the moment when my train arrives A young black male that'll change some lives So smooth, what it sound like Can't lose,I do this all night Well alright, what I been fienin for Came up and I'm hungry watch me get and go What it sound like, yea, what it sound like</t>
+          <t>La gueule béante du tunnel me tend ses bras L'ombre m'appelle, le fouille la nuit et guide mes pas J'avance mais ce qui me reste de conscience ne le Veut pas La démence me gagne, je fais mon méa culpa Chutt... j'entends du bruit quelqu'un vient par ici Non O.K Le sombre autour de moi forme une envelopp qui vit Je le repouss il veut prendre mon corps et mon esprit Hein? de la musique Mais d'où vient donc cette voix aux accents Diaboliques ? Aaah! je me souviens mon nom est MENELIK Je suis le seigneur qui tombe à pic Soudain les murs scintillent, du bruit, j'entends des choeurs Au fond une lueur qui brille annihile mes peurs Qu'elle est belle, baignée par la chaleur du soleil La clarté je n'y comprends rien pourtant j'essaye Un champ de bleuets à présent m'environne J'écarquille les yeux et ne calcule personne Une porte s'ouvre la réalité s'y engouffre Je marche et me rapproche du gouffre Mes réfrés, les amis, le posse me tend les bras Un damier case par case se forme sous mes pas</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Stase</t>
+          <t>Trajectoire</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>La gueule béante du tunnel me tend ses bras L'ombre m'appelle, le fouille la nuit et guide mes pas J'avance mais ce qui me reste de conscience ne le Veut pas La démence me gagne, je fais mon méa culpa Chutt... j'entends du bruit quelqu'un vient par ici Non O.K Le sombre autour de moi forme une envelopp qui vit Je le repouss il veut prendre mon corps et mon esprit Hein? de la musique Mais d'où vient donc cette voix aux accents Diaboliques ? Aaah! je me souviens mon nom est MENELIK Je suis le seigneur qui tombe à pic Soudain les murs scintillent, du bruit, j'entends des choeurs Au fond une lueur qui brille annihile mes peurs Qu'elle est belle, baignée par la chaleur du soleil La clarté je n'y comprends rien pourtant j'essaye Un champ de bleuets à présent m'environne J'écarquille les yeux et ne calcule personne Une porte s'ouvre la réalité s'y engouffre Je marche et me rapproche du gouffre Mes réfrés, les amis, le posse me tend les bras Un damier case par case se forme sous mes pas</t>
+          <t>Le destin exécute bien curieusement ses desseins Le cri du bambin déchire 1 univers serein Les ruisseaux d'innocence prennent un visage hideux Quand le gosse en rade, la mère s'éloigne 2 Recueilli au foyer que la providence octroie Étranger à l'étroit dans un cheval de 3 Esseulé, harcelé, il vole aux 4 vents Sans réminiscence, nomader sur le temps L'âge de raison passé de 5, il sent la trappe Chaque soir il trinque son destin le rattrape Délire éthylique suppléé par le vice Le parquet met le paquet et il tombe pour 6 Le cloisonnement s'y prête, il devient ascète À 7 fin il coupe tout lien qui rappelle la fête À la poursuite du bien il se paie une cond'8 De l'avant vers l'arrière il fait face à la fuite Tant de printemps sans vie il continue le bluff La ligne domine, voici la preuve par 9</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Trajectoire</t>
+          <t>Tranquille</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Le destin exécute bien curieusement ses desseins Le cri du bambin déchire 1 univers serein Les ruisseaux d'innocence prennent un visage hideux Quand le gosse en rade, la mère s'éloigne 2 Recueilli au foyer que la providence octroie Étranger à l'étroit dans un cheval de 3 Esseulé, harcelé, il vole aux 4 vents Sans réminiscence, nomader sur le temps L'âge de raison passé de 5, il sent la trappe Chaque soir il trinque son destin le rattrape Délire éthylique suppléé par le vice Le parquet met le paquet et il tombe pour 6 Le cloisonnement s'y prête, il devient ascète À 7 fin il coupe tout lien qui rappelle la fête À la poursuite du bien il se paie une cond'8 De l'avant vers l'arrière il fait face à la fuite Tant de printemps sans vie il continue le bluff La ligne domine, voici la preuve par 9</t>
+          <t>Tranquille le griot ne se fait pas de bile Les rimes s'échappent de mon corps d'ébène qui les distille Raffinées elles coulent pures à toute allure Sur les lignes de mon cahier je les épure T comme la troupe R comme le rôle I l'initiation Je poursuis B le But U dans un but d'union Laisse faire le rythme sans accoups il se déroule Cool à souhait il apaise les foules Il prend tout son temps qu'importe s'il est lent L'important est qu'il t'emporte dans son élan Ouais, OK il te soutien refrain Parfait le style pour toi n'a plus de secret Le griot que je suis ou que je prétends être Veut calmer ton âme pour t'aider à renaître Suis moi ou plutôt suis le rythme Qui t'invite à te connaître jusqu'aux limites TRANQUILLE... LE STYLE DÉFILE Longtemps oui longtemps en observant patiemment J'ai attendu le moment présent De prendre le stylo en solo Laissez libre cours au flot de mots et ceci sans défauts Sur 1 tempo comme celui-ci il t'enveloppe Prends le contrôle éberlué tu es full up Ecoute ce son si cool pas de doute Calme phases après phases tiens goûtes A ce nectar si rare qui te pénètres Inspire ton être sans jamais laisser transparaître La joie qui te prends dès l'instant où tu l'entends Cela reste entre nous bien évidemment Le style défile tranquill, je t'invite à voir Pas à pas où te mène ce rap sans histoire Elle m'inspire sur ces quelques lignes qui ruissellent La muse de plus en plus belle délivre le beat qui s'emmêle TRANQUILLE Car je t'emmène en ballade sans salades Je t'évade de cette musique pop désormais si fade Le griot de la tribu MENELIK Possède en tous cas la clé qui chasse tous tes tracas Au fur et à mesure tu te sens plus sûr, plus sûr D'échapper à coup 7 censure Je vends du rêve, je suis un peu comme la sève Qui coule en toi te calme apporte la trêve Nous le savons tu attends depuis longtemps ce son Fais maison de la tribu en action Loin du stress qui te presse, de la cité qui te broie Du gris de ces murs dont tu es l'unique proie Cool MENELIK montre la voie De la voix tout droit au paradis il t'envoie Immobile tu capte le rêve que je deale Naturellement un seul mot s'impose tranquille TRANQUILLE</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tranquille</t>
+          <t>Tribut</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Tranquille le griot ne se fait pas de bile Les rimes s'échappent de mon corps d'ébène qui les distille Raffinées elles coulent pures à toute allure Sur les lignes de mon cahier je les épure T comme la troupe R comme le rôle I l'initiation Je poursuis B le But U dans un but d'union Laisse faire le rythme sans accoups il se déroule Cool à souhait il apaise les foules Il prend tout son temps qu'importe s'il est lent L'important est qu'il t'emporte dans son élan Ouais, OK il te soutien refrain Parfait le style pour toi n'a plus de secret Le griot que je suis ou que je prétends être Veut calmer ton âme pour t'aider à renaître Suis moi ou plutôt suis le rythme Qui t'invite à te connaître jusqu'aux limites TRANQUILLE... LE STYLE DÉFILE Longtemps oui longtemps en observant patiemment J'ai attendu le moment présent De prendre le stylo en solo Laissez libre cours au flot de mots et ceci sans défauts Sur 1 tempo comme celui-ci il t'enveloppe Prends le contrôle éberlué tu es full up Ecoute ce son si cool pas de doute Calme phases après phases tiens goûtes A ce nectar si rare qui te pénètres Inspire ton être sans jamais laisser transparaître La joie qui te prends dès l'instant où tu l'entends Cela reste entre nous bien évidemment Le style défile tranquill, je t'invite à voir Pas à pas où te mène ce rap sans histoire Elle m'inspire sur ces quelques lignes qui ruissellent La muse de plus en plus belle délivre le beat qui s'emmêle TRANQUILLE Car je t'emmène en ballade sans salades Je t'évade de cette musique pop désormais si fade Le griot de la tribu MENELIK Possède en tous cas la clé qui chasse tous tes tracas Au fur et à mesure tu te sens plus sûr, plus sûr D'échapper à coup 7 censure Je vends du rêve, je suis un peu comme la sève Qui coule en toi te calme apporte la trêve Nous le savons tu attends depuis longtemps ce son Fais maison de la tribu en action Loin du stress qui te presse, de la cité qui te broie Du gris de ces murs dont tu es l'unique proie Cool MENELIK montre la voie De la voix tout droit au paradis il t'envoie Immobile tu capte le rêve que je deale Naturellement un seul mot s'impose tranquille TRANQUILLE</t>
+          <t>Le Hip Hop est trop fort Fort, fort, fort, fort, fort, fort Huh, Sens Unik, pour Le Damier devant, comme d'hab La radio joue un petit rien de Fabe Autour d'un move qui Soon E, euh, j'voulais dire s'unit Le cercle des Sages Poètes s'élargit Sléo est là, le Solaar à son zénith Le Boom de la Bass se balade sur le beat Maintenir La Tribu dans l'Alliance Ethnik Telle est la tâche dont doit s'acquitter toute ma Cliqu... J'injecte le venin et rpars, dare, dare Rapide comm une abeille se servant de son Zdar Dan repense au temps où il s'accomModa Avec le son qui ne tarda pas à devenir son dada Haha, et v'la que Démocrates rapplique Libérés par Jones, Seeq et Logistik C'est un Coup d'État Phonique, je touche et coule Inspiré par ma Positive Black Soul C'est succ'Saint, mais Clair, ok celle là j'lai déjà faite IAM en pleine forme, j'ai envie de faire la fête La la la, La la la, huh, huh 95, le Yakuza fait la razzia, repart tranquillement À la casa, les ambiances, huh huh, Les Blues sont là Osmoz est là, Menelik La Tribu sont là Et Le Damier en plein effet, toujours prêt</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tribut</t>
+          <t>Un petit rien de Jazz</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Le Hip Hop est trop fort Fort, fort, fort, fort, fort, fort Huh, Sens Unik, pour Le Damier devant, comme d'hab La radio joue un petit rien de Fabe Autour d'un move qui Soon E, euh, j'voulais dire s'unit Le cercle des Sages Poètes s'élargit Sléo est là, le Solaar à son zénith Le Boom de la Bass se balade sur le beat Maintenir La Tribu dans l'Alliance Ethnik Telle est la tâche dont doit s'acquitter toute ma Cliqu... J'injecte le venin et rpars, dare, dare Rapide comm une abeille se servant de son Zdar Dan repense au temps où il s'accomModa Avec le son qui ne tarda pas à devenir son dada Haha, et v'la que Démocrates rapplique Libérés par Jones, Seeq et Logistik C'est un Coup d'État Phonique, je touche et coule Inspiré par ma Positive Black Soul C'est succ'Saint, mais Clair, ok celle là j'lai déjà faite IAM en pleine forme, j'ai envie de faire la fête La la la, La la la, huh, huh 95, le Yakuza fait la razzia, repart tranquillement À la casa, les ambiances, huh huh, Les Blues sont là Osmoz est là, Menelik La Tribu sont là Et Le Damier en plein effet, toujours prêt</t>
+          <t>Un petit rien de jazz, yeah Un petit rien de jazz, hein hein Un petit rien de jazz Comme un flow de est logé dans mon cerveau Exprimant sans défaut, la maîtrise dont je suis l'écho Capable d'être instable, à l'instar de mes semblables Je produis un trésor de rimes inestimable Témoin, je le suis de la vie, de l'esprit Qui rythme l'ennui, de tout ce qui vient de la té-ci Je file tranquille, perfectionnant mon style Oublie les bruits, la ville, ces équilibres fragiles Quand le blues me prend dans l'instant, je le sens Les souvenirs affluent mêlés de sentiments Je largue les amarres et pars loin de ce tintamarre Sur cette nouvelle dimension dans laquelle je mégare Le temps qui s'évanouit, un brun de nostalgie Toujours cette mélodie, alors je mépanouis Quelques notes jouées, pour que mon cur sembrase A la moindre occas' Un petit rien de jazz Un petit rien de jazz Un petit rien de jazz C'est une douce folie, d'un été sans pareil Le soleil, la joie, c'est la nouvelle Je me fais pas de bile, je joue l'esprit tranquille Le climat est propice, pour des nouvelles idylles L'esprit ouvert, les murs plus légères L'univers des affaires, oui c'est la paix, mon frère Mais la frénésie que le besoin guide Prend de l'ampleur, chaleur, comme le feu qui s'attise L'influence du décor, confirme les états d'âmes Soudain la lame, le drame, alors la scène s'enflamme Puis la pensée s'anime, suivie du geste Et la violence s'exprime, dans l'incident prétexte La vie reprend ses droits comme si de rien était Le soul-jazz, m'amène la paix re-frè Quand le rap rêveur, pleure, déchire nos curs Entre douceur et douleur Un petit rien de jazz Pa pa pa pa pa dam... Un petit rien de jazz Pa pa pa pa pa dam... Un petit rien de jazz Pa pa pa dam... Mon héritage jazz, diversifie les phases En faisant table rase, me rapproche de l'extase Je me relaxe tranquille, et mes soucis explosent Le jazz me libère, de toute pensée morose Épicurien je crée, le plaisir, de mes mains c'est important de prendre la vie, comme elle vient La Tribu résonne, détonations qui me passionnent Transmis par les ancêtres, ou Ellington Tradition orale, sur accord musical Les griots m'insufflent un son qui fait très mal Il n'y a rien de tel, pour finir mes phrases Un petit rien de jazz, oh yeah Pa pa pa pa pa dam... Un petit rien de jazz Pa pa pa pa pa dam... Un petit rien de jazz Pa pa pa pa pa dam... Quand je ressens le blues Pa pa pa pa pa dam... Un petit rien de jazz Pa pa pa pa pa dam... Pa pa pa pa pa dam... Pa pa pa pa pa dam... Pa pa pa pa pa dam... Quand je ressens le blues Un petit rien de jazz Pa pa pa pa pa dam...</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Un petit rien de Jazz</t>
+          <t>When I was up</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Un petit rien de jazz, yeah Un petit rien de jazz, hein hein Un petit rien de jazz Comme un flow de est logé dans mon cerveau Exprimant sans défaut, la maîtrise dont je suis l'écho Capable d'être instable, à l'instar de mes semblables Je produis un trésor de rimes inestimable Témoin, je le suis de la vie, de l'esprit Qui rythme l'ennui, de tout ce qui vient de la té-ci Je file tranquille, perfectionnant mon style Oublie les bruits, la ville, ces équilibres fragiles Quand le blues me prend dans l'instant, je le sens Les souvenirs affluent mêlés de sentiments Je largue les amarres et pars loin de ce tintamarre Sur cette nouvelle dimension dans laquelle je mégare Le temps qui s'évanouit, un brun de nostalgie Toujours cette mélodie, alors je mépanouis Quelques notes jouées, pour que mon cur sembrase A la moindre occas' Un petit rien de jazz Un petit rien de jazz Un petit rien de jazz C'est une douce folie, d'un été sans pareil Le soleil, la joie, c'est la nouvelle Je me fais pas de bile, je joue l'esprit tranquille Le climat est propice, pour des nouvelles idylles L'esprit ouvert, les murs plus légères L'univers des affaires, oui c'est la paix, mon frère Mais la frénésie que le besoin guide Prend de l'ampleur, chaleur, comme le feu qui s'attise L'influence du décor, confirme les états d'âmes Soudain la lame, le drame, alors la scène s'enflamme Puis la pensée s'anime, suivie du geste Et la violence s'exprime, dans l'incident prétexte La vie reprend ses droits comme si de rien était Le soul-jazz, m'amène la paix re-frè Quand le rap rêveur, pleure, déchire nos curs Entre douceur et douleur Un petit rien de jazz Pa pa pa pa pa dam... Un petit rien de jazz Pa pa pa pa pa dam... Un petit rien de jazz Pa pa pa dam... Mon héritage jazz, diversifie les phases En faisant table rase, me rapproche de l'extase Je me relaxe tranquille, et mes soucis explosent Le jazz me libère, de toute pensée morose Épicurien je crée, le plaisir, de mes mains c'est important de prendre la vie, comme elle vient La Tribu résonne, détonations qui me passionnent Transmis par les ancêtres, ou Ellington Tradition orale, sur accord musical Les griots m'insufflent un son qui fait très mal Il n'y a rien de tel, pour finir mes phrases Un petit rien de jazz, oh yeah Pa pa pa pa pa dam... Un petit rien de jazz Pa pa pa pa pa dam... Un petit rien de jazz Pa pa pa pa pa dam... Quand je ressens le blues Pa pa pa pa pa dam... Un petit rien de jazz Pa pa pa pa pa dam... Pa pa pa pa pa dam... Pa pa pa pa pa dam... Pa pa pa pa pa dam... Quand je ressens le blues Un petit rien de jazz Pa pa pa pa pa dam...</t>
+          <t>When you up you can look around and see they faces Bandwagon full of love while you winning the races Caught up in the moment flashin lights get blinding While ya movin up the ladder cause love yo rhyming Or ya stats on hail mary's caught But maybe its the average on the threes you dropped Either way above the rest so they tagging along Ridin ya coat tail hoping you a put them onnn Get a little revenue they got you covering tabs From a dollar store trip to a sacks fifth ave Since they knew as juvenile banging the set A portion of yo success is what they grew to expect Like, they the ones responsible for goals you accomplished Like yo funds supposed to put they kids through college They got one thang in common thats what they all fear Yo money maker disabling bet they all disappear I bet And when you need em they ain't never around Hand swipe hittin air cause the help is no where to be found Don't act foolish and get left in the cold See the bond between ya two is but a few years old Came around bout the same time you came up So when you fall its in they nature for a quick change up Stay focused keep sharp eyes for users If at all goes south they gone be yo accusers But those who was round while you was ballin wit nothing Genuine as can be thats the end of discussion They was always down hang when it was nowhere to go Hit the mall and window shop when it was no dough to blow But, thats real love so don't ever depart The ones that want you for the fame on the hunt like sharks Now do ya best to part from the fake and the phony Long distance on the road the mission get lonely</t>
         </is>
       </c>
     </row>
@@ -1308,27 +1308,10 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>When I was up</t>
+          <t>Who i be</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
-        <is>
-          <t>When you up you can look around and see they faces Bandwagon full of love while you winning the races Caught up in the moment flashin lights get blinding While ya movin up the ladder cause love yo rhyming Or ya stats on hail mary's caught But maybe its the average on the threes you dropped Either way above the rest so they tagging along Ridin ya coat tail hoping you a put them onnn Get a little revenue they got you covering tabs From a dollar store trip to a sacks fifth ave Since they knew as juvenile banging the set A portion of yo success is what they grew to expect Like, they the ones responsible for goals you accomplished Like yo funds supposed to put they kids through college They got one thang in common thats what they all fear Yo money maker disabling bet they all disappear I bet And when you need em they ain't never around Hand swipe hittin air cause the help is no where to be found Don't act foolish and get left in the cold See the bond between ya two is but a few years old Came around bout the same time you came up So when you fall its in they nature for a quick change up Stay focused keep sharp eyes for users If at all goes south they gone be yo accusers But those who was round while you was ballin wit nothing Genuine as can be thats the end of discussion They was always down hang when it was nowhere to go Hit the mall and window shop when it was no dough to blow But, thats real love so don't ever depart The ones that want you for the fame on the hunt like sharks Now do ya best to part from the fake and the phony Long distance on the road the mission get lonely</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Menelik</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Who i be</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
         <is>
           <t>They like, who he be Im like, RFG What you thought this was Who I be, a young go getta Hold the city on my back like im the pillars Put it all in the hustle like a king pin I was destined for greatness I'm built to win Who I be, a young go getta Hold the city on my back like im the pillars Who I be, thats who I be Who I be, a young go getta Bound to be the man no if or depends Hatched a plan and a drive just to get my ends In it to win now I blend with the wind like oxygen Sharper than a corner or a flap to the end Im royal fam coast smoother than nasa pilot Rep been fly they ain't checkin my flight milage Ain't no stopping 'til I'm poppin like some good years Tingle in my veins mean my times near My two legs built better than ford tough Ain't another click out workin harder than us Had to pick to the right team to get my whole scene buzzin Now all im seein is green like st pats lovin Its game time and I'm clutch, gimmie the rock son I won't fail on my shot, I only got one Peelin caps of the ones thats tryna stop young Can't deny I was born for this now stop frontin Who I be, a young go getta Hold the city on my back like im the pillars Put it all in the hustle like a king pin I was destined for greatness I'm built to win Who I be, a young go getta Hold the city on my back like im the pillars Who I be, thats who I be Who I be, a young go getta Verse 2 Menelik Young legend in the making breath takin How i develop the context in statement You a fan then why you waiting Share my every song wit the world and help me get to greatness Beyond grind i was bread wit cold game Contradicting end the line wit propane Know what it mean i can't help my blazin Brutal to the mental like a frat boy hazin I then heard it all before like a echo Doubting anything on my path you should let go Cause i, go insolo for the most part Passed you in the marathon tho you had a head start See the same shows around the same time Cousin been gettin money now they blowin up his phone line Missed calls dissed calls, iont even trip calls Mostly from the one who wasn't there when it was downfall Who I be, a young go getta Hold the city on my back like im the pillars Put it all in the hustle like a king pin I was destined for greatness I'm built to win Who I be, a young go getta Hold the city on my back like im the pillars Who I be, thats who I be Who I be, a young go getta</t>
         </is>
